--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -12158,7 +12158,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D155" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E155" s="0" t="n">
         <x:v>0</x:v>
@@ -12212,7 +12212,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V155" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -2674,7 +2674,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P15" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q15" s="0" t="n">
         <x:v>0</x:v>
@@ -2692,7 +2692,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V15" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:22">
@@ -7144,7 +7144,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J81" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K81" s="0" t="n">
         <x:v>0</x:v>
@@ -7180,7 +7180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V81" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:22">
@@ -10080,7 +10080,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N124" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O124" s="0" t="n">
         <x:v>0</x:v>
@@ -10104,7 +10104,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">
@@ -10222,7 +10222,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P126" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q126" s="0" t="n">
         <x:v>0</x:v>
@@ -10240,7 +10240,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V126" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:22">
@@ -12466,7 +12466,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P159" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q159" s="0" t="n">
         <x:v>0</x:v>
@@ -12484,7 +12484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V159" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:22">
@@ -12732,7 +12732,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N163" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O163" s="0" t="n">
         <x:v>0</x:v>
@@ -12756,7 +12756,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V163" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:22">
@@ -13110,7 +13110,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D169" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E169" s="0" t="n">
         <x:v>0</x:v>
@@ -13119,7 +13119,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G169" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H169" s="0" t="n">
         <x:v>0</x:v>
@@ -13137,7 +13137,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M169" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N169" s="0" t="n">
         <x:v>0</x:v>
@@ -13164,7 +13164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V169" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:22">
@@ -15023,7 +15023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G197" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H197" s="0" t="n">
         <x:v>0</x:v>
@@ -15068,7 +15068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V197" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="430">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
   <x:si>
     <x:t>Agency ORI</x:t>
   </x:si>
@@ -734,6 +734,12 @@
   </x:si>
   <x:si>
     <x:t>Fairmont Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburn Welcome Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0470000</x:t>
@@ -1669,7 +1675,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:V205"/>
+  <x:dimension ref="A1:V206"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -9175,7 +9181,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G111" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H111" s="0" t="n">
         <x:v>0</x:v>
@@ -9196,7 +9202,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N111" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O111" s="0" t="n">
         <x:v>0</x:v>
@@ -9214,13 +9220,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T111" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U111" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V111" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:22">
@@ -9243,13 +9249,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G112" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H112" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I112" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J112" s="0" t="n">
         <x:v>0</x:v>
@@ -9264,7 +9270,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N112" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O112" s="0" t="n">
         <x:v>0</x:v>
@@ -9282,13 +9288,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T112" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U112" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V112" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:22">
@@ -9308,7 +9314,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F113" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G113" s="0" t="n">
         <x:v>1</x:v>
@@ -9317,10 +9323,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I113" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J113" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K113" s="0" t="n">
         <x:v>0</x:v>
@@ -9332,16 +9338,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N113" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O113" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P113" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q113" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R113" s="0" t="n">
         <x:v>0</x:v>
@@ -9350,13 +9356,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T113" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U113" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V113" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:22">
@@ -9376,10 +9382,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F114" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G114" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H114" s="0" t="n">
         <x:v>0</x:v>
@@ -9388,7 +9394,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>0</x:v>
@@ -9400,16 +9406,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N114" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O114" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P114" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q114" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R114" s="0" t="n">
         <x:v>0</x:v>
@@ -9418,13 +9424,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -9438,16 +9444,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D115" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E115" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F115" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G115" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H115" s="0" t="n">
         <x:v>0</x:v>
@@ -9474,7 +9480,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P115" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q115" s="0" t="n">
         <x:v>0</x:v>
@@ -9492,7 +9498,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V115" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:22">
@@ -9506,16 +9512,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D116" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E116" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F116" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G116" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H116" s="0" t="n">
         <x:v>0</x:v>
@@ -9533,7 +9539,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M116" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N116" s="0" t="n">
         <x:v>0</x:v>
@@ -9542,7 +9548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P116" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q116" s="0" t="n">
         <x:v>0</x:v>
@@ -9554,13 +9560,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T116" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U116" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V116" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:22">
@@ -9574,7 +9580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D117" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E117" s="0" t="n">
         <x:v>0</x:v>
@@ -9583,7 +9589,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G117" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H117" s="0" t="n">
         <x:v>0</x:v>
@@ -9592,7 +9598,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J117" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K117" s="0" t="n">
         <x:v>0</x:v>
@@ -9601,7 +9607,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M117" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N117" s="0" t="n">
         <x:v>0</x:v>
@@ -9610,7 +9616,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P117" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q117" s="0" t="n">
         <x:v>0</x:v>
@@ -9622,13 +9628,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T117" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U117" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="V117" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:22">
@@ -9639,7 +9645,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="C118" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D118" s="0" t="n">
         <x:v>2</x:v>
@@ -9651,16 +9657,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G118" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H118" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I118" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J118" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K118" s="0" t="n">
         <x:v>0</x:v>
@@ -9669,16 +9675,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M118" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N118" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O118" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>0</x:v>
@@ -9693,10 +9699,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U118" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
@@ -9707,10 +9713,10 @@
         <x:v>257</x:v>
       </x:c>
       <x:c r="C119" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D119" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E119" s="0" t="n">
         <x:v>0</x:v>
@@ -9725,10 +9731,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I119" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J119" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K119" s="0" t="n">
         <x:v>0</x:v>
@@ -9737,22 +9743,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M119" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N119" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="O119" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P119" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="O119" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P119" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="Q119" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R119" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S119" s="0" t="n">
         <x:v>0</x:v>
@@ -9764,7 +9770,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V119" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:22">
@@ -9778,7 +9784,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D120" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E120" s="0" t="n">
         <x:v>0</x:v>
@@ -9787,7 +9793,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G120" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H120" s="0" t="n">
         <x:v>0</x:v>
@@ -9808,7 +9814,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N120" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O120" s="0" t="n">
         <x:v>0</x:v>
@@ -9820,7 +9826,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R120" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S120" s="0" t="n">
         <x:v>0</x:v>
@@ -9832,7 +9838,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V120" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:22">
@@ -9846,7 +9852,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D121" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E121" s="0" t="n">
         <x:v>0</x:v>
@@ -9855,7 +9861,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G121" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H121" s="0" t="n">
         <x:v>0</x:v>
@@ -9864,10 +9870,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J121" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K121" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L121" s="0" t="n">
         <x:v>0</x:v>
@@ -9876,10 +9882,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N121" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O121" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P121" s="0" t="n">
         <x:v>0</x:v>
@@ -9900,7 +9906,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V121" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:22">
@@ -9914,7 +9920,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D122" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E122" s="0" t="n">
         <x:v>0</x:v>
@@ -9923,7 +9929,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G122" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H122" s="0" t="n">
         <x:v>0</x:v>
@@ -9932,28 +9938,28 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J122" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K122" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L122" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M122" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N122" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O122" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P122" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q122" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R122" s="0" t="n">
         <x:v>0</x:v>
@@ -9962,13 +9968,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T122" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U122" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V122" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:22">
@@ -9982,25 +9988,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D123" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E123" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F123" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G123" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H123" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I123" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J123" s="0" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="E123" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F123" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G123" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="H123" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I123" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J123" s="0" t="n">
-        <x:v>24</x:v>
       </x:c>
       <x:c r="K123" s="0" t="n">
         <x:v>0</x:v>
@@ -10012,13 +10018,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="N123" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O123" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P123" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="Q123" s="0" t="n">
         <x:v>1</x:v>
@@ -10027,16 +10033,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S123" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T123" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U123" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V123" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:22">
@@ -10050,25 +10056,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E124" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G124" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K124" s="0" t="n">
         <x:v>0</x:v>
@@ -10077,25 +10083,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M124" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N124" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P124" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="Q124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R124" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T124" s="0" t="n">
         <x:v>0</x:v>
@@ -10104,7 +10110,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">
@@ -10133,10 +10139,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I125" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J125" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K125" s="0" t="n">
         <x:v>0</x:v>
@@ -10145,10 +10151,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M125" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N125" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O125" s="0" t="n">
         <x:v>0</x:v>
@@ -10172,7 +10178,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V125" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:22">
@@ -10195,16 +10201,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H126" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K126" s="0" t="n">
         <x:v>0</x:v>
@@ -10216,13 +10222,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O126" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P126" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q126" s="0" t="n">
         <x:v>0</x:v>
@@ -10240,7 +10246,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V126" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:22">
@@ -10263,13 +10269,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G127" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H127" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I127" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J127" s="0" t="n">
         <x:v>0</x:v>
@@ -10287,10 +10293,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O127" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P127" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q127" s="0" t="n">
         <x:v>0</x:v>
@@ -10308,7 +10314,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V127" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:22">
@@ -10331,13 +10337,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G128" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H128" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I128" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J128" s="0" t="n">
         <x:v>0</x:v>
@@ -10352,13 +10358,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N128" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O128" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P128" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q128" s="0" t="n">
         <x:v>0</x:v>
@@ -10373,10 +10379,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U128" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V128" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:22">
@@ -10390,7 +10396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D129" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E129" s="0" t="n">
         <x:v>0</x:v>
@@ -10399,7 +10405,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G129" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H129" s="0" t="n">
         <x:v>0</x:v>
@@ -10420,16 +10426,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N129" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O129" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P129" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q129" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R129" s="0" t="n">
         <x:v>0</x:v>
@@ -10441,7 +10447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U129" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V129" s="0" t="n">
         <x:v>11</x:v>
@@ -10458,7 +10464,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E130" s="0" t="n">
         <x:v>0</x:v>
@@ -10467,7 +10473,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G130" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H130" s="0" t="n">
         <x:v>0</x:v>
@@ -10476,7 +10482,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J130" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K130" s="0" t="n">
         <x:v>0</x:v>
@@ -10488,7 +10494,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N130" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O130" s="0" t="n">
         <x:v>0</x:v>
@@ -10497,7 +10503,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R130" s="0" t="n">
         <x:v>0</x:v>
@@ -10512,7 +10518,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V130" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:22">
@@ -10535,7 +10541,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G131" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H131" s="0" t="n">
         <x:v>0</x:v>
@@ -10544,7 +10550,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J131" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K131" s="0" t="n">
         <x:v>0</x:v>
@@ -10556,7 +10562,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N131" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O131" s="0" t="n">
         <x:v>0</x:v>
@@ -10580,7 +10586,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V131" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:22">
@@ -10603,7 +10609,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G132" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H132" s="0" t="n">
         <x:v>0</x:v>
@@ -10624,7 +10630,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N132" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O132" s="0" t="n">
         <x:v>0</x:v>
@@ -10648,7 +10654,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V132" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:22">
@@ -10671,7 +10677,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G133" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H133" s="0" t="n">
         <x:v>0</x:v>
@@ -10692,7 +10698,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N133" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O133" s="0" t="n">
         <x:v>0</x:v>
@@ -10716,7 +10722,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V133" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:22">
@@ -10727,19 +10733,19 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="C134" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D134" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E134" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F134" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G134" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H134" s="0" t="n">
         <x:v>0</x:v>
@@ -10757,10 +10763,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M134" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N134" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O134" s="0" t="n">
         <x:v>0</x:v>
@@ -10781,10 +10787,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U134" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V134" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:22">
@@ -10795,16 +10801,16 @@
         <x:v>289</x:v>
       </x:c>
       <x:c r="C135" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D135" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E135" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F135" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G135" s="0" t="n">
         <x:v>2</x:v>
@@ -10813,10 +10819,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I135" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J135" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K135" s="0" t="n">
         <x:v>0</x:v>
@@ -10825,10 +10831,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M135" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N135" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O135" s="0" t="n">
         <x:v>0</x:v>
@@ -10837,22 +10843,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q135" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R135" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S135" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T135" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U135" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="V135" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:22">
@@ -10866,7 +10872,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D136" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E136" s="0" t="n">
         <x:v>0</x:v>
@@ -10875,7 +10881,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G136" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H136" s="0" t="n">
         <x:v>0</x:v>
@@ -10884,7 +10890,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J136" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K136" s="0" t="n">
         <x:v>0</x:v>
@@ -10893,7 +10899,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M136" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N136" s="0" t="n">
         <x:v>4</x:v>
@@ -10905,22 +10911,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q136" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R136" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S136" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T136" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U136" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="V136" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:22">
@@ -10934,7 +10940,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D137" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E137" s="0" t="n">
         <x:v>0</x:v>
@@ -10943,13 +10949,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G137" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H137" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I137" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J137" s="0" t="n">
         <x:v>0</x:v>
@@ -10961,10 +10967,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M137" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N137" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O137" s="0" t="n">
         <x:v>0</x:v>
@@ -10985,10 +10991,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U137" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V137" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:22">
@@ -10999,10 +11005,10 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="C138" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D138" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E138" s="0" t="n">
         <x:v>0</x:v>
@@ -11032,7 +11038,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N138" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O138" s="0" t="n">
         <x:v>0</x:v>
@@ -11056,7 +11062,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V138" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
@@ -11067,7 +11073,7 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="C139" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D139" s="0" t="n">
         <x:v>0</x:v>
@@ -11085,10 +11091,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I139" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J139" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K139" s="0" t="n">
         <x:v>0</x:v>
@@ -11100,7 +11106,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O139" s="0" t="n">
         <x:v>0</x:v>
@@ -11124,7 +11130,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V139" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:22">
@@ -11135,64 +11141,64 @@
         <x:v>299</x:v>
       </x:c>
       <x:c r="C140" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I140" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J140" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V140" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="D140" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E140" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F140" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G140" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H140" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I140" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J140" s="0" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="K140" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L140" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M140" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N140" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="O140" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P140" s="0" t="n">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="Q140" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R140" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S140" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="T140" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="U140" s="0" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="V140" s="0" t="n">
-        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:22">
@@ -11203,19 +11209,19 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="C141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E141" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G141" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H141" s="0" t="n">
         <x:v>0</x:v>
@@ -11224,7 +11230,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K141" s="0" t="n">
         <x:v>0</x:v>
@@ -11233,16 +11239,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N141" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O141" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="Q141" s="0" t="n">
         <x:v>0</x:v>
@@ -11251,16 +11257,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="U141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="V141" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:22">
@@ -11274,7 +11280,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D142" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E142" s="0" t="n">
         <x:v>0</x:v>
@@ -11283,7 +11289,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G142" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H142" s="0" t="n">
         <x:v>0</x:v>
@@ -11292,7 +11298,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J142" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K142" s="0" t="n">
         <x:v>0</x:v>
@@ -11304,7 +11310,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N142" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O142" s="0" t="n">
         <x:v>0</x:v>
@@ -11322,13 +11328,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T142" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U142" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V142" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:22">
@@ -11342,7 +11348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D143" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E143" s="0" t="n">
         <x:v>0</x:v>
@@ -11360,7 +11366,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J143" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K143" s="0" t="n">
         <x:v>0</x:v>
@@ -11369,10 +11375,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M143" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N143" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O143" s="0" t="n">
         <x:v>0</x:v>
@@ -11390,13 +11396,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T143" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U143" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V143" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:22">
@@ -11407,10 +11413,10 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="C144" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D144" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E144" s="0" t="n">
         <x:v>0</x:v>
@@ -11419,7 +11425,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G144" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H144" s="0" t="n">
         <x:v>0</x:v>
@@ -11428,7 +11434,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K144" s="0" t="n">
         <x:v>0</x:v>
@@ -11437,16 +11443,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O144" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P144" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q144" s="0" t="n">
         <x:v>0</x:v>
@@ -11455,16 +11461,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S144" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T144" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U144" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V144" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:22">
@@ -11475,10 +11481,10 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="C145" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D145" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E145" s="0" t="n">
         <x:v>0</x:v>
@@ -11487,7 +11493,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G145" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H145" s="0" t="n">
         <x:v>0</x:v>
@@ -11508,13 +11514,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N145" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O145" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P145" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q145" s="0" t="n">
         <x:v>0</x:v>
@@ -11523,16 +11529,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S145" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T145" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U145" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V145" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:22">
@@ -11573,16 +11579,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M146" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N146" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O146" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P146" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q146" s="0" t="n">
         <x:v>0</x:v>
@@ -11600,7 +11606,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V146" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:22">
@@ -11623,7 +11629,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G147" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H147" s="0" t="n">
         <x:v>0</x:v>
@@ -11641,16 +11647,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M147" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N147" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O147" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P147" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q147" s="0" t="n">
         <x:v>0</x:v>
@@ -11668,7 +11674,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V147" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:22">
@@ -11682,16 +11688,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D148" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E148" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F148" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G148" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H148" s="0" t="n">
         <x:v>0</x:v>
@@ -11700,7 +11706,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J148" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K148" s="0" t="n">
         <x:v>0</x:v>
@@ -11712,13 +11718,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N148" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O148" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P148" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q148" s="0" t="n">
         <x:v>0</x:v>
@@ -11730,13 +11736,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T148" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U148" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V148" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:22">
@@ -11750,16 +11756,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D149" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E149" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F149" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G149" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H149" s="0" t="n">
         <x:v>0</x:v>
@@ -11768,7 +11774,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J149" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K149" s="0" t="n">
         <x:v>0</x:v>
@@ -11780,13 +11786,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N149" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O149" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P149" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="Q149" s="0" t="n">
         <x:v>0</x:v>
@@ -11804,7 +11810,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V149" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:22">
@@ -11886,7 +11892,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D151" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E151" s="0" t="n">
         <x:v>0</x:v>
@@ -11895,7 +11901,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G151" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H151" s="0" t="n">
         <x:v>0</x:v>
@@ -11904,7 +11910,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J151" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K151" s="0" t="n">
         <x:v>0</x:v>
@@ -11916,7 +11922,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N151" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O151" s="0" t="n">
         <x:v>0</x:v>
@@ -11925,7 +11931,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q151" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R151" s="0" t="n">
         <x:v>0</x:v>
@@ -11934,13 +11940,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T151" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U151" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V151" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:22">
@@ -11954,7 +11960,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E152" s="0" t="n">
         <x:v>0</x:v>
@@ -11963,7 +11969,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H152" s="0" t="n">
         <x:v>0</x:v>
@@ -11972,7 +11978,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K152" s="0" t="n">
         <x:v>0</x:v>
@@ -11984,7 +11990,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O152" s="0" t="n">
         <x:v>0</x:v>
@@ -11993,7 +11999,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R152" s="0" t="n">
         <x:v>0</x:v>
@@ -12002,13 +12008,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U152" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:22">
@@ -12028,10 +12034,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F153" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G153" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H153" s="0" t="n">
         <x:v>0</x:v>
@@ -12040,7 +12046,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J153" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K153" s="0" t="n">
         <x:v>0</x:v>
@@ -12049,10 +12055,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M153" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N153" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O153" s="0" t="n">
         <x:v>0</x:v>
@@ -12076,7 +12082,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V153" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:22">
@@ -12096,10 +12102,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F154" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G154" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H154" s="0" t="n">
         <x:v>0</x:v>
@@ -12108,7 +12114,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J154" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K154" s="0" t="n">
         <x:v>0</x:v>
@@ -12117,10 +12123,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M154" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N154" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O154" s="0" t="n">
         <x:v>0</x:v>
@@ -12144,7 +12150,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V154" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
@@ -12158,7 +12164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D155" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E155" s="0" t="n">
         <x:v>0</x:v>
@@ -12167,7 +12173,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G155" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H155" s="0" t="n">
         <x:v>0</x:v>
@@ -12176,7 +12182,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J155" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K155" s="0" t="n">
         <x:v>0</x:v>
@@ -12212,7 +12218,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V155" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:22">
@@ -12226,7 +12232,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D156" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E156" s="0" t="n">
         <x:v>0</x:v>
@@ -12235,7 +12241,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G156" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H156" s="0" t="n">
         <x:v>0</x:v>
@@ -12244,7 +12250,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J156" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K156" s="0" t="n">
         <x:v>0</x:v>
@@ -12256,13 +12262,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N156" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O156" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P156" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q156" s="0" t="n">
         <x:v>0</x:v>
@@ -12274,13 +12280,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T156" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U156" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V156" s="0" t="n">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="U156" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V156" s="0" t="n">
-        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:22">
@@ -12291,10 +12297,10 @@
         <x:v>333</x:v>
       </x:c>
       <x:c r="C157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E157" s="0" t="n">
         <x:v>0</x:v>
@@ -12303,16 +12309,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H157" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J157" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K157" s="0" t="n">
         <x:v>0</x:v>
@@ -12324,31 +12330,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N157" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O157" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P157" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="Q157" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S157" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U157" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V157" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:22">
@@ -12359,10 +12365,10 @@
         <x:v>335</x:v>
       </x:c>
       <x:c r="C158" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D158" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E158" s="0" t="n">
         <x:v>0</x:v>
@@ -12371,16 +12377,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G158" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H158" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I158" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J158" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K158" s="0" t="n">
         <x:v>0</x:v>
@@ -12392,7 +12398,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N158" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O158" s="0" t="n">
         <x:v>0</x:v>
@@ -12404,19 +12410,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R158" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S158" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T158" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U158" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V158" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:22">
@@ -12439,7 +12445,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G159" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H159" s="0" t="n">
         <x:v>0</x:v>
@@ -12448,7 +12454,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J159" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K159" s="0" t="n">
         <x:v>0</x:v>
@@ -12457,16 +12463,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M159" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N159" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O159" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P159" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q159" s="0" t="n">
         <x:v>0</x:v>
@@ -12475,7 +12481,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S159" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T159" s="0" t="n">
         <x:v>0</x:v>
@@ -12484,7 +12490,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V159" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:22">
@@ -12507,7 +12513,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H160" s="0" t="n">
         <x:v>0</x:v>
@@ -12516,7 +12522,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K160" s="0" t="n">
         <x:v>0</x:v>
@@ -12525,16 +12531,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O160" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q160" s="0" t="n">
         <x:v>0</x:v>
@@ -12552,7 +12558,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V160" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
@@ -12575,7 +12581,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G161" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H161" s="0" t="n">
         <x:v>0</x:v>
@@ -12584,7 +12590,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J161" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K161" s="0" t="n">
         <x:v>0</x:v>
@@ -12596,7 +12602,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N161" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O161" s="0" t="n">
         <x:v>1</x:v>
@@ -12614,13 +12620,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T161" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U161" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V161" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:22">
@@ -12643,7 +12649,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H162" s="0" t="n">
         <x:v>0</x:v>
@@ -12652,7 +12658,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K162" s="0" t="n">
         <x:v>0</x:v>
@@ -12664,10 +12670,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N162" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P162" s="0" t="n">
         <x:v>0</x:v>
@@ -12682,13 +12688,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U162" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V162" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:22">
@@ -12711,7 +12717,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G163" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H163" s="0" t="n">
         <x:v>0</x:v>
@@ -12729,16 +12735,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M163" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N163" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O163" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P163" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q163" s="0" t="n">
         <x:v>0</x:v>
@@ -12756,7 +12762,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V163" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:22">
@@ -12779,7 +12785,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H164" s="0" t="n">
         <x:v>0</x:v>
@@ -12797,16 +12803,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O164" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P164" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q164" s="0" t="n">
         <x:v>0</x:v>
@@ -12824,7 +12830,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V164" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:22">
@@ -12838,25 +12844,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D165" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E165" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F165" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G165" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H165" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I165" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J165" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K165" s="0" t="n">
         <x:v>0</x:v>
@@ -12865,34 +12871,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M165" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N165" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O165" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P165" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q165" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R165" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S165" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T165" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U165" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V165" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:22">
@@ -12906,25 +12912,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G166" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K166" s="0" t="n">
         <x:v>0</x:v>
@@ -12933,34 +12939,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="U166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V166" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:22">
@@ -12983,7 +12989,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G167" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H167" s="0" t="n">
         <x:v>0</x:v>
@@ -12992,7 +12998,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J167" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K167" s="0" t="n">
         <x:v>0</x:v>
@@ -13004,7 +13010,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N167" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O167" s="0" t="n">
         <x:v>0</x:v>
@@ -13028,7 +13034,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V167" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:22">
@@ -13060,7 +13066,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J168" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K168" s="0" t="n">
         <x:v>0</x:v>
@@ -13072,10 +13078,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N168" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O168" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P168" s="0" t="n">
         <x:v>0</x:v>
@@ -13096,7 +13102,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V168" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:22">
@@ -13110,7 +13116,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D169" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E169" s="0" t="n">
         <x:v>0</x:v>
@@ -13119,7 +13125,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G169" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H169" s="0" t="n">
         <x:v>0</x:v>
@@ -13137,7 +13143,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M169" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N169" s="0" t="n">
         <x:v>0</x:v>
@@ -13146,7 +13152,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P169" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q169" s="0" t="n">
         <x:v>0</x:v>
@@ -13158,13 +13164,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T169" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U169" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V169" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:22">
@@ -13178,7 +13184,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E170" s="0" t="n">
         <x:v>0</x:v>
@@ -13187,7 +13193,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H170" s="0" t="n">
         <x:v>0</x:v>
@@ -13205,16 +13211,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N170" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q170" s="0" t="n">
         <x:v>0</x:v>
@@ -13226,13 +13232,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U170" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V170" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:22">
@@ -13246,7 +13252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D171" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E171" s="0" t="n">
         <x:v>0</x:v>
@@ -13276,7 +13282,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N171" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O171" s="0" t="n">
         <x:v>0</x:v>
@@ -13285,7 +13291,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q171" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R171" s="0" t="n">
         <x:v>0</x:v>
@@ -13294,13 +13300,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T171" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U171" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V171" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">
@@ -13314,7 +13320,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D172" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E172" s="0" t="n">
         <x:v>0</x:v>
@@ -13353,7 +13359,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q172" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R172" s="0" t="n">
         <x:v>0</x:v>
@@ -13362,13 +13368,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T172" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U172" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V172" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:22">
@@ -13412,13 +13418,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N173" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O173" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P173" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q173" s="0" t="n">
         <x:v>0</x:v>
@@ -13468,7 +13474,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K174" s="0" t="n">
         <x:v>0</x:v>
@@ -13480,13 +13486,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N174" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O174" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P174" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q174" s="0" t="n">
         <x:v>0</x:v>
@@ -13504,7 +13510,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V174" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:22">
@@ -13527,7 +13533,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G175" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H175" s="0" t="n">
         <x:v>0</x:v>
@@ -13536,7 +13542,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J175" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K175" s="0" t="n">
         <x:v>0</x:v>
@@ -13548,7 +13554,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N175" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O175" s="0" t="n">
         <x:v>0</x:v>
@@ -13572,7 +13578,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V175" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:22">
@@ -13586,7 +13592,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D176" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E176" s="0" t="n">
         <x:v>0</x:v>
@@ -13604,7 +13610,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J176" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K176" s="0" t="n">
         <x:v>0</x:v>
@@ -13616,13 +13622,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N176" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O176" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P176" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q176" s="0" t="n">
         <x:v>0</x:v>
@@ -13634,13 +13640,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T176" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U176" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V176" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:22">
@@ -13654,7 +13660,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D177" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E177" s="0" t="n">
         <x:v>0</x:v>
@@ -13663,7 +13669,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G177" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H177" s="0" t="n">
         <x:v>0</x:v>
@@ -13672,7 +13678,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J177" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K177" s="0" t="n">
         <x:v>0</x:v>
@@ -13684,13 +13690,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N177" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O177" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P177" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q177" s="0" t="n">
         <x:v>0</x:v>
@@ -13702,13 +13708,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T177" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U177" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V177" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:22">
@@ -13722,7 +13728,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D178" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E178" s="0" t="n">
         <x:v>0</x:v>
@@ -13731,7 +13737,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G178" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H178" s="0" t="n">
         <x:v>0</x:v>
@@ -13758,7 +13764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P178" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q178" s="0" t="n">
         <x:v>0</x:v>
@@ -13767,16 +13773,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S178" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T178" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U178" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V178" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:22">
@@ -13799,7 +13805,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G179" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H179" s="0" t="n">
         <x:v>0</x:v>
@@ -13808,7 +13814,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J179" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K179" s="0" t="n">
         <x:v>0</x:v>
@@ -13820,13 +13826,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N179" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O179" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P179" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q179" s="0" t="n">
         <x:v>0</x:v>
@@ -13838,13 +13844,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T179" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U179" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V179" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
@@ -13855,7 +13861,7 @@
         <x:v>379</x:v>
       </x:c>
       <x:c r="C180" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D180" s="0" t="n">
         <x:v>0</x:v>
@@ -13867,7 +13873,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G180" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H180" s="0" t="n">
         <x:v>0</x:v>
@@ -13876,7 +13882,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J180" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K180" s="0" t="n">
         <x:v>0</x:v>
@@ -13885,16 +13891,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M180" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N180" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P180" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q180" s="0" t="n">
         <x:v>0</x:v>
@@ -13906,13 +13912,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T180" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V180" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
@@ -13923,7 +13929,7 @@
         <x:v>381</x:v>
       </x:c>
       <x:c r="C181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D181" s="0" t="n">
         <x:v>0</x:v>
@@ -13935,7 +13941,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G181" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H181" s="0" t="n">
         <x:v>0</x:v>
@@ -13944,7 +13950,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K181" s="0" t="n">
         <x:v>0</x:v>
@@ -13956,13 +13962,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O181" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q181" s="0" t="n">
         <x:v>0</x:v>
@@ -13971,16 +13977,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U181" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V181" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
@@ -14003,7 +14009,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G182" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H182" s="0" t="n">
         <x:v>0</x:v>
@@ -14021,10 +14027,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M182" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N182" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O182" s="0" t="n">
         <x:v>0</x:v>
@@ -14048,7 +14054,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V182" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:22">
@@ -14062,7 +14068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D183" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E183" s="0" t="n">
         <x:v>0</x:v>
@@ -14116,7 +14122,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V183" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:22">
@@ -14130,7 +14136,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D184" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E184" s="0" t="n">
         <x:v>0</x:v>
@@ -14148,43 +14154,43 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N184" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V184" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="K184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N184" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S184" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V184" s="0" t="n">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:22">
@@ -14198,26 +14204,26 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J185" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="K185" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -14234,7 +14240,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P185" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q185" s="0" t="n">
         <x:v>0</x:v>
@@ -14246,13 +14252,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T185" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U185" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V185" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:22">
@@ -14266,25 +14272,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D186" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E186" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F186" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G186" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H186" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I186" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J186" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K186" s="0" t="n">
         <x:v>0</x:v>
@@ -14293,34 +14299,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M186" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N186" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O186" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P186" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q186" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R186" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S186" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T186" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U186" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V186" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:22">
@@ -14334,25 +14340,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E187" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H187" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J187" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K187" s="0" t="n">
         <x:v>0</x:v>
@@ -14361,19 +14367,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R187" s="0" t="n">
         <x:v>0</x:v>
@@ -14382,13 +14388,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="U187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V187" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
@@ -14420,7 +14426,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K188" s="0" t="n">
         <x:v>0</x:v>
@@ -14432,7 +14438,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N188" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O188" s="0" t="n">
         <x:v>0</x:v>
@@ -14476,7 +14482,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F189" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G189" s="0" t="n">
         <x:v>0</x:v>
@@ -14500,7 +14506,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N189" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O189" s="0" t="n">
         <x:v>0</x:v>
@@ -14524,7 +14530,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V189" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:22">
@@ -14544,7 +14550,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F190" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G190" s="0" t="n">
         <x:v>0</x:v>
@@ -14568,7 +14574,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N190" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O190" s="0" t="n">
         <x:v>0</x:v>
@@ -14592,7 +14598,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V190" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:22">
@@ -14606,13 +14612,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E191" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G191" s="0" t="n">
         <x:v>0</x:v>
@@ -14621,10 +14627,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J191" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K191" s="0" t="n">
         <x:v>0</x:v>
@@ -14636,7 +14642,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N191" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O191" s="0" t="n">
         <x:v>0</x:v>
@@ -14651,16 +14657,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U191" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V191" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
@@ -14674,13 +14680,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E192" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G192" s="0" t="n">
         <x:v>0</x:v>
@@ -14689,10 +14695,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K192" s="0" t="n">
         <x:v>0</x:v>
@@ -14704,7 +14710,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="O192" s="0" t="n">
         <x:v>0</x:v>
@@ -14719,16 +14725,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T192" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:22">
@@ -14760,7 +14766,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J193" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K193" s="0" t="n">
         <x:v>0</x:v>
@@ -14772,7 +14778,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N193" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O193" s="0" t="n">
         <x:v>0</x:v>
@@ -14790,13 +14796,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U193" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V193" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
@@ -14828,7 +14834,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K194" s="0" t="n">
         <x:v>0</x:v>
@@ -14864,7 +14870,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V194" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">
@@ -14878,7 +14884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D195" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E195" s="0" t="n">
         <x:v>0</x:v>
@@ -14908,7 +14914,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N195" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O195" s="0" t="n">
         <x:v>0</x:v>
@@ -14926,13 +14932,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T195" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U195" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V195" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
@@ -14946,7 +14952,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D196" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E196" s="0" t="n">
         <x:v>0</x:v>
@@ -14994,13 +15000,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T196" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U196" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V196" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:22">
@@ -15023,7 +15029,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G197" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H197" s="0" t="n">
         <x:v>0</x:v>
@@ -15044,7 +15050,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N197" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O197" s="0" t="n">
         <x:v>0</x:v>
@@ -15062,13 +15068,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T197" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="U197" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V197" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:22">
@@ -15082,7 +15088,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D198" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E198" s="0" t="n">
         <x:v>0</x:v>
@@ -15091,52 +15097,52 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G198" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T198" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V198" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="H198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N198" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="O198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V198" s="0" t="n">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:22">
@@ -15150,7 +15156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D199" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E199" s="0" t="n">
         <x:v>0</x:v>
@@ -15159,7 +15165,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G199" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H199" s="0" t="n">
         <x:v>0</x:v>
@@ -15180,7 +15186,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N199" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O199" s="0" t="n">
         <x:v>0</x:v>
@@ -15198,13 +15204,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T199" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U199" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V199" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:22">
@@ -15218,7 +15224,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D200" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E200" s="0" t="n">
         <x:v>0</x:v>
@@ -15248,7 +15254,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N200" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O200" s="0" t="n">
         <x:v>0</x:v>
@@ -15266,13 +15272,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T200" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U200" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V200" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">
@@ -15286,7 +15292,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E201" s="0" t="n">
         <x:v>0</x:v>
@@ -15295,7 +15301,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G201" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H201" s="0" t="n">
         <x:v>0</x:v>
@@ -15316,7 +15322,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O201" s="0" t="n">
         <x:v>0</x:v>
@@ -15334,13 +15340,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T201" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U201" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V201" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:22">
@@ -15354,7 +15360,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D202" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E202" s="0" t="n">
         <x:v>0</x:v>
@@ -15363,52 +15369,52 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G202" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H202" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I202" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J202" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K202" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L202" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M202" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N202" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O202" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P202" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q202" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R202" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S202" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T202" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H202" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I202" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J202" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K202" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L202" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M202" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N202" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O202" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P202" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q202" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R202" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S202" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T202" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="U202" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V202" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:22">
@@ -15422,7 +15428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D203" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E203" s="0" t="n">
         <x:v>0</x:v>
@@ -15431,7 +15437,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H203" s="0" t="n">
         <x:v>0</x:v>
@@ -15452,7 +15458,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N203" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O203" s="0" t="n">
         <x:v>0</x:v>
@@ -15470,13 +15476,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U203" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V203" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:22">
@@ -15490,7 +15496,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D204" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E204" s="0" t="n">
         <x:v>0</x:v>
@@ -15520,7 +15526,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N204" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O204" s="0" t="n">
         <x:v>0</x:v>
@@ -15544,7 +15550,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V204" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:22">
@@ -15558,7 +15564,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D205" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E205" s="0" t="n">
         <x:v>0</x:v>
@@ -15567,7 +15573,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G205" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H205" s="0" t="n">
         <x:v>0</x:v>
@@ -15588,30 +15594,98 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N205" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O205" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P205" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q205" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R205" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S205" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T205" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U205" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V205" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206" spans="1:22">
+      <x:c r="A206" s="0" t="s">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="B206" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="C206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D206" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G206" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N206" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="O205" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P205" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q205" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R205" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S205" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T205" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U205" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V205" s="0" t="n">
+      <x:c r="O206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V206" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
   <x:si>
     <x:t>Agency ORI</x:t>
   </x:si>
@@ -1112,6 +1112,12 @@
   </x:si>
   <x:si>
     <x:t>Wabasha Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0800000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wadena County Sheriff</x:t>
   </x:si>
   <x:si>
     <x:t>MN0800100</x:t>
@@ -1675,7 +1681,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:V206"/>
+  <x:dimension ref="A1:V207"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -13486,13 +13492,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N174" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O174" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q174" s="0" t="n">
         <x:v>0</x:v>
@@ -13542,7 +13548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J175" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K175" s="0" t="n">
         <x:v>0</x:v>
@@ -13554,13 +13560,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N175" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O175" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P175" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q175" s="0" t="n">
         <x:v>0</x:v>
@@ -13578,7 +13584,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V175" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:22">
@@ -13601,7 +13607,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G176" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H176" s="0" t="n">
         <x:v>0</x:v>
@@ -13610,7 +13616,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K176" s="0" t="n">
         <x:v>0</x:v>
@@ -13622,7 +13628,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O176" s="0" t="n">
         <x:v>0</x:v>
@@ -13646,7 +13652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V176" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:22">
@@ -13660,7 +13666,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D177" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E177" s="0" t="n">
         <x:v>0</x:v>
@@ -13678,7 +13684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J177" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K177" s="0" t="n">
         <x:v>0</x:v>
@@ -13690,13 +13696,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N177" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O177" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P177" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q177" s="0" t="n">
         <x:v>0</x:v>
@@ -13708,13 +13714,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T177" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U177" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V177" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:22">
@@ -13728,7 +13734,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D178" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E178" s="0" t="n">
         <x:v>0</x:v>
@@ -13737,7 +13743,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G178" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H178" s="0" t="n">
         <x:v>0</x:v>
@@ -13746,7 +13752,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J178" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K178" s="0" t="n">
         <x:v>0</x:v>
@@ -13758,13 +13764,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N178" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O178" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P178" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q178" s="0" t="n">
         <x:v>0</x:v>
@@ -13776,13 +13782,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T178" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U178" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V178" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:22">
@@ -13796,7 +13802,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D179" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E179" s="0" t="n">
         <x:v>0</x:v>
@@ -13805,7 +13811,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G179" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H179" s="0" t="n">
         <x:v>0</x:v>
@@ -13832,7 +13838,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P179" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q179" s="0" t="n">
         <x:v>0</x:v>
@@ -13841,16 +13847,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S179" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T179" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U179" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V179" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
@@ -13873,7 +13879,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H180" s="0" t="n">
         <x:v>0</x:v>
@@ -13882,7 +13888,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J180" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K180" s="0" t="n">
         <x:v>0</x:v>
@@ -13894,13 +13900,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N180" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q180" s="0" t="n">
         <x:v>0</x:v>
@@ -13912,13 +13918,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U180" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V180" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
@@ -13929,7 +13935,7 @@
         <x:v>381</x:v>
       </x:c>
       <x:c r="C181" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D181" s="0" t="n">
         <x:v>0</x:v>
@@ -13941,7 +13947,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G181" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H181" s="0" t="n">
         <x:v>0</x:v>
@@ -13950,7 +13956,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J181" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K181" s="0" t="n">
         <x:v>0</x:v>
@@ -13959,16 +13965,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M181" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N181" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O181" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P181" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q181" s="0" t="n">
         <x:v>0</x:v>
@@ -13980,13 +13986,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T181" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V181" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
@@ -13997,7 +14003,7 @@
         <x:v>383</x:v>
       </x:c>
       <x:c r="C182" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D182" s="0" t="n">
         <x:v>0</x:v>
@@ -14009,7 +14015,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G182" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H182" s="0" t="n">
         <x:v>0</x:v>
@@ -14018,7 +14024,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J182" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K182" s="0" t="n">
         <x:v>0</x:v>
@@ -14030,13 +14036,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N182" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O182" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P182" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q182" s="0" t="n">
         <x:v>0</x:v>
@@ -14045,16 +14051,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S182" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T182" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U182" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V182" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:22">
@@ -14077,7 +14083,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G183" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H183" s="0" t="n">
         <x:v>0</x:v>
@@ -14095,10 +14101,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M183" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N183" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O183" s="0" t="n">
         <x:v>0</x:v>
@@ -14122,7 +14128,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V183" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:22">
@@ -14136,7 +14142,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D184" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E184" s="0" t="n">
         <x:v>0</x:v>
@@ -14190,7 +14196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V184" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:22">
@@ -14204,7 +14210,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D185" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E185" s="0" t="n">
         <x:v>0</x:v>
@@ -14222,43 +14228,43 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N185" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V185" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="K185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N185" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S185" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V185" s="0" t="n">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:22">
@@ -14272,26 +14278,26 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D186" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E186" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F186" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G186" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H186" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I186" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J186" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E186" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F186" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G186" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H186" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I186" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J186" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="K186" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -14308,7 +14314,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P186" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q186" s="0" t="n">
         <x:v>0</x:v>
@@ -14320,13 +14326,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T186" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U186" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V186" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:22">
@@ -14340,25 +14346,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D187" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E187" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F187" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G187" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H187" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I187" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J187" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K187" s="0" t="n">
         <x:v>0</x:v>
@@ -14367,34 +14373,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M187" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N187" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O187" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P187" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q187" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R187" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T187" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U187" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V187" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
@@ -14408,25 +14414,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E188" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H188" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J188" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K188" s="0" t="n">
         <x:v>0</x:v>
@@ -14435,19 +14441,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R188" s="0" t="n">
         <x:v>0</x:v>
@@ -14456,13 +14462,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="U188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V188" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
@@ -14494,7 +14500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K189" s="0" t="n">
         <x:v>0</x:v>
@@ -14506,7 +14512,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N189" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O189" s="0" t="n">
         <x:v>0</x:v>
@@ -14550,7 +14556,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F190" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G190" s="0" t="n">
         <x:v>0</x:v>
@@ -14574,7 +14580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N190" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O190" s="0" t="n">
         <x:v>0</x:v>
@@ -14598,7 +14604,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V190" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:22">
@@ -14618,7 +14624,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G191" s="0" t="n">
         <x:v>0</x:v>
@@ -14642,7 +14648,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N191" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O191" s="0" t="n">
         <x:v>0</x:v>
@@ -14666,7 +14672,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V191" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
@@ -14680,13 +14686,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E192" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G192" s="0" t="n">
         <x:v>0</x:v>
@@ -14695,10 +14701,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J192" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K192" s="0" t="n">
         <x:v>0</x:v>
@@ -14710,7 +14716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N192" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O192" s="0" t="n">
         <x:v>0</x:v>
@@ -14725,16 +14731,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U192" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V192" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:22">
@@ -14748,13 +14754,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E193" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G193" s="0" t="n">
         <x:v>0</x:v>
@@ -14763,10 +14769,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K193" s="0" t="n">
         <x:v>0</x:v>
@@ -14778,7 +14784,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="O193" s="0" t="n">
         <x:v>0</x:v>
@@ -14793,16 +14799,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T193" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V193" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
@@ -14834,7 +14840,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J194" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K194" s="0" t="n">
         <x:v>0</x:v>
@@ -14846,7 +14852,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N194" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O194" s="0" t="n">
         <x:v>0</x:v>
@@ -14864,13 +14870,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U194" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V194" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">
@@ -14902,7 +14908,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K195" s="0" t="n">
         <x:v>0</x:v>
@@ -14938,7 +14944,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V195" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
@@ -14952,7 +14958,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D196" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E196" s="0" t="n">
         <x:v>0</x:v>
@@ -14982,7 +14988,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N196" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O196" s="0" t="n">
         <x:v>0</x:v>
@@ -15000,13 +15006,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T196" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U196" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V196" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:22">
@@ -15020,7 +15026,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D197" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E197" s="0" t="n">
         <x:v>0</x:v>
@@ -15068,13 +15074,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T197" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U197" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V197" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:22">
@@ -15097,7 +15103,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G198" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H198" s="0" t="n">
         <x:v>0</x:v>
@@ -15118,7 +15124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O198" s="0" t="n">
         <x:v>0</x:v>
@@ -15136,13 +15142,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T198" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="U198" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V198" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:22">
@@ -15156,7 +15162,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D199" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E199" s="0" t="n">
         <x:v>0</x:v>
@@ -15165,52 +15171,52 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G199" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H199" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I199" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J199" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K199" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L199" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M199" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N199" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O199" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P199" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q199" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R199" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S199" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T199" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U199" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V199" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="H199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N199" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="O199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V199" s="0" t="n">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:22">
@@ -15224,7 +15230,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D200" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E200" s="0" t="n">
         <x:v>0</x:v>
@@ -15233,7 +15239,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G200" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H200" s="0" t="n">
         <x:v>0</x:v>
@@ -15254,7 +15260,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N200" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O200" s="0" t="n">
         <x:v>0</x:v>
@@ -15272,13 +15278,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T200" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U200" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V200" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">
@@ -15292,7 +15298,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D201" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E201" s="0" t="n">
         <x:v>0</x:v>
@@ -15322,7 +15328,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N201" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O201" s="0" t="n">
         <x:v>0</x:v>
@@ -15340,13 +15346,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T201" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U201" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V201" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:22">
@@ -15360,7 +15366,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E202" s="0" t="n">
         <x:v>0</x:v>
@@ -15369,7 +15375,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G202" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H202" s="0" t="n">
         <x:v>0</x:v>
@@ -15390,7 +15396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O202" s="0" t="n">
         <x:v>0</x:v>
@@ -15408,13 +15414,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T202" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U202" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V202" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:22">
@@ -15428,7 +15434,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D203" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E203" s="0" t="n">
         <x:v>0</x:v>
@@ -15437,52 +15443,52 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G203" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T203" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N203" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T203" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="U203" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V203" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:22">
@@ -15496,7 +15502,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D204" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E204" s="0" t="n">
         <x:v>0</x:v>
@@ -15505,7 +15511,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G204" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H204" s="0" t="n">
         <x:v>0</x:v>
@@ -15526,7 +15532,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N204" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O204" s="0" t="n">
         <x:v>0</x:v>
@@ -15544,13 +15550,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T204" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U204" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V204" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:22">
@@ -15564,7 +15570,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D205" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E205" s="0" t="n">
         <x:v>0</x:v>
@@ -15594,7 +15600,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N205" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O205" s="0" t="n">
         <x:v>0</x:v>
@@ -15618,7 +15624,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V205" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:22">
@@ -15632,7 +15638,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D206" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E206" s="0" t="n">
         <x:v>0</x:v>
@@ -15641,7 +15647,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G206" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H206" s="0" t="n">
         <x:v>0</x:v>
@@ -15662,30 +15668,98 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N206" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V206" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207" spans="1:22">
+      <x:c r="A207" s="0" t="s">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c r="B207" s="0" t="s">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c r="C207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D207" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G207" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N207" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="O206" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P206" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q206" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R206" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S206" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T206" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U206" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V206" s="0" t="n">
+      <x:c r="O207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V207" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -4924,7 +4924,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N48" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O48" s="0" t="n">
         <x:v>0</x:v>
@@ -4948,7 +4948,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V48" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:22">
@@ -6766,7 +6766,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P75" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q75" s="0" t="n">
         <x:v>0</x:v>
@@ -6784,7 +6784,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V75" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:22">
@@ -9595,7 +9595,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G117" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H117" s="0" t="n">
         <x:v>0</x:v>
@@ -9640,7 +9640,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V117" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:22">
@@ -13016,7 +13016,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N167" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O167" s="0" t="n">
         <x:v>0</x:v>
@@ -13040,7 +13040,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V167" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -2328,7 +2328,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K10" s="0" t="n">
         <x:v>0</x:v>
@@ -2340,7 +2340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N10" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O10" s="0" t="n">
         <x:v>0</x:v>
@@ -2364,7 +2364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V10" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:22">
@@ -6748,7 +6748,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K75" s="0" t="n">
         <x:v>0</x:v>
@@ -6778,13 +6778,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T75" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U75" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="V75" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:22">
@@ -12528,7 +12528,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J160" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K160" s="0" t="n">
         <x:v>0</x:v>
@@ -12540,10 +12540,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N160" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P160" s="0" t="n">
         <x:v>7</x:v>
@@ -12564,7 +12564,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V160" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -14240,7 +14240,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N185" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O185" s="0" t="n">
         <x:v>0</x:v>
@@ -14264,7 +14264,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V185" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -10819,7 +10819,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G135" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H135" s="0" t="n">
         <x:v>0</x:v>
@@ -10840,7 +10840,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N135" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O135" s="0" t="n">
         <x:v>0</x:v>
@@ -10864,7 +10864,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V135" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -2340,7 +2340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N10" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O10" s="0" t="n">
         <x:v>0</x:v>
@@ -2364,7 +2364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V10" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:22">
@@ -2952,7 +2952,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N19" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O19" s="0" t="n">
         <x:v>0</x:v>
@@ -2976,7 +2976,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V19" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:22">
@@ -10420,7 +10420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J129" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K129" s="0" t="n">
         <x:v>0</x:v>
@@ -10438,7 +10438,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P129" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q129" s="0" t="n">
         <x:v>0</x:v>
@@ -10456,7 +10456,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V129" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -2382,7 +2382,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
         <x:v>0</x:v>
@@ -2436,7 +2436,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V10" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:22">
@@ -3148,7 +3148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J21" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K21" s="0" t="n">
         <x:v>0</x:v>
@@ -3184,7 +3184,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V21" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:22">
@@ -4981,7 +4981,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
         <x:v>1</x:v>
@@ -5020,7 +5020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V48" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:22">
@@ -5756,19 +5756,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T59" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V59" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:22">
@@ -5986,7 +5986,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
         <x:v>0</x:v>
@@ -6040,7 +6040,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V63" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:22">
@@ -6752,7 +6752,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J74" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K74" s="0" t="n">
         <x:v>0</x:v>
@@ -6788,7 +6788,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V74" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:22">
@@ -7648,7 +7648,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N87" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="O87" s="0" t="n">
         <x:v>0</x:v>
@@ -7672,7 +7672,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="V87" s="0" t="n">
-        <x:v>208</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:22">
@@ -8375,7 +8375,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G98" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H98" s="0" t="n">
         <x:v>0</x:v>
@@ -8420,7 +8420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V98" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:22">
@@ -10034,7 +10034,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P122" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q122" s="0" t="n">
         <x:v>0</x:v>
@@ -10052,7 +10052,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V122" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:22">
@@ -12133,7 +12133,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M153" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N153" s="0" t="n">
         <x:v>1</x:v>
@@ -12160,7 +12160,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V153" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -4771,7 +4771,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
         <x:v>0</x:v>
@@ -4816,7 +4816,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V45" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:22">
@@ -7654,7 +7654,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P87" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q87" s="0" t="n">
         <x:v>2</x:v>
@@ -7672,7 +7672,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="V87" s="0" t="n">
-        <x:v>207</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -4044,13 +4044,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N34" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O34" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P34" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q34" s="0" t="n">
         <x:v>0</x:v>
@@ -4068,7 +4068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V34" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:22">
@@ -5723,7 +5723,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
         <x:v>0</x:v>
@@ -5768,7 +5768,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V59" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:22">
@@ -14826,7 +14826,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E193" s="0" t="n">
         <x:v>0</x:v>
@@ -14853,7 +14853,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M193" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N193" s="0" t="n">
         <x:v>7</x:v>
@@ -14880,7 +14880,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V193" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -7648,7 +7648,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N87" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="O87" s="0" t="n">
         <x:v>0</x:v>
@@ -7672,7 +7672,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="V87" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:22">
@@ -13067,7 +13067,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G167" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H167" s="0" t="n">
         <x:v>0</x:v>
@@ -13112,7 +13112,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V167" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:22">
@@ -13398,7 +13398,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D172" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E172" s="0" t="n">
         <x:v>0</x:v>
@@ -13407,7 +13407,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G172" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H172" s="0" t="n">
         <x:v>0</x:v>
@@ -13452,7 +13452,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V172" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -10551,7 +10551,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G130" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H130" s="0" t="n">
         <x:v>0</x:v>
@@ -10596,7 +10596,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V130" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:22">
@@ -12890,7 +12890,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P164" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="Q164" s="0" t="n">
         <x:v>0</x:v>
@@ -12908,7 +12908,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V164" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -2140,7 +2140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N6" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O6" s="0" t="n">
         <x:v>0</x:v>
@@ -2164,7 +2164,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V6" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:22">
@@ -7654,7 +7654,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P87" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="Q87" s="0" t="n">
         <x:v>2</x:v>
@@ -7672,7 +7672,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="V87" s="0" t="n">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:22">
@@ -10572,7 +10572,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N130" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O130" s="0" t="n">
         <x:v>0</x:v>
@@ -10596,7 +10596,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V130" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -2140,7 +2140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N6" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="O6" s="0" t="n">
         <x:v>0</x:v>
@@ -2164,7 +2164,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V6" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:22">
@@ -3943,64 +3943,64 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D33" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E33" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F33" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="G33" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I33" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J33" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K33" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M33" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N33" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O33" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="P33" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R33" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="S33" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T33" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V33" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:22">
@@ -10980,7 +10980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N136" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O136" s="0" t="n">
         <x:v>0</x:v>
@@ -11004,7 +11004,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V136" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:22">
@@ -12038,7 +12038,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E152" s="0" t="n">
         <x:v>0</x:v>
@@ -12092,7 +12092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V152" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:22">
@@ -12680,7 +12680,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N161" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O161" s="0" t="n">
         <x:v>0</x:v>
@@ -12704,7 +12704,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V161" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -12142,7 +12142,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P153" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q153" s="0" t="n">
         <x:v>0</x:v>
@@ -12160,7 +12160,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V153" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:22">
@@ -12890,7 +12890,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P164" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q164" s="0" t="n">
         <x:v>0</x:v>
@@ -12908,7 +12908,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V164" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:22">
@@ -15814,7 +15814,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P207" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q207" s="0" t="n">
         <x:v>0</x:v>
@@ -15832,7 +15832,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V207" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -12748,7 +12748,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N162" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O162" s="0" t="n">
         <x:v>0</x:v>
@@ -12772,7 +12772,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V162" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:22">
@@ -13017,25 +13017,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N166" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S166" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T166" s="0" t="n">
         <x:v>0</x:v>
@@ -13044,7 +13044,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V166" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:22">
@@ -15243,7 +15243,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G199" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H199" s="0" t="n">
         <x:v>0</x:v>
@@ -15264,31 +15264,31 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="N199" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O199" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P199" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Q199" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R199" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S199" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T199" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="U199" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="Q199" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T199" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="U199" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="V199" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -3087,7 +3087,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
         <x:v>0</x:v>
@@ -3132,7 +3132,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="V19" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:22">
@@ -4897,10 +4897,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V45" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:22">
@@ -5624,10 +5624,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N56" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O56" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P56" s="0" t="n">
         <x:v>3</x:v>
@@ -5642,13 +5642,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T56" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V56" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:22">
@@ -6342,7 +6342,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
         <x:v>0</x:v>
@@ -6351,7 +6351,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
         <x:v>0</x:v>
@@ -6396,7 +6396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:22">
@@ -6407,10 +6407,10 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
         <x:v>0</x:v>
@@ -6446,7 +6446,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="P68" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q68" s="0" t="n">
         <x:v>1</x:v>
@@ -6464,7 +6464,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V68" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:22">
@@ -7194,7 +7194,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P79" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q79" s="0" t="n">
         <x:v>1</x:v>
@@ -7206,13 +7206,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T79" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U79" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="V79" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:22">
@@ -12424,7 +12424,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N156" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O156" s="0" t="n">
         <x:v>0</x:v>
@@ -12448,7 +12448,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V156" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:22">
@@ -13482,7 +13482,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D172" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E172" s="0" t="n">
         <x:v>0</x:v>
@@ -13497,7 +13497,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I172" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J172" s="0" t="n">
         <x:v>7</x:v>
@@ -13512,7 +13512,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N172" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O172" s="0" t="n">
         <x:v>0</x:v>
@@ -13536,7 +13536,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V172" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:22">
@@ -15599,7 +15599,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H203" s="0" t="n">
         <x:v>0</x:v>
@@ -15620,7 +15620,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N203" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O203" s="0" t="n">
         <x:v>0</x:v>
@@ -15644,7 +15644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V203" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:22">
@@ -16279,7 +16279,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G213" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H213" s="0" t="n">
         <x:v>0</x:v>
@@ -16291,13 +16291,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="K213" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L213" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M213" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="N213" s="0" t="n">
         <x:v>38</x:v>
@@ -16318,13 +16318,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T213" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="U213" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="V213" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -5624,7 +5624,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N56" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O56" s="0" t="n">
         <x:v>2</x:v>
@@ -5648,7 +5648,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V56" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:22">
@@ -6224,7 +6224,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J65" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K65" s="0" t="n">
         <x:v>0</x:v>
@@ -6254,13 +6254,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T65" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U65" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="V65" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:22">
@@ -6883,7 +6883,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="C75" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
         <x:v>23</x:v>
@@ -6895,7 +6895,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
         <x:v>0</x:v>
@@ -6916,7 +6916,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="N75" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="O75" s="0" t="n">
         <x:v>0</x:v>
@@ -6931,16 +6931,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S75" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T75" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="U75" s="0" t="n">
         <x:v>72</x:v>
       </x:c>
       <x:c r="V75" s="0" t="n">
-        <x:v>399</x:v>
+        <x:v>409</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:22">
@@ -8276,7 +8276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N95" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O95" s="0" t="n">
         <x:v>0</x:v>
@@ -8300,7 +8300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V95" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">
@@ -12566,7 +12566,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P158" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q158" s="0" t="n">
         <x:v>0</x:v>
@@ -12584,7 +12584,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V158" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:22">
@@ -14600,7 +14600,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N188" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O188" s="0" t="n">
         <x:v>1</x:v>
@@ -14624,7 +14624,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V188" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -1919,7 +1919,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
         <x:v>0</x:v>
@@ -1973,10 +1973,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U2" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V2" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:22">
@@ -13618,7 +13618,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D174" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E174" s="0" t="n">
         <x:v>0</x:v>
@@ -13654,7 +13654,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q174" s="0" t="n">
         <x:v>1</x:v>
@@ -13672,7 +13672,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V174" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -5420,7 +5420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N53" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O53" s="0" t="n">
         <x:v>0</x:v>
@@ -5444,7 +5444,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V53" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:22">
@@ -7466,7 +7466,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P83" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="Q83" s="0" t="n">
         <x:v>1</x:v>
@@ -7484,7 +7484,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -8297,10 +8297,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U95" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V95" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -4965,10 +4965,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U46" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="V46" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:22">
@@ -13500,7 +13500,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="J172" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K172" s="0" t="n">
         <x:v>0</x:v>
@@ -13536,7 +13536,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V172" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:22">
@@ -13822,7 +13822,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D177" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E177" s="0" t="n">
         <x:v>0</x:v>
@@ -13840,7 +13840,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J177" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K177" s="0" t="n">
         <x:v>0</x:v>
@@ -13858,7 +13858,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P177" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q177" s="0" t="n">
         <x:v>0</x:v>
@@ -13876,7 +13876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V177" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -5624,7 +5624,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N56" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O56" s="0" t="n">
         <x:v>2</x:v>
@@ -5648,7 +5648,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V56" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:22">
@@ -6206,7 +6206,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
         <x:v>0</x:v>
@@ -6215,7 +6215,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
         <x:v>0</x:v>
@@ -6260,7 +6260,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V65" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:22">
@@ -9624,7 +9624,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J115" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K115" s="0" t="n">
         <x:v>0</x:v>
@@ -9636,7 +9636,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N115" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O115" s="0" t="n">
         <x:v>0</x:v>
@@ -9660,7 +9660,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V115" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:22">
@@ -12634,7 +12634,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P159" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q159" s="0" t="n">
         <x:v>0</x:v>
@@ -12652,7 +12652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V159" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:22">
@@ -12938,7 +12938,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D164" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E164" s="0" t="n">
         <x:v>0</x:v>
@@ -12992,7 +12992,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V164" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:22">
@@ -13618,7 +13618,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E174" s="0" t="n">
         <x:v>0</x:v>
@@ -13648,7 +13648,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N174" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O174" s="0" t="n">
         <x:v>0</x:v>
@@ -13672,7 +13672,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V174" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -5066,7 +5066,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P47" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q47" s="0" t="n">
         <x:v>0</x:v>
@@ -5084,7 +5084,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="V47" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:22">
@@ -5474,7 +5474,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P53" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q53" s="0" t="n">
         <x:v>0</x:v>
@@ -5492,7 +5492,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V53" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:22">
@@ -5740,7 +5740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N57" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O57" s="0" t="n">
         <x:v>2</x:v>
@@ -5764,7 +5764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V57" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:22">
@@ -9888,7 +9888,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N118" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="O118" s="0" t="n">
         <x:v>0</x:v>
@@ -9912,7 +9912,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
@@ -10343,7 +10343,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G125" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H125" s="0" t="n">
         <x:v>0</x:v>
@@ -10388,7 +10388,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V125" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:22">
@@ -13158,7 +13158,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P166" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q166" s="0" t="n">
         <x:v>0</x:v>
@@ -13176,7 +13176,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V166" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:22">
@@ -14036,7 +14036,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N179" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="O179" s="0" t="n">
         <x:v>0</x:v>
@@ -14060,7 +14060,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V179" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
@@ -16336,7 +16336,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J213" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K213" s="0" t="n">
         <x:v>0</x:v>
@@ -16372,7 +16372,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V213" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -5740,7 +5740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N57" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O57" s="0" t="n">
         <x:v>2</x:v>
@@ -5764,7 +5764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V57" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:22">
@@ -6748,7 +6748,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="J72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K72" s="0" t="n">
         <x:v>0</x:v>
@@ -6760,7 +6760,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N72" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O72" s="0" t="n">
         <x:v>0</x:v>
@@ -6769,7 +6769,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R72" s="0" t="n">
         <x:v>0</x:v>
@@ -6784,7 +6784,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V72" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="504">
   <x:si>
     <x:t>Agency ORI</x:t>
   </x:si>
@@ -464,6 +464,12 @@
   </x:si>
   <x:si>
     <x:t>Red Wing Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0260000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant County Sheriff</x:t>
   </x:si>
   <x:si>
     <x:t>MN0270000</x:t>
@@ -1885,7 +1891,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:V241"/>
+  <x:dimension ref="A1:V242"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -6322,7 +6328,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
         <x:v>0</x:v>
@@ -6331,7 +6337,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
         <x:v>0</x:v>
@@ -6340,7 +6346,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K66" s="0" t="n">
         <x:v>0</x:v>
@@ -6352,13 +6358,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N66" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P66" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q66" s="0" t="n">
         <x:v>0</x:v>
@@ -6370,13 +6376,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T66" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U66" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V66" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:22">
@@ -6387,28 +6393,28 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G67" s="0" t="n">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="H67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I67" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J67" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K67" s="0" t="n">
         <x:v>0</x:v>
@@ -6417,16 +6423,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M67" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N67" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P67" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="Q67" s="0" t="n">
         <x:v>0</x:v>
@@ -6435,16 +6441,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T67" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U67" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V67" s="0" t="n">
-        <x:v>263</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:22">
@@ -6455,28 +6461,28 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K68" s="0" t="n">
         <x:v>0</x:v>
@@ -6485,16 +6491,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="O68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="Q68" s="0" t="n">
         <x:v>0</x:v>
@@ -6503,16 +6509,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="V68" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:22">
@@ -6523,34 +6529,34 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="C69" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I69" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M69" s="0" t="n">
         <x:v>0</x:v>
@@ -6559,28 +6565,28 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O69" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P69" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q69" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R69" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S69" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T69" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U69" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V69" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="P69" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="Q69" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R69" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S69" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T69" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="U69" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V69" s="0" t="n">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:22">
@@ -6591,64 +6597,64 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="C70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N70" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S70" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T70" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V70" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
@@ -6692,7 +6698,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O71" s="0" t="n">
         <x:v>0</x:v>
@@ -6707,16 +6713,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:22">
@@ -6727,10 +6733,10 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
         <x:v>0</x:v>
@@ -6739,16 +6745,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I72" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J72" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K72" s="0" t="n">
         <x:v>0</x:v>
@@ -6757,10 +6763,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M72" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N72" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O72" s="0" t="n">
         <x:v>0</x:v>
@@ -6769,7 +6775,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q72" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R72" s="0" t="n">
         <x:v>0</x:v>
@@ -6778,13 +6784,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T72" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V72" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:22">
@@ -6795,10 +6801,10 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="C73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
         <x:v>0</x:v>
@@ -6807,13 +6813,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J73" s="0" t="n">
         <x:v>1</x:v>
@@ -6825,10 +6831,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O73" s="0" t="n">
         <x:v>0</x:v>
@@ -6837,7 +6843,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R73" s="0" t="n">
         <x:v>0</x:v>
@@ -6846,13 +6852,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V73" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:22">
@@ -6866,7 +6872,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
         <x:v>0</x:v>
@@ -6884,7 +6890,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K74" s="0" t="n">
         <x:v>0</x:v>
@@ -6943,7 +6949,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
         <x:v>0</x:v>
@@ -6952,7 +6958,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J75" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K75" s="0" t="n">
         <x:v>0</x:v>
@@ -6964,7 +6970,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N75" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O75" s="0" t="n">
         <x:v>0</x:v>
@@ -6985,10 +6991,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U75" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V75" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:22">
@@ -6999,40 +7005,40 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="C76" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D76" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I76" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J76" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L76" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M76" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N76" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O76" s="0" t="n">
         <x:v>0</x:v>
@@ -7047,16 +7053,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S76" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T76" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U76" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V76" s="0" t="n">
-        <x:v>459</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:22">
@@ -7067,40 +7073,40 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="C77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M77" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N77" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="O77" s="0" t="n">
         <x:v>0</x:v>
@@ -7115,16 +7121,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S77" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="T77" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="U77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="V77" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>459</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:22">
@@ -7138,7 +7144,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D78" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
         <x:v>0</x:v>
@@ -7147,7 +7153,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
         <x:v>0</x:v>
@@ -7156,7 +7162,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J78" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K78" s="0" t="n">
         <x:v>0</x:v>
@@ -7165,16 +7171,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M78" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N78" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P78" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q78" s="0" t="n">
         <x:v>0</x:v>
@@ -7183,16 +7189,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S78" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T78" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V78" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:22">
@@ -7206,7 +7212,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D79" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
         <x:v>0</x:v>
@@ -7224,7 +7230,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J79" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K79" s="0" t="n">
         <x:v>0</x:v>
@@ -7233,13 +7239,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M79" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N79" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O79" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P79" s="0" t="n">
         <x:v>1</x:v>
@@ -7254,13 +7260,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T79" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V79" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:22">
@@ -7271,10 +7277,10 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="C80" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D80" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
         <x:v>0</x:v>
@@ -7283,7 +7289,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
         <x:v>0</x:v>
@@ -7292,7 +7298,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J80" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K80" s="0" t="n">
         <x:v>0</x:v>
@@ -7304,16 +7310,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N80" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O80" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P80" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q80" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R80" s="0" t="n">
         <x:v>0</x:v>
@@ -7322,13 +7328,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T80" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U80" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V80" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:22">
@@ -7342,7 +7348,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D81" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
         <x:v>0</x:v>
@@ -7360,43 +7366,43 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J81" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K81" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L81" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M81" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N81" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O81" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P81" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="K81" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L81" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M81" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N81" s="0" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="O81" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P81" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="Q81" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R81" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S81" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T81" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U81" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V81" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:22">
@@ -7407,10 +7413,10 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="C82" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D82" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
         <x:v>0</x:v>
@@ -7428,7 +7434,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J82" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K82" s="0" t="n">
         <x:v>0</x:v>
@@ -7440,13 +7446,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N82" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="O82" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P82" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q82" s="0" t="n">
         <x:v>0</x:v>
@@ -7455,16 +7461,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S82" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T82" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="U82" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="V82" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:22">
@@ -7475,28 +7481,28 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="C83" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G83" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I83" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J83" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K83" s="0" t="n">
         <x:v>0</x:v>
@@ -7505,16 +7511,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M83" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N83" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P83" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q83" s="0" t="n">
         <x:v>0</x:v>
@@ -7526,13 +7532,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T83" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U83" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -7543,7 +7549,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="C84" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D84" s="0" t="n">
         <x:v>0</x:v>
@@ -7555,52 +7561,52 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G84" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H84" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I84" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J84" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K84" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L84" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M84" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N84" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O84" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P84" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="H84" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I84" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J84" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K84" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L84" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M84" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N84" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="O84" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P84" s="0" t="n">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="Q84" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R84" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S84" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T84" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U84" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V84" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
@@ -7611,7 +7617,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="C85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D85" s="0" t="n">
         <x:v>0</x:v>
@@ -7620,10 +7626,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H85" s="0" t="n">
         <x:v>0</x:v>
@@ -7632,43 +7638,43 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L85" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N85" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="O85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="Q85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R85" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="U85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V85" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:22">
@@ -7682,16 +7688,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D86" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F86" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G86" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H86" s="0" t="n">
         <x:v>0</x:v>
@@ -7700,7 +7706,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J86" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K86" s="0" t="n">
         <x:v>0</x:v>
@@ -7709,7 +7715,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M86" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N86" s="0" t="n">
         <x:v>2</x:v>
@@ -7736,7 +7742,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V86" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:22">
@@ -7750,25 +7756,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D87" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G87" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H87" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I87" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J87" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K87" s="0" t="n">
         <x:v>0</x:v>
@@ -7777,16 +7783,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M87" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N87" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O87" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P87" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q87" s="0" t="n">
         <x:v>0</x:v>
@@ -7804,7 +7810,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V87" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:22">
@@ -7815,10 +7821,10 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="C88" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D88" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
         <x:v>0</x:v>
@@ -7827,16 +7833,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I88" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J88" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K88" s="0" t="n">
         <x:v>0</x:v>
@@ -7845,16 +7851,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M88" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N88" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O88" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P88" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q88" s="0" t="n">
         <x:v>0</x:v>
@@ -7863,16 +7869,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S88" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T88" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U88" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V88" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">
@@ -7883,10 +7889,10 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="C89" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D89" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
         <x:v>0</x:v>
@@ -7895,7 +7901,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
         <x:v>0</x:v>
@@ -7904,7 +7910,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J89" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K89" s="0" t="n">
         <x:v>0</x:v>
@@ -7916,13 +7922,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N89" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O89" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P89" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q89" s="0" t="n">
         <x:v>0</x:v>
@@ -7931,16 +7937,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S89" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T89" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U89" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V89" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:22">
@@ -7963,7 +7969,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G90" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H90" s="0" t="n">
         <x:v>0</x:v>
@@ -7972,7 +7978,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J90" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K90" s="0" t="n">
         <x:v>0</x:v>
@@ -7984,13 +7990,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N90" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O90" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P90" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q90" s="0" t="n">
         <x:v>0</x:v>
@@ -8002,13 +8008,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T90" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U90" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V90" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:22">
@@ -8031,7 +8037,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G91" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H91" s="0" t="n">
         <x:v>0</x:v>
@@ -8040,7 +8046,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J91" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K91" s="0" t="n">
         <x:v>0</x:v>
@@ -8052,13 +8058,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N91" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O91" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P91" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q91" s="0" t="n">
         <x:v>0</x:v>
@@ -8070,13 +8076,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T91" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U91" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V91" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:22">
@@ -8090,7 +8096,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D92" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E92" s="0" t="n">
         <x:v>0</x:v>
@@ -8099,7 +8105,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G92" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H92" s="0" t="n">
         <x:v>0</x:v>
@@ -8108,7 +8114,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J92" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K92" s="0" t="n">
         <x:v>0</x:v>
@@ -8120,7 +8126,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N92" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O92" s="0" t="n">
         <x:v>0</x:v>
@@ -8135,16 +8141,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S92" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T92" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U92" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V92" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:22">
@@ -8158,7 +8164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D93" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E93" s="0" t="n">
         <x:v>0</x:v>
@@ -8167,7 +8173,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G93" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H93" s="0" t="n">
         <x:v>0</x:v>
@@ -8176,7 +8182,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J93" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K93" s="0" t="n">
         <x:v>0</x:v>
@@ -8188,7 +8194,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N93" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O93" s="0" t="n">
         <x:v>0</x:v>
@@ -8203,16 +8209,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S93" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T93" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U93" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V93" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:22">
@@ -8223,64 +8229,64 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="C94" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D94" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E94" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F94" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G94" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H94" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I94" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J94" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K94" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L94" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M94" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N94" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O94" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P94" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q94" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R94" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S94" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T94" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U94" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V94" s="0" t="n">
-        <x:v>241</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:22">
@@ -8291,64 +8297,64 @@
         <x:v>209</x:v>
       </x:c>
       <x:c r="C95" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D95" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E95" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F95" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G95" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H95" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I95" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J95" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K95" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L95" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M95" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N95" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="O95" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P95" s="0" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Q95" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="R95" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S95" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="Q95" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R95" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S95" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="T95" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="U95" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="V95" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">
@@ -8362,61 +8368,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D96" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E96" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F96" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G96" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P96" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="Q96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V96" s="0" t="n">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="H96" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I96" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J96" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K96" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L96" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M96" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N96" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="O96" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P96" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="Q96" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R96" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S96" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T96" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="U96" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V96" s="0" t="n">
-        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:22">
@@ -8430,7 +8436,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D97" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E97" s="0" t="n">
         <x:v>0</x:v>
@@ -8439,7 +8445,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G97" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H97" s="0" t="n">
         <x:v>0</x:v>
@@ -8448,7 +8454,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J97" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K97" s="0" t="n">
         <x:v>0</x:v>
@@ -8457,16 +8463,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M97" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N97" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O97" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P97" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q97" s="0" t="n">
         <x:v>0</x:v>
@@ -8478,13 +8484,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T97" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U97" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V97" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:22">
@@ -8495,7 +8501,7 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="C98" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D98" s="0" t="n">
         <x:v>0</x:v>
@@ -8516,7 +8522,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J98" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K98" s="0" t="n">
         <x:v>0</x:v>
@@ -8534,7 +8540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P98" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q98" s="0" t="n">
         <x:v>0</x:v>
@@ -8549,7 +8555,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U98" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V98" s="0" t="n">
         <x:v>3</x:v>
@@ -8563,7 +8569,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="C99" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D99" s="0" t="n">
         <x:v>0</x:v>
@@ -8584,7 +8590,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J99" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K99" s="0" t="n">
         <x:v>0</x:v>
@@ -8596,13 +8602,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N99" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O99" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P99" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q99" s="0" t="n">
         <x:v>0</x:v>
@@ -8614,13 +8620,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T99" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U99" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V99" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:22">
@@ -8643,7 +8649,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G100" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H100" s="0" t="n">
         <x:v>0</x:v>
@@ -8664,13 +8670,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N100" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O100" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P100" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q100" s="0" t="n">
         <x:v>0</x:v>
@@ -8685,10 +8691,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U100" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V100" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">
@@ -8711,7 +8717,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G101" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H101" s="0" t="n">
         <x:v>0</x:v>
@@ -8720,7 +8726,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J101" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K101" s="0" t="n">
         <x:v>0</x:v>
@@ -8729,13 +8735,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M101" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N101" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="O101" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P101" s="0" t="n">
         <x:v>0</x:v>
@@ -8750,13 +8756,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T101" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U101" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V101" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:22">
@@ -8779,7 +8785,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G102" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H102" s="0" t="n">
         <x:v>0</x:v>
@@ -8797,7 +8803,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M102" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N102" s="0" t="n">
         <x:v>1</x:v>
@@ -8824,7 +8830,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V102" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">
@@ -8865,10 +8871,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M103" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N103" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O103" s="0" t="n">
         <x:v>0</x:v>
@@ -8886,13 +8892,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T103" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U103" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V103" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:22">
@@ -8912,7 +8918,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F104" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G104" s="0" t="n">
         <x:v>0</x:v>
@@ -8924,7 +8930,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J104" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K104" s="0" t="n">
         <x:v>0</x:v>
@@ -8933,16 +8939,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M104" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N104" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O104" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P104" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q104" s="0" t="n">
         <x:v>0</x:v>
@@ -8954,13 +8960,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T104" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U104" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V104" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:22">
@@ -8974,44 +8980,44 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D105" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E105" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F105" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G105" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H105" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I105" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J105" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K105" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L105" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M105" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N105" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O105" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P105" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E105" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F105" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G105" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H105" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I105" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J105" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K105" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L105" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M105" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N105" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="O105" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P105" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="Q105" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -9022,13 +9028,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T105" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U105" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V105" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:22">
@@ -9042,7 +9048,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D106" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E106" s="0" t="n">
         <x:v>0</x:v>
@@ -9051,16 +9057,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G106" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H106" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I106" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J106" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K106" s="0" t="n">
         <x:v>0</x:v>
@@ -9069,16 +9075,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M106" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N106" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O106" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P106" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q106" s="0" t="n">
         <x:v>0</x:v>
@@ -9093,10 +9099,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U106" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V106" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:22">
@@ -9110,7 +9116,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D107" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E107" s="0" t="n">
         <x:v>0</x:v>
@@ -9119,7 +9125,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G107" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H107" s="0" t="n">
         <x:v>0</x:v>
@@ -9128,7 +9134,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J107" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K107" s="0" t="n">
         <x:v>0</x:v>
@@ -9137,16 +9143,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M107" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N107" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O107" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P107" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q107" s="0" t="n">
         <x:v>0</x:v>
@@ -9161,10 +9167,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U107" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V107" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:22">
@@ -9208,13 +9214,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N108" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O108" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P108" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q108" s="0" t="n">
         <x:v>0</x:v>
@@ -9232,7 +9238,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V108" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:22">
@@ -9255,7 +9261,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G109" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H109" s="0" t="n">
         <x:v>0</x:v>
@@ -9264,7 +9270,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J109" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K109" s="0" t="n">
         <x:v>0</x:v>
@@ -9276,7 +9282,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N109" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O109" s="0" t="n">
         <x:v>0</x:v>
@@ -9300,7 +9306,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V109" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:22">
@@ -9323,7 +9329,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G110" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H110" s="0" t="n">
         <x:v>0</x:v>
@@ -9332,7 +9338,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J110" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K110" s="0" t="n">
         <x:v>0</x:v>
@@ -9368,7 +9374,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V110" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:22">
@@ -9379,7 +9385,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="C111" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D111" s="0" t="n">
         <x:v>0</x:v>
@@ -9391,13 +9397,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G111" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H111" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I111" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J111" s="0" t="n">
         <x:v>0</x:v>
@@ -9409,22 +9415,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M111" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N111" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O111" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P111" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q111" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R111" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S111" s="0" t="n">
         <x:v>0</x:v>
@@ -9436,7 +9442,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V111" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:22">
@@ -9447,10 +9453,10 @@
         <x:v>243</x:v>
       </x:c>
       <x:c r="C112" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D112" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E112" s="0" t="n">
         <x:v>0</x:v>
@@ -9459,13 +9465,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G112" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H112" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I112" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J112" s="0" t="n">
         <x:v>0</x:v>
@@ -9477,22 +9483,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M112" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N112" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O112" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P112" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q112" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R112" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S112" s="0" t="n">
         <x:v>0</x:v>
@@ -9504,7 +9510,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V112" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:22">
@@ -9518,7 +9524,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D113" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E113" s="0" t="n">
         <x:v>0</x:v>
@@ -9566,7 +9572,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T113" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U113" s="0" t="n">
         <x:v>0</x:v>
@@ -9586,7 +9592,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D114" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E114" s="0" t="n">
         <x:v>0</x:v>
@@ -9595,7 +9601,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G114" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H114" s="0" t="n">
         <x:v>0</x:v>
@@ -9604,7 +9610,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>0</x:v>
@@ -9616,13 +9622,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N114" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O114" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P114" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q114" s="0" t="n">
         <x:v>0</x:v>
@@ -9634,13 +9640,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -9654,7 +9660,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D115" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E115" s="0" t="n">
         <x:v>0</x:v>
@@ -9663,7 +9669,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G115" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H115" s="0" t="n">
         <x:v>0</x:v>
@@ -9672,25 +9678,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J115" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K115" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L115" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M115" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N115" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="K115" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L115" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M115" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N115" s="0" t="n">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="O115" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P115" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q115" s="0" t="n">
         <x:v>0</x:v>
@@ -9702,13 +9708,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T115" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U115" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V115" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:22">
@@ -9740,7 +9746,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J116" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K116" s="0" t="n">
         <x:v>0</x:v>
@@ -9749,34 +9755,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M116" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N116" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O116" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P116" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q116" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R116" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S116" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T116" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U116" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V116" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:22">
@@ -9790,7 +9796,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D117" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E117" s="0" t="n">
         <x:v>0</x:v>
@@ -9799,7 +9805,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G117" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H117" s="0" t="n">
         <x:v>0</x:v>
@@ -9808,7 +9814,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J117" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K117" s="0" t="n">
         <x:v>0</x:v>
@@ -9817,7 +9823,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M117" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N117" s="0" t="n">
         <x:v>1</x:v>
@@ -9826,25 +9832,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P117" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q117" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R117" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S117" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T117" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U117" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V117" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:22">
@@ -9855,7 +9861,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="C118" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D118" s="0" t="n">
         <x:v>1</x:v>
@@ -9867,7 +9873,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G118" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H118" s="0" t="n">
         <x:v>0</x:v>
@@ -9876,7 +9882,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J118" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K118" s="0" t="n">
         <x:v>0</x:v>
@@ -9885,16 +9891,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M118" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N118" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O118" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>0</x:v>
@@ -9912,7 +9918,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
@@ -9923,29 +9929,29 @@
         <x:v>257</x:v>
       </x:c>
       <x:c r="C119" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D119" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E119" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F119" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G119" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H119" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I119" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J119" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G119" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H119" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I119" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J119" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="K119" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -9953,16 +9959,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M119" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N119" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="O119" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P119" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q119" s="0" t="n">
         <x:v>0</x:v>
@@ -9980,7 +9986,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V119" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:22">
@@ -10000,37 +10006,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F120" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G120" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H120" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I120" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J120" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K120" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L120" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M120" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N120" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O120" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P120" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q120" s="0" t="n">
         <x:v>0</x:v>
@@ -10045,10 +10051,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U120" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V120" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:22">
@@ -10062,7 +10068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D121" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E121" s="0" t="n">
         <x:v>0</x:v>
@@ -10077,28 +10083,28 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I121" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J121" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K121" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L121" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M121" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N121" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O121" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P121" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q121" s="0" t="n">
         <x:v>0</x:v>
@@ -10110,13 +10116,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T121" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U121" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V121" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:22">
@@ -10130,7 +10136,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D122" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E122" s="0" t="n">
         <x:v>0</x:v>
@@ -10157,10 +10163,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M122" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N122" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O122" s="0" t="n">
         <x:v>0</x:v>
@@ -10178,13 +10184,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T122" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U122" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V122" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:22">
@@ -10207,7 +10213,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G123" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H123" s="0" t="n">
         <x:v>0</x:v>
@@ -10228,7 +10234,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N123" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O123" s="0" t="n">
         <x:v>0</x:v>
@@ -10246,13 +10252,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T123" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U123" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V123" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:22">
@@ -10272,19 +10278,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F124" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G124" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H124" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I124" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J124" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K124" s="0" t="n">
         <x:v>0</x:v>
@@ -10296,7 +10302,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N124" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O124" s="0" t="n">
         <x:v>0</x:v>
@@ -10314,13 +10320,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U124" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">
@@ -10340,19 +10346,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F125" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G125" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H125" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I125" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J125" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K125" s="0" t="n">
         <x:v>0</x:v>
@@ -10364,16 +10370,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N125" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O125" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P125" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q125" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R125" s="0" t="n">
         <x:v>0</x:v>
@@ -10382,13 +10388,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T125" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U125" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V125" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:22">
@@ -10408,10 +10414,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H126" s="0" t="n">
         <x:v>0</x:v>
@@ -10420,7 +10426,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K126" s="0" t="n">
         <x:v>0</x:v>
@@ -10432,16 +10438,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O126" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P126" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R126" s="0" t="n">
         <x:v>0</x:v>
@@ -10450,13 +10456,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U126" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V126" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:22">
@@ -10488,7 +10494,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J127" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K127" s="0" t="n">
         <x:v>0</x:v>
@@ -10497,7 +10503,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M127" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N127" s="0" t="n">
         <x:v>0</x:v>
@@ -10506,7 +10512,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P127" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q127" s="0" t="n">
         <x:v>0</x:v>
@@ -10524,7 +10530,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V127" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:22">
@@ -10565,7 +10571,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M128" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N128" s="0" t="n">
         <x:v>0</x:v>
@@ -10574,7 +10580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P128" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q128" s="0" t="n">
         <x:v>0</x:v>
@@ -10592,7 +10598,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V128" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:22">
@@ -10606,16 +10612,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D129" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E129" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F129" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G129" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H129" s="0" t="n">
         <x:v>0</x:v>
@@ -10624,7 +10630,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J129" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K129" s="0" t="n">
         <x:v>0</x:v>
@@ -10642,7 +10648,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P129" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q129" s="0" t="n">
         <x:v>0</x:v>
@@ -10660,7 +10666,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V129" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
@@ -10674,16 +10680,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E130" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G130" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H130" s="0" t="n">
         <x:v>0</x:v>
@@ -10692,7 +10698,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K130" s="0" t="n">
         <x:v>0</x:v>
@@ -10701,7 +10707,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M130" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N130" s="0" t="n">
         <x:v>0</x:v>
@@ -10710,7 +10716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P130" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="Q130" s="0" t="n">
         <x:v>0</x:v>
@@ -10722,13 +10728,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T130" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U130" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V130" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:22">
@@ -10742,7 +10748,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D131" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E131" s="0" t="n">
         <x:v>0</x:v>
@@ -10760,7 +10766,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J131" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K131" s="0" t="n">
         <x:v>0</x:v>
@@ -10769,16 +10775,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M131" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N131" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O131" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P131" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q131" s="0" t="n">
         <x:v>0</x:v>
@@ -10790,13 +10796,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T131" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U131" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V131" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:22">
@@ -10807,10 +10813,10 @@
         <x:v>283</x:v>
       </x:c>
       <x:c r="C132" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D132" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E132" s="0" t="n">
         <x:v>0</x:v>
@@ -10819,16 +10825,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G132" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H132" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I132" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J132" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K132" s="0" t="n">
         <x:v>0</x:v>
@@ -10837,16 +10843,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M132" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N132" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O132" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P132" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q132" s="0" t="n">
         <x:v>0</x:v>
@@ -10861,10 +10867,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U132" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V132" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:22">
@@ -10875,10 +10881,10 @@
         <x:v>285</x:v>
       </x:c>
       <x:c r="C133" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D133" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E133" s="0" t="n">
         <x:v>0</x:v>
@@ -10887,16 +10893,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G133" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H133" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I133" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J133" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K133" s="0" t="n">
         <x:v>0</x:v>
@@ -10905,22 +10911,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M133" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N133" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O133" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P133" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q133" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R133" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S133" s="0" t="n">
         <x:v>0</x:v>
@@ -10952,20 +10958,20 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F134" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G134" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H134" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I134" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J134" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H134" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I134" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J134" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="K134" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -10976,7 +10982,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N134" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O134" s="0" t="n">
         <x:v>0</x:v>
@@ -10985,10 +10991,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q134" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R134" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S134" s="0" t="n">
         <x:v>0</x:v>
@@ -11000,7 +11006,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V134" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:22">
@@ -11011,16 +11017,16 @@
         <x:v>289</x:v>
       </x:c>
       <x:c r="C135" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D135" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E135" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F135" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G135" s="0" t="n">
         <x:v>6</x:v>
@@ -11032,10 +11038,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J135" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K135" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L135" s="0" t="n">
         <x:v>0</x:v>
@@ -11044,16 +11050,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N135" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O135" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P135" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q135" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R135" s="0" t="n">
         <x:v>0</x:v>
@@ -11062,13 +11068,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T135" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U135" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V135" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:22">
@@ -11079,7 +11085,7 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="C136" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D136" s="0" t="n">
         <x:v>0</x:v>
@@ -11091,7 +11097,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G136" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H136" s="0" t="n">
         <x:v>0</x:v>
@@ -11100,10 +11106,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J136" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K136" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L136" s="0" t="n">
         <x:v>0</x:v>
@@ -11112,10 +11118,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N136" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O136" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P136" s="0" t="n">
         <x:v>0</x:v>
@@ -11130,13 +11136,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T136" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U136" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V136" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:22">
@@ -11147,10 +11153,10 @@
         <x:v>293</x:v>
       </x:c>
       <x:c r="C137" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D137" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E137" s="0" t="n">
         <x:v>0</x:v>
@@ -11159,7 +11165,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G137" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H137" s="0" t="n">
         <x:v>0</x:v>
@@ -11168,7 +11174,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J137" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K137" s="0" t="n">
         <x:v>0</x:v>
@@ -11177,34 +11183,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M137" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N137" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O137" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P137" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q137" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R137" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S137" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T137" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U137" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V137" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:22">
@@ -11215,64 +11221,64 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="C138" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D138" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E138" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F138" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G138" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H138" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I138" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J138" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K138" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L138" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M138" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="N138" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D138" s="0" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F138" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G138" s="0" t="n">
+      <x:c r="O138" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P138" s="0" t="n">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H138" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I138" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J138" s="0" t="n">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="K138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M138" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="N138" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="O138" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="P138" s="0" t="n">
-        <x:v>52</x:v>
-      </x:c>
       <x:c r="Q138" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R138" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S138" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T138" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U138" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="V138" s="0" t="n">
-        <x:v>179</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
@@ -11283,28 +11289,28 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="C139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E139" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G139" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K139" s="0" t="n">
         <x:v>0</x:v>
@@ -11313,34 +11319,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M139" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N139" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P139" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="Q139" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="R139" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V139" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:22">
@@ -11360,19 +11366,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G140" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G140" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="H140" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I140" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J140" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K140" s="0" t="n">
         <x:v>0</x:v>
@@ -11381,16 +11387,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M140" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N140" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O140" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P140" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q140" s="0" t="n">
         <x:v>1</x:v>
@@ -11402,13 +11408,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T140" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U140" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V140" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:22">
@@ -11428,19 +11434,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H141" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K141" s="0" t="n">
         <x:v>0</x:v>
@@ -11452,16 +11458,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O141" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P141" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R141" s="0" t="n">
         <x:v>0</x:v>
@@ -11470,13 +11476,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U141" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V141" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:22">
@@ -11499,13 +11505,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G142" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H142" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I142" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J142" s="0" t="n">
         <x:v>0</x:v>
@@ -11520,13 +11526,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N142" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O142" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P142" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q142" s="0" t="n">
         <x:v>0</x:v>
@@ -11544,7 +11550,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V142" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:22">
@@ -11558,7 +11564,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D143" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E143" s="0" t="n">
         <x:v>0</x:v>
@@ -11567,16 +11573,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G143" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H143" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I143" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J143" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K143" s="0" t="n">
         <x:v>0</x:v>
@@ -11588,31 +11594,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N143" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O143" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P143" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="Q143" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R143" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S143" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T143" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U143" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V143" s="0" t="n">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="O143" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P143" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="Q143" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R143" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S143" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T143" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U143" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="V143" s="0" t="n">
-        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:22">
@@ -11635,7 +11641,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G144" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H144" s="0" t="n">
         <x:v>0</x:v>
@@ -11644,7 +11650,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K144" s="0" t="n">
         <x:v>0</x:v>
@@ -11656,16 +11662,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N144" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="O144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q144" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R144" s="0" t="n">
         <x:v>0</x:v>
@@ -11674,13 +11680,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T144" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V144" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:22">
@@ -11694,7 +11700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D145" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E145" s="0" t="n">
         <x:v>0</x:v>
@@ -11703,16 +11709,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G145" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H145" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I145" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J145" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K145" s="0" t="n">
         <x:v>0</x:v>
@@ -11721,19 +11727,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M145" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N145" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O145" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P145" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q145" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R145" s="0" t="n">
         <x:v>0</x:v>
@@ -11742,13 +11748,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T145" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U145" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V145" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:22">
@@ -11771,34 +11777,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G146" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H146" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I146" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J146" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K146" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L146" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M146" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N146" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="H146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N146" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="O146" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P146" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q146" s="0" t="n">
         <x:v>0</x:v>
@@ -11816,7 +11822,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V146" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:22">
@@ -11839,7 +11845,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G147" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H147" s="0" t="n">
         <x:v>0</x:v>
@@ -11848,7 +11854,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J147" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K147" s="0" t="n">
         <x:v>0</x:v>
@@ -11860,7 +11866,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N147" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O147" s="0" t="n">
         <x:v>0</x:v>
@@ -11872,7 +11878,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R147" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S147" s="0" t="n">
         <x:v>0</x:v>
@@ -11884,7 +11890,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V147" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:22">
@@ -11907,7 +11913,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G148" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H148" s="0" t="n">
         <x:v>0</x:v>
@@ -11916,7 +11922,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J148" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K148" s="0" t="n">
         <x:v>0</x:v>
@@ -11928,7 +11934,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N148" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O148" s="0" t="n">
         <x:v>0</x:v>
@@ -11940,7 +11946,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R148" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S148" s="0" t="n">
         <x:v>0</x:v>
@@ -11952,7 +11958,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V148" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:22">
@@ -11963,19 +11969,19 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="C149" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D149" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E149" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F149" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G149" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H149" s="0" t="n">
         <x:v>0</x:v>
@@ -11993,10 +11999,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M149" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N149" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O149" s="0" t="n">
         <x:v>0</x:v>
@@ -12005,22 +12011,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q149" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R149" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S149" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T149" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U149" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V149" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:22">
@@ -12031,28 +12037,28 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="C150" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D150" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E150" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F150" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G150" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H150" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I150" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J150" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K150" s="0" t="n">
         <x:v>0</x:v>
@@ -12061,10 +12067,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M150" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N150" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O150" s="0" t="n">
         <x:v>0</x:v>
@@ -12073,22 +12079,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q150" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R150" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S150" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T150" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="R150" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S150" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T150" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="U150" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="V150" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:22">
@@ -12102,7 +12108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D151" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E151" s="0" t="n">
         <x:v>0</x:v>
@@ -12120,7 +12126,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J151" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K151" s="0" t="n">
         <x:v>0</x:v>
@@ -12129,10 +12135,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M151" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N151" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O151" s="0" t="n">
         <x:v>0</x:v>
@@ -12141,7 +12147,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q151" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R151" s="0" t="n">
         <x:v>1</x:v>
@@ -12150,13 +12156,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T151" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U151" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V151" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:22">
@@ -12170,7 +12176,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D152" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E152" s="0" t="n">
         <x:v>0</x:v>
@@ -12179,13 +12185,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H152" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J152" s="0" t="n">
         <x:v>0</x:v>
@@ -12200,7 +12206,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N152" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O152" s="0" t="n">
         <x:v>0</x:v>
@@ -12212,19 +12218,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S152" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U152" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V152" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:22">
@@ -12235,10 +12241,10 @@
         <x:v>325</x:v>
       </x:c>
       <x:c r="C153" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D153" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E153" s="0" t="n">
         <x:v>0</x:v>
@@ -12265,10 +12271,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M153" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N153" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O153" s="0" t="n">
         <x:v>0</x:v>
@@ -12289,10 +12295,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U153" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V153" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:22">
@@ -12303,64 +12309,64 @@
         <x:v>327</x:v>
       </x:c>
       <x:c r="C154" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N154" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="O154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V154" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="D154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G154" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I154" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J154" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N154" s="0" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="O154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T154" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="U154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V154" s="0" t="n">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
@@ -12371,19 +12377,19 @@
         <x:v>329</x:v>
       </x:c>
       <x:c r="C155" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D155" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E155" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F155" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G155" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H155" s="0" t="n">
         <x:v>0</x:v>
@@ -12392,7 +12398,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J155" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K155" s="0" t="n">
         <x:v>0</x:v>
@@ -12401,34 +12407,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M155" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N155" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O155" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P155" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q155" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R155" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S155" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T155" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U155" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V155" s="0" t="n">
-        <x:v>216</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:22">
@@ -12439,28 +12445,28 @@
         <x:v>331</x:v>
       </x:c>
       <x:c r="C156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E156" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G156" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H156" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K156" s="0" t="n">
         <x:v>0</x:v>
@@ -12469,34 +12475,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N156" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="O156" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="Q156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R156" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="U156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V156" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:22">
@@ -12510,7 +12516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E157" s="0" t="n">
         <x:v>0</x:v>
@@ -12519,7 +12525,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G157" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H157" s="0" t="n">
         <x:v>0</x:v>
@@ -12528,7 +12534,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J157" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K157" s="0" t="n">
         <x:v>0</x:v>
@@ -12540,7 +12546,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N157" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O157" s="0" t="n">
         <x:v>0</x:v>
@@ -12558,13 +12564,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T157" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U157" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V157" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:22">
@@ -12578,7 +12584,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D158" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E158" s="0" t="n">
         <x:v>0</x:v>
@@ -12587,7 +12593,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G158" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H158" s="0" t="n">
         <x:v>0</x:v>
@@ -12596,7 +12602,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J158" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K158" s="0" t="n">
         <x:v>0</x:v>
@@ -12605,10 +12611,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M158" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N158" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O158" s="0" t="n">
         <x:v>0</x:v>
@@ -12626,13 +12632,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T158" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U158" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V158" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:22">
@@ -12643,10 +12649,10 @@
         <x:v>337</x:v>
       </x:c>
       <x:c r="C159" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D159" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E159" s="0" t="n">
         <x:v>0</x:v>
@@ -12655,7 +12661,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G159" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H159" s="0" t="n">
         <x:v>0</x:v>
@@ -12664,7 +12670,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J159" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K159" s="0" t="n">
         <x:v>0</x:v>
@@ -12673,16 +12679,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M159" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N159" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O159" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P159" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q159" s="0" t="n">
         <x:v>0</x:v>
@@ -12691,10 +12697,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S159" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T159" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U159" s="0" t="n">
         <x:v>0</x:v>
@@ -12711,10 +12717,10 @@
         <x:v>339</x:v>
       </x:c>
       <x:c r="C160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E160" s="0" t="n">
         <x:v>0</x:v>
@@ -12723,7 +12729,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H160" s="0" t="n">
         <x:v>0</x:v>
@@ -12744,13 +12750,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N160" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O160" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q160" s="0" t="n">
         <x:v>0</x:v>
@@ -12759,16 +12765,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U160" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V160" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
@@ -12812,7 +12818,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N161" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O161" s="0" t="n">
         <x:v>0</x:v>
@@ -12836,7 +12842,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V161" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:22">
@@ -12850,7 +12856,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D162" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E162" s="0" t="n">
         <x:v>0</x:v>
@@ -12877,16 +12883,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M162" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O162" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P162" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q162" s="0" t="n">
         <x:v>0</x:v>
@@ -12904,7 +12910,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V162" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:22">
@@ -12918,7 +12924,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D163" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E163" s="0" t="n">
         <x:v>0</x:v>
@@ -12945,16 +12951,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M163" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N163" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O163" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P163" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q163" s="0" t="n">
         <x:v>0</x:v>
@@ -12995,7 +13001,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G164" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H164" s="0" t="n">
         <x:v>0</x:v>
@@ -13013,7 +13019,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N164" s="0" t="n">
         <x:v>1</x:v>
@@ -13022,7 +13028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q164" s="0" t="n">
         <x:v>0</x:v>
@@ -13040,7 +13046,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V164" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:22">
@@ -13054,7 +13060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D165" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E165" s="0" t="n">
         <x:v>0</x:v>
@@ -13063,7 +13069,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H165" s="0" t="n">
         <x:v>0</x:v>
@@ -13084,7 +13090,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O165" s="0" t="n">
         <x:v>0</x:v>
@@ -13108,7 +13114,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V165" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:22">
@@ -13122,16 +13128,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D166" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F166" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G166" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H166" s="0" t="n">
         <x:v>0</x:v>
@@ -13140,7 +13146,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J166" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K166" s="0" t="n">
         <x:v>0</x:v>
@@ -13152,13 +13158,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N166" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P166" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q166" s="0" t="n">
         <x:v>0</x:v>
@@ -13170,13 +13176,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T166" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V166" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:22">
@@ -13190,16 +13196,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D167" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E167" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F167" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G167" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H167" s="0" t="n">
         <x:v>0</x:v>
@@ -13208,7 +13214,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J167" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K167" s="0" t="n">
         <x:v>0</x:v>
@@ -13220,13 +13226,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N167" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O167" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P167" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q167" s="0" t="n">
         <x:v>0</x:v>
@@ -13244,7 +13250,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V167" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:22">
@@ -13294,7 +13300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P168" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q168" s="0" t="n">
         <x:v>0</x:v>
@@ -13312,7 +13318,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V168" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:22">
@@ -13326,7 +13332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D169" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E169" s="0" t="n">
         <x:v>0</x:v>
@@ -13335,7 +13341,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G169" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H169" s="0" t="n">
         <x:v>0</x:v>
@@ -13344,7 +13350,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J169" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K169" s="0" t="n">
         <x:v>0</x:v>
@@ -13356,16 +13362,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N169" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O169" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P169" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q169" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R169" s="0" t="n">
         <x:v>0</x:v>
@@ -13374,13 +13380,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T169" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U169" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V169" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:22">
@@ -13394,7 +13400,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E170" s="0" t="n">
         <x:v>0</x:v>
@@ -13403,7 +13409,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H170" s="0" t="n">
         <x:v>0</x:v>
@@ -13412,7 +13418,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K170" s="0" t="n">
         <x:v>0</x:v>
@@ -13424,7 +13430,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="O170" s="0" t="n">
         <x:v>0</x:v>
@@ -13433,7 +13439,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R170" s="0" t="n">
         <x:v>0</x:v>
@@ -13442,13 +13448,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U170" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:22">
@@ -13471,7 +13477,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G171" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H171" s="0" t="n">
         <x:v>0</x:v>
@@ -13516,7 +13522,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V171" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">
@@ -13539,7 +13545,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G172" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H172" s="0" t="n">
         <x:v>0</x:v>
@@ -13566,7 +13572,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P172" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q172" s="0" t="n">
         <x:v>0</x:v>
@@ -13607,7 +13613,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G173" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H173" s="0" t="n">
         <x:v>0</x:v>
@@ -13646,13 +13652,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T173" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U173" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V173" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:22">
@@ -13672,7 +13678,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G174" s="0" t="n">
         <x:v>1</x:v>
@@ -13684,7 +13690,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K174" s="0" t="n">
         <x:v>0</x:v>
@@ -13693,16 +13699,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N174" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O174" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P174" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q174" s="0" t="n">
         <x:v>0</x:v>
@@ -13714,13 +13720,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T174" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U174" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V174" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:22">
@@ -13734,16 +13740,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D175" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E175" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F175" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G175" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H175" s="0" t="n">
         <x:v>0</x:v>
@@ -13752,7 +13758,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J175" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K175" s="0" t="n">
         <x:v>0</x:v>
@@ -13761,10 +13767,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M175" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N175" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O175" s="0" t="n">
         <x:v>0</x:v>
@@ -13788,7 +13794,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V175" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:22">
@@ -13802,7 +13808,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E176" s="0" t="n">
         <x:v>0</x:v>
@@ -13832,7 +13838,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N176" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O176" s="0" t="n">
         <x:v>0</x:v>
@@ -13856,7 +13862,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V176" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:22">
@@ -13870,7 +13876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D177" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E177" s="0" t="n">
         <x:v>0</x:v>
@@ -13900,7 +13906,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N177" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O177" s="0" t="n">
         <x:v>0</x:v>
@@ -13938,7 +13944,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D178" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E178" s="0" t="n">
         <x:v>0</x:v>
@@ -13947,7 +13953,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G178" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H178" s="0" t="n">
         <x:v>0</x:v>
@@ -13956,7 +13962,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J178" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K178" s="0" t="n">
         <x:v>0</x:v>
@@ -13968,7 +13974,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N178" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O178" s="0" t="n">
         <x:v>0</x:v>
@@ -13992,7 +13998,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V178" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:22">
@@ -14006,7 +14012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D179" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E179" s="0" t="n">
         <x:v>0</x:v>
@@ -14015,34 +14021,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G179" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H179" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I179" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J179" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K179" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L179" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M179" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N179" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O179" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P179" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q179" s="0" t="n">
         <x:v>0</x:v>
@@ -14051,16 +14057,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S179" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T179" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U179" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V179" s="0" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="T179" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="U179" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V179" s="0" t="n">
-        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
@@ -14071,64 +14077,64 @@
         <x:v>379</x:v>
       </x:c>
       <x:c r="C180" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D180" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F180" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G180" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I180" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J180" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N180" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="O180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P180" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R180" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="T180" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="U180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V180" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
@@ -14139,7 +14145,7 @@
         <x:v>381</x:v>
       </x:c>
       <x:c r="C181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D181" s="0" t="n">
         <x:v>2</x:v>
@@ -14148,19 +14154,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H181" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K181" s="0" t="n">
         <x:v>0</x:v>
@@ -14169,10 +14175,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M181" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N181" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O181" s="0" t="n">
         <x:v>0</x:v>
@@ -14181,22 +14187,22 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="Q181" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S181" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U181" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V181" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
@@ -14207,10 +14213,10 @@
         <x:v>383</x:v>
       </x:c>
       <x:c r="C182" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D182" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E182" s="0" t="n">
         <x:v>0</x:v>
@@ -14219,52 +14225,52 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G182" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H182" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I182" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J182" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K182" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L182" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M182" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N182" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H182" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I182" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J182" s="0" t="n">
+      <x:c r="O182" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P182" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="K182" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L182" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M182" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N182" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="O182" s="0" t="n">
+      <x:c r="Q182" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R182" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S182" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="P182" s="0" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="Q182" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R182" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S182" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="T182" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U182" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V182" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:22">
@@ -14275,7 +14281,7 @@
         <x:v>385</x:v>
       </x:c>
       <x:c r="C183" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D183" s="0" t="n">
         <x:v>0</x:v>
@@ -14284,10 +14290,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F183" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G183" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H183" s="0" t="n">
         <x:v>0</x:v>
@@ -14296,7 +14302,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J183" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K183" s="0" t="n">
         <x:v>0</x:v>
@@ -14305,16 +14311,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M183" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N183" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O183" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P183" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="Q183" s="0" t="n">
         <x:v>0</x:v>
@@ -14326,13 +14332,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T183" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U183" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V183" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:22">
@@ -14346,16 +14352,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D184" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E184" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F184" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G184" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H184" s="0" t="n">
         <x:v>0</x:v>
@@ -14364,7 +14370,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J184" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K184" s="0" t="n">
         <x:v>0</x:v>
@@ -14376,13 +14382,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N184" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O184" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P184" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q184" s="0" t="n">
         <x:v>0</x:v>
@@ -14394,13 +14400,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T184" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U184" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V184" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:22">
@@ -14414,7 +14420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D185" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E185" s="0" t="n">
         <x:v>0</x:v>
@@ -14423,7 +14429,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G185" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H185" s="0" t="n">
         <x:v>0</x:v>
@@ -14432,7 +14438,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J185" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K185" s="0" t="n">
         <x:v>0</x:v>
@@ -14444,13 +14450,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N185" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O185" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P185" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q185" s="0" t="n">
         <x:v>0</x:v>
@@ -14462,13 +14468,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T185" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U185" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V185" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:22">
@@ -14512,13 +14518,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N186" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O186" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P186" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q186" s="0" t="n">
         <x:v>0</x:v>
@@ -14559,7 +14565,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G187" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H187" s="0" t="n">
         <x:v>0</x:v>
@@ -14568,7 +14574,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J187" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K187" s="0" t="n">
         <x:v>0</x:v>
@@ -14580,13 +14586,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O187" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P187" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q187" s="0" t="n">
         <x:v>0</x:v>
@@ -14604,7 +14610,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V187" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
@@ -14618,7 +14624,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D188" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E188" s="0" t="n">
         <x:v>0</x:v>
@@ -14627,7 +14633,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G188" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H188" s="0" t="n">
         <x:v>0</x:v>
@@ -14636,7 +14642,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K188" s="0" t="n">
         <x:v>0</x:v>
@@ -14645,16 +14651,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M188" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N188" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O188" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P188" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q188" s="0" t="n">
         <x:v>0</x:v>
@@ -14672,7 +14678,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V188" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
@@ -14686,7 +14692,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E189" s="0" t="n">
         <x:v>0</x:v>
@@ -14695,7 +14701,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G189" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H189" s="0" t="n">
         <x:v>0</x:v>
@@ -14713,16 +14719,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P189" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q189" s="0" t="n">
         <x:v>0</x:v>
@@ -14740,7 +14746,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V189" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:22">
@@ -14751,64 +14757,64 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="C190" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D190" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E190" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F190" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G190" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H190" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I190" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J190" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K190" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L190" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M190" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N190" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O190" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P190" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q190" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R190" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S190" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T190" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U190" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V190" s="0" t="n">
-        <x:v>183</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:22">
@@ -14819,64 +14825,64 @@
         <x:v>401</x:v>
       </x:c>
       <x:c r="C191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E191" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G191" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H191" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L191" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N191" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="Q191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R191" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="U191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="V191" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
@@ -14908,7 +14914,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K192" s="0" t="n">
         <x:v>0</x:v>
@@ -14920,31 +14926,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N192" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O192" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P192" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q192" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R192" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S192" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T192" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U192" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V192" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="O192" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P192" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q192" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R192" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S192" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T192" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U192" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V192" s="0" t="n">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:22">
@@ -14967,7 +14973,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H193" s="0" t="n">
         <x:v>0</x:v>
@@ -14976,7 +14982,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K193" s="0" t="n">
         <x:v>0</x:v>
@@ -14988,10 +14994,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O193" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P193" s="0" t="n">
         <x:v>0</x:v>
@@ -15012,7 +15018,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V193" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
@@ -15035,7 +15041,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G194" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H194" s="0" t="n">
         <x:v>0</x:v>
@@ -15056,10 +15062,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N194" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P194" s="0" t="n">
         <x:v>0</x:v>
@@ -15080,7 +15086,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V194" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">
@@ -15094,7 +15100,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D195" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E195" s="0" t="n">
         <x:v>0</x:v>
@@ -15121,16 +15127,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M195" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N195" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O195" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P195" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q195" s="0" t="n">
         <x:v>0</x:v>
@@ -15142,13 +15148,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T195" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U195" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V195" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
@@ -15162,7 +15168,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D196" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E196" s="0" t="n">
         <x:v>0</x:v>
@@ -15171,7 +15177,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G196" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H196" s="0" t="n">
         <x:v>0</x:v>
@@ -15189,16 +15195,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M196" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N196" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="O196" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P196" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q196" s="0" t="n">
         <x:v>0</x:v>
@@ -15210,13 +15216,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T196" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U196" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V196" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:22">
@@ -15230,7 +15236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D197" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E197" s="0" t="n">
         <x:v>0</x:v>
@@ -15260,13 +15266,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N197" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O197" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P197" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q197" s="0" t="n">
         <x:v>0</x:v>
@@ -15284,7 +15290,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V197" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:22">
@@ -15396,13 +15402,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N199" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O199" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P199" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q199" s="0" t="n">
         <x:v>0</x:v>
@@ -15420,7 +15426,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V199" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:22">
@@ -15452,7 +15458,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J200" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K200" s="0" t="n">
         <x:v>0</x:v>
@@ -15464,7 +15470,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N200" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O200" s="0" t="n">
         <x:v>0</x:v>
@@ -15488,7 +15494,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V200" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">
@@ -15502,7 +15508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D201" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E201" s="0" t="n">
         <x:v>0</x:v>
@@ -15520,7 +15526,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K201" s="0" t="n">
         <x:v>0</x:v>
@@ -15541,7 +15547,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q201" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R201" s="0" t="n">
         <x:v>0</x:v>
@@ -15550,13 +15556,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T201" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U201" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V201" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:22">
@@ -15570,7 +15576,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E202" s="0" t="n">
         <x:v>0</x:v>
@@ -15609,7 +15615,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R202" s="0" t="n">
         <x:v>0</x:v>
@@ -15618,13 +15624,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U202" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V202" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:22">
@@ -15647,7 +15653,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G203" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H203" s="0" t="n">
         <x:v>0</x:v>
@@ -15674,7 +15680,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P203" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q203" s="0" t="n">
         <x:v>0</x:v>
@@ -15689,10 +15695,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U203" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V203" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:22">
@@ -15715,7 +15721,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G204" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H204" s="0" t="n">
         <x:v>0</x:v>
@@ -15736,13 +15742,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N204" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O204" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P204" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q204" s="0" t="n">
         <x:v>0</x:v>
@@ -15757,10 +15763,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U204" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V204" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:22">
@@ -15792,7 +15798,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J205" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K205" s="0" t="n">
         <x:v>0</x:v>
@@ -15804,13 +15810,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N205" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O205" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P205" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q205" s="0" t="n">
         <x:v>0</x:v>
@@ -15828,7 +15834,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V205" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:22">
@@ -15851,7 +15857,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G206" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H206" s="0" t="n">
         <x:v>0</x:v>
@@ -15860,7 +15866,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J206" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K206" s="0" t="n">
         <x:v>0</x:v>
@@ -15872,7 +15878,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N206" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O206" s="0" t="n">
         <x:v>0</x:v>
@@ -15896,7 +15902,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V206" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:22">
@@ -15910,7 +15916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D207" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E207" s="0" t="n">
         <x:v>0</x:v>
@@ -15919,7 +15925,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G207" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H207" s="0" t="n">
         <x:v>0</x:v>
@@ -15931,7 +15937,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K207" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L207" s="0" t="n">
         <x:v>0</x:v>
@@ -15964,7 +15970,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V207" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:22">
@@ -15978,7 +15984,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D208" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E208" s="0" t="n">
         <x:v>0</x:v>
@@ -15987,7 +15993,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G208" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H208" s="0" t="n">
         <x:v>0</x:v>
@@ -15996,7 +16002,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J208" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K208" s="0" t="n">
         <x:v>1</x:v>
@@ -16005,16 +16011,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M208" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N208" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O208" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P208" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q208" s="0" t="n">
         <x:v>0</x:v>
@@ -16026,13 +16032,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T208" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U208" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V208" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:22">
@@ -16046,7 +16052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D209" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E209" s="0" t="n">
         <x:v>0</x:v>
@@ -16055,7 +16061,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G209" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H209" s="0" t="n">
         <x:v>0</x:v>
@@ -16064,25 +16070,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J209" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K209" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L209" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M209" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N209" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O209" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P209" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q209" s="0" t="n">
         <x:v>0</x:v>
@@ -16094,13 +16100,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T209" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U209" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V209" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
@@ -16114,7 +16120,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D210" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E210" s="0" t="n">
         <x:v>0</x:v>
@@ -16147,10 +16153,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O210" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P210" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q210" s="0" t="n">
         <x:v>0</x:v>
@@ -16162,13 +16168,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T210" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U210" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V210" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:22">
@@ -16179,10 +16185,10 @@
         <x:v>441</x:v>
       </x:c>
       <x:c r="C211" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D211" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E211" s="0" t="n">
         <x:v>0</x:v>
@@ -16191,7 +16197,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G211" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H211" s="0" t="n">
         <x:v>0</x:v>
@@ -16212,7 +16218,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N211" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O211" s="0" t="n">
         <x:v>0</x:v>
@@ -16230,13 +16236,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T211" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U211" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V211" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
@@ -16247,7 +16253,7 @@
         <x:v>443</x:v>
       </x:c>
       <x:c r="C212" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D212" s="0" t="n">
         <x:v>1</x:v>
@@ -16256,10 +16262,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F212" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G212" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H212" s="0" t="n">
         <x:v>0</x:v>
@@ -16268,7 +16274,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J212" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K212" s="0" t="n">
         <x:v>0</x:v>
@@ -16277,16 +16283,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M212" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N212" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O212" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P212" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q212" s="0" t="n">
         <x:v>0</x:v>
@@ -16295,16 +16301,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S212" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T212" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U212" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V212" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:22">
@@ -16318,16 +16324,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D213" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E213" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F213" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G213" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H213" s="0" t="n">
         <x:v>0</x:v>
@@ -16336,7 +16342,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J213" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K213" s="0" t="n">
         <x:v>0</x:v>
@@ -16345,17 +16351,17 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M213" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N213" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="O213" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P213" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="O213" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P213" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="Q213" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -16366,13 +16372,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T213" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U213" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V213" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:22">
@@ -16383,10 +16389,10 @@
         <x:v>447</x:v>
       </x:c>
       <x:c r="C214" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D214" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E214" s="0" t="n">
         <x:v>0</x:v>
@@ -16395,17 +16401,17 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G214" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H214" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I214" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J214" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="H214" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I214" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="J214" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="K214" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -16413,34 +16419,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M214" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N214" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O214" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P214" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q214" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R214" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S214" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T214" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U214" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V214" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:22">
@@ -16451,10 +16457,10 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="C215" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D215" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E215" s="0" t="n">
         <x:v>0</x:v>
@@ -16463,16 +16469,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G215" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H215" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I215" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J215" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K215" s="0" t="n">
         <x:v>0</x:v>
@@ -16481,34 +16487,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M215" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N215" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O215" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P215" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q215" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R215" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S215" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T215" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="U215" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V215" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:22">
@@ -16531,16 +16537,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G216" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H216" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I216" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J216" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K216" s="0" t="n">
         <x:v>0</x:v>
@@ -16549,16 +16555,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M216" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N216" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O216" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P216" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q216" s="0" t="n">
         <x:v>0</x:v>
@@ -16576,7 +16582,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V216" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:22">
@@ -16620,7 +16626,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N217" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O217" s="0" t="n">
         <x:v>0</x:v>
@@ -16644,7 +16650,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V217" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:22">
@@ -16658,7 +16664,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D218" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E218" s="0" t="n">
         <x:v>0</x:v>
@@ -16688,7 +16694,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N218" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O218" s="0" t="n">
         <x:v>0</x:v>
@@ -16712,7 +16718,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V218" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
@@ -16726,7 +16732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D219" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E219" s="0" t="n">
         <x:v>0</x:v>
@@ -16744,20 +16750,20 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J219" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K219" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L219" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M219" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N219" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="K219" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L219" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M219" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N219" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="O219" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -16771,7 +16777,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S219" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T219" s="0" t="n">
         <x:v>0</x:v>
@@ -16794,26 +16800,26 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D220" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E220" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F220" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G220" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H220" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I220" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J220" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="K220" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -16821,7 +16827,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M220" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N220" s="0" t="n">
         <x:v>1</x:v>
@@ -16830,7 +16836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P220" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q220" s="0" t="n">
         <x:v>0</x:v>
@@ -16842,13 +16848,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T220" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U220" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V220" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:22">
@@ -16859,64 +16865,64 @@
         <x:v>461</x:v>
       </x:c>
       <x:c r="C221" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D221" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E221" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F221" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G221" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H221" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I221" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J221" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K221" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L221" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M221" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N221" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O221" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P221" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q221" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R221" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S221" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T221" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U221" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V221" s="0" t="n">
-        <x:v>129</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
@@ -16927,49 +16933,49 @@
         <x:v>463</x:v>
       </x:c>
       <x:c r="C222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E222" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H222" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J222" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L222" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N222" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="O222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P222" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R222" s="0" t="n">
         <x:v>0</x:v>
@@ -16978,13 +16984,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="U222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="V222" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:22">
@@ -17016,7 +17022,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K223" s="0" t="n">
         <x:v>0</x:v>
@@ -17028,13 +17034,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O223" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q223" s="0" t="n">
         <x:v>0</x:v>
@@ -17052,7 +17058,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:22">
@@ -17084,7 +17090,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J224" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K224" s="0" t="n">
         <x:v>0</x:v>
@@ -17096,7 +17102,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N224" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O224" s="0" t="n">
         <x:v>0</x:v>
@@ -17120,7 +17126,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V224" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:22">
@@ -17140,10 +17146,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F225" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G225" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H225" s="0" t="n">
         <x:v>0</x:v>
@@ -17164,7 +17170,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N225" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O225" s="0" t="n">
         <x:v>0</x:v>
@@ -17179,7 +17185,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S225" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T225" s="0" t="n">
         <x:v>0</x:v>
@@ -17188,7 +17194,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V225" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">
@@ -17208,10 +17214,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F226" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G226" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H226" s="0" t="n">
         <x:v>0</x:v>
@@ -17232,7 +17238,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N226" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O226" s="0" t="n">
         <x:v>0</x:v>
@@ -17247,7 +17253,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S226" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T226" s="0" t="n">
         <x:v>0</x:v>
@@ -17256,7 +17262,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V226" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:22">
@@ -17270,25 +17276,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D227" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E227" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F227" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G227" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H227" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I227" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J227" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K227" s="0" t="n">
         <x:v>0</x:v>
@@ -17300,7 +17306,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N227" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O227" s="0" t="n">
         <x:v>0</x:v>
@@ -17315,16 +17321,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S227" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T227" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U227" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V227" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="U227" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="V227" s="0" t="n">
-        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:22">
@@ -17338,25 +17344,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E228" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H228" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K228" s="0" t="n">
         <x:v>0</x:v>
@@ -17368,7 +17374,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O228" s="0" t="n">
         <x:v>0</x:v>
@@ -17383,16 +17389,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T228" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="V228" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:22">
@@ -17424,7 +17430,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J229" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K229" s="0" t="n">
         <x:v>0</x:v>
@@ -17436,13 +17442,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N229" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O229" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P229" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q229" s="0" t="n">
         <x:v>0</x:v>
@@ -17454,13 +17460,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T229" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U229" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V229" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:22">
@@ -17492,7 +17498,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J230" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K230" s="0" t="n">
         <x:v>0</x:v>
@@ -17510,7 +17516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P230" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q230" s="0" t="n">
         <x:v>0</x:v>
@@ -17528,7 +17534,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V230" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:22">
@@ -17542,7 +17548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D231" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E231" s="0" t="n">
         <x:v>0</x:v>
@@ -17572,7 +17578,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N231" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O231" s="0" t="n">
         <x:v>0</x:v>
@@ -17590,13 +17596,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T231" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U231" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V231" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:22">
@@ -17610,7 +17616,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D232" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E232" s="0" t="n">
         <x:v>0</x:v>
@@ -17619,7 +17625,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G232" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H232" s="0" t="n">
         <x:v>0</x:v>
@@ -17640,7 +17646,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N232" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O232" s="0" t="n">
         <x:v>0</x:v>
@@ -17658,13 +17664,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T232" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="U232" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V232" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:22">
@@ -17678,16 +17684,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D233" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E233" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F233" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G233" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H233" s="0" t="n">
         <x:v>0</x:v>
@@ -17708,7 +17714,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N233" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O233" s="0" t="n">
         <x:v>0</x:v>
@@ -17726,13 +17732,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T233" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="U233" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V233" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:22">
@@ -17746,16 +17752,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D234" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E234" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F234" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G234" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H234" s="0" t="n">
         <x:v>0</x:v>
@@ -17776,7 +17782,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N234" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O234" s="0" t="n">
         <x:v>0</x:v>
@@ -17794,13 +17800,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T234" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U234" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V234" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:22">
@@ -17814,7 +17820,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E235" s="0" t="n">
         <x:v>0</x:v>
@@ -17823,7 +17829,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H235" s="0" t="n">
         <x:v>0</x:v>
@@ -17844,31 +17850,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N235" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="O235" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P235" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q235" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R235" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S235" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T235" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="O235" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P235" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q235" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R235" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S235" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T235" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="U235" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V235" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:22">
@@ -17882,7 +17888,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D236" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E236" s="0" t="n">
         <x:v>0</x:v>
@@ -17912,7 +17918,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N236" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O236" s="0" t="n">
         <x:v>0</x:v>
@@ -17930,13 +17936,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T236" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U236" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V236" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:22">
@@ -17950,7 +17956,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D237" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E237" s="0" t="n">
         <x:v>0</x:v>
@@ -17959,7 +17965,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G237" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H237" s="0" t="n">
         <x:v>0</x:v>
@@ -17980,7 +17986,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N237" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O237" s="0" t="n">
         <x:v>0</x:v>
@@ -17998,13 +18004,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T237" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="U237" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V237" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:22">
@@ -18018,7 +18024,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D238" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E238" s="0" t="n">
         <x:v>0</x:v>
@@ -18027,7 +18033,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G238" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H238" s="0" t="n">
         <x:v>0</x:v>
@@ -18048,7 +18054,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N238" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O238" s="0" t="n">
         <x:v>0</x:v>
@@ -18066,13 +18072,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T238" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U238" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V238" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">
@@ -18086,7 +18092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D239" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E239" s="0" t="n">
         <x:v>0</x:v>
@@ -18095,7 +18101,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G239" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H239" s="0" t="n">
         <x:v>0</x:v>
@@ -18116,7 +18122,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N239" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O239" s="0" t="n">
         <x:v>0</x:v>
@@ -18134,13 +18140,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T239" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U239" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V239" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:22">
@@ -18154,7 +18160,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D240" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E240" s="0" t="n">
         <x:v>0</x:v>
@@ -18163,7 +18169,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G240" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H240" s="0" t="n">
         <x:v>0</x:v>
@@ -18202,7 +18208,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T240" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U240" s="0" t="n">
         <x:v>0</x:v>
@@ -18222,60 +18228,128 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D241" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E241" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F241" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G241" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H241" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I241" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J241" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K241" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L241" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M241" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N241" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O241" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P241" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q241" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R241" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S241" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T241" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U241" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V241" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="242" spans="1:22">
+      <x:c r="A242" s="0" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="B242" s="0" t="s">
+        <x:v>503</x:v>
+      </x:c>
+      <x:c r="C242" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D242" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G241" s="0" t="n">
+      <x:c r="E242" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F242" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G242" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="H241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N241" s="0" t="n">
+      <x:c r="H242" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I242" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J242" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K242" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L242" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M242" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N242" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="O241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V241" s="0" t="n">
+      <x:c r="O242" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P242" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q242" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R242" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S242" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T242" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U242" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V242" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -7073,7 +7073,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="C77" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
         <x:v>24</x:v>
@@ -7130,7 +7130,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="V77" s="0" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:22">
@@ -7638,7 +7638,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J85" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K85" s="0" t="n">
         <x:v>1</x:v>
@@ -7656,7 +7656,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P85" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="Q85" s="0" t="n">
         <x:v>1</x:v>
@@ -17516,7 +17516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P230" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q230" s="0" t="n">
         <x:v>0</x:v>
@@ -17534,7 +17534,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V230" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -7357,7 +7357,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
         <x:v>0</x:v>
@@ -7396,13 +7396,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T81" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U81" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="V81" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:22">
@@ -12939,7 +12939,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I163" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J163" s="0" t="n">
         <x:v>0</x:v>
@@ -12978,7 +12978,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V163" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:22">
@@ -14837,7 +14837,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G191" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H191" s="0" t="n">
         <x:v>0</x:v>
@@ -14882,7 +14882,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="V191" s="0" t="n">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
@@ -15145,7 +15145,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T195" s="0" t="n">
         <x:v>0</x:v>
@@ -15154,7 +15154,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V195" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
@@ -15195,7 +15195,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M196" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N196" s="0" t="n">
         <x:v>2</x:v>
@@ -15222,7 +15222,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V196" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:22">
@@ -16085,7 +16085,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="O209" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P209" s="0" t="n">
         <x:v>7</x:v>
@@ -16106,7 +16106,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V209" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -9962,7 +9962,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N119" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O119" s="0" t="n">
         <x:v>0</x:v>
@@ -9986,7 +9986,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V119" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -5424,13 +5424,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T52" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U52" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="V52" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:22">
@@ -6494,7 +6494,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N68" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="O68" s="0" t="n">
         <x:v>1</x:v>
@@ -6518,7 +6518,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="V68" s="0" t="n">
-        <x:v>263</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:22">
@@ -8330,7 +8330,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N95" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="O95" s="0" t="n">
         <x:v>1</x:v>
@@ -8354,7 +8354,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="V95" s="0" t="n">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">
@@ -11458,7 +11458,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N141" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O141" s="0" t="n">
         <x:v>0</x:v>
@@ -11482,7 +11482,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V141" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:22">
@@ -12070,7 +12070,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N150" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="O150" s="0" t="n">
         <x:v>0</x:v>
@@ -12088,13 +12088,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T150" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U150" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="V150" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:22">
@@ -14246,7 +14246,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N182" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O182" s="0" t="n">
         <x:v>0</x:v>
@@ -14270,7 +14270,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V182" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:22">
@@ -14731,7 +14731,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="Q189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R189" s="0" t="n">
         <x:v>0</x:v>
@@ -14746,7 +14746,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V189" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -8037,7 +8037,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G91" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H91" s="0" t="n">
         <x:v>0</x:v>
@@ -8076,13 +8076,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T91" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U91" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="V91" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:22">
@@ -8534,7 +8534,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N98" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O98" s="0" t="n">
         <x:v>0</x:v>
@@ -8558,7 +8558,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V98" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -5746,7 +5746,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N57" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O57" s="0" t="n">
         <x:v>2</x:v>
@@ -5770,7 +5770,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V57" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:22">
@@ -12398,7 +12398,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J155" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K155" s="0" t="n">
         <x:v>0</x:v>
@@ -12434,7 +12434,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V155" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -3502,7 +3502,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="N24" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
         <x:v>0</x:v>
@@ -3526,7 +3526,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V24" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:22">
@@ -5087,10 +5087,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U47" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="V47" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:22">
@@ -5752,7 +5752,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P57" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q57" s="0" t="n">
         <x:v>0</x:v>
@@ -5770,7 +5770,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V57" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:22">
@@ -6609,7 +6609,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
         <x:v>0</x:v>
@@ -6654,7 +6654,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V70" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
@@ -14710,7 +14710,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K189" s="0" t="n">
         <x:v>0</x:v>
@@ -14746,7 +14746,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V189" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:22">
@@ -16490,7 +16490,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="N215" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O215" s="0" t="n">
         <x:v>0</x:v>
@@ -16514,7 +16514,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V215" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -7094,7 +7094,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="J77" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="K77" s="0" t="n">
         <x:v>0</x:v>
@@ -7124,13 +7124,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="T77" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="U77" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="V77" s="0" t="n">
-        <x:v>460</x:v>
+        <x:v>463</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -7212,7 +7212,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D79" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
         <x:v>0</x:v>
@@ -7248,7 +7248,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P79" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q79" s="0" t="n">
         <x:v>0</x:v>
@@ -7266,7 +7266,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V79" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:22">
@@ -7617,7 +7617,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="C85" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D85" s="0" t="n">
         <x:v>0</x:v>
@@ -7638,7 +7638,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J85" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K85" s="0" t="n">
         <x:v>1</x:v>
@@ -7656,7 +7656,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P85" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="Q85" s="0" t="n">
         <x:v>1</x:v>
@@ -7674,7 +7674,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V85" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:22">
@@ -10370,7 +10370,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N125" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O125" s="0" t="n">
         <x:v>0</x:v>
@@ -10394,7 +10394,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V125" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:22">
@@ -14361,7 +14361,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G184" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H184" s="0" t="n">
         <x:v>0</x:v>
@@ -14406,7 +14406,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V184" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -3129,7 +3129,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
         <x:v>0</x:v>
@@ -3168,7 +3168,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P19" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q19" s="0" t="n">
         <x:v>0</x:v>
@@ -3186,7 +3186,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V19" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:22">
@@ -13368,7 +13368,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P169" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q169" s="0" t="n">
         <x:v>0</x:v>
@@ -13386,7 +13386,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V169" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:22">
@@ -14314,7 +14314,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N183" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O183" s="0" t="n">
         <x:v>3</x:v>
@@ -14338,7 +14338,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V183" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:22">
@@ -18276,13 +18276,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U241" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V241" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -10299,10 +10299,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N124" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O124" s="0" t="n">
         <x:v>0</x:v>
@@ -10326,7 +10326,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">
@@ -13409,7 +13409,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G170" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H170" s="0" t="n">
         <x:v>0</x:v>
@@ -13430,7 +13430,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N170" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O170" s="0" t="n">
         <x:v>0</x:v>
@@ -13454,7 +13454,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V170" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -5862,7 +5862,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N58" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O58" s="0" t="n">
         <x:v>2</x:v>
@@ -5886,7 +5886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V58" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:22">
@@ -14681,7 +14681,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G188" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H188" s="0" t="n">
         <x:v>0</x:v>
@@ -14702,13 +14702,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N188" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O188" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="P188" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="Q188" s="0" t="n">
         <x:v>0</x:v>
@@ -14726,7 +14726,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V188" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
@@ -17354,7 +17354,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N227" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O227" s="0" t="n">
         <x:v>0</x:v>
@@ -17378,7 +17378,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V227" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -3228,13 +3228,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T19" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V19" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:22">
@@ -11204,7 +11204,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D137" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E137" s="0" t="n">
         <x:v>0</x:v>
@@ -11258,7 +11258,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V137" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:22">
@@ -12455,7 +12455,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M155" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N155" s="0" t="n">
         <x:v>17</x:v>
@@ -12482,7 +12482,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="V155" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:22">
@@ -15116,7 +15116,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P194" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q194" s="0" t="n">
         <x:v>1</x:v>
@@ -15134,7 +15134,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V194" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">
@@ -17537,7 +17537,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G230" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H230" s="0" t="n">
         <x:v>0</x:v>
@@ -17582,7 +17582,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V230" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="520">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
   <x:si>
     <x:t>Agency ORI</x:t>
   </x:si>
@@ -740,6 +740,12 @@
   </x:si>
   <x:si>
     <x:t>International Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0370000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac Qui Parle County Sheriff</x:t>
   </x:si>
   <x:si>
     <x:t>MN0380000</x:t>
@@ -1939,7 +1945,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:V250"/>
+  <x:dimension ref="A1:V251"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2616,13 +2622,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T10" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U10" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="V10" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:22">
@@ -6832,13 +6838,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T72" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U72" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="V72" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:22">
@@ -9513,7 +9519,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G112" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H112" s="0" t="n">
         <x:v>0</x:v>
@@ -9522,7 +9528,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J112" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K112" s="0" t="n">
         <x:v>0</x:v>
@@ -9534,7 +9540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N112" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O112" s="0" t="n">
         <x:v>0</x:v>
@@ -9558,7 +9564,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V112" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:22">
@@ -9581,7 +9587,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G113" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H113" s="0" t="n">
         <x:v>0</x:v>
@@ -9590,7 +9596,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J113" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K113" s="0" t="n">
         <x:v>0</x:v>
@@ -9626,7 +9632,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V113" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:22">
@@ -9637,7 +9643,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="C114" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D114" s="0" t="n">
         <x:v>0</x:v>
@@ -9649,13 +9655,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G114" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H114" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I114" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
         <x:v>0</x:v>
@@ -9667,22 +9673,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M114" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N114" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O114" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P114" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q114" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R114" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S114" s="0" t="n">
         <x:v>0</x:v>
@@ -9694,7 +9700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -9705,10 +9711,10 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="C115" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D115" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E115" s="0" t="n">
         <x:v>0</x:v>
@@ -9717,13 +9723,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G115" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H115" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I115" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J115" s="0" t="n">
         <x:v>0</x:v>
@@ -9735,22 +9741,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M115" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N115" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O115" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P115" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q115" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R115" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S115" s="0" t="n">
         <x:v>0</x:v>
@@ -9762,7 +9768,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V115" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:22">
@@ -9776,7 +9782,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D116" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E116" s="0" t="n">
         <x:v>0</x:v>
@@ -9806,7 +9812,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N116" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O116" s="0" t="n">
         <x:v>0</x:v>
@@ -9824,13 +9830,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T116" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U116" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V116" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:22">
@@ -9844,7 +9850,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D117" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E117" s="0" t="n">
         <x:v>0</x:v>
@@ -9853,7 +9859,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G117" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H117" s="0" t="n">
         <x:v>0</x:v>
@@ -9862,7 +9868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J117" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K117" s="0" t="n">
         <x:v>0</x:v>
@@ -9880,7 +9886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P117" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q117" s="0" t="n">
         <x:v>0</x:v>
@@ -9892,13 +9898,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T117" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U117" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V117" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:22">
@@ -9912,7 +9918,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D118" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E118" s="0" t="n">
         <x:v>0</x:v>
@@ -9921,7 +9927,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G118" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H118" s="0" t="n">
         <x:v>0</x:v>
@@ -9930,43 +9936,43 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J118" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K118" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L118" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M118" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N118" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="K118" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L118" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M118" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N118" s="0" t="n">
+      <x:c r="O118" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P118" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="Q118" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R118" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S118" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T118" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="U118" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V118" s="0" t="n">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="O118" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P118" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q118" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R118" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S118" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T118" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U118" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V118" s="0" t="n">
-        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
@@ -9989,7 +9995,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G119" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H119" s="0" t="n">
         <x:v>0</x:v>
@@ -9998,7 +10004,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J119" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K119" s="0" t="n">
         <x:v>0</x:v>
@@ -10007,34 +10013,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M119" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N119" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="O119" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P119" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q119" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R119" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S119" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T119" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U119" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V119" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:22">
@@ -10048,7 +10054,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D120" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E120" s="0" t="n">
         <x:v>0</x:v>
@@ -10057,7 +10063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G120" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H120" s="0" t="n">
         <x:v>0</x:v>
@@ -10066,7 +10072,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J120" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K120" s="0" t="n">
         <x:v>0</x:v>
@@ -10075,7 +10081,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M120" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N120" s="0" t="n">
         <x:v>2</x:v>
@@ -10090,13 +10096,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R120" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S120" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T120" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U120" s="0" t="n">
         <x:v>0</x:v>
@@ -10113,10 +10119,10 @@
         <x:v>261</x:v>
       </x:c>
       <x:c r="C121" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D121" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E121" s="0" t="n">
         <x:v>0</x:v>
@@ -10125,7 +10131,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G121" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H121" s="0" t="n">
         <x:v>0</x:v>
@@ -10134,7 +10140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J121" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K121" s="0" t="n">
         <x:v>0</x:v>
@@ -10143,16 +10149,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M121" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N121" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O121" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P121" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q121" s="0" t="n">
         <x:v>0</x:v>
@@ -10170,7 +10176,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V121" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:22">
@@ -10181,29 +10187,29 @@
         <x:v>263</x:v>
       </x:c>
       <x:c r="C122" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D122" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E122" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F122" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G122" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H122" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I122" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J122" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G122" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H122" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I122" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J122" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="K122" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -10211,16 +10217,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M122" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N122" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O122" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P122" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q122" s="0" t="n">
         <x:v>0</x:v>
@@ -10238,7 +10244,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V122" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:22">
@@ -10258,37 +10264,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F123" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G123" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H123" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I123" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J123" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K123" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L123" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M123" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N123" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O123" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P123" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q123" s="0" t="n">
         <x:v>0</x:v>
@@ -10303,10 +10309,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U123" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V123" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:22">
@@ -10320,7 +10326,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D124" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E124" s="0" t="n">
         <x:v>0</x:v>
@@ -10335,46 +10341,46 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J124" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L124" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M124" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N124" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O124" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P124" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q124" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R124" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S124" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T124" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U124" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V124" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="O124" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P124" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q124" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R124" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S124" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T124" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U124" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V124" s="0" t="n">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">
@@ -10388,7 +10394,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D125" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E125" s="0" t="n">
         <x:v>0</x:v>
@@ -10415,10 +10421,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M125" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N125" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O125" s="0" t="n">
         <x:v>0</x:v>
@@ -10436,13 +10442,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T125" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U125" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V125" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:22">
@@ -10465,7 +10471,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G126" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H126" s="0" t="n">
         <x:v>0</x:v>
@@ -10483,10 +10489,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M126" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N126" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O126" s="0" t="n">
         <x:v>0</x:v>
@@ -10504,13 +10510,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T126" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U126" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V126" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:22">
@@ -10530,19 +10536,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F127" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G127" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H127" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I127" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J127" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K127" s="0" t="n">
         <x:v>0</x:v>
@@ -10551,10 +10557,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M127" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N127" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="O127" s="0" t="n">
         <x:v>0</x:v>
@@ -10572,13 +10578,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T127" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U127" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V127" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:22">
@@ -10598,19 +10604,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F128" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G128" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H128" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I128" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J128" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K128" s="0" t="n">
         <x:v>0</x:v>
@@ -10622,7 +10628,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N128" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O128" s="0" t="n">
         <x:v>0</x:v>
@@ -10646,7 +10652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V128" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:22">
@@ -10660,16 +10666,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D129" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E129" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F129" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G129" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H129" s="0" t="n">
         <x:v>0</x:v>
@@ -10678,7 +10684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J129" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K129" s="0" t="n">
         <x:v>0</x:v>
@@ -10690,16 +10696,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N129" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O129" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P129" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q129" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R129" s="0" t="n">
         <x:v>0</x:v>
@@ -10708,13 +10714,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T129" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U129" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V129" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
@@ -10728,16 +10734,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E130" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H130" s="0" t="n">
         <x:v>0</x:v>
@@ -10746,7 +10752,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K130" s="0" t="n">
         <x:v>0</x:v>
@@ -10758,16 +10764,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O130" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P130" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R130" s="0" t="n">
         <x:v>0</x:v>
@@ -10776,13 +10782,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U130" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V130" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:22">
@@ -10814,7 +10820,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J131" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K131" s="0" t="n">
         <x:v>0</x:v>
@@ -10823,7 +10829,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M131" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N131" s="0" t="n">
         <x:v>0</x:v>
@@ -10832,7 +10838,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P131" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q131" s="0" t="n">
         <x:v>0</x:v>
@@ -10850,7 +10856,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V131" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:22">
@@ -10891,7 +10897,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M132" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N132" s="0" t="n">
         <x:v>0</x:v>
@@ -10900,7 +10906,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P132" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q132" s="0" t="n">
         <x:v>0</x:v>
@@ -10918,7 +10924,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V132" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:22">
@@ -10932,16 +10938,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D133" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E133" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F133" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G133" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H133" s="0" t="n">
         <x:v>0</x:v>
@@ -10950,7 +10956,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J133" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K133" s="0" t="n">
         <x:v>0</x:v>
@@ -10968,7 +10974,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P133" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q133" s="0" t="n">
         <x:v>0</x:v>
@@ -10986,7 +10992,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V133" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:22">
@@ -11000,16 +11006,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D134" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E134" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F134" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G134" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H134" s="0" t="n">
         <x:v>0</x:v>
@@ -11018,7 +11024,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J134" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K134" s="0" t="n">
         <x:v>0</x:v>
@@ -11027,16 +11033,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M134" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N134" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O134" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P134" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="Q134" s="0" t="n">
         <x:v>0</x:v>
@@ -11048,13 +11054,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T134" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U134" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V134" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:22">
@@ -11068,7 +11074,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D135" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E135" s="0" t="n">
         <x:v>0</x:v>
@@ -11086,7 +11092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J135" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K135" s="0" t="n">
         <x:v>0</x:v>
@@ -11095,7 +11101,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M135" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N135" s="0" t="n">
         <x:v>1</x:v>
@@ -11104,7 +11110,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P135" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q135" s="0" t="n">
         <x:v>0</x:v>
@@ -11116,13 +11122,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T135" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U135" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V135" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:22">
@@ -11133,10 +11139,10 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="C136" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D136" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E136" s="0" t="n">
         <x:v>0</x:v>
@@ -11145,16 +11151,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G136" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H136" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I136" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J136" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K136" s="0" t="n">
         <x:v>0</x:v>
@@ -11163,16 +11169,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M136" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N136" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O136" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P136" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="Q136" s="0" t="n">
         <x:v>0</x:v>
@@ -11187,10 +11193,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U136" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V136" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:22">
@@ -11201,29 +11207,29 @@
         <x:v>293</x:v>
       </x:c>
       <x:c r="C137" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D137" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E137" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F137" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G137" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H137" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I137" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="J137" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G137" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="H137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J137" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="K137" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -11231,22 +11237,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M137" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N137" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O137" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P137" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q137" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R137" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S137" s="0" t="n">
         <x:v>0</x:v>
@@ -11255,10 +11261,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U137" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V137" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:22">
@@ -11272,26 +11278,26 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D138" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E138" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F138" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G138" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H138" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I138" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J138" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J138" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="K138" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -11302,7 +11308,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N138" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O138" s="0" t="n">
         <x:v>0</x:v>
@@ -11311,10 +11317,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q138" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R138" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S138" s="0" t="n">
         <x:v>0</x:v>
@@ -11323,10 +11329,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U138" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V138" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
@@ -11340,16 +11346,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E139" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G139" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H139" s="0" t="n">
         <x:v>0</x:v>
@@ -11358,7 +11364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K139" s="0" t="n">
         <x:v>0</x:v>
@@ -11370,7 +11376,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N139" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O139" s="0" t="n">
         <x:v>0</x:v>
@@ -11379,7 +11385,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R139" s="0" t="n">
         <x:v>0</x:v>
@@ -11388,13 +11394,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T139" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U139" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V139" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:22">
@@ -11405,10 +11411,10 @@
         <x:v>299</x:v>
       </x:c>
       <x:c r="C140" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D140" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E140" s="0" t="n">
         <x:v>0</x:v>
@@ -11417,7 +11423,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G140" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H140" s="0" t="n">
         <x:v>0</x:v>
@@ -11426,10 +11432,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J140" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K140" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L140" s="0" t="n">
         <x:v>0</x:v>
@@ -11438,10 +11444,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N140" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O140" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P140" s="0" t="n">
         <x:v>0</x:v>
@@ -11456,13 +11462,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T140" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U140" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="V140" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:22">
@@ -11473,10 +11479,10 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="C141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E141" s="0" t="n">
         <x:v>0</x:v>
@@ -11485,7 +11491,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H141" s="0" t="n">
         <x:v>0</x:v>
@@ -11494,10 +11500,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L141" s="0" t="n">
         <x:v>0</x:v>
@@ -11506,10 +11512,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N141" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P141" s="0" t="n">
         <x:v>0</x:v>
@@ -11524,13 +11530,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V141" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:22">
@@ -11541,10 +11547,10 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="C142" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D142" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E142" s="0" t="n">
         <x:v>0</x:v>
@@ -11553,7 +11559,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G142" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H142" s="0" t="n">
         <x:v>0</x:v>
@@ -11562,7 +11568,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J142" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K142" s="0" t="n">
         <x:v>0</x:v>
@@ -11571,34 +11577,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M142" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N142" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O142" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P142" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q142" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R142" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S142" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T142" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U142" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V142" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:22">
@@ -11609,28 +11615,28 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="C143" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D143" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E143" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F143" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G143" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H143" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I143" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J143" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K143" s="0" t="n">
         <x:v>0</x:v>
@@ -11642,31 +11648,31 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="N143" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O143" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P143" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="Q143" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R143" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S143" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T143" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U143" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="V143" s="0" t="n">
-        <x:v>196</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:22">
@@ -11677,64 +11683,64 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="C144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E144" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G144" s="0" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H144" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I144" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J144" s="0" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K144" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L144" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M144" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="N144" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="O144" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="P144" s="0" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="Q144" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="R144" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S144" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H144" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I144" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J144" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K144" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L144" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M144" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N144" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="O144" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P144" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Q144" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R144" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S144" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="T144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V144" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:22">
@@ -11754,19 +11760,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F145" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G145" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G145" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="H145" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I145" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J145" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K145" s="0" t="n">
         <x:v>0</x:v>
@@ -11775,16 +11781,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M145" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N145" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O145" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P145" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q145" s="0" t="n">
         <x:v>1</x:v>
@@ -11796,13 +11802,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T145" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U145" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V145" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:22">
@@ -11822,19 +11828,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F146" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G146" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H146" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I146" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J146" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K146" s="0" t="n">
         <x:v>0</x:v>
@@ -11846,16 +11852,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N146" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O146" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P146" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q146" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R146" s="0" t="n">
         <x:v>0</x:v>
@@ -11864,13 +11870,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T146" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U146" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V146" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:22">
@@ -11914,13 +11920,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N147" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O147" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P147" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q147" s="0" t="n">
         <x:v>0</x:v>
@@ -11938,7 +11944,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V147" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:22">
@@ -11952,7 +11958,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D148" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E148" s="0" t="n">
         <x:v>0</x:v>
@@ -11961,13 +11967,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G148" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H148" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I148" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J148" s="0" t="n">
         <x:v>0</x:v>
@@ -11982,13 +11988,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N148" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O148" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P148" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q148" s="0" t="n">
         <x:v>0</x:v>
@@ -12006,7 +12012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V148" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:22">
@@ -12020,7 +12026,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D149" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E149" s="0" t="n">
         <x:v>0</x:v>
@@ -12029,16 +12035,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G149" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H149" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I149" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J149" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K149" s="0" t="n">
         <x:v>0</x:v>
@@ -12050,13 +12056,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N149" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O149" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P149" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q149" s="0" t="n">
         <x:v>0</x:v>
@@ -12071,10 +12077,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U149" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V149" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:22">
@@ -12097,7 +12103,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G150" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H150" s="0" t="n">
         <x:v>0</x:v>
@@ -12106,7 +12112,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J150" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K150" s="0" t="n">
         <x:v>0</x:v>
@@ -12118,16 +12124,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N150" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O150" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P150" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q150" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R150" s="0" t="n">
         <x:v>0</x:v>
@@ -12136,13 +12142,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T150" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U150" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V150" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:22">
@@ -12156,7 +12162,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D151" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E151" s="0" t="n">
         <x:v>0</x:v>
@@ -12165,16 +12171,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G151" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H151" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I151" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J151" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K151" s="0" t="n">
         <x:v>0</x:v>
@@ -12183,19 +12189,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M151" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N151" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O151" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P151" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q151" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R151" s="0" t="n">
         <x:v>0</x:v>
@@ -12204,13 +12210,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T151" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U151" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V151" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:22">
@@ -12224,7 +12230,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E152" s="0" t="n">
         <x:v>0</x:v>
@@ -12233,34 +12239,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G152" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H152" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I152" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J152" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K152" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L152" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M152" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N152" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="H152" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I152" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J152" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K152" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L152" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M152" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N152" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="O152" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q152" s="0" t="n">
         <x:v>0</x:v>
@@ -12272,13 +12278,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U152" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V152" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:22">
@@ -12292,7 +12298,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D153" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E153" s="0" t="n">
         <x:v>0</x:v>
@@ -12301,7 +12307,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G153" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H153" s="0" t="n">
         <x:v>0</x:v>
@@ -12310,7 +12316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J153" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K153" s="0" t="n">
         <x:v>0</x:v>
@@ -12322,7 +12328,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N153" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O153" s="0" t="n">
         <x:v>0</x:v>
@@ -12334,19 +12340,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R153" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S153" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T153" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U153" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V153" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:22">
@@ -12360,7 +12366,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D154" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E154" s="0" t="n">
         <x:v>0</x:v>
@@ -12369,7 +12375,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G154" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H154" s="0" t="n">
         <x:v>0</x:v>
@@ -12378,7 +12384,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J154" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K154" s="0" t="n">
         <x:v>0</x:v>
@@ -12390,7 +12396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N154" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O154" s="0" t="n">
         <x:v>0</x:v>
@@ -12402,19 +12408,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R154" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S154" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T154" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U154" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V154" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
@@ -12425,25 +12431,25 @@
         <x:v>329</x:v>
       </x:c>
       <x:c r="C155" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D155" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E155" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F155" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G155" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H155" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I155" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J155" s="0" t="n">
         <x:v>0</x:v>
@@ -12455,10 +12461,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M155" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N155" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O155" s="0" t="n">
         <x:v>0</x:v>
@@ -12467,22 +12473,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q155" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R155" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S155" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T155" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U155" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V155" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:22">
@@ -12493,10 +12499,10 @@
         <x:v>331</x:v>
       </x:c>
       <x:c r="C156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D156" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E156" s="0" t="n">
         <x:v>0</x:v>
@@ -12505,7 +12511,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G156" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H156" s="0" t="n">
         <x:v>0</x:v>
@@ -12514,7 +12520,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J156" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K156" s="0" t="n">
         <x:v>0</x:v>
@@ -12523,10 +12529,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N156" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="O156" s="0" t="n">
         <x:v>0</x:v>
@@ -12535,22 +12541,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q156" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R156" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="S156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T156" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="U156" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="V156" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:22">
@@ -12564,13 +12570,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E157" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F157" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G157" s="0" t="n">
         <x:v>2</x:v>
@@ -12582,7 +12588,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J157" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K157" s="0" t="n">
         <x:v>0</x:v>
@@ -12591,10 +12597,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N157" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O157" s="0" t="n">
         <x:v>0</x:v>
@@ -12603,7 +12609,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q157" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R157" s="0" t="n">
         <x:v>1</x:v>
@@ -12612,13 +12618,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U157" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V157" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:22">
@@ -12632,7 +12638,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D158" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E158" s="0" t="n">
         <x:v>0</x:v>
@@ -12641,16 +12647,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G158" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H158" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I158" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J158" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K158" s="0" t="n">
         <x:v>0</x:v>
@@ -12674,19 +12680,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R158" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S158" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T158" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U158" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="V158" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:22">
@@ -12697,10 +12703,10 @@
         <x:v>337</x:v>
       </x:c>
       <x:c r="C159" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D159" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E159" s="0" t="n">
         <x:v>0</x:v>
@@ -12718,7 +12724,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J159" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K159" s="0" t="n">
         <x:v>0</x:v>
@@ -12727,10 +12733,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M159" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N159" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O159" s="0" t="n">
         <x:v>0</x:v>
@@ -12751,10 +12757,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U159" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V159" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:22">
@@ -12765,64 +12771,64 @@
         <x:v>339</x:v>
       </x:c>
       <x:c r="C160" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N160" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="O160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V160" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="D160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G160" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I160" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J160" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="K160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N160" s="0" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="O160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T160" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="U160" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V160" s="0" t="n">
-        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
@@ -12833,28 +12839,28 @@
         <x:v>341</x:v>
       </x:c>
       <x:c r="C161" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D161" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E161" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F161" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G161" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H161" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I161" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J161" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K161" s="0" t="n">
         <x:v>0</x:v>
@@ -12863,34 +12869,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M161" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N161" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O161" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P161" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q161" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R161" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S161" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T161" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="N161" s="0" t="n">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="O161" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P161" s="0" t="n">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="Q161" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="R161" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S161" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="T161" s="0" t="n">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="U161" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V161" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:22">
@@ -12901,28 +12907,28 @@
         <x:v>343</x:v>
       </x:c>
       <x:c r="C162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E162" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G162" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H162" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K162" s="0" t="n">
         <x:v>0</x:v>
@@ -12931,34 +12937,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N162" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O162" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R162" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="U162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V162" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:22">
@@ -12972,7 +12978,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D163" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E163" s="0" t="n">
         <x:v>0</x:v>
@@ -12981,7 +12987,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G163" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H163" s="0" t="n">
         <x:v>0</x:v>
@@ -12990,7 +12996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J163" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K163" s="0" t="n">
         <x:v>0</x:v>
@@ -13002,7 +13008,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N163" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O163" s="0" t="n">
         <x:v>0</x:v>
@@ -13020,13 +13026,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V163" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="U163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V163" s="0" t="n">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:22">
@@ -13040,7 +13046,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E164" s="0" t="n">
         <x:v>0</x:v>
@@ -13049,7 +13055,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G164" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H164" s="0" t="n">
         <x:v>0</x:v>
@@ -13058,7 +13064,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J164" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K164" s="0" t="n">
         <x:v>0</x:v>
@@ -13067,10 +13073,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M164" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N164" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O164" s="0" t="n">
         <x:v>0</x:v>
@@ -13088,13 +13094,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U164" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V164" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:22">
@@ -13105,19 +13111,19 @@
         <x:v>349</x:v>
       </x:c>
       <x:c r="C165" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D165" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E165" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F165" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G165" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H165" s="0" t="n">
         <x:v>0</x:v>
@@ -13126,7 +13132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K165" s="0" t="n">
         <x:v>0</x:v>
@@ -13135,16 +13141,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O165" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P165" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q165" s="0" t="n">
         <x:v>0</x:v>
@@ -13153,16 +13159,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S165" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T165" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U165" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V165" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:22">
@@ -13173,19 +13179,19 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="C166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H166" s="0" t="n">
         <x:v>0</x:v>
@@ -13206,13 +13212,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N166" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q166" s="0" t="n">
         <x:v>0</x:v>
@@ -13221,16 +13227,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V166" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:22">
@@ -13274,7 +13280,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N167" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O167" s="0" t="n">
         <x:v>0</x:v>
@@ -13298,7 +13304,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V167" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:22">
@@ -13312,7 +13318,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D168" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E168" s="0" t="n">
         <x:v>0</x:v>
@@ -13327,7 +13333,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I168" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J168" s="0" t="n">
         <x:v>0</x:v>
@@ -13339,16 +13345,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M168" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N168" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O168" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P168" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q168" s="0" t="n">
         <x:v>0</x:v>
@@ -13366,7 +13372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V168" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:22">
@@ -13380,7 +13386,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D169" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E169" s="0" t="n">
         <x:v>0</x:v>
@@ -13389,13 +13395,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G169" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H169" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I169" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J169" s="0" t="n">
         <x:v>0</x:v>
@@ -13407,16 +13413,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M169" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N169" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O169" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P169" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q169" s="0" t="n">
         <x:v>0</x:v>
@@ -13475,7 +13481,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N170" s="0" t="n">
         <x:v>1</x:v>
@@ -13484,7 +13490,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q170" s="0" t="n">
         <x:v>0</x:v>
@@ -13502,7 +13508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V170" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:22">
@@ -13516,7 +13522,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D171" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E171" s="0" t="n">
         <x:v>0</x:v>
@@ -13525,7 +13531,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G171" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H171" s="0" t="n">
         <x:v>0</x:v>
@@ -13546,7 +13552,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N171" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O171" s="0" t="n">
         <x:v>0</x:v>
@@ -13570,7 +13576,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V171" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">
@@ -13584,16 +13590,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D172" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E172" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F172" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G172" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H172" s="0" t="n">
         <x:v>0</x:v>
@@ -13602,7 +13608,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J172" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K172" s="0" t="n">
         <x:v>0</x:v>
@@ -13614,13 +13620,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N172" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O172" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P172" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q172" s="0" t="n">
         <x:v>0</x:v>
@@ -13632,13 +13638,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T172" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U172" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V172" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:22">
@@ -13652,16 +13658,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D173" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E173" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F173" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G173" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H173" s="0" t="n">
         <x:v>0</x:v>
@@ -13670,7 +13676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J173" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K173" s="0" t="n">
         <x:v>0</x:v>
@@ -13682,13 +13688,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N173" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O173" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P173" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="Q173" s="0" t="n">
         <x:v>0</x:v>
@@ -13706,7 +13712,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V173" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:22">
@@ -13756,7 +13762,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P174" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q174" s="0" t="n">
         <x:v>0</x:v>
@@ -13774,7 +13780,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V174" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:22">
@@ -13788,16 +13794,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D175" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E175" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F175" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G175" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H175" s="0" t="n">
         <x:v>0</x:v>
@@ -13806,7 +13812,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J175" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K175" s="0" t="n">
         <x:v>0</x:v>
@@ -13818,16 +13824,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N175" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O175" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P175" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q175" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R175" s="0" t="n">
         <x:v>0</x:v>
@@ -13836,13 +13842,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T175" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U175" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V175" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="U175" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V175" s="0" t="n">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:22">
@@ -13856,16 +13862,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E176" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H176" s="0" t="n">
         <x:v>0</x:v>
@@ -13874,7 +13880,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K176" s="0" t="n">
         <x:v>0</x:v>
@@ -13886,16 +13892,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O176" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R176" s="0" t="n">
         <x:v>0</x:v>
@@ -13904,13 +13910,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U176" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:22">
@@ -13933,7 +13939,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G177" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H177" s="0" t="n">
         <x:v>0</x:v>
@@ -13978,7 +13984,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V177" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:22">
@@ -14001,7 +14007,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G178" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H178" s="0" t="n">
         <x:v>0</x:v>
@@ -14028,7 +14034,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P178" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q178" s="0" t="n">
         <x:v>0</x:v>
@@ -14069,7 +14075,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G179" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H179" s="0" t="n">
         <x:v>0</x:v>
@@ -14108,13 +14114,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T179" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U179" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V179" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
@@ -14134,7 +14140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F180" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G180" s="0" t="n">
         <x:v>1</x:v>
@@ -14146,7 +14152,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J180" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K180" s="0" t="n">
         <x:v>0</x:v>
@@ -14155,16 +14161,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M180" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N180" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q180" s="0" t="n">
         <x:v>0</x:v>
@@ -14176,13 +14182,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V180" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
@@ -14196,16 +14202,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D181" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E181" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H181" s="0" t="n">
         <x:v>0</x:v>
@@ -14214,7 +14220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K181" s="0" t="n">
         <x:v>0</x:v>
@@ -14223,10 +14229,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N181" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O181" s="0" t="n">
         <x:v>0</x:v>
@@ -14250,7 +14256,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V181" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
@@ -14264,7 +14270,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D182" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E182" s="0" t="n">
         <x:v>0</x:v>
@@ -14294,7 +14300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N182" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O182" s="0" t="n">
         <x:v>0</x:v>
@@ -14318,7 +14324,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V182" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:22">
@@ -14332,7 +14338,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D183" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E183" s="0" t="n">
         <x:v>0</x:v>
@@ -14362,7 +14368,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N183" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O183" s="0" t="n">
         <x:v>0</x:v>
@@ -14383,10 +14389,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U183" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V183" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:22">
@@ -14400,61 +14406,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D184" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T184" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U184" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V184" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="E184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G184" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J184" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N184" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V184" s="0" t="n">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:22">
@@ -14468,7 +14474,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D185" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E185" s="0" t="n">
         <x:v>0</x:v>
@@ -14477,34 +14483,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G185" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H185" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I185" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J185" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K185" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L185" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M185" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N185" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O185" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P185" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q185" s="0" t="n">
         <x:v>0</x:v>
@@ -14513,16 +14519,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U185" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V185" s="0" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="T185" s="0" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="U185" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V185" s="0" t="n">
-        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:22">
@@ -14533,64 +14539,64 @@
         <x:v>391</x:v>
       </x:c>
       <x:c r="C186" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D186" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E186" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F186" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G186" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H186" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I186" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J186" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K186" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L186" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M186" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N186" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O186" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P186" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="Q186" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R186" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S186" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="T186" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="U186" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V186" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:22">
@@ -14601,28 +14607,28 @@
         <x:v>393</x:v>
       </x:c>
       <x:c r="C187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D187" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E187" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H187" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K187" s="0" t="n">
         <x:v>0</x:v>
@@ -14631,7 +14637,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M187" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N187" s="0" t="n">
         <x:v>5</x:v>
@@ -14640,25 +14646,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P187" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q187" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S187" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U187" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V187" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
@@ -14669,10 +14675,10 @@
         <x:v>395</x:v>
       </x:c>
       <x:c r="C188" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E188" s="0" t="n">
         <x:v>0</x:v>
@@ -14681,52 +14687,52 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M188" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N188" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J188" s="0" t="n">
+      <x:c r="O188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P188" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="K188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M188" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N188" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="O188" s="0" t="n">
+      <x:c r="Q188" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S188" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="P188" s="0" t="n">
+      <x:c r="T188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V188" s="0" t="n">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="Q188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T188" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V188" s="0" t="n">
-        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
@@ -14737,7 +14743,7 @@
         <x:v>397</x:v>
       </x:c>
       <x:c r="C189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D189" s="0" t="n">
         <x:v>0</x:v>
@@ -14746,10 +14752,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F189" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G189" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H189" s="0" t="n">
         <x:v>0</x:v>
@@ -14758,7 +14764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K189" s="0" t="n">
         <x:v>0</x:v>
@@ -14767,16 +14773,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O189" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="Q189" s="0" t="n">
         <x:v>0</x:v>
@@ -14788,13 +14794,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U189" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V189" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:22">
@@ -14808,16 +14814,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D190" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E190" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F190" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G190" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H190" s="0" t="n">
         <x:v>0</x:v>
@@ -14826,7 +14832,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J190" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K190" s="0" t="n">
         <x:v>0</x:v>
@@ -14838,13 +14844,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N190" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O190" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P190" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q190" s="0" t="n">
         <x:v>0</x:v>
@@ -14856,13 +14862,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T190" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U190" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V190" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:22">
@@ -14876,7 +14882,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E191" s="0" t="n">
         <x:v>0</x:v>
@@ -14885,7 +14891,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H191" s="0" t="n">
         <x:v>0</x:v>
@@ -14894,7 +14900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K191" s="0" t="n">
         <x:v>0</x:v>
@@ -14906,13 +14912,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O191" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q191" s="0" t="n">
         <x:v>0</x:v>
@@ -14924,13 +14930,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U191" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V191" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
@@ -14974,13 +14980,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N192" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q192" s="0" t="n">
         <x:v>0</x:v>
@@ -15021,7 +15027,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G193" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H193" s="0" t="n">
         <x:v>0</x:v>
@@ -15030,7 +15036,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J193" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K193" s="0" t="n">
         <x:v>0</x:v>
@@ -15042,13 +15048,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O193" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P193" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q193" s="0" t="n">
         <x:v>0</x:v>
@@ -15066,7 +15072,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V193" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
@@ -15080,7 +15086,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D194" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E194" s="0" t="n">
         <x:v>0</x:v>
@@ -15089,13 +15095,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G194" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H194" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I194" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J194" s="0" t="n">
         <x:v>1</x:v>
@@ -15107,19 +15113,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M194" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N194" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O194" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P194" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q194" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R194" s="0" t="n">
         <x:v>0</x:v>
@@ -15134,7 +15140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V194" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">
@@ -15148,7 +15154,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E195" s="0" t="n">
         <x:v>0</x:v>
@@ -15157,16 +15163,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G195" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H195" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K195" s="0" t="n">
         <x:v>0</x:v>
@@ -15175,19 +15181,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P195" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R195" s="0" t="n">
         <x:v>0</x:v>
@@ -15202,7 +15208,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V195" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
@@ -15225,7 +15231,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G196" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H196" s="0" t="n">
         <x:v>0</x:v>
@@ -15270,7 +15276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V196" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:22">
@@ -15281,64 +15287,64 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="C197" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D197" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E197" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F197" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G197" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H197" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I197" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J197" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K197" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L197" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M197" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N197" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O197" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P197" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q197" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R197" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S197" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T197" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U197" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V197" s="0" t="n">
-        <x:v>228</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:22">
@@ -15349,64 +15355,64 @@
         <x:v>415</x:v>
       </x:c>
       <x:c r="C198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E198" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G198" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H198" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L198" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N198" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R198" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="U198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="V198" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:22">
@@ -15429,7 +15435,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G199" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H199" s="0" t="n">
         <x:v>0</x:v>
@@ -15450,7 +15456,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N199" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O199" s="0" t="n">
         <x:v>0</x:v>
@@ -15474,7 +15480,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V199" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:22">
@@ -15497,7 +15503,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G200" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H200" s="0" t="n">
         <x:v>0</x:v>
@@ -15506,7 +15512,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J200" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K200" s="0" t="n">
         <x:v>0</x:v>
@@ -15518,7 +15524,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N200" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O200" s="0" t="n">
         <x:v>0</x:v>
@@ -15542,7 +15548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V200" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">
@@ -15565,7 +15571,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H201" s="0" t="n">
         <x:v>0</x:v>
@@ -15574,7 +15580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K201" s="0" t="n">
         <x:v>0</x:v>
@@ -15586,10 +15592,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O201" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P201" s="0" t="n">
         <x:v>0</x:v>
@@ -15610,7 +15616,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V201" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:22">
@@ -15633,7 +15639,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G202" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H202" s="0" t="n">
         <x:v>0</x:v>
@@ -15654,10 +15660,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N202" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P202" s="0" t="n">
         <x:v>0</x:v>
@@ -15669,7 +15675,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S202" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T202" s="0" t="n">
         <x:v>0</x:v>
@@ -15678,7 +15684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V202" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:22">
@@ -15692,7 +15698,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D203" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E203" s="0" t="n">
         <x:v>0</x:v>
@@ -15719,34 +15725,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N203" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S203" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U203" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V203" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="N203" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="O203" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P203" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T203" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="U203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V203" s="0" t="n">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:22">
@@ -15760,7 +15766,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D204" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E204" s="0" t="n">
         <x:v>0</x:v>
@@ -15769,7 +15775,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G204" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H204" s="0" t="n">
         <x:v>0</x:v>
@@ -15787,17 +15793,17 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M204" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N204" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O204" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P204" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="O204" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P204" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="Q204" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -15808,13 +15814,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T204" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U204" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V204" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:22">
@@ -15828,7 +15834,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D205" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E205" s="0" t="n">
         <x:v>0</x:v>
@@ -15858,13 +15864,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N205" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O205" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P205" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q205" s="0" t="n">
         <x:v>0</x:v>
@@ -15882,7 +15888,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V205" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:22">
@@ -15973,7 +15979,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G207" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H207" s="0" t="n">
         <x:v>0</x:v>
@@ -15994,13 +16000,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N207" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O207" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P207" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q207" s="0" t="n">
         <x:v>0</x:v>
@@ -16018,7 +16024,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V207" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:22">
@@ -16041,7 +16047,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G208" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H208" s="0" t="n">
         <x:v>0</x:v>
@@ -16050,7 +16056,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J208" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K208" s="0" t="n">
         <x:v>0</x:v>
@@ -16062,7 +16068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N208" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O208" s="0" t="n">
         <x:v>0</x:v>
@@ -16086,7 +16092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V208" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:22">
@@ -16100,7 +16106,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D209" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E209" s="0" t="n">
         <x:v>0</x:v>
@@ -16118,7 +16124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J209" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K209" s="0" t="n">
         <x:v>0</x:v>
@@ -16139,7 +16145,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q209" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R209" s="0" t="n">
         <x:v>0</x:v>
@@ -16148,13 +16154,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T209" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U209" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V209" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
@@ -16168,7 +16174,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D210" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E210" s="0" t="n">
         <x:v>0</x:v>
@@ -16207,7 +16213,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q210" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R210" s="0" t="n">
         <x:v>0</x:v>
@@ -16216,13 +16222,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T210" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U210" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V210" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:22">
@@ -16245,7 +16251,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G211" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H211" s="0" t="n">
         <x:v>0</x:v>
@@ -16272,7 +16278,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P211" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q211" s="0" t="n">
         <x:v>0</x:v>
@@ -16287,10 +16293,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U211" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V211" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
@@ -16313,7 +16319,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G212" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H212" s="0" t="n">
         <x:v>0</x:v>
@@ -16334,13 +16340,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N212" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O212" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P212" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q212" s="0" t="n">
         <x:v>0</x:v>
@@ -16355,10 +16361,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U212" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V212" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:22">
@@ -16390,7 +16396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J213" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K213" s="0" t="n">
         <x:v>0</x:v>
@@ -16402,13 +16408,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N213" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O213" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P213" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q213" s="0" t="n">
         <x:v>0</x:v>
@@ -16426,7 +16432,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V213" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:22">
@@ -16449,7 +16455,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G214" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H214" s="0" t="n">
         <x:v>0</x:v>
@@ -16458,7 +16464,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J214" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K214" s="0" t="n">
         <x:v>0</x:v>
@@ -16470,7 +16476,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N214" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O214" s="0" t="n">
         <x:v>0</x:v>
@@ -16494,7 +16500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V214" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:22">
@@ -16508,7 +16514,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D215" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E215" s="0" t="n">
         <x:v>0</x:v>
@@ -16517,7 +16523,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G215" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H215" s="0" t="n">
         <x:v>0</x:v>
@@ -16529,7 +16535,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K215" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L215" s="0" t="n">
         <x:v>0</x:v>
@@ -16538,7 +16544,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N215" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O215" s="0" t="n">
         <x:v>0</x:v>
@@ -16562,7 +16568,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V215" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:22">
@@ -16573,10 +16579,10 @@
         <x:v>451</x:v>
       </x:c>
       <x:c r="C216" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D216" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E216" s="0" t="n">
         <x:v>0</x:v>
@@ -16585,52 +16591,52 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G216" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H216" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I216" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J216" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K216" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L216" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M216" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N216" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O216" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P216" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q216" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R216" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S216" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T216" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U216" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V216" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="H216" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I216" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J216" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="K216" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L216" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M216" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N216" s="0" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="O216" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P216" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="Q216" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R216" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S216" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T216" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="U216" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V216" s="0" t="n">
-        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:22">
@@ -16641,20 +16647,20 @@
         <x:v>453</x:v>
       </x:c>
       <x:c r="C217" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D217" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E217" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F217" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G217" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E217" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F217" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G217" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="H217" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -16662,10 +16668,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J217" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K217" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L217" s="0" t="n">
         <x:v>0</x:v>
@@ -16674,13 +16680,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N217" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O217" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P217" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q217" s="0" t="n">
         <x:v>0</x:v>
@@ -16692,13 +16698,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T217" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U217" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V217" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:22">
@@ -16712,7 +16718,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D218" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E218" s="0" t="n">
         <x:v>0</x:v>
@@ -16739,16 +16745,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M218" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N218" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O218" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P218" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q218" s="0" t="n">
         <x:v>0</x:v>
@@ -16760,13 +16766,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T218" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U218" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V218" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
@@ -16777,10 +16783,10 @@
         <x:v>457</x:v>
       </x:c>
       <x:c r="C219" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D219" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E219" s="0" t="n">
         <x:v>0</x:v>
@@ -16789,7 +16795,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G219" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H219" s="0" t="n">
         <x:v>0</x:v>
@@ -16810,13 +16816,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N219" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O219" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P219" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q219" s="0" t="n">
         <x:v>0</x:v>
@@ -16828,13 +16834,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T219" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U219" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V219" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:22">
@@ -16845,19 +16851,19 @@
         <x:v>459</x:v>
       </x:c>
       <x:c r="C220" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D220" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E220" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F220" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G220" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H220" s="0" t="n">
         <x:v>0</x:v>
@@ -16866,7 +16872,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J220" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K220" s="0" t="n">
         <x:v>0</x:v>
@@ -16875,34 +16881,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M220" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N220" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O220" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P220" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q220" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R220" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S220" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T220" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U220" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V220" s="0" t="n">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="Q220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S220" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T220" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="U220" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V220" s="0" t="n">
-        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:22">
@@ -16922,10 +16928,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F221" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G221" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H221" s="0" t="n">
         <x:v>0</x:v>
@@ -16934,7 +16940,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J221" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K221" s="0" t="n">
         <x:v>0</x:v>
@@ -16943,16 +16949,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M221" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N221" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O221" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P221" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q221" s="0" t="n">
         <x:v>0</x:v>
@@ -16964,13 +16970,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T221" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="U221" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V221" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
@@ -16981,7 +16987,7 @@
         <x:v>463</x:v>
       </x:c>
       <x:c r="C222" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D222" s="0" t="n">
         <x:v>2</x:v>
@@ -16993,17 +16999,17 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G222" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H222" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I222" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J222" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="H222" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I222" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="J222" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="K222" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -17011,34 +17017,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M222" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N222" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O222" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P222" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q222" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R222" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S222" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T222" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V222" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:22">
@@ -17049,10 +17055,10 @@
         <x:v>465</x:v>
       </x:c>
       <x:c r="C223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E223" s="0" t="n">
         <x:v>0</x:v>
@@ -17061,16 +17067,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H223" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J223" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K223" s="0" t="n">
         <x:v>0</x:v>
@@ -17079,34 +17085,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="O223" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P223" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="Q223" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="U223" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V223" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:22">
@@ -17129,16 +17135,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G224" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H224" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I224" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J224" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K224" s="0" t="n">
         <x:v>0</x:v>
@@ -17147,16 +17153,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M224" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N224" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O224" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P224" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q224" s="0" t="n">
         <x:v>0</x:v>
@@ -17174,7 +17180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V224" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:22">
@@ -17218,7 +17224,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N225" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O225" s="0" t="n">
         <x:v>0</x:v>
@@ -17242,7 +17248,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V225" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">
@@ -17256,7 +17262,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D226" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E226" s="0" t="n">
         <x:v>0</x:v>
@@ -17286,7 +17292,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N226" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O226" s="0" t="n">
         <x:v>0</x:v>
@@ -17310,7 +17316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V226" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:22">
@@ -17324,7 +17330,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D227" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E227" s="0" t="n">
         <x:v>0</x:v>
@@ -17342,7 +17348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J227" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K227" s="0" t="n">
         <x:v>0</x:v>
@@ -17354,7 +17360,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N227" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O227" s="0" t="n">
         <x:v>0</x:v>
@@ -17369,7 +17375,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S227" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T227" s="0" t="n">
         <x:v>0</x:v>
@@ -17392,26 +17398,26 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D228" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E228" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F228" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G228" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H228" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I228" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J228" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E228" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F228" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G228" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H228" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I228" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J228" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="K228" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -17419,16 +17425,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M228" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N228" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O228" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P228" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q228" s="0" t="n">
         <x:v>0</x:v>
@@ -17440,13 +17446,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T228" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U228" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V228" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:22">
@@ -17457,64 +17463,64 @@
         <x:v>477</x:v>
       </x:c>
       <x:c r="C229" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D229" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E229" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F229" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G229" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H229" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I229" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J229" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K229" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L229" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M229" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N229" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O229" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P229" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q229" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R229" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S229" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T229" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U229" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V229" s="0" t="n">
-        <x:v>143</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:22">
@@ -17525,49 +17531,49 @@
         <x:v>479</x:v>
       </x:c>
       <x:c r="C230" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D230" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E230" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F230" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G230" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H230" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I230" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J230" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K230" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L230" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M230" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N230" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="O230" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P230" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q230" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R230" s="0" t="n">
         <x:v>0</x:v>
@@ -17576,13 +17582,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T230" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="U230" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="V230" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:22">
@@ -17605,7 +17611,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G231" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H231" s="0" t="n">
         <x:v>0</x:v>
@@ -17614,7 +17620,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J231" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K231" s="0" t="n">
         <x:v>0</x:v>
@@ -17632,7 +17638,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P231" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q231" s="0" t="n">
         <x:v>0</x:v>
@@ -17650,7 +17656,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V231" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:22">
@@ -17682,7 +17688,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J232" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K232" s="0" t="n">
         <x:v>0</x:v>
@@ -17694,7 +17700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N232" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O232" s="0" t="n">
         <x:v>0</x:v>
@@ -17750,7 +17756,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J233" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K233" s="0" t="n">
         <x:v>0</x:v>
@@ -17762,7 +17768,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N233" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O233" s="0" t="n">
         <x:v>0</x:v>
@@ -17786,7 +17792,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V233" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:22">
@@ -17806,10 +17812,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F234" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G234" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H234" s="0" t="n">
         <x:v>0</x:v>
@@ -17830,7 +17836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N234" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O234" s="0" t="n">
         <x:v>0</x:v>
@@ -17845,16 +17851,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S234" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T234" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U234" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V234" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:22">
@@ -17874,10 +17880,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H235" s="0" t="n">
         <x:v>0</x:v>
@@ -17898,7 +17904,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N235" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O235" s="0" t="n">
         <x:v>0</x:v>
@@ -17913,16 +17919,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U235" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V235" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:22">
@@ -17936,38 +17942,38 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D236" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E236" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F236" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G236" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H236" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I236" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J236" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K236" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L236" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M236" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N236" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G236" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H236" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I236" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="J236" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K236" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L236" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M236" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N236" s="0" t="n">
-        <x:v>32</x:v>
-      </x:c>
       <x:c r="O236" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -17981,16 +17987,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S236" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T236" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U236" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V236" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:22">
@@ -18004,25 +18010,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D237" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E237" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F237" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G237" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H237" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I237" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J237" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K237" s="0" t="n">
         <x:v>0</x:v>
@@ -18034,7 +18040,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N237" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O237" s="0" t="n">
         <x:v>0</x:v>
@@ -18049,16 +18055,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S237" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T237" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U237" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="V237" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:22">
@@ -18072,7 +18078,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D238" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E238" s="0" t="n">
         <x:v>0</x:v>
@@ -18090,7 +18096,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J238" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K238" s="0" t="n">
         <x:v>0</x:v>
@@ -18102,13 +18108,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N238" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O238" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P238" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q238" s="0" t="n">
         <x:v>0</x:v>
@@ -18120,13 +18126,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T238" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U238" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V238" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">
@@ -18140,7 +18146,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D239" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E239" s="0" t="n">
         <x:v>0</x:v>
@@ -18158,7 +18164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J239" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K239" s="0" t="n">
         <x:v>0</x:v>
@@ -18170,13 +18176,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N239" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O239" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P239" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q239" s="0" t="n">
         <x:v>0</x:v>
@@ -18194,7 +18200,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V239" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:22">
@@ -18208,7 +18214,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D240" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E240" s="0" t="n">
         <x:v>0</x:v>
@@ -18238,7 +18244,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N240" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O240" s="0" t="n">
         <x:v>0</x:v>
@@ -18256,13 +18262,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T240" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U240" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V240" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:22">
@@ -18276,7 +18282,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D241" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E241" s="0" t="n">
         <x:v>0</x:v>
@@ -18285,7 +18291,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G241" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H241" s="0" t="n">
         <x:v>0</x:v>
@@ -18306,7 +18312,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N241" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O241" s="0" t="n">
         <x:v>0</x:v>
@@ -18344,16 +18350,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D242" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E242" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F242" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G242" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H242" s="0" t="n">
         <x:v>0</x:v>
@@ -18374,7 +18380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N242" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O242" s="0" t="n">
         <x:v>0</x:v>
@@ -18392,13 +18398,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T242" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="U242" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V242" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:22">
@@ -18412,61 +18418,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D243" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E243" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F243" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G243" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H243" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I243" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J243" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K243" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L243" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M243" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N243" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O243" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P243" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q243" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R243" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S243" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T243" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U243" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V243" s="0" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="H243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N243" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="O243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T243" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="U243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V243" s="0" t="n">
-        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:22">
@@ -18480,7 +18486,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D244" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E244" s="0" t="n">
         <x:v>0</x:v>
@@ -18489,7 +18495,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G244" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H244" s="0" t="n">
         <x:v>0</x:v>
@@ -18510,7 +18516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N244" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O244" s="0" t="n">
         <x:v>0</x:v>
@@ -18528,13 +18534,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T244" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U244" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V244" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:22">
@@ -18548,7 +18554,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D245" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E245" s="0" t="n">
         <x:v>0</x:v>
@@ -18578,7 +18584,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N245" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O245" s="0" t="n">
         <x:v>0</x:v>
@@ -18596,13 +18602,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T245" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U245" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V245" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:22">
@@ -18616,7 +18622,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D246" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E246" s="0" t="n">
         <x:v>0</x:v>
@@ -18625,7 +18631,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G246" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H246" s="0" t="n">
         <x:v>0</x:v>
@@ -18646,7 +18652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N246" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O246" s="0" t="n">
         <x:v>0</x:v>
@@ -18664,13 +18670,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T246" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="U246" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V246" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
@@ -18684,7 +18690,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D247" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E247" s="0" t="n">
         <x:v>0</x:v>
@@ -18693,7 +18699,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G247" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H247" s="0" t="n">
         <x:v>0</x:v>
@@ -18714,7 +18720,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N247" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O247" s="0" t="n">
         <x:v>0</x:v>
@@ -18738,7 +18744,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V247" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:22">
@@ -18752,7 +18758,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D248" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E248" s="0" t="n">
         <x:v>0</x:v>
@@ -18761,7 +18767,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G248" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H248" s="0" t="n">
         <x:v>0</x:v>
@@ -18782,7 +18788,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N248" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O248" s="0" t="n">
         <x:v>0</x:v>
@@ -18800,13 +18806,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T248" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U248" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V248" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:22">
@@ -18820,7 +18826,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D249" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E249" s="0" t="n">
         <x:v>0</x:v>
@@ -18829,7 +18835,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G249" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H249" s="0" t="n">
         <x:v>0</x:v>
@@ -18850,31 +18856,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N249" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T249" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V249" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="O249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T249" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="U249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V249" s="0" t="n">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:22">
@@ -18888,60 +18894,128 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D250" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E250" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F250" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G250" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H250" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I250" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J250" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K250" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L250" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M250" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N250" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="O250" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P250" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q250" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R250" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S250" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T250" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="U250" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V250" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="251" spans="1:22">
+      <x:c r="A251" s="0" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="B251" s="0" t="s">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c r="C251" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D251" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G250" s="0" t="n">
+      <x:c r="E251" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F251" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G251" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N250" s="0" t="n">
+      <x:c r="H251" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I251" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J251" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K251" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L251" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M251" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N251" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="O250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T250" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V250" s="0" t="n">
+      <x:c r="O251" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P251" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q251" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R251" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S251" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T251" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U251" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V251" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -6391,7 +6391,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
         <x:v>0</x:v>
@@ -6436,7 +6436,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V66" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:22">
@@ -6663,7 +6663,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
         <x:v>0</x:v>
@@ -6672,7 +6672,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="J70" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K70" s="0" t="n">
         <x:v>0</x:v>
@@ -6690,7 +6690,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P70" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="Q70" s="0" t="n">
         <x:v>0</x:v>
@@ -6708,7 +6708,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="V70" s="0" t="n">
-        <x:v>310</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
@@ -7846,7 +7846,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P87" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="Q87" s="0" t="n">
         <x:v>1</x:v>
@@ -7864,7 +7864,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="V87" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:22">
@@ -8644,7 +8644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J99" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K99" s="0" t="n">
         <x:v>0</x:v>
@@ -8662,7 +8662,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P99" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q99" s="0" t="n">
         <x:v>0</x:v>
@@ -8680,7 +8680,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V99" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:22">
@@ -14693,7 +14693,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J188" s="0" t="n">
         <x:v>0</x:v>
@@ -14711,7 +14711,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="O188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P188" s="0" t="n">
         <x:v>3</x:v>
@@ -14732,7 +14732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V188" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
@@ -15095,7 +15095,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G194" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H194" s="0" t="n">
         <x:v>0</x:v>
@@ -15140,7 +15140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V194" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -6344,7 +6344,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="O65" s="0" t="n">
         <x:v>0</x:v>
@@ -6365,10 +6365,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U65" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V65" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:22">
@@ -16414,7 +16414,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P213" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q213" s="0" t="n">
         <x:v>0</x:v>
@@ -16432,7 +16432,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V213" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -5031,7 +5031,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
         <x:v>0</x:v>
@@ -5076,7 +5076,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V46" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:22">
@@ -6663,7 +6663,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
         <x:v>0</x:v>
@@ -6708,7 +6708,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="V70" s="0" t="n">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
@@ -12600,7 +12600,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N157" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="O157" s="0" t="n">
         <x:v>0</x:v>
@@ -12618,13 +12618,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T157" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U157" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="V157" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:22">
@@ -12946,7 +12946,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P162" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="Q162" s="0" t="n">
         <x:v>3</x:v>
@@ -12964,7 +12964,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V162" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:22">
@@ -14551,7 +14551,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G186" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H186" s="0" t="n">
         <x:v>0</x:v>
@@ -14596,7 +14596,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V186" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:22">
@@ -15364,7 +15364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F198" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G198" s="0" t="n">
         <x:v>25</x:v>
@@ -15376,7 +15376,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="J198" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K198" s="0" t="n">
         <x:v>2</x:v>
@@ -15388,7 +15388,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="N198" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="O198" s="0" t="n">
         <x:v>8</x:v>
@@ -15406,13 +15406,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T198" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U198" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="V198" s="0" t="n">
-        <x:v>228</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:22">
@@ -16686,7 +16686,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P217" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q217" s="0" t="n">
         <x:v>0</x:v>
@@ -16704,7 +16704,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V217" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:22">
@@ -17836,7 +17836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N234" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O234" s="0" t="n">
         <x:v>0</x:v>
@@ -17860,7 +17860,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V234" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -16650,7 +16650,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D217" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E217" s="0" t="n">
         <x:v>0</x:v>
@@ -16659,13 +16659,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G217" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H217" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I217" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J217" s="0" t="n">
         <x:v>3</x:v>
@@ -16677,7 +16677,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M217" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N217" s="0" t="n">
         <x:v>10</x:v>
@@ -16704,7 +16704,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V217" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -7284,7 +7284,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="J79" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="K79" s="0" t="n">
         <x:v>0</x:v>
@@ -7320,7 +7320,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="V79" s="0" t="n">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:22">
@@ -10288,13 +10288,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N123" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O123" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P123" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q123" s="0" t="n">
         <x:v>0</x:v>
@@ -10312,7 +10312,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V123" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -7556,7 +7556,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J83" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K83" s="0" t="n">
         <x:v>0</x:v>
@@ -7592,7 +7592,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -14675,10 +14675,10 @@
         <x:v>395</x:v>
       </x:c>
       <x:c r="C188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D188" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E188" s="0" t="n">
         <x:v>0</x:v>
@@ -14687,7 +14687,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H188" s="0" t="n">
         <x:v>0</x:v>
@@ -14714,7 +14714,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P188" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q188" s="0" t="n">
         <x:v>1</x:v>
@@ -14732,7 +14732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V188" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
@@ -16582,7 +16582,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D216" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E216" s="0" t="n">
         <x:v>0</x:v>
@@ -16609,7 +16609,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M216" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N216" s="0" t="n">
         <x:v>1</x:v>
@@ -16636,7 +16636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V216" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -4407,19 +4407,19 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="G37" s="0" t="n">
-        <x:v>3</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
         <x:v>3</x:v>
@@ -4431,7 +4431,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K37" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L37" s="0" t="n">
         <x:v>0</x:v>
@@ -4440,10 +4440,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N37" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O37" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="P37" s="0" t="n">
         <x:v>4</x:v>
@@ -4452,7 +4452,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R37" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="S37" s="0" t="n">
         <x:v>1</x:v>
@@ -4464,7 +4464,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V37" s="0" t="n">
-        <x:v>131</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:22">
@@ -16754,7 +16754,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P218" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q218" s="0" t="n">
         <x:v>0</x:v>
@@ -16772,7 +16772,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V218" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
@@ -17880,7 +17880,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F235" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G235" s="0" t="n">
         <x:v>4</x:v>
@@ -17922,13 +17922,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T235" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U235" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V235" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="528">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="530">
   <x:si>
     <x:t>Agency ORI</x:t>
   </x:si>
@@ -1004,6 +1004,12 @@
   </x:si>
   <x:si>
     <x:t>East Grand Forks Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fosston Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0610000</x:t>
@@ -1963,7 +1969,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:V254"/>
+  <x:dimension ref="A1:V255"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2078,7 +2084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N2" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O2" s="0" t="n">
         <x:v>0</x:v>
@@ -2102,7 +2108,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V2" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:22">
@@ -4254,7 +4260,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N34" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O34" s="0" t="n">
         <x:v>0</x:v>
@@ -4278,7 +4284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V34" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:22">
@@ -4718,7 +4724,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J41" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K41" s="0" t="n">
         <x:v>0</x:v>
@@ -4751,7 +4757,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="U41" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V41" s="0" t="n">
         <x:v>72</x:v>
@@ -9014,7 +9020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N104" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O104" s="0" t="n">
         <x:v>1</x:v>
@@ -9032,13 +9038,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T104" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U104" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="V104" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:22">
@@ -12550,7 +12556,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N156" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O156" s="0" t="n">
         <x:v>0</x:v>
@@ -12574,7 +12580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V156" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:22">
@@ -12585,25 +12591,25 @@
         <x:v>333</x:v>
       </x:c>
       <x:c r="C157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D157" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E157" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G157" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H157" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J157" s="0" t="n">
         <x:v>0</x:v>
@@ -12615,10 +12621,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M157" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N157" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O157" s="0" t="n">
         <x:v>0</x:v>
@@ -12627,22 +12633,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T157" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U157" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V157" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:22">
@@ -12653,10 +12659,10 @@
         <x:v>335</x:v>
       </x:c>
       <x:c r="C158" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D158" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E158" s="0" t="n">
         <x:v>0</x:v>
@@ -12665,7 +12671,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G158" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H158" s="0" t="n">
         <x:v>0</x:v>
@@ -12674,7 +12680,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J158" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K158" s="0" t="n">
         <x:v>0</x:v>
@@ -12683,10 +12689,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M158" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N158" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="O158" s="0" t="n">
         <x:v>0</x:v>
@@ -12695,22 +12701,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q158" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R158" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="S158" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T158" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U158" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="V158" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:22">
@@ -12724,13 +12730,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D159" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E159" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F159" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G159" s="0" t="n">
         <x:v>2</x:v>
@@ -12742,7 +12748,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J159" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K159" s="0" t="n">
         <x:v>0</x:v>
@@ -12751,10 +12757,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M159" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N159" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O159" s="0" t="n">
         <x:v>0</x:v>
@@ -12763,7 +12769,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q159" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R159" s="0" t="n">
         <x:v>1</x:v>
@@ -12772,13 +12778,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T159" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U159" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V159" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:22">
@@ -12792,7 +12798,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D160" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E160" s="0" t="n">
         <x:v>0</x:v>
@@ -12801,16 +12807,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H160" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J160" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K160" s="0" t="n">
         <x:v>0</x:v>
@@ -12834,19 +12840,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S160" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U160" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="V160" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
@@ -12857,10 +12863,10 @@
         <x:v>341</x:v>
       </x:c>
       <x:c r="C161" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D161" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E161" s="0" t="n">
         <x:v>0</x:v>
@@ -12878,7 +12884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J161" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K161" s="0" t="n">
         <x:v>0</x:v>
@@ -12887,10 +12893,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M161" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N161" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O161" s="0" t="n">
         <x:v>0</x:v>
@@ -12911,10 +12917,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U161" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V161" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:22">
@@ -12925,64 +12931,64 @@
         <x:v>343</x:v>
       </x:c>
       <x:c r="C162" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N162" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="O162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V162" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="D162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G162" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I162" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J162" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="K162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N162" s="0" t="n">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="O162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S162" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T162" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="U162" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V162" s="0" t="n">
-        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:22">
@@ -12993,28 +12999,28 @@
         <x:v>345</x:v>
       </x:c>
       <x:c r="C163" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D163" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E163" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F163" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G163" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H163" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I163" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J163" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K163" s="0" t="n">
         <x:v>0</x:v>
@@ -13023,34 +13029,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M163" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N163" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O163" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P163" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q163" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R163" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S163" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T163" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U163" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V163" s="0" t="n">
-        <x:v>279</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:22">
@@ -13061,28 +13067,28 @@
         <x:v>347</x:v>
       </x:c>
       <x:c r="C164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E164" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G164" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H164" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K164" s="0" t="n">
         <x:v>0</x:v>
@@ -13091,34 +13097,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N164" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O164" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="Q164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R164" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U164" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="V164" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:22">
@@ -13141,7 +13147,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G165" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H165" s="0" t="n">
         <x:v>0</x:v>
@@ -13162,7 +13168,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O165" s="0" t="n">
         <x:v>0</x:v>
@@ -13186,7 +13192,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V165" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:22">
@@ -13200,7 +13206,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D166" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E166" s="0" t="n">
         <x:v>0</x:v>
@@ -13209,7 +13215,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G166" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H166" s="0" t="n">
         <x:v>0</x:v>
@@ -13218,7 +13224,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J166" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K166" s="0" t="n">
         <x:v>0</x:v>
@@ -13230,7 +13236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N166" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O166" s="0" t="n">
         <x:v>0</x:v>
@@ -13248,13 +13254,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T166" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V166" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:22">
@@ -13268,7 +13274,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D167" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E167" s="0" t="n">
         <x:v>0</x:v>
@@ -13277,7 +13283,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G167" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H167" s="0" t="n">
         <x:v>0</x:v>
@@ -13286,7 +13292,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J167" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K167" s="0" t="n">
         <x:v>0</x:v>
@@ -13295,10 +13301,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M167" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N167" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O167" s="0" t="n">
         <x:v>0</x:v>
@@ -13316,13 +13322,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T167" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U167" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V167" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:22">
@@ -13333,19 +13339,19 @@
         <x:v>355</x:v>
       </x:c>
       <x:c r="C168" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D168" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E168" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F168" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G168" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H168" s="0" t="n">
         <x:v>0</x:v>
@@ -13354,7 +13360,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J168" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K168" s="0" t="n">
         <x:v>0</x:v>
@@ -13363,16 +13369,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M168" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N168" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O168" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P168" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q168" s="0" t="n">
         <x:v>0</x:v>
@@ -13381,16 +13387,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S168" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T168" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U168" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V168" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:22">
@@ -13401,19 +13407,19 @@
         <x:v>357</x:v>
       </x:c>
       <x:c r="C169" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D169" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E169" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F169" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G169" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H169" s="0" t="n">
         <x:v>0</x:v>
@@ -13434,13 +13440,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N169" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O169" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P169" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q169" s="0" t="n">
         <x:v>0</x:v>
@@ -13449,16 +13455,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S169" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T169" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U169" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V169" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:22">
@@ -13502,7 +13508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N170" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O170" s="0" t="n">
         <x:v>0</x:v>
@@ -13526,7 +13532,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V170" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:22">
@@ -13540,7 +13546,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D171" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E171" s="0" t="n">
         <x:v>0</x:v>
@@ -13555,7 +13561,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I171" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J171" s="0" t="n">
         <x:v>0</x:v>
@@ -13567,16 +13573,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M171" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N171" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O171" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P171" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q171" s="0" t="n">
         <x:v>0</x:v>
@@ -13594,7 +13600,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V171" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">
@@ -13608,7 +13614,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D172" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E172" s="0" t="n">
         <x:v>0</x:v>
@@ -13617,13 +13623,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G172" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H172" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I172" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J172" s="0" t="n">
         <x:v>0</x:v>
@@ -13635,16 +13641,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M172" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N172" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O172" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P172" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q172" s="0" t="n">
         <x:v>0</x:v>
@@ -13676,7 +13682,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D173" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E173" s="0" t="n">
         <x:v>0</x:v>
@@ -13694,7 +13700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J173" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K173" s="0" t="n">
         <x:v>0</x:v>
@@ -13712,25 +13718,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P173" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q173" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R173" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S173" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T173" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U173" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V173" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:22">
@@ -13753,7 +13759,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G174" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H174" s="0" t="n">
         <x:v>0</x:v>
@@ -13762,7 +13768,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J174" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K174" s="0" t="n">
         <x:v>0</x:v>
@@ -13771,10 +13777,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M174" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N174" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O174" s="0" t="n">
         <x:v>0</x:v>
@@ -13786,19 +13792,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R174" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S174" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T174" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U174" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:22">
@@ -13812,16 +13818,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D175" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E175" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F175" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G175" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H175" s="0" t="n">
         <x:v>0</x:v>
@@ -13830,7 +13836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J175" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K175" s="0" t="n">
         <x:v>0</x:v>
@@ -13842,13 +13848,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N175" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O175" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P175" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q175" s="0" t="n">
         <x:v>0</x:v>
@@ -13860,13 +13866,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T175" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U175" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V175" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:22">
@@ -13880,16 +13886,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E176" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H176" s="0" t="n">
         <x:v>0</x:v>
@@ -13898,7 +13904,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K176" s="0" t="n">
         <x:v>0</x:v>
@@ -13910,13 +13916,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O176" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q176" s="0" t="n">
         <x:v>0</x:v>
@@ -13925,7 +13931,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S176" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T176" s="0" t="n">
         <x:v>1</x:v>
@@ -13934,7 +13940,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V176" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:22">
@@ -13984,7 +13990,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P177" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q177" s="0" t="n">
         <x:v>0</x:v>
@@ -13993,7 +13999,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S177" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T177" s="0" t="n">
         <x:v>1</x:v>
@@ -14002,7 +14008,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V177" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:22">
@@ -14016,16 +14022,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D178" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E178" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F178" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G178" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H178" s="0" t="n">
         <x:v>0</x:v>
@@ -14034,7 +14040,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J178" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K178" s="0" t="n">
         <x:v>0</x:v>
@@ -14046,16 +14052,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N178" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O178" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P178" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q178" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R178" s="0" t="n">
         <x:v>0</x:v>
@@ -14064,13 +14070,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T178" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U178" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V178" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="U178" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V178" s="0" t="n">
-        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:22">
@@ -14084,16 +14090,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D179" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E179" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F179" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G179" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H179" s="0" t="n">
         <x:v>0</x:v>
@@ -14102,7 +14108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J179" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K179" s="0" t="n">
         <x:v>0</x:v>
@@ -14114,16 +14120,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N179" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="O179" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P179" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q179" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R179" s="0" t="n">
         <x:v>0</x:v>
@@ -14132,13 +14138,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T179" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U179" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V179" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
@@ -14161,7 +14167,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G180" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H180" s="0" t="n">
         <x:v>0</x:v>
@@ -14206,7 +14212,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V180" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
@@ -14229,7 +14235,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H181" s="0" t="n">
         <x:v>0</x:v>
@@ -14256,7 +14262,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P181" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q181" s="0" t="n">
         <x:v>0</x:v>
@@ -14297,7 +14303,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G182" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H182" s="0" t="n">
         <x:v>0</x:v>
@@ -14336,13 +14342,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T182" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U182" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V182" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:22">
@@ -14362,7 +14368,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F183" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G183" s="0" t="n">
         <x:v>1</x:v>
@@ -14374,7 +14380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J183" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K183" s="0" t="n">
         <x:v>0</x:v>
@@ -14383,16 +14389,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M183" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N183" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O183" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P183" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q183" s="0" t="n">
         <x:v>0</x:v>
@@ -14404,13 +14410,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T183" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U183" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V183" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:22">
@@ -14424,16 +14430,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D184" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E184" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F184" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G184" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H184" s="0" t="n">
         <x:v>0</x:v>
@@ -14442,7 +14448,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J184" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K184" s="0" t="n">
         <x:v>0</x:v>
@@ -14451,10 +14457,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M184" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N184" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O184" s="0" t="n">
         <x:v>0</x:v>
@@ -14478,7 +14484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V184" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:22">
@@ -14492,7 +14498,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D185" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E185" s="0" t="n">
         <x:v>0</x:v>
@@ -14522,7 +14528,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N185" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O185" s="0" t="n">
         <x:v>0</x:v>
@@ -14546,7 +14552,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V185" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:22">
@@ -14560,7 +14566,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D186" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E186" s="0" t="n">
         <x:v>0</x:v>
@@ -14590,7 +14596,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N186" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O186" s="0" t="n">
         <x:v>0</x:v>
@@ -14611,10 +14617,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U186" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V186" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:22">
@@ -14628,61 +14634,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D187" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E187" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F187" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G187" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H187" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I187" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J187" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K187" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L187" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M187" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N187" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O187" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P187" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q187" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R187" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S187" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T187" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U187" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V187" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="E187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G187" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J187" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N187" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V187" s="0" t="n">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
@@ -14696,7 +14702,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D188" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E188" s="0" t="n">
         <x:v>0</x:v>
@@ -14705,34 +14711,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G188" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H188" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I188" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J188" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K188" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L188" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M188" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N188" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O188" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P188" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q188" s="0" t="n">
         <x:v>0</x:v>
@@ -14741,16 +14747,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S188" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T188" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U188" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V188" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
@@ -14761,64 +14767,64 @@
         <x:v>397</x:v>
       </x:c>
       <x:c r="C189" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D189" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E189" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F189" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G189" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H189" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I189" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J189" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K189" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N189" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O189" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P189" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q189" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R189" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="T189" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="U189" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V189" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:22">
@@ -14838,19 +14844,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F190" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G190" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H190" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I190" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J190" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K190" s="0" t="n">
         <x:v>0</x:v>
@@ -14859,34 +14865,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M190" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N190" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="O190" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P190" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="O190" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P190" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="Q190" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="R190" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S190" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T190" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U190" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V190" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:22">
@@ -14900,7 +14906,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E191" s="0" t="n">
         <x:v>0</x:v>
@@ -14909,52 +14915,52 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G191" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H191" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J191" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K191" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L191" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M191" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N191" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="O191" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P191" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="K191" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L191" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M191" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N191" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="O191" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P191" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="Q191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R191" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V191" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
@@ -14965,19 +14971,19 @@
         <x:v>403</x:v>
       </x:c>
       <x:c r="C192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E192" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H192" s="0" t="n">
         <x:v>0</x:v>
@@ -14986,7 +14992,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K192" s="0" t="n">
         <x:v>0</x:v>
@@ -14995,16 +15001,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="Q192" s="0" t="n">
         <x:v>0</x:v>
@@ -15013,16 +15019,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V192" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:22">
@@ -15036,16 +15042,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D193" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E193" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G193" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H193" s="0" t="n">
         <x:v>0</x:v>
@@ -15054,7 +15060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J193" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K193" s="0" t="n">
         <x:v>0</x:v>
@@ -15066,13 +15072,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N193" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O193" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P193" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q193" s="0" t="n">
         <x:v>0</x:v>
@@ -15084,13 +15090,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T193" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U193" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V193" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
@@ -15104,7 +15110,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E194" s="0" t="n">
         <x:v>0</x:v>
@@ -15113,7 +15119,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H194" s="0" t="n">
         <x:v>0</x:v>
@@ -15122,7 +15128,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K194" s="0" t="n">
         <x:v>0</x:v>
@@ -15134,13 +15140,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O194" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P194" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q194" s="0" t="n">
         <x:v>0</x:v>
@@ -15152,13 +15158,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U194" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V194" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">
@@ -15172,7 +15178,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D195" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E195" s="0" t="n">
         <x:v>0</x:v>
@@ -15190,7 +15196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J195" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K195" s="0" t="n">
         <x:v>0</x:v>
@@ -15202,13 +15208,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N195" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q195" s="0" t="n">
         <x:v>0</x:v>
@@ -15226,7 +15232,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V195" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
@@ -15240,7 +15246,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D196" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E196" s="0" t="n">
         <x:v>0</x:v>
@@ -15249,34 +15255,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G196" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H196" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I196" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J196" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K196" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L196" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M196" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N196" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H196" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I196" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J196" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K196" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L196" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M196" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N196" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="O196" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P196" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q196" s="0" t="n">
         <x:v>0</x:v>
@@ -15308,7 +15314,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D197" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E197" s="0" t="n">
         <x:v>0</x:v>
@@ -15317,13 +15323,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G197" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H197" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I197" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J197" s="0" t="n">
         <x:v>1</x:v>
@@ -15335,19 +15341,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M197" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N197" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O197" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P197" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q197" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R197" s="0" t="n">
         <x:v>0</x:v>
@@ -15362,7 +15368,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V197" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:22">
@@ -15376,7 +15382,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E198" s="0" t="n">
         <x:v>0</x:v>
@@ -15385,16 +15391,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G198" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H198" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K198" s="0" t="n">
         <x:v>0</x:v>
@@ -15403,19 +15409,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O198" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P198" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R198" s="0" t="n">
         <x:v>0</x:v>
@@ -15430,7 +15436,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V198" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:22">
@@ -15453,7 +15459,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G199" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H199" s="0" t="n">
         <x:v>0</x:v>
@@ -15477,7 +15483,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O199" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P199" s="0" t="n">
         <x:v>1</x:v>
@@ -15498,7 +15504,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V199" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:22">
@@ -15509,64 +15515,64 @@
         <x:v>419</x:v>
       </x:c>
       <x:c r="C200" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D200" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E200" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F200" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G200" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H200" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I200" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J200" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K200" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L200" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M200" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N200" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O200" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P200" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q200" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R200" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S200" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T200" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U200" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V200" s="0" t="n">
-        <x:v>264</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">
@@ -15577,64 +15583,64 @@
         <x:v>421</x:v>
       </x:c>
       <x:c r="C201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E201" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G201" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H201" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L201" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N201" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="O201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="Q201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R201" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="U201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="V201" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:22">
@@ -15657,7 +15663,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H202" s="0" t="n">
         <x:v>0</x:v>
@@ -15678,7 +15684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N202" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O202" s="0" t="n">
         <x:v>0</x:v>
@@ -15702,7 +15708,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V202" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:22">
@@ -15725,7 +15731,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G203" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H203" s="0" t="n">
         <x:v>0</x:v>
@@ -15734,7 +15740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J203" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K203" s="0" t="n">
         <x:v>0</x:v>
@@ -15746,7 +15752,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N203" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O203" s="0" t="n">
         <x:v>0</x:v>
@@ -15770,7 +15776,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V203" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:22">
@@ -15793,7 +15799,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G204" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H204" s="0" t="n">
         <x:v>0</x:v>
@@ -15802,7 +15808,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J204" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K204" s="0" t="n">
         <x:v>0</x:v>
@@ -15814,10 +15820,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N204" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O204" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P204" s="0" t="n">
         <x:v>0</x:v>
@@ -15838,7 +15844,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V204" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:22">
@@ -15861,7 +15867,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G205" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H205" s="0" t="n">
         <x:v>0</x:v>
@@ -15882,10 +15888,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N205" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O205" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P205" s="0" t="n">
         <x:v>0</x:v>
@@ -15897,7 +15903,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S205" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T205" s="0" t="n">
         <x:v>0</x:v>
@@ -15906,7 +15912,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V205" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:22">
@@ -15920,7 +15926,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D206" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E206" s="0" t="n">
         <x:v>0</x:v>
@@ -15947,34 +15953,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N206" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S206" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U206" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V206" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="N206" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="O206" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P206" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q206" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R206" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S206" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T206" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="U206" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V206" s="0" t="n">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:22">
@@ -15988,7 +15994,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D207" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E207" s="0" t="n">
         <x:v>0</x:v>
@@ -15997,7 +16003,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G207" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H207" s="0" t="n">
         <x:v>0</x:v>
@@ -16015,17 +16021,17 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M207" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N207" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O207" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P207" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="O207" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P207" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="Q207" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -16036,13 +16042,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T207" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U207" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V207" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:22">
@@ -16056,7 +16062,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D208" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E208" s="0" t="n">
         <x:v>0</x:v>
@@ -16086,13 +16092,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N208" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O208" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P208" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q208" s="0" t="n">
         <x:v>0</x:v>
@@ -16110,7 +16116,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V208" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:22">
@@ -16133,7 +16139,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G209" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H209" s="0" t="n">
         <x:v>0</x:v>
@@ -16142,10 +16148,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J209" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K209" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L209" s="0" t="n">
         <x:v>0</x:v>
@@ -16178,7 +16184,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V209" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
@@ -16192,7 +16198,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D210" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E210" s="0" t="n">
         <x:v>0</x:v>
@@ -16213,7 +16219,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K210" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L210" s="0" t="n">
         <x:v>0</x:v>
@@ -16222,13 +16228,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N210" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O210" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P210" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q210" s="0" t="n">
         <x:v>0</x:v>
@@ -16246,7 +16252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V210" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:22">
@@ -16260,7 +16266,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D211" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E211" s="0" t="n">
         <x:v>0</x:v>
@@ -16269,7 +16275,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G211" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H211" s="0" t="n">
         <x:v>0</x:v>
@@ -16290,7 +16296,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N211" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O211" s="0" t="n">
         <x:v>0</x:v>
@@ -16314,7 +16320,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V211" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
@@ -16328,7 +16334,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D212" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E212" s="0" t="n">
         <x:v>0</x:v>
@@ -16346,7 +16352,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J212" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K212" s="0" t="n">
         <x:v>0</x:v>
@@ -16367,7 +16373,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q212" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R212" s="0" t="n">
         <x:v>0</x:v>
@@ -16376,13 +16382,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T212" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U212" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V212" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:22">
@@ -16396,7 +16402,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D213" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E213" s="0" t="n">
         <x:v>0</x:v>
@@ -16435,7 +16441,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q213" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R213" s="0" t="n">
         <x:v>0</x:v>
@@ -16444,13 +16450,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T213" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U213" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V213" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:22">
@@ -16473,7 +16479,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G214" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H214" s="0" t="n">
         <x:v>0</x:v>
@@ -16500,7 +16506,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P214" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q214" s="0" t="n">
         <x:v>0</x:v>
@@ -16515,10 +16521,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U214" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V214" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:22">
@@ -16541,7 +16547,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G215" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H215" s="0" t="n">
         <x:v>0</x:v>
@@ -16562,13 +16568,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N215" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O215" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P215" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q215" s="0" t="n">
         <x:v>0</x:v>
@@ -16583,10 +16589,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U215" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V215" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:22">
@@ -16618,7 +16624,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J216" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K216" s="0" t="n">
         <x:v>0</x:v>
@@ -16630,13 +16636,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N216" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O216" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P216" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q216" s="0" t="n">
         <x:v>0</x:v>
@@ -16654,7 +16660,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V216" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:22">
@@ -16677,7 +16683,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G217" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H217" s="0" t="n">
         <x:v>0</x:v>
@@ -16686,7 +16692,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J217" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K217" s="0" t="n">
         <x:v>0</x:v>
@@ -16698,7 +16704,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N217" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O217" s="0" t="n">
         <x:v>0</x:v>
@@ -16722,7 +16728,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V217" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:22">
@@ -16736,7 +16742,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D218" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E218" s="0" t="n">
         <x:v>0</x:v>
@@ -16745,7 +16751,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G218" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H218" s="0" t="n">
         <x:v>0</x:v>
@@ -16757,16 +16763,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K218" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L218" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M218" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N218" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O218" s="0" t="n">
         <x:v>0</x:v>
@@ -16790,7 +16796,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V218" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
@@ -16801,10 +16807,10 @@
         <x:v>457</x:v>
       </x:c>
       <x:c r="C219" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D219" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E219" s="0" t="n">
         <x:v>0</x:v>
@@ -16813,16 +16819,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G219" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H219" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I219" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J219" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K219" s="0" t="n">
         <x:v>1</x:v>
@@ -16834,13 +16840,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N219" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O219" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P219" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q219" s="0" t="n">
         <x:v>0</x:v>
@@ -16852,13 +16858,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T219" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U219" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V219" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:22">
@@ -16869,46 +16875,46 @@
         <x:v>459</x:v>
       </x:c>
       <x:c r="C220" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D220" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E220" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F220" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G220" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H220" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I220" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J220" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G220" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J220" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="K220" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L220" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M220" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N220" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O220" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P220" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q220" s="0" t="n">
         <x:v>0</x:v>
@@ -16920,13 +16926,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T220" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U220" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V220" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:22">
@@ -16940,7 +16946,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D221" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E221" s="0" t="n">
         <x:v>0</x:v>
@@ -16949,7 +16955,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G221" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H221" s="0" t="n">
         <x:v>0</x:v>
@@ -16958,7 +16964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J221" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K221" s="0" t="n">
         <x:v>0</x:v>
@@ -16967,16 +16973,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M221" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N221" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O221" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P221" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q221" s="0" t="n">
         <x:v>0</x:v>
@@ -16988,13 +16994,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T221" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U221" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V221" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
@@ -17005,10 +17011,10 @@
         <x:v>463</x:v>
       </x:c>
       <x:c r="C222" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D222" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E222" s="0" t="n">
         <x:v>0</x:v>
@@ -17017,16 +17023,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G222" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H222" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I222" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J222" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K222" s="0" t="n">
         <x:v>0</x:v>
@@ -17038,13 +17044,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N222" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O222" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P222" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q222" s="0" t="n">
         <x:v>0</x:v>
@@ -17056,13 +17062,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T222" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U222" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V222" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:22">
@@ -17073,25 +17079,25 @@
         <x:v>465</x:v>
       </x:c>
       <x:c r="C223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D223" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E223" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H223" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J223" s="0" t="n">
         <x:v>1</x:v>
@@ -17103,16 +17109,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N223" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P223" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q223" s="0" t="n">
         <x:v>0</x:v>
@@ -17121,16 +17127,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T223" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V223" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:22">
@@ -17150,10 +17156,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F224" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G224" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H224" s="0" t="n">
         <x:v>0</x:v>
@@ -17162,7 +17168,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J224" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K224" s="0" t="n">
         <x:v>0</x:v>
@@ -17171,17 +17177,17 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M224" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N224" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="O224" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P224" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="O224" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P224" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="Q224" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -17192,13 +17198,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T224" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U224" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V224" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:22">
@@ -17209,10 +17215,10 @@
         <x:v>469</x:v>
       </x:c>
       <x:c r="C225" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D225" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E225" s="0" t="n">
         <x:v>0</x:v>
@@ -17227,10 +17233,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I225" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J225" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K225" s="0" t="n">
         <x:v>0</x:v>
@@ -17239,34 +17245,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M225" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N225" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O225" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P225" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q225" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R225" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S225" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T225" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U225" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V225" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">
@@ -17277,10 +17283,10 @@
         <x:v>471</x:v>
       </x:c>
       <x:c r="C226" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D226" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E226" s="0" t="n">
         <x:v>0</x:v>
@@ -17289,16 +17295,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G226" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H226" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I226" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J226" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K226" s="0" t="n">
         <x:v>0</x:v>
@@ -17307,34 +17313,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M226" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N226" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="O226" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P226" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="Q226" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R226" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S226" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="Q226" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R226" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S226" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="T226" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="U226" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V226" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:22">
@@ -17357,16 +17363,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G227" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H227" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I227" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J227" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K227" s="0" t="n">
         <x:v>0</x:v>
@@ -17375,16 +17381,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M227" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N227" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O227" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P227" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q227" s="0" t="n">
         <x:v>0</x:v>
@@ -17402,7 +17408,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V227" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:22">
@@ -17446,7 +17452,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N228" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O228" s="0" t="n">
         <x:v>0</x:v>
@@ -17470,7 +17476,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V228" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:22">
@@ -17484,7 +17490,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D229" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E229" s="0" t="n">
         <x:v>0</x:v>
@@ -17514,10 +17520,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N229" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O229" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P229" s="0" t="n">
         <x:v>0</x:v>
@@ -17538,7 +17544,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V229" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:22">
@@ -17552,7 +17558,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D230" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E230" s="0" t="n">
         <x:v>0</x:v>
@@ -17570,7 +17576,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J230" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K230" s="0" t="n">
         <x:v>0</x:v>
@@ -17582,10 +17588,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N230" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O230" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P230" s="0" t="n">
         <x:v>0</x:v>
@@ -17597,7 +17603,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S230" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T230" s="0" t="n">
         <x:v>0</x:v>
@@ -17606,7 +17612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V230" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:22">
@@ -17620,26 +17626,26 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D231" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E231" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F231" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G231" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H231" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I231" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J231" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E231" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F231" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G231" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H231" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I231" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J231" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="K231" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -17647,19 +17653,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M231" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N231" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O231" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P231" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q231" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R231" s="0" t="n">
         <x:v>0</x:v>
@@ -17668,13 +17674,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T231" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U231" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V231" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:22">
@@ -17685,64 +17691,64 @@
         <x:v>483</x:v>
       </x:c>
       <x:c r="C232" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D232" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E232" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F232" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G232" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H232" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I232" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J232" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K232" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L232" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M232" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="N232" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O232" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P232" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="Q232" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R232" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S232" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T232" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="U232" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V232" s="0" t="n">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="H232" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I232" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J232" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K232" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L232" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M232" s="0" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="N232" s="0" t="n">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="O232" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="P232" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Q232" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="R232" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S232" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T232" s="0" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="U232" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="V232" s="0" t="n">
-        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:22">
@@ -17753,49 +17759,49 @@
         <x:v>485</x:v>
       </x:c>
       <x:c r="C233" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D233" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E233" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F233" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G233" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H233" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I233" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J233" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K233" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L233" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M233" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N233" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="O233" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P233" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q233" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R233" s="0" t="n">
         <x:v>0</x:v>
@@ -17804,13 +17810,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T233" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="U233" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="V233" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:22">
@@ -17833,7 +17839,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G234" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H234" s="0" t="n">
         <x:v>0</x:v>
@@ -17842,7 +17848,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J234" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K234" s="0" t="n">
         <x:v>0</x:v>
@@ -17860,7 +17866,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P234" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q234" s="0" t="n">
         <x:v>0</x:v>
@@ -17878,7 +17884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V234" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:22">
@@ -17910,7 +17916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J235" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K235" s="0" t="n">
         <x:v>0</x:v>
@@ -17922,7 +17928,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O235" s="0" t="n">
         <x:v>0</x:v>
@@ -17978,7 +17984,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J236" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K236" s="0" t="n">
         <x:v>0</x:v>
@@ -17990,7 +17996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N236" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O236" s="0" t="n">
         <x:v>0</x:v>
@@ -18014,7 +18020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V236" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:22">
@@ -18058,13 +18064,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N237" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O237" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P237" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q237" s="0" t="n">
         <x:v>0</x:v>
@@ -18082,7 +18088,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V237" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:22">
@@ -18096,16 +18102,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D238" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E238" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F238" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G238" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H238" s="0" t="n">
         <x:v>0</x:v>
@@ -18126,7 +18132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N238" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O238" s="0" t="n">
         <x:v>0</x:v>
@@ -18141,16 +18147,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S238" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T238" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U238" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V238" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">
@@ -18164,16 +18170,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D239" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E239" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F239" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G239" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H239" s="0" t="n">
         <x:v>0</x:v>
@@ -18194,13 +18200,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N239" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="O239" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P239" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q239" s="0" t="n">
         <x:v>0</x:v>
@@ -18209,16 +18215,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S239" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T239" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U239" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V239" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:22">
@@ -18232,25 +18238,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D240" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E240" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F240" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G240" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H240" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I240" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J240" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K240" s="0" t="n">
         <x:v>0</x:v>
@@ -18262,7 +18268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N240" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O240" s="0" t="n">
         <x:v>0</x:v>
@@ -18277,16 +18283,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S240" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T240" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U240" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V240" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:22">
@@ -18300,25 +18306,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E241" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G241" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H241" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K241" s="0" t="n">
         <x:v>0</x:v>
@@ -18330,7 +18336,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="O241" s="0" t="n">
         <x:v>0</x:v>
@@ -18345,16 +18351,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T241" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="V241" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
@@ -18368,7 +18374,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D242" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E242" s="0" t="n">
         <x:v>0</x:v>
@@ -18377,7 +18383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G242" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H242" s="0" t="n">
         <x:v>0</x:v>
@@ -18386,7 +18392,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J242" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K242" s="0" t="n">
         <x:v>0</x:v>
@@ -18398,13 +18404,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N242" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O242" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P242" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q242" s="0" t="n">
         <x:v>0</x:v>
@@ -18416,13 +18422,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T242" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U242" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V242" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:22">
@@ -18436,7 +18442,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D243" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E243" s="0" t="n">
         <x:v>0</x:v>
@@ -18454,7 +18460,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J243" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K243" s="0" t="n">
         <x:v>0</x:v>
@@ -18466,13 +18472,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N243" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O243" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P243" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q243" s="0" t="n">
         <x:v>0</x:v>
@@ -18490,7 +18496,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V243" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:22">
@@ -18504,7 +18510,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D244" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E244" s="0" t="n">
         <x:v>0</x:v>
@@ -18513,7 +18519,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G244" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H244" s="0" t="n">
         <x:v>0</x:v>
@@ -18534,7 +18540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N244" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O244" s="0" t="n">
         <x:v>0</x:v>
@@ -18552,13 +18558,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T244" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U244" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V244" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:22">
@@ -18572,7 +18578,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D245" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E245" s="0" t="n">
         <x:v>0</x:v>
@@ -18581,7 +18587,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G245" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H245" s="0" t="n">
         <x:v>0</x:v>
@@ -18602,7 +18608,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N245" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="O245" s="0" t="n">
         <x:v>0</x:v>
@@ -18626,7 +18632,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V245" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:22">
@@ -18640,13 +18646,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D246" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E246" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F246" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G246" s="0" t="n">
         <x:v>4</x:v>
@@ -18670,7 +18676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N246" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O246" s="0" t="n">
         <x:v>0</x:v>
@@ -18688,13 +18694,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T246" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U246" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V246" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
@@ -18708,61 +18714,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D247" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E247" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F247" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G247" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H247" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I247" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J247" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K247" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L247" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M247" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N247" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O247" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P247" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q247" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R247" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S247" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T247" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U247" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V247" s="0" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="H247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N247" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="O247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T247" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="U247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V247" s="0" t="n">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:22">
@@ -18776,7 +18782,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D248" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E248" s="0" t="n">
         <x:v>0</x:v>
@@ -18785,7 +18791,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G248" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H248" s="0" t="n">
         <x:v>0</x:v>
@@ -18806,7 +18812,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N248" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O248" s="0" t="n">
         <x:v>0</x:v>
@@ -18824,13 +18830,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T248" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U248" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V248" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:22">
@@ -18844,7 +18850,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D249" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E249" s="0" t="n">
         <x:v>0</x:v>
@@ -18853,7 +18859,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G249" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H249" s="0" t="n">
         <x:v>0</x:v>
@@ -18874,7 +18880,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N249" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O249" s="0" t="n">
         <x:v>0</x:v>
@@ -18892,13 +18898,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T249" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U249" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V249" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:22">
@@ -18912,7 +18918,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D250" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E250" s="0" t="n">
         <x:v>0</x:v>
@@ -18921,7 +18927,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G250" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H250" s="0" t="n">
         <x:v>0</x:v>
@@ -18942,7 +18948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N250" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O250" s="0" t="n">
         <x:v>0</x:v>
@@ -18960,13 +18966,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T250" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="U250" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V250" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:22">
@@ -18980,7 +18986,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D251" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E251" s="0" t="n">
         <x:v>0</x:v>
@@ -18989,7 +18995,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G251" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H251" s="0" t="n">
         <x:v>0</x:v>
@@ -19010,7 +19016,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N251" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O251" s="0" t="n">
         <x:v>0</x:v>
@@ -19034,7 +19040,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V251" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:22">
@@ -19048,7 +19054,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D252" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E252" s="0" t="n">
         <x:v>0</x:v>
@@ -19057,7 +19063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G252" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H252" s="0" t="n">
         <x:v>0</x:v>
@@ -19078,7 +19084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N252" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O252" s="0" t="n">
         <x:v>0</x:v>
@@ -19096,13 +19102,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T252" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U252" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V252" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:22">
@@ -19116,7 +19122,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D253" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E253" s="0" t="n">
         <x:v>0</x:v>
@@ -19125,7 +19131,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G253" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H253" s="0" t="n">
         <x:v>0</x:v>
@@ -19146,7 +19152,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N253" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O253" s="0" t="n">
         <x:v>0</x:v>
@@ -19164,13 +19170,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T253" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U253" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V253" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:22">
@@ -19184,60 +19190,128 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D254" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E254" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F254" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G254" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H254" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I254" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J254" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K254" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L254" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M254" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N254" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="O254" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P254" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q254" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R254" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S254" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T254" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="U254" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V254" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="255" spans="1:22">
+      <x:c r="A255" s="0" t="s">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c r="B255" s="0" t="s">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="C255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D255" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G254" s="0" t="n">
+      <x:c r="E255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G255" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N254" s="0" t="n">
+      <x:c r="H255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N255" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="O254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T254" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V254" s="0" t="n">
+      <x:c r="O255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T255" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V255" s="0" t="n">
         <x:v>15</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="530">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
   <x:si>
     <x:t>Agency ORI</x:t>
   </x:si>
@@ -812,6 +812,12 @@
   </x:si>
   <x:si>
     <x:t>Hutchinson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winsted Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0440000</x:t>
@@ -1969,7 +1975,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:V255"/>
+  <x:dimension ref="A1:V256"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -4579,7 +4585,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
         <x:v>0</x:v>
@@ -4624,7 +4630,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V39" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:22">
@@ -4668,7 +4674,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N40" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O40" s="0" t="n">
         <x:v>0</x:v>
@@ -4692,7 +4698,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V40" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:22">
@@ -6368,7 +6374,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O65" s="0" t="n">
         <x:v>0</x:v>
@@ -6392,7 +6398,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V65" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:22">
@@ -6726,13 +6732,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T70" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="U70" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="V70" s="0" t="n">
-        <x:v>364</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
@@ -7698,13 +7704,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D85" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E85" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G85" s="0" t="n">
         <x:v>2</x:v>
@@ -7716,7 +7722,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J85" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K85" s="0" t="n">
         <x:v>0</x:v>
@@ -7734,7 +7740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P85" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q85" s="0" t="n">
         <x:v>0</x:v>
@@ -7749,10 +7755,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U85" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V85" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:22">
@@ -8999,7 +9005,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G104" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H104" s="0" t="n">
         <x:v>0</x:v>
@@ -9020,7 +9026,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N104" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O104" s="0" t="n">
         <x:v>1</x:v>
@@ -9038,13 +9044,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T104" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="U104" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="V104" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:22">
@@ -10312,7 +10318,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N123" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O123" s="0" t="n">
         <x:v>0</x:v>
@@ -10336,7 +10342,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V123" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:22">
@@ -10356,13 +10362,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F124" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G124" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H124" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I124" s="0" t="n">
         <x:v>0</x:v>
@@ -10377,16 +10383,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M124" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N124" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O124" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P124" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q124" s="0" t="n">
         <x:v>0</x:v>
@@ -10404,7 +10410,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">
@@ -10424,31 +10430,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F125" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G125" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H125" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I125" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J125" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K125" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L125" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M125" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N125" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O125" s="0" t="n">
         <x:v>0</x:v>
@@ -10469,10 +10475,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U125" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V125" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:22">
@@ -10486,7 +10492,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D126" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E126" s="0" t="n">
         <x:v>0</x:v>
@@ -10501,28 +10507,28 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J126" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L126" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M126" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N126" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O126" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q126" s="0" t="n">
         <x:v>0</x:v>
@@ -10534,13 +10540,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T126" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V126" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:22">
@@ -10554,7 +10560,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D127" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E127" s="0" t="n">
         <x:v>0</x:v>
@@ -10581,10 +10587,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M127" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N127" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O127" s="0" t="n">
         <x:v>0</x:v>
@@ -10602,13 +10608,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T127" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U127" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V127" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:22">
@@ -10631,7 +10637,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G128" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H128" s="0" t="n">
         <x:v>0</x:v>
@@ -10649,10 +10655,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M128" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N128" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O128" s="0" t="n">
         <x:v>0</x:v>
@@ -10670,13 +10676,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T128" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U128" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V128" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:22">
@@ -10696,19 +10702,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F129" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G129" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H129" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I129" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J129" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K129" s="0" t="n">
         <x:v>0</x:v>
@@ -10717,10 +10723,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M129" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N129" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O129" s="0" t="n">
         <x:v>0</x:v>
@@ -10738,13 +10744,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T129" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U129" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V129" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
@@ -10764,19 +10770,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H130" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K130" s="0" t="n">
         <x:v>0</x:v>
@@ -10788,7 +10794,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N130" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O130" s="0" t="n">
         <x:v>0</x:v>
@@ -10812,7 +10818,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V130" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:22">
@@ -10826,16 +10832,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D131" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E131" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F131" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G131" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H131" s="0" t="n">
         <x:v>0</x:v>
@@ -10844,7 +10850,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J131" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K131" s="0" t="n">
         <x:v>0</x:v>
@@ -10853,19 +10859,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M131" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N131" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O131" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P131" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q131" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R131" s="0" t="n">
         <x:v>0</x:v>
@@ -10874,13 +10880,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T131" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U131" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V131" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:22">
@@ -10894,16 +10900,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D132" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E132" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F132" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G132" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H132" s="0" t="n">
         <x:v>0</x:v>
@@ -10912,7 +10918,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J132" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K132" s="0" t="n">
         <x:v>0</x:v>
@@ -10921,19 +10927,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M132" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N132" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O132" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P132" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q132" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R132" s="0" t="n">
         <x:v>0</x:v>
@@ -10942,13 +10948,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T132" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U132" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V132" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:22">
@@ -10980,7 +10986,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J133" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K133" s="0" t="n">
         <x:v>0</x:v>
@@ -10989,7 +10995,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M133" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N133" s="0" t="n">
         <x:v>0</x:v>
@@ -10998,7 +11004,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P133" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q133" s="0" t="n">
         <x:v>0</x:v>
@@ -11016,7 +11022,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V133" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:22">
@@ -11057,7 +11063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M134" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N134" s="0" t="n">
         <x:v>0</x:v>
@@ -11066,7 +11072,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P134" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q134" s="0" t="n">
         <x:v>0</x:v>
@@ -11084,7 +11090,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V134" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:22">
@@ -11098,16 +11104,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D135" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E135" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F135" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G135" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H135" s="0" t="n">
         <x:v>0</x:v>
@@ -11116,7 +11122,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J135" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K135" s="0" t="n">
         <x:v>0</x:v>
@@ -11134,7 +11140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P135" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q135" s="0" t="n">
         <x:v>0</x:v>
@@ -11152,7 +11158,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V135" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:22">
@@ -11166,26 +11172,26 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D136" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E136" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F136" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G136" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H136" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I136" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J136" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="H136" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I136" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J136" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="K136" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -11193,16 +11199,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M136" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N136" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O136" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P136" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q136" s="0" t="n">
         <x:v>0</x:v>
@@ -11214,13 +11220,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T136" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U136" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V136" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:22">
@@ -11234,7 +11240,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D137" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E137" s="0" t="n">
         <x:v>0</x:v>
@@ -11249,7 +11255,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I137" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J137" s="0" t="n">
         <x:v>1</x:v>
@@ -11261,7 +11267,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M137" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N137" s="0" t="n">
         <x:v>1</x:v>
@@ -11270,25 +11276,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P137" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="Q137" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R137" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S137" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T137" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U137" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V137" s="0" t="n">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="Q137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U137" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V137" s="0" t="n">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:22">
@@ -11299,10 +11305,10 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="C138" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D138" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E138" s="0" t="n">
         <x:v>0</x:v>
@@ -11311,16 +11317,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G138" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H138" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I138" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J138" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K138" s="0" t="n">
         <x:v>0</x:v>
@@ -11329,10 +11335,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M138" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N138" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O138" s="0" t="n">
         <x:v>0</x:v>
@@ -11347,16 +11353,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S138" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T138" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U138" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V138" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
@@ -11367,10 +11373,10 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="C139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D139" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E139" s="0" t="n">
         <x:v>0</x:v>
@@ -11379,16 +11385,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G139" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H139" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J139" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K139" s="0" t="n">
         <x:v>0</x:v>
@@ -11397,34 +11403,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N139" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O139" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="Q139" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R139" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T139" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U139" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V139" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:22">
@@ -11438,16 +11444,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D140" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E140" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F140" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G140" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H140" s="0" t="n">
         <x:v>0</x:v>
@@ -11456,7 +11462,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J140" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K140" s="0" t="n">
         <x:v>0</x:v>
@@ -11468,7 +11474,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N140" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O140" s="0" t="n">
         <x:v>0</x:v>
@@ -11477,10 +11483,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q140" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R140" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S140" s="0" t="n">
         <x:v>0</x:v>
@@ -11489,10 +11495,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U140" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V140" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:22">
@@ -11506,16 +11512,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E141" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G141" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H141" s="0" t="n">
         <x:v>0</x:v>
@@ -11524,7 +11530,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K141" s="0" t="n">
         <x:v>0</x:v>
@@ -11536,7 +11542,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N141" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O141" s="0" t="n">
         <x:v>0</x:v>
@@ -11545,7 +11551,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R141" s="0" t="n">
         <x:v>0</x:v>
@@ -11554,13 +11560,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T141" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U141" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V141" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:22">
@@ -11571,10 +11577,10 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="C142" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D142" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E142" s="0" t="n">
         <x:v>0</x:v>
@@ -11583,7 +11589,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G142" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H142" s="0" t="n">
         <x:v>0</x:v>
@@ -11592,10 +11598,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J142" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K142" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L142" s="0" t="n">
         <x:v>0</x:v>
@@ -11604,10 +11610,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N142" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O142" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P142" s="0" t="n">
         <x:v>0</x:v>
@@ -11622,13 +11628,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T142" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U142" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V142" s="0" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="U142" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V142" s="0" t="n">
-        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:22">
@@ -11639,10 +11645,10 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="C143" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D143" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E143" s="0" t="n">
         <x:v>0</x:v>
@@ -11651,7 +11657,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G143" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H143" s="0" t="n">
         <x:v>0</x:v>
@@ -11660,10 +11666,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J143" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K143" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L143" s="0" t="n">
         <x:v>0</x:v>
@@ -11672,10 +11678,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N143" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="O143" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P143" s="0" t="n">
         <x:v>0</x:v>
@@ -11690,13 +11696,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T143" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U143" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V143" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:22">
@@ -11707,10 +11713,10 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="C144" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D144" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E144" s="0" t="n">
         <x:v>0</x:v>
@@ -11719,7 +11725,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G144" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H144" s="0" t="n">
         <x:v>0</x:v>
@@ -11728,7 +11734,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J144" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K144" s="0" t="n">
         <x:v>0</x:v>
@@ -11737,34 +11743,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M144" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N144" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O144" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P144" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q144" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R144" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S144" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T144" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U144" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V144" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:22">
@@ -11775,28 +11781,28 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="C145" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D145" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E145" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F145" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G145" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H145" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I145" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J145" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K145" s="0" t="n">
         <x:v>0</x:v>
@@ -11808,31 +11814,31 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="N145" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O145" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P145" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="Q145" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R145" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S145" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T145" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U145" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V145" s="0" t="n">
-        <x:v>231</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:22">
@@ -11843,64 +11849,64 @@
         <x:v>311</x:v>
       </x:c>
       <x:c r="C146" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D146" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E146" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F146" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G146" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H146" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I146" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J146" s="0" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="K146" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L146" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M146" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="N146" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="O146" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="P146" s="0" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="Q146" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="R146" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S146" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J146" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M146" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N146" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="O146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P146" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Q146" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="T146" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U146" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="V146" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:22">
@@ -11914,25 +11920,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D147" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E147" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F147" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G147" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H147" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I147" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J147" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K147" s="0" t="n">
         <x:v>0</x:v>
@@ -11941,16 +11947,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M147" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N147" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O147" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P147" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q147" s="0" t="n">
         <x:v>1</x:v>
@@ -11962,13 +11968,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T147" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U147" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V147" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:22">
@@ -11988,19 +11994,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F148" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G148" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H148" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I148" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J148" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K148" s="0" t="n">
         <x:v>0</x:v>
@@ -12009,19 +12015,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M148" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N148" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O148" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P148" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q148" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R148" s="0" t="n">
         <x:v>0</x:v>
@@ -12030,13 +12036,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T148" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U148" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V148" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:22">
@@ -12080,13 +12086,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N149" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O149" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P149" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q149" s="0" t="n">
         <x:v>0</x:v>
@@ -12104,7 +12110,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V149" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:22">
@@ -12118,7 +12124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D150" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E150" s="0" t="n">
         <x:v>0</x:v>
@@ -12127,13 +12133,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G150" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H150" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I150" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J150" s="0" t="n">
         <x:v>0</x:v>
@@ -12148,13 +12154,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N150" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O150" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P150" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q150" s="0" t="n">
         <x:v>0</x:v>
@@ -12172,7 +12178,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V150" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:22">
@@ -12186,7 +12192,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D151" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E151" s="0" t="n">
         <x:v>0</x:v>
@@ -12195,16 +12201,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G151" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H151" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I151" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J151" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K151" s="0" t="n">
         <x:v>0</x:v>
@@ -12216,13 +12222,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N151" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O151" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P151" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q151" s="0" t="n">
         <x:v>0</x:v>
@@ -12237,10 +12243,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U151" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V151" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:22">
@@ -12263,7 +12269,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G152" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H152" s="0" t="n">
         <x:v>0</x:v>
@@ -12272,7 +12278,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K152" s="0" t="n">
         <x:v>0</x:v>
@@ -12284,16 +12290,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N152" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="O152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q152" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R152" s="0" t="n">
         <x:v>0</x:v>
@@ -12302,13 +12308,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T152" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V152" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:22">
@@ -12322,7 +12328,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D153" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E153" s="0" t="n">
         <x:v>0</x:v>
@@ -12331,37 +12337,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G153" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H153" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I153" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J153" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K153" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L153" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M153" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N153" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="H153" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I153" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J153" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K153" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L153" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M153" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N153" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="O153" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P153" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q153" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R153" s="0" t="n">
         <x:v>0</x:v>
@@ -12370,13 +12376,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T153" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U153" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V153" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:22">
@@ -12399,34 +12405,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G154" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I154" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J154" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M154" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N154" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="H154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N154" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="O154" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P154" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q154" s="0" t="n">
         <x:v>0</x:v>
@@ -12438,13 +12444,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T154" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U154" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V154" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
@@ -12467,7 +12473,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G155" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H155" s="0" t="n">
         <x:v>0</x:v>
@@ -12476,7 +12482,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J155" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K155" s="0" t="n">
         <x:v>0</x:v>
@@ -12488,7 +12494,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N155" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O155" s="0" t="n">
         <x:v>0</x:v>
@@ -12500,19 +12506,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R155" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S155" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T155" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U155" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V155" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:22">
@@ -12526,7 +12532,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E156" s="0" t="n">
         <x:v>0</x:v>
@@ -12535,7 +12541,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G156" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H156" s="0" t="n">
         <x:v>0</x:v>
@@ -12544,7 +12550,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K156" s="0" t="n">
         <x:v>0</x:v>
@@ -12556,7 +12562,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O156" s="0" t="n">
         <x:v>0</x:v>
@@ -12568,19 +12574,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S156" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T156" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U156" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V156" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:22">
@@ -12624,7 +12630,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O157" s="0" t="n">
         <x:v>0</x:v>
@@ -12648,7 +12654,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V157" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:22">
@@ -12659,25 +12665,25 @@
         <x:v>335</x:v>
       </x:c>
       <x:c r="C158" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D158" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E158" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F158" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G158" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H158" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I158" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J158" s="0" t="n">
         <x:v>0</x:v>
@@ -12689,10 +12695,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M158" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N158" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O158" s="0" t="n">
         <x:v>0</x:v>
@@ -12701,22 +12707,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q158" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R158" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S158" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T158" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U158" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V158" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:22">
@@ -12727,10 +12733,10 @@
         <x:v>337</x:v>
       </x:c>
       <x:c r="C159" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D159" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E159" s="0" t="n">
         <x:v>0</x:v>
@@ -12739,7 +12745,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G159" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H159" s="0" t="n">
         <x:v>0</x:v>
@@ -12748,7 +12754,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J159" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K159" s="0" t="n">
         <x:v>0</x:v>
@@ -12757,10 +12763,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M159" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N159" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="O159" s="0" t="n">
         <x:v>0</x:v>
@@ -12769,22 +12775,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q159" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R159" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="S159" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T159" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U159" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="V159" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:22">
@@ -12798,13 +12804,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D160" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E160" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G160" s="0" t="n">
         <x:v>2</x:v>
@@ -12816,7 +12822,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K160" s="0" t="n">
         <x:v>0</x:v>
@@ -12825,10 +12831,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M160" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N160" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O160" s="0" t="n">
         <x:v>0</x:v>
@@ -12837,7 +12843,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R160" s="0" t="n">
         <x:v>1</x:v>
@@ -12846,13 +12852,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T160" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U160" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V160" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
@@ -12866,7 +12872,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D161" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E161" s="0" t="n">
         <x:v>0</x:v>
@@ -12875,16 +12881,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G161" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H161" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I161" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J161" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K161" s="0" t="n">
         <x:v>0</x:v>
@@ -12908,19 +12914,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R161" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S161" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T161" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U161" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="V161" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:22">
@@ -12931,10 +12937,10 @@
         <x:v>343</x:v>
       </x:c>
       <x:c r="C162" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E162" s="0" t="n">
         <x:v>0</x:v>
@@ -12952,7 +12958,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K162" s="0" t="n">
         <x:v>0</x:v>
@@ -12961,10 +12967,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N162" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O162" s="0" t="n">
         <x:v>0</x:v>
@@ -12985,10 +12991,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V162" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:22">
@@ -12999,64 +13005,64 @@
         <x:v>345</x:v>
       </x:c>
       <x:c r="C163" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N163" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="O163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V163" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="D163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G163" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I163" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J163" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="K163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N163" s="0" t="n">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="O163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S163" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T163" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="U163" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V163" s="0" t="n">
-        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:22">
@@ -13067,28 +13073,28 @@
         <x:v>347</x:v>
       </x:c>
       <x:c r="C164" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D164" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E164" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F164" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G164" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H164" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I164" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J164" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K164" s="0" t="n">
         <x:v>0</x:v>
@@ -13097,34 +13103,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M164" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N164" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O164" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P164" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q164" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R164" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S164" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T164" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U164" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V164" s="0" t="n">
-        <x:v>279</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:22">
@@ -13135,28 +13141,28 @@
         <x:v>349</x:v>
       </x:c>
       <x:c r="C165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E165" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G165" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H165" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K165" s="0" t="n">
         <x:v>0</x:v>
@@ -13165,34 +13171,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N165" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O165" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="Q165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R165" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="V165" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:22">
@@ -13215,7 +13221,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G166" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H166" s="0" t="n">
         <x:v>0</x:v>
@@ -13236,7 +13242,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O166" s="0" t="n">
         <x:v>0</x:v>
@@ -13260,7 +13266,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V166" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:22">
@@ -13274,7 +13280,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D167" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E167" s="0" t="n">
         <x:v>0</x:v>
@@ -13283,7 +13289,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G167" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H167" s="0" t="n">
         <x:v>0</x:v>
@@ -13292,7 +13298,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J167" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K167" s="0" t="n">
         <x:v>0</x:v>
@@ -13304,7 +13310,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N167" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O167" s="0" t="n">
         <x:v>0</x:v>
@@ -13322,13 +13328,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T167" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U167" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V167" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:22">
@@ -13342,7 +13348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D168" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E168" s="0" t="n">
         <x:v>0</x:v>
@@ -13351,7 +13357,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G168" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H168" s="0" t="n">
         <x:v>0</x:v>
@@ -13360,7 +13366,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J168" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K168" s="0" t="n">
         <x:v>0</x:v>
@@ -13369,10 +13375,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M168" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N168" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O168" s="0" t="n">
         <x:v>0</x:v>
@@ -13390,13 +13396,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T168" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U168" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V168" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:22">
@@ -13407,19 +13413,19 @@
         <x:v>357</x:v>
       </x:c>
       <x:c r="C169" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D169" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E169" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F169" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G169" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H169" s="0" t="n">
         <x:v>0</x:v>
@@ -13428,7 +13434,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J169" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K169" s="0" t="n">
         <x:v>0</x:v>
@@ -13437,16 +13443,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M169" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N169" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O169" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P169" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q169" s="0" t="n">
         <x:v>0</x:v>
@@ -13455,16 +13461,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S169" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T169" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U169" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V169" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:22">
@@ -13475,19 +13481,19 @@
         <x:v>359</x:v>
       </x:c>
       <x:c r="C170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E170" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H170" s="0" t="n">
         <x:v>0</x:v>
@@ -13508,13 +13514,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N170" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O170" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q170" s="0" t="n">
         <x:v>0</x:v>
@@ -13523,16 +13529,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U170" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V170" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:22">
@@ -13576,7 +13582,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N171" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O171" s="0" t="n">
         <x:v>0</x:v>
@@ -13600,7 +13606,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V171" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">
@@ -13614,7 +13620,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D172" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E172" s="0" t="n">
         <x:v>0</x:v>
@@ -13629,7 +13635,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I172" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J172" s="0" t="n">
         <x:v>0</x:v>
@@ -13641,16 +13647,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M172" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N172" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O172" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P172" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q172" s="0" t="n">
         <x:v>0</x:v>
@@ -13668,7 +13674,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V172" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:22">
@@ -13682,7 +13688,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D173" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E173" s="0" t="n">
         <x:v>0</x:v>
@@ -13691,13 +13697,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G173" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H173" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I173" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J173" s="0" t="n">
         <x:v>0</x:v>
@@ -13709,16 +13715,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M173" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N173" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O173" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P173" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q173" s="0" t="n">
         <x:v>0</x:v>
@@ -13750,7 +13756,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E174" s="0" t="n">
         <x:v>0</x:v>
@@ -13768,7 +13774,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K174" s="0" t="n">
         <x:v>0</x:v>
@@ -13786,25 +13792,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P174" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q174" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S174" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V174" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:22">
@@ -13827,7 +13833,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G175" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H175" s="0" t="n">
         <x:v>0</x:v>
@@ -13836,7 +13842,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J175" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K175" s="0" t="n">
         <x:v>0</x:v>
@@ -13845,10 +13851,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M175" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N175" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O175" s="0" t="n">
         <x:v>0</x:v>
@@ -13860,19 +13866,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R175" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S175" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T175" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U175" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V175" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:22">
@@ -13886,16 +13892,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D176" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E176" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F176" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G176" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H176" s="0" t="n">
         <x:v>0</x:v>
@@ -13904,7 +13910,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J176" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K176" s="0" t="n">
         <x:v>0</x:v>
@@ -13916,13 +13922,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N176" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O176" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P176" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q176" s="0" t="n">
         <x:v>0</x:v>
@@ -13934,13 +13940,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T176" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U176" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V176" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:22">
@@ -13954,16 +13960,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D177" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E177" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F177" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G177" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H177" s="0" t="n">
         <x:v>0</x:v>
@@ -13972,7 +13978,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J177" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K177" s="0" t="n">
         <x:v>0</x:v>
@@ -13984,13 +13990,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N177" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O177" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P177" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q177" s="0" t="n">
         <x:v>0</x:v>
@@ -13999,7 +14005,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S177" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T177" s="0" t="n">
         <x:v>1</x:v>
@@ -14008,7 +14014,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V177" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:22">
@@ -14058,7 +14064,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P178" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q178" s="0" t="n">
         <x:v>0</x:v>
@@ -14067,7 +14073,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S178" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T178" s="0" t="n">
         <x:v>1</x:v>
@@ -14076,7 +14082,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V178" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:22">
@@ -14090,16 +14096,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D179" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E179" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F179" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G179" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H179" s="0" t="n">
         <x:v>0</x:v>
@@ -14108,7 +14114,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J179" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K179" s="0" t="n">
         <x:v>0</x:v>
@@ -14120,16 +14126,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N179" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O179" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P179" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q179" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R179" s="0" t="n">
         <x:v>0</x:v>
@@ -14138,13 +14144,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T179" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U179" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V179" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="U179" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V179" s="0" t="n">
-        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
@@ -14158,16 +14164,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H180" s="0" t="n">
         <x:v>0</x:v>
@@ -14176,7 +14182,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K180" s="0" t="n">
         <x:v>0</x:v>
@@ -14188,16 +14194,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="O180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R180" s="0" t="n">
         <x:v>0</x:v>
@@ -14206,13 +14212,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
@@ -14235,7 +14241,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G181" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H181" s="0" t="n">
         <x:v>0</x:v>
@@ -14280,7 +14286,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V181" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
@@ -14303,7 +14309,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G182" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H182" s="0" t="n">
         <x:v>0</x:v>
@@ -14330,7 +14336,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P182" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q182" s="0" t="n">
         <x:v>0</x:v>
@@ -14371,7 +14377,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G183" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H183" s="0" t="n">
         <x:v>0</x:v>
@@ -14410,13 +14416,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T183" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U183" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V183" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:22">
@@ -14436,7 +14442,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F184" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G184" s="0" t="n">
         <x:v>1</x:v>
@@ -14448,7 +14454,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J184" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K184" s="0" t="n">
         <x:v>0</x:v>
@@ -14457,16 +14463,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M184" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N184" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O184" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P184" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q184" s="0" t="n">
         <x:v>0</x:v>
@@ -14478,13 +14484,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T184" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U184" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V184" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:22">
@@ -14498,16 +14504,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D185" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E185" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F185" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G185" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H185" s="0" t="n">
         <x:v>0</x:v>
@@ -14516,7 +14522,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J185" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K185" s="0" t="n">
         <x:v>0</x:v>
@@ -14525,10 +14531,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M185" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N185" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O185" s="0" t="n">
         <x:v>0</x:v>
@@ -14552,7 +14558,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V185" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:22">
@@ -14566,7 +14572,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D186" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E186" s="0" t="n">
         <x:v>0</x:v>
@@ -14596,7 +14602,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N186" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O186" s="0" t="n">
         <x:v>0</x:v>
@@ -14620,7 +14626,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V186" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:22">
@@ -14634,7 +14640,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D187" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E187" s="0" t="n">
         <x:v>0</x:v>
@@ -14664,7 +14670,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O187" s="0" t="n">
         <x:v>0</x:v>
@@ -14685,10 +14691,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U187" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V187" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
@@ -14702,61 +14708,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D188" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T188" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U188" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V188" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="E188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G188" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J188" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N188" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V188" s="0" t="n">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
@@ -14770,7 +14776,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D189" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E189" s="0" t="n">
         <x:v>0</x:v>
@@ -14779,34 +14785,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G189" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H189" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I189" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J189" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K189" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L189" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M189" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N189" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O189" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P189" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q189" s="0" t="n">
         <x:v>0</x:v>
@@ -14815,16 +14821,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S189" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T189" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U189" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V189" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:22">
@@ -14835,64 +14841,64 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="C190" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D190" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E190" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F190" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G190" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H190" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I190" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J190" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K190" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L190" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M190" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N190" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O190" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P190" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q190" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R190" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S190" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="T190" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="U190" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V190" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:22">
@@ -14912,19 +14918,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H191" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K191" s="0" t="n">
         <x:v>0</x:v>
@@ -14933,34 +14939,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N191" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="O191" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P191" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="O191" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P191" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="Q191" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="R191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S191" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U191" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V191" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
@@ -14974,61 +14980,61 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E192" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G192" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H192" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I192" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J192" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K192" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L192" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M192" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="N192" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H192" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I192" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J192" s="0" t="n">
+      <x:c r="O192" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P192" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="K192" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L192" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M192" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N192" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="O192" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P192" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="Q192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R192" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V192" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:22">
@@ -15039,19 +15045,19 @@
         <x:v>405</x:v>
       </x:c>
       <x:c r="C193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E193" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F193" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G193" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H193" s="0" t="n">
         <x:v>0</x:v>
@@ -15060,7 +15066,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K193" s="0" t="n">
         <x:v>0</x:v>
@@ -15069,16 +15075,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O193" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="Q193" s="0" t="n">
         <x:v>0</x:v>
@@ -15087,16 +15093,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V193" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
@@ -15110,16 +15116,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D194" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E194" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G194" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H194" s="0" t="n">
         <x:v>0</x:v>
@@ -15128,7 +15134,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J194" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K194" s="0" t="n">
         <x:v>0</x:v>
@@ -15140,13 +15146,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N194" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O194" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P194" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q194" s="0" t="n">
         <x:v>0</x:v>
@@ -15158,13 +15164,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T194" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U194" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V194" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">
@@ -15178,7 +15184,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E195" s="0" t="n">
         <x:v>0</x:v>
@@ -15187,7 +15193,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H195" s="0" t="n">
         <x:v>0</x:v>
@@ -15196,7 +15202,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K195" s="0" t="n">
         <x:v>0</x:v>
@@ -15208,13 +15214,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O195" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P195" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q195" s="0" t="n">
         <x:v>0</x:v>
@@ -15226,13 +15232,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U195" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V195" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
@@ -15246,7 +15252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D196" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E196" s="0" t="n">
         <x:v>0</x:v>
@@ -15264,7 +15270,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J196" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K196" s="0" t="n">
         <x:v>0</x:v>
@@ -15276,13 +15282,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N196" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O196" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P196" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q196" s="0" t="n">
         <x:v>0</x:v>
@@ -15300,7 +15306,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V196" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:22">
@@ -15314,7 +15320,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D197" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E197" s="0" t="n">
         <x:v>0</x:v>
@@ -15323,34 +15329,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G197" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H197" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I197" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J197" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K197" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L197" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M197" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N197" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H197" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I197" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J197" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K197" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L197" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M197" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N197" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="O197" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P197" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q197" s="0" t="n">
         <x:v>0</x:v>
@@ -15382,7 +15388,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D198" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E198" s="0" t="n">
         <x:v>0</x:v>
@@ -15391,13 +15397,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G198" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H198" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I198" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J198" s="0" t="n">
         <x:v>1</x:v>
@@ -15409,19 +15415,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M198" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N198" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O198" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P198" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q198" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R198" s="0" t="n">
         <x:v>0</x:v>
@@ -15436,7 +15442,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V198" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:22">
@@ -15450,7 +15456,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D199" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E199" s="0" t="n">
         <x:v>0</x:v>
@@ -15459,16 +15465,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G199" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H199" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I199" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J199" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K199" s="0" t="n">
         <x:v>0</x:v>
@@ -15477,19 +15483,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M199" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N199" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O199" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P199" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q199" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R199" s="0" t="n">
         <x:v>0</x:v>
@@ -15504,7 +15510,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V199" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:22">
@@ -15527,7 +15533,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G200" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H200" s="0" t="n">
         <x:v>0</x:v>
@@ -15551,7 +15557,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O200" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P200" s="0" t="n">
         <x:v>1</x:v>
@@ -15572,7 +15578,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V200" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">
@@ -15583,64 +15589,64 @@
         <x:v>421</x:v>
       </x:c>
       <x:c r="C201" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D201" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E201" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F201" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G201" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H201" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I201" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J201" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K201" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L201" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M201" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N201" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O201" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P201" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q201" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R201" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S201" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T201" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U201" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V201" s="0" t="n">
-        <x:v>264</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:22">
@@ -15651,64 +15657,64 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="C202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E202" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G202" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H202" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L202" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N202" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="O202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="Q202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R202" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="U202" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="V202" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:22">
@@ -15731,7 +15737,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H203" s="0" t="n">
         <x:v>0</x:v>
@@ -15752,7 +15758,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N203" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O203" s="0" t="n">
         <x:v>0</x:v>
@@ -15776,7 +15782,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V203" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:22">
@@ -15799,7 +15805,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G204" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H204" s="0" t="n">
         <x:v>0</x:v>
@@ -15808,7 +15814,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J204" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K204" s="0" t="n">
         <x:v>0</x:v>
@@ -15820,7 +15826,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N204" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O204" s="0" t="n">
         <x:v>0</x:v>
@@ -15844,7 +15850,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V204" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:22">
@@ -15867,7 +15873,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G205" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H205" s="0" t="n">
         <x:v>0</x:v>
@@ -15876,7 +15882,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J205" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K205" s="0" t="n">
         <x:v>0</x:v>
@@ -15888,10 +15894,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N205" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O205" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P205" s="0" t="n">
         <x:v>0</x:v>
@@ -15912,7 +15918,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V205" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:22">
@@ -15935,7 +15941,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G206" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H206" s="0" t="n">
         <x:v>0</x:v>
@@ -15956,10 +15962,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N206" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O206" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P206" s="0" t="n">
         <x:v>0</x:v>
@@ -15971,7 +15977,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S206" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T206" s="0" t="n">
         <x:v>0</x:v>
@@ -15980,7 +15986,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V206" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:22">
@@ -15994,7 +16000,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D207" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E207" s="0" t="n">
         <x:v>0</x:v>
@@ -16021,34 +16027,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N207" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S207" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U207" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V207" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="N207" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="O207" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P207" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q207" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R207" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S207" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T207" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="U207" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V207" s="0" t="n">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:22">
@@ -16062,7 +16068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D208" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E208" s="0" t="n">
         <x:v>0</x:v>
@@ -16071,7 +16077,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G208" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H208" s="0" t="n">
         <x:v>0</x:v>
@@ -16089,17 +16095,17 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M208" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N208" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O208" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P208" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="O208" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P208" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="Q208" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -16110,13 +16116,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T208" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U208" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V208" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:22">
@@ -16130,7 +16136,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D209" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E209" s="0" t="n">
         <x:v>0</x:v>
@@ -16160,13 +16166,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N209" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O209" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P209" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q209" s="0" t="n">
         <x:v>0</x:v>
@@ -16184,7 +16190,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V209" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
@@ -16207,7 +16213,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G210" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H210" s="0" t="n">
         <x:v>0</x:v>
@@ -16216,10 +16222,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J210" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K210" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L210" s="0" t="n">
         <x:v>0</x:v>
@@ -16252,7 +16258,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V210" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:22">
@@ -16266,7 +16272,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D211" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E211" s="0" t="n">
         <x:v>0</x:v>
@@ -16287,7 +16293,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K211" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L211" s="0" t="n">
         <x:v>0</x:v>
@@ -16296,13 +16302,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N211" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O211" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P211" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q211" s="0" t="n">
         <x:v>0</x:v>
@@ -16320,7 +16326,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V211" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
@@ -16334,7 +16340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D212" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E212" s="0" t="n">
         <x:v>0</x:v>
@@ -16343,7 +16349,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G212" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H212" s="0" t="n">
         <x:v>0</x:v>
@@ -16364,7 +16370,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N212" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O212" s="0" t="n">
         <x:v>0</x:v>
@@ -16388,7 +16394,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V212" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:22">
@@ -16402,7 +16408,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D213" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E213" s="0" t="n">
         <x:v>0</x:v>
@@ -16420,7 +16426,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J213" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K213" s="0" t="n">
         <x:v>0</x:v>
@@ -16441,7 +16447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q213" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R213" s="0" t="n">
         <x:v>0</x:v>
@@ -16450,13 +16456,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T213" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U213" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V213" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:22">
@@ -16470,7 +16476,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D214" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E214" s="0" t="n">
         <x:v>0</x:v>
@@ -16509,7 +16515,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q214" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R214" s="0" t="n">
         <x:v>0</x:v>
@@ -16518,13 +16524,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T214" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U214" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V214" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:22">
@@ -16547,7 +16553,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G215" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H215" s="0" t="n">
         <x:v>0</x:v>
@@ -16574,7 +16580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P215" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q215" s="0" t="n">
         <x:v>0</x:v>
@@ -16589,10 +16595,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U215" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V215" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:22">
@@ -16615,7 +16621,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G216" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H216" s="0" t="n">
         <x:v>0</x:v>
@@ -16636,13 +16642,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N216" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O216" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P216" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q216" s="0" t="n">
         <x:v>0</x:v>
@@ -16657,10 +16663,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U216" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V216" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:22">
@@ -16692,7 +16698,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J217" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K217" s="0" t="n">
         <x:v>0</x:v>
@@ -16704,13 +16710,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N217" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O217" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P217" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q217" s="0" t="n">
         <x:v>0</x:v>
@@ -16728,7 +16734,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V217" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:22">
@@ -16751,7 +16757,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G218" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H218" s="0" t="n">
         <x:v>0</x:v>
@@ -16760,7 +16766,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J218" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K218" s="0" t="n">
         <x:v>0</x:v>
@@ -16772,7 +16778,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N218" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O218" s="0" t="n">
         <x:v>0</x:v>
@@ -16796,7 +16802,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V218" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
@@ -16810,7 +16816,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D219" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E219" s="0" t="n">
         <x:v>0</x:v>
@@ -16819,7 +16825,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G219" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H219" s="0" t="n">
         <x:v>0</x:v>
@@ -16831,16 +16837,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K219" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L219" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M219" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N219" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O219" s="0" t="n">
         <x:v>0</x:v>
@@ -16864,7 +16870,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V219" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:22">
@@ -16875,10 +16881,10 @@
         <x:v>459</x:v>
       </x:c>
       <x:c r="C220" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D220" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E220" s="0" t="n">
         <x:v>0</x:v>
@@ -16887,16 +16893,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G220" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H220" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I220" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J220" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K220" s="0" t="n">
         <x:v>1</x:v>
@@ -16908,13 +16914,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N220" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O220" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P220" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q220" s="0" t="n">
         <x:v>0</x:v>
@@ -16926,13 +16932,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T220" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U220" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V220" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:22">
@@ -16943,46 +16949,46 @@
         <x:v>461</x:v>
       </x:c>
       <x:c r="C221" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D221" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E221" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F221" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G221" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H221" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I221" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J221" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E221" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F221" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G221" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H221" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I221" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J221" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="K221" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L221" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M221" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N221" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O221" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P221" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q221" s="0" t="n">
         <x:v>0</x:v>
@@ -16994,13 +17000,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T221" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U221" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V221" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
@@ -17014,7 +17020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E222" s="0" t="n">
         <x:v>0</x:v>
@@ -17023,7 +17029,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H222" s="0" t="n">
         <x:v>0</x:v>
@@ -17032,7 +17038,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K222" s="0" t="n">
         <x:v>0</x:v>
@@ -17041,16 +17047,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N222" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q222" s="0" t="n">
         <x:v>0</x:v>
@@ -17062,13 +17068,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V222" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:22">
@@ -17079,10 +17085,10 @@
         <x:v>465</x:v>
       </x:c>
       <x:c r="C223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E223" s="0" t="n">
         <x:v>0</x:v>
@@ -17091,16 +17097,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G223" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H223" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K223" s="0" t="n">
         <x:v>0</x:v>
@@ -17112,13 +17118,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N223" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O223" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q223" s="0" t="n">
         <x:v>0</x:v>
@@ -17130,13 +17136,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U223" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V223" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:22">
@@ -17147,25 +17153,25 @@
         <x:v>467</x:v>
       </x:c>
       <x:c r="C224" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D224" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E224" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F224" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G224" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H224" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I224" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J224" s="0" t="n">
         <x:v>1</x:v>
@@ -17177,16 +17183,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M224" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N224" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O224" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P224" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q224" s="0" t="n">
         <x:v>0</x:v>
@@ -17195,16 +17201,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S224" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T224" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U224" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V224" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:22">
@@ -17224,10 +17230,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F225" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G225" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H225" s="0" t="n">
         <x:v>0</x:v>
@@ -17236,7 +17242,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J225" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K225" s="0" t="n">
         <x:v>0</x:v>
@@ -17245,17 +17251,17 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M225" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N225" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="O225" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P225" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="O225" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P225" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="Q225" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -17266,13 +17272,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T225" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U225" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V225" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">
@@ -17283,10 +17289,10 @@
         <x:v>471</x:v>
       </x:c>
       <x:c r="C226" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D226" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E226" s="0" t="n">
         <x:v>0</x:v>
@@ -17301,10 +17307,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I226" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J226" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K226" s="0" t="n">
         <x:v>0</x:v>
@@ -17313,34 +17319,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M226" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N226" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O226" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P226" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q226" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R226" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S226" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T226" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U226" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V226" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:22">
@@ -17351,10 +17357,10 @@
         <x:v>473</x:v>
       </x:c>
       <x:c r="C227" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D227" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E227" s="0" t="n">
         <x:v>0</x:v>
@@ -17363,16 +17369,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G227" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H227" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I227" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J227" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K227" s="0" t="n">
         <x:v>0</x:v>
@@ -17381,34 +17387,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M227" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N227" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="O227" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P227" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="Q227" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R227" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S227" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="Q227" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R227" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S227" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="T227" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="U227" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V227" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:22">
@@ -17431,16 +17437,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H228" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K228" s="0" t="n">
         <x:v>0</x:v>
@@ -17449,16 +17455,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N228" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O228" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q228" s="0" t="n">
         <x:v>0</x:v>
@@ -17476,7 +17482,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V228" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:22">
@@ -17520,7 +17526,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N229" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O229" s="0" t="n">
         <x:v>0</x:v>
@@ -17544,7 +17550,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V229" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:22">
@@ -17558,7 +17564,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D230" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E230" s="0" t="n">
         <x:v>0</x:v>
@@ -17588,10 +17594,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N230" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O230" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P230" s="0" t="n">
         <x:v>0</x:v>
@@ -17612,7 +17618,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V230" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:22">
@@ -17626,7 +17632,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D231" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E231" s="0" t="n">
         <x:v>0</x:v>
@@ -17644,7 +17650,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J231" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K231" s="0" t="n">
         <x:v>0</x:v>
@@ -17656,10 +17662,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N231" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O231" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P231" s="0" t="n">
         <x:v>0</x:v>
@@ -17671,7 +17677,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S231" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T231" s="0" t="n">
         <x:v>0</x:v>
@@ -17680,7 +17686,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V231" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:22">
@@ -17694,26 +17700,26 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D232" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E232" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F232" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G232" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H232" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I232" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J232" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E232" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F232" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G232" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H232" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I232" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J232" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="K232" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -17721,19 +17727,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M232" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N232" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O232" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P232" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q232" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R232" s="0" t="n">
         <x:v>0</x:v>
@@ -17742,13 +17748,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T232" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U232" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V232" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:22">
@@ -17759,64 +17765,64 @@
         <x:v>485</x:v>
       </x:c>
       <x:c r="C233" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D233" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E233" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F233" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G233" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H233" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I233" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J233" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K233" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L233" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M233" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="N233" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O233" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P233" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="Q233" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R233" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S233" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T233" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="U233" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V233" s="0" t="n">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="H233" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I233" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J233" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K233" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L233" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M233" s="0" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="N233" s="0" t="n">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="O233" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="P233" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Q233" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="R233" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S233" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T233" s="0" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="U233" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="V233" s="0" t="n">
-        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:22">
@@ -17827,64 +17833,64 @@
         <x:v>487</x:v>
       </x:c>
       <x:c r="C234" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D234" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E234" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F234" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G234" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H234" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I234" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J234" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K234" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L234" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M234" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N234" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="O234" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P234" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q234" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R234" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S234" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T234" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="U234" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="V234" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:22">
@@ -17907,7 +17913,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H235" s="0" t="n">
         <x:v>0</x:v>
@@ -17916,7 +17922,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K235" s="0" t="n">
         <x:v>0</x:v>
@@ -17928,13 +17934,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N235" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O235" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q235" s="0" t="n">
         <x:v>0</x:v>
@@ -17952,7 +17958,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V235" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:22">
@@ -17984,7 +17990,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J236" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K236" s="0" t="n">
         <x:v>0</x:v>
@@ -17996,7 +18002,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N236" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O236" s="0" t="n">
         <x:v>0</x:v>
@@ -18052,7 +18058,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J237" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K237" s="0" t="n">
         <x:v>0</x:v>
@@ -18064,7 +18070,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N237" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O237" s="0" t="n">
         <x:v>0</x:v>
@@ -18088,7 +18094,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V237" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:22">
@@ -18132,13 +18138,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N238" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O238" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P238" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q238" s="0" t="n">
         <x:v>0</x:v>
@@ -18156,7 +18162,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V238" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">
@@ -18170,16 +18176,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D239" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E239" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F239" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G239" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H239" s="0" t="n">
         <x:v>0</x:v>
@@ -18200,7 +18206,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N239" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O239" s="0" t="n">
         <x:v>0</x:v>
@@ -18215,16 +18221,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S239" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T239" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U239" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V239" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:22">
@@ -18238,16 +18244,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D240" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E240" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F240" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G240" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H240" s="0" t="n">
         <x:v>0</x:v>
@@ -18268,13 +18274,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N240" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="O240" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P240" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q240" s="0" t="n">
         <x:v>0</x:v>
@@ -18283,16 +18289,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S240" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T240" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U240" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V240" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:22">
@@ -18306,25 +18312,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D241" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E241" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F241" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G241" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H241" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I241" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J241" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K241" s="0" t="n">
         <x:v>0</x:v>
@@ -18336,7 +18342,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N241" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O241" s="0" t="n">
         <x:v>0</x:v>
@@ -18351,16 +18357,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S241" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T241" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U241" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V241" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
@@ -18374,25 +18380,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D242" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E242" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F242" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G242" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H242" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I242" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J242" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K242" s="0" t="n">
         <x:v>0</x:v>
@@ -18404,7 +18410,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N242" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="O242" s="0" t="n">
         <x:v>0</x:v>
@@ -18419,16 +18425,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S242" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T242" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U242" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="V242" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:22">
@@ -18442,7 +18448,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D243" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E243" s="0" t="n">
         <x:v>0</x:v>
@@ -18451,7 +18457,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G243" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H243" s="0" t="n">
         <x:v>0</x:v>
@@ -18460,7 +18466,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J243" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K243" s="0" t="n">
         <x:v>0</x:v>
@@ -18472,13 +18478,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N243" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O243" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P243" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q243" s="0" t="n">
         <x:v>0</x:v>
@@ -18490,13 +18496,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T243" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U243" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V243" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:22">
@@ -18510,7 +18516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D244" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E244" s="0" t="n">
         <x:v>0</x:v>
@@ -18528,7 +18534,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J244" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K244" s="0" t="n">
         <x:v>0</x:v>
@@ -18540,13 +18546,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N244" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O244" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P244" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q244" s="0" t="n">
         <x:v>0</x:v>
@@ -18564,7 +18570,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V244" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:22">
@@ -18578,7 +18584,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D245" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E245" s="0" t="n">
         <x:v>0</x:v>
@@ -18587,7 +18593,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G245" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H245" s="0" t="n">
         <x:v>0</x:v>
@@ -18608,7 +18614,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N245" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O245" s="0" t="n">
         <x:v>0</x:v>
@@ -18626,13 +18632,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T245" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U245" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V245" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:22">
@@ -18646,7 +18652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D246" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E246" s="0" t="n">
         <x:v>0</x:v>
@@ -18655,7 +18661,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G246" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H246" s="0" t="n">
         <x:v>0</x:v>
@@ -18676,7 +18682,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N246" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="O246" s="0" t="n">
         <x:v>0</x:v>
@@ -18700,7 +18706,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V246" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
@@ -18714,13 +18720,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D247" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E247" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F247" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G247" s="0" t="n">
         <x:v>4</x:v>
@@ -18744,7 +18750,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N247" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O247" s="0" t="n">
         <x:v>0</x:v>
@@ -18762,13 +18768,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T247" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U247" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V247" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:22">
@@ -18782,61 +18788,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D248" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E248" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F248" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G248" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H248" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I248" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J248" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K248" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L248" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M248" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N248" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O248" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P248" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q248" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R248" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S248" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T248" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U248" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V248" s="0" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="H248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N248" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="O248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T248" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="U248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V248" s="0" t="n">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:22">
@@ -18850,7 +18856,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D249" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E249" s="0" t="n">
         <x:v>0</x:v>
@@ -18859,7 +18865,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G249" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H249" s="0" t="n">
         <x:v>0</x:v>
@@ -18880,7 +18886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N249" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O249" s="0" t="n">
         <x:v>0</x:v>
@@ -18898,13 +18904,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T249" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U249" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V249" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:22">
@@ -18918,7 +18924,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D250" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E250" s="0" t="n">
         <x:v>0</x:v>
@@ -18927,7 +18933,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G250" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H250" s="0" t="n">
         <x:v>0</x:v>
@@ -18948,7 +18954,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N250" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O250" s="0" t="n">
         <x:v>0</x:v>
@@ -18966,13 +18972,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T250" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U250" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V250" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:22">
@@ -18986,7 +18992,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D251" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E251" s="0" t="n">
         <x:v>0</x:v>
@@ -18995,7 +19001,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G251" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H251" s="0" t="n">
         <x:v>0</x:v>
@@ -19016,7 +19022,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N251" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O251" s="0" t="n">
         <x:v>0</x:v>
@@ -19034,13 +19040,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T251" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="U251" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V251" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:22">
@@ -19054,7 +19060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D252" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E252" s="0" t="n">
         <x:v>0</x:v>
@@ -19063,7 +19069,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G252" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H252" s="0" t="n">
         <x:v>0</x:v>
@@ -19084,7 +19090,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N252" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O252" s="0" t="n">
         <x:v>0</x:v>
@@ -19108,7 +19114,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V252" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:22">
@@ -19122,7 +19128,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D253" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E253" s="0" t="n">
         <x:v>0</x:v>
@@ -19131,7 +19137,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G253" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H253" s="0" t="n">
         <x:v>0</x:v>
@@ -19152,7 +19158,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N253" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O253" s="0" t="n">
         <x:v>0</x:v>
@@ -19170,13 +19176,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T253" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U253" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V253" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:22">
@@ -19190,7 +19196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D254" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E254" s="0" t="n">
         <x:v>0</x:v>
@@ -19199,7 +19205,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G254" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H254" s="0" t="n">
         <x:v>0</x:v>
@@ -19220,7 +19226,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N254" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O254" s="0" t="n">
         <x:v>0</x:v>
@@ -19238,13 +19244,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T254" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U254" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V254" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:22">
@@ -19258,60 +19264,128 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G255" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N255" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="O255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T255" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="U255" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V255" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="256" spans="1:22">
+      <x:c r="A256" s="0" t="s">
+        <x:v>530</x:v>
+      </x:c>
+      <x:c r="B256" s="0" t="s">
+        <x:v>531</x:v>
+      </x:c>
+      <x:c r="C256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D256" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G255" s="0" t="n">
+      <x:c r="E256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G256" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N255" s="0" t="n">
+      <x:c r="H256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N256" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="O255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T255" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V255" s="0" t="n">
+      <x:c r="O256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T256" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V256" s="0" t="n">
         <x:v>15</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -8639,10 +8639,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="U98" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="V98" s="0" t="n">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:22">
@@ -10161,7 +10161,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G121" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H121" s="0" t="n">
         <x:v>0</x:v>
@@ -10206,7 +10206,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V121" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:22">
@@ -17319,10 +17319,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M226" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N226" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O226" s="0" t="n">
         <x:v>0</x:v>
@@ -17346,7 +17346,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V226" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -6616,7 +6616,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
         <x:v>0</x:v>
@@ -6670,7 +6670,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V69" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:22">
@@ -7264,7 +7264,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P78" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q78" s="0" t="n">
         <x:v>0</x:v>
@@ -7282,7 +7282,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V78" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:22">
@@ -13990,7 +13990,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N177" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O177" s="0" t="n">
         <x:v>0</x:v>
@@ -14014,7 +14014,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V177" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:22">
@@ -18682,7 +18682,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N246" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O246" s="0" t="n">
         <x:v>0</x:v>
@@ -18706,7 +18706,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V246" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
@@ -19294,7 +19294,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N255" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O255" s="0" t="n">
         <x:v>0</x:v>
@@ -19318,7 +19318,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V255" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -2196,7 +2196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
         <x:v>0</x:v>
@@ -2226,7 +2226,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N4" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O4" s="0" t="n">
         <x:v>0</x:v>
@@ -2250,7 +2250,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V4" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:22">
@@ -2294,7 +2294,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N5" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
         <x:v>0</x:v>
@@ -2318,7 +2318,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V5" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:22">
@@ -5972,7 +5972,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P59" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q59" s="0" t="n">
         <x:v>0</x:v>
@@ -5990,7 +5990,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V59" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:22">
@@ -7586,7 +7586,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J83" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K83" s="0" t="n">
         <x:v>0</x:v>
@@ -7598,7 +7598,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N83" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O83" s="0" t="n">
         <x:v>3</x:v>
@@ -7622,7 +7622,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -7734,7 +7734,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N85" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O85" s="0" t="n">
         <x:v>0</x:v>
@@ -7758,7 +7758,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V85" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:22">
@@ -9336,7 +9336,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D109" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E109" s="0" t="n">
         <x:v>0</x:v>
@@ -9390,7 +9390,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V109" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:22">
@@ -10726,7 +10726,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N129" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O129" s="0" t="n">
         <x:v>0</x:v>
@@ -10744,13 +10744,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T129" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U129" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V129" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
@@ -12766,7 +12766,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="N159" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O159" s="0" t="n">
         <x:v>0</x:v>
@@ -12790,7 +12790,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="V159" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -6720,7 +6720,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P70" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="Q70" s="0" t="n">
         <x:v>0</x:v>
@@ -6738,7 +6738,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="V70" s="0" t="n">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
@@ -8733,7 +8733,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G100" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H100" s="0" t="n">
         <x:v>0</x:v>
@@ -8778,7 +8778,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V100" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">
@@ -11950,7 +11950,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N147" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O147" s="0" t="n">
         <x:v>0</x:v>
@@ -11974,7 +11974,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V147" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:22">
@@ -15057,7 +15057,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G193" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H193" s="0" t="n">
         <x:v>0</x:v>
@@ -15102,7 +15102,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V193" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
@@ -17390,7 +17390,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="N227" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O227" s="0" t="n">
         <x:v>0</x:v>
@@ -17414,7 +17414,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V227" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -6714,7 +6714,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="N70" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O70" s="0" t="n">
         <x:v>1</x:v>
@@ -6732,13 +6732,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T70" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="U70" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="V70" s="0" t="n">
-        <x:v>367</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
@@ -8278,7 +8278,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N93" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O93" s="0" t="n">
         <x:v>0</x:v>
@@ -8287,7 +8287,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="Q93" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R93" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
   <x:si>
     <x:t>Agency ORI</x:t>
   </x:si>
@@ -674,6 +674,12 @@
   </x:si>
   <x:si>
     <x:t>Hubbard County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Park Rapids Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0300000</x:t>
@@ -1975,7 +1981,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:V256"/>
+  <x:dimension ref="A1:V257"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -7837,7 +7843,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="C87" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D87" s="0" t="n">
         <x:v>2</x:v>
@@ -7858,7 +7864,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J87" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K87" s="0" t="n">
         <x:v>1</x:v>
@@ -7876,7 +7882,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="P87" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q87" s="0" t="n">
         <x:v>1</x:v>
@@ -7891,10 +7897,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="U87" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="V87" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:22">
@@ -8618,7 +8624,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N98" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O98" s="0" t="n">
         <x:v>1</x:v>
@@ -8642,7 +8648,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="V98" s="0" t="n">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:22">
@@ -8801,7 +8807,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G101" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H101" s="0" t="n">
         <x:v>0</x:v>
@@ -8810,7 +8816,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J101" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K101" s="0" t="n">
         <x:v>0</x:v>
@@ -8822,7 +8828,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N101" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O101" s="0" t="n">
         <x:v>0</x:v>
@@ -8840,13 +8846,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T101" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U101" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V101" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:22">
@@ -8857,7 +8863,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="C102" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D102" s="0" t="n">
         <x:v>0</x:v>
@@ -8878,7 +8884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J102" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K102" s="0" t="n">
         <x:v>0</x:v>
@@ -8890,13 +8896,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N102" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O102" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P102" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q102" s="0" t="n">
         <x:v>0</x:v>
@@ -8908,13 +8914,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T102" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U102" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V102" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">
@@ -8925,7 +8931,7 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="C103" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D103" s="0" t="n">
         <x:v>0</x:v>
@@ -8946,7 +8952,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J103" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K103" s="0" t="n">
         <x:v>0</x:v>
@@ -8958,13 +8964,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N103" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O103" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P103" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q103" s="0" t="n">
         <x:v>0</x:v>
@@ -8976,13 +8982,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T103" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U103" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V103" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:22">
@@ -9005,7 +9011,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G104" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H104" s="0" t="n">
         <x:v>0</x:v>
@@ -9026,13 +9032,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N104" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O104" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P104" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q104" s="0" t="n">
         <x:v>0</x:v>
@@ -9044,13 +9050,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T104" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U104" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V104" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:22">
@@ -9073,7 +9079,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G105" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H105" s="0" t="n">
         <x:v>0</x:v>
@@ -9082,7 +9088,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J105" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K105" s="0" t="n">
         <x:v>0</x:v>
@@ -9091,10 +9097,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M105" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N105" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O105" s="0" t="n">
         <x:v>1</x:v>
@@ -9112,13 +9118,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T105" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="U105" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V105" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:22">
@@ -9141,7 +9147,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G106" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H106" s="0" t="n">
         <x:v>0</x:v>
@@ -9159,13 +9165,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M106" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N106" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O106" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P106" s="0" t="n">
         <x:v>0</x:v>
@@ -9186,7 +9192,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V106" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:22">
@@ -9227,10 +9233,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M107" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N107" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O107" s="0" t="n">
         <x:v>0</x:v>
@@ -9248,13 +9254,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T107" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U107" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V107" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:22">
@@ -9268,13 +9274,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D108" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E108" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F108" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G108" s="0" t="n">
         <x:v>0</x:v>
@@ -9286,7 +9292,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J108" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K108" s="0" t="n">
         <x:v>0</x:v>
@@ -9295,16 +9301,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M108" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N108" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O108" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P108" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q108" s="0" t="n">
         <x:v>0</x:v>
@@ -9316,13 +9322,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T108" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U108" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V108" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:22">
@@ -9336,25 +9342,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D109" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E109" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F109" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G109" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H109" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I109" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J109" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K109" s="0" t="n">
         <x:v>0</x:v>
@@ -9366,7 +9372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N109" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O109" s="0" t="n">
         <x:v>0</x:v>
@@ -9384,13 +9390,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T109" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U109" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V109" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:22">
@@ -9419,46 +9425,46 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I110" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J110" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K110" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L110" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M110" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N110" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="O110" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P110" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="Q110" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R110" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S110" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T110" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="J110" s="0" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="K110" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L110" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M110" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N110" s="0" t="n">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="O110" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P110" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="Q110" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R110" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S110" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T110" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="U110" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V110" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:22">
@@ -9472,7 +9478,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D111" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E111" s="0" t="n">
         <x:v>0</x:v>
@@ -9481,16 +9487,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G111" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H111" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I111" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J111" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K111" s="0" t="n">
         <x:v>0</x:v>
@@ -9499,16 +9505,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M111" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N111" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O111" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P111" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q111" s="0" t="n">
         <x:v>0</x:v>
@@ -9520,13 +9526,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T111" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="U111" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V111" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:22">
@@ -9570,7 +9576,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N112" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O112" s="0" t="n">
         <x:v>0</x:v>
@@ -9594,7 +9600,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V112" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:22">
@@ -9638,13 +9644,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N113" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O113" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P113" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q113" s="0" t="n">
         <x:v>0</x:v>
@@ -9662,7 +9668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V113" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:22">
@@ -9685,7 +9691,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G114" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H114" s="0" t="n">
         <x:v>0</x:v>
@@ -9694,7 +9700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>0</x:v>
@@ -9706,7 +9712,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N114" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O114" s="0" t="n">
         <x:v>0</x:v>
@@ -9730,7 +9736,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -9753,7 +9759,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G115" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H115" s="0" t="n">
         <x:v>0</x:v>
@@ -9798,7 +9804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V115" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:22">
@@ -9809,7 +9815,7 @@
         <x:v>251</x:v>
       </x:c>
       <x:c r="C116" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D116" s="0" t="n">
         <x:v>0</x:v>
@@ -9821,16 +9827,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G116" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H116" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I116" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J116" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K116" s="0" t="n">
         <x:v>0</x:v>
@@ -9839,22 +9845,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M116" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N116" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O116" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P116" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q116" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R116" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S116" s="0" t="n">
         <x:v>0</x:v>
@@ -9866,7 +9872,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V116" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:22">
@@ -9877,10 +9883,10 @@
         <x:v>253</x:v>
       </x:c>
       <x:c r="C117" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D117" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E117" s="0" t="n">
         <x:v>0</x:v>
@@ -9889,13 +9895,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G117" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H117" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I117" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J117" s="0" t="n">
         <x:v>0</x:v>
@@ -9907,22 +9913,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M117" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N117" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O117" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P117" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q117" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R117" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S117" s="0" t="n">
         <x:v>0</x:v>
@@ -9934,7 +9940,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V117" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:22">
@@ -9948,7 +9954,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D118" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E118" s="0" t="n">
         <x:v>0</x:v>
@@ -9978,7 +9984,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N118" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O118" s="0" t="n">
         <x:v>0</x:v>
@@ -9996,13 +10002,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T118" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U118" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
@@ -10016,7 +10022,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D119" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E119" s="0" t="n">
         <x:v>0</x:v>
@@ -10025,7 +10031,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G119" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H119" s="0" t="n">
         <x:v>0</x:v>
@@ -10034,7 +10040,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J119" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K119" s="0" t="n">
         <x:v>0</x:v>
@@ -10052,7 +10058,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P119" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q119" s="0" t="n">
         <x:v>0</x:v>
@@ -10064,13 +10070,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T119" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U119" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V119" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:22">
@@ -10084,7 +10090,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D120" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E120" s="0" t="n">
         <x:v>0</x:v>
@@ -10093,7 +10099,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G120" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H120" s="0" t="n">
         <x:v>0</x:v>
@@ -10102,7 +10108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J120" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K120" s="0" t="n">
         <x:v>0</x:v>
@@ -10111,16 +10117,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M120" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N120" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O120" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P120" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q120" s="0" t="n">
         <x:v>0</x:v>
@@ -10132,13 +10138,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T120" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U120" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V120" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:22">
@@ -10161,16 +10167,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G121" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H121" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I121" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J121" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K121" s="0" t="n">
         <x:v>0</x:v>
@@ -10179,34 +10185,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M121" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N121" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O121" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P121" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q121" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R121" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S121" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T121" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U121" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V121" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:22">
@@ -10220,7 +10226,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D122" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E122" s="0" t="n">
         <x:v>0</x:v>
@@ -10229,16 +10235,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G122" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H122" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I122" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J122" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K122" s="0" t="n">
         <x:v>0</x:v>
@@ -10247,7 +10253,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M122" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N122" s="0" t="n">
         <x:v>4</x:v>
@@ -10262,19 +10268,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R122" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S122" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T122" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U122" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V122" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:22">
@@ -10285,10 +10291,10 @@
         <x:v>265</x:v>
       </x:c>
       <x:c r="C123" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D123" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E123" s="0" t="n">
         <x:v>0</x:v>
@@ -10297,7 +10303,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G123" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H123" s="0" t="n">
         <x:v>0</x:v>
@@ -10306,7 +10312,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J123" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K123" s="0" t="n">
         <x:v>0</x:v>
@@ -10315,16 +10321,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M123" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N123" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O123" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P123" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q123" s="0" t="n">
         <x:v>0</x:v>
@@ -10342,7 +10348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V123" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:22">
@@ -10353,10 +10359,10 @@
         <x:v>267</x:v>
       </x:c>
       <x:c r="C124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E124" s="0" t="n">
         <x:v>0</x:v>
@@ -10365,7 +10371,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G124" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H124" s="0" t="n">
         <x:v>0</x:v>
@@ -10374,7 +10380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K124" s="0" t="n">
         <x:v>0</x:v>
@@ -10383,16 +10389,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N124" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O124" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P124" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q124" s="0" t="n">
         <x:v>0</x:v>
@@ -10410,7 +10416,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">
@@ -10430,13 +10436,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F125" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G125" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H125" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I125" s="0" t="n">
         <x:v>0</x:v>
@@ -10451,16 +10457,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M125" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N125" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O125" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P125" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q125" s="0" t="n">
         <x:v>0</x:v>
@@ -10478,7 +10484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V125" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:22">
@@ -10498,31 +10504,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I126" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J126" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K126" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L126" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N126" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O126" s="0" t="n">
         <x:v>0</x:v>
@@ -10543,10 +10549,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U126" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V126" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:22">
@@ -10560,7 +10566,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D127" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E127" s="0" t="n">
         <x:v>0</x:v>
@@ -10575,28 +10581,28 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I127" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J127" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K127" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L127" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M127" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N127" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O127" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P127" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q127" s="0" t="n">
         <x:v>0</x:v>
@@ -10608,13 +10614,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T127" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U127" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V127" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:22">
@@ -10628,7 +10634,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D128" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E128" s="0" t="n">
         <x:v>0</x:v>
@@ -10655,10 +10661,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M128" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N128" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O128" s="0" t="n">
         <x:v>0</x:v>
@@ -10676,13 +10682,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T128" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U128" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V128" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:22">
@@ -10705,7 +10711,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G129" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H129" s="0" t="n">
         <x:v>0</x:v>
@@ -10723,10 +10729,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M129" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N129" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O129" s="0" t="n">
         <x:v>0</x:v>
@@ -10744,13 +10750,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T129" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U129" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V129" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
@@ -10770,19 +10776,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F130" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G130" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H130" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I130" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J130" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K130" s="0" t="n">
         <x:v>0</x:v>
@@ -10791,10 +10797,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N130" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O130" s="0" t="n">
         <x:v>0</x:v>
@@ -10812,13 +10818,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T130" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U130" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V130" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:22">
@@ -10838,19 +10844,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F131" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G131" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H131" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I131" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J131" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K131" s="0" t="n">
         <x:v>0</x:v>
@@ -10862,7 +10868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N131" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O131" s="0" t="n">
         <x:v>0</x:v>
@@ -10886,7 +10892,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V131" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:22">
@@ -10900,16 +10906,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D132" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E132" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F132" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G132" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H132" s="0" t="n">
         <x:v>0</x:v>
@@ -10918,7 +10924,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J132" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K132" s="0" t="n">
         <x:v>0</x:v>
@@ -10927,19 +10933,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M132" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N132" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O132" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P132" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q132" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R132" s="0" t="n">
         <x:v>0</x:v>
@@ -10948,13 +10954,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T132" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U132" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V132" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:22">
@@ -10968,16 +10974,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D133" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E133" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F133" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G133" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H133" s="0" t="n">
         <x:v>0</x:v>
@@ -10986,7 +10992,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J133" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K133" s="0" t="n">
         <x:v>0</x:v>
@@ -10995,19 +11001,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M133" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N133" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O133" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P133" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q133" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R133" s="0" t="n">
         <x:v>0</x:v>
@@ -11016,13 +11022,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T133" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U133" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V133" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:22">
@@ -11054,7 +11060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J134" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K134" s="0" t="n">
         <x:v>0</x:v>
@@ -11063,7 +11069,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M134" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N134" s="0" t="n">
         <x:v>0</x:v>
@@ -11072,7 +11078,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P134" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q134" s="0" t="n">
         <x:v>0</x:v>
@@ -11090,7 +11096,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V134" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:22">
@@ -11131,7 +11137,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M135" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N135" s="0" t="n">
         <x:v>0</x:v>
@@ -11140,7 +11146,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P135" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q135" s="0" t="n">
         <x:v>0</x:v>
@@ -11158,7 +11164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V135" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:22">
@@ -11172,16 +11178,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D136" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E136" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F136" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G136" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H136" s="0" t="n">
         <x:v>0</x:v>
@@ -11190,7 +11196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J136" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K136" s="0" t="n">
         <x:v>0</x:v>
@@ -11208,7 +11214,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P136" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q136" s="0" t="n">
         <x:v>0</x:v>
@@ -11226,7 +11232,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V136" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:22">
@@ -11240,26 +11246,26 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D137" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E137" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F137" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G137" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H137" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I137" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J137" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="H137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J137" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="K137" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -11267,16 +11273,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M137" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N137" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O137" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P137" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q137" s="0" t="n">
         <x:v>0</x:v>
@@ -11288,13 +11294,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T137" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U137" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V137" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:22">
@@ -11308,7 +11314,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D138" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E138" s="0" t="n">
         <x:v>0</x:v>
@@ -11323,7 +11329,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I138" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J138" s="0" t="n">
         <x:v>1</x:v>
@@ -11335,7 +11341,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M138" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N138" s="0" t="n">
         <x:v>1</x:v>
@@ -11344,25 +11350,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P138" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="Q138" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R138" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S138" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T138" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U138" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V138" s="0" t="n">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="Q138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U138" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V138" s="0" t="n">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
@@ -11373,10 +11379,10 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="C139" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D139" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E139" s="0" t="n">
         <x:v>0</x:v>
@@ -11385,16 +11391,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G139" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H139" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I139" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J139" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K139" s="0" t="n">
         <x:v>0</x:v>
@@ -11403,10 +11409,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M139" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N139" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O139" s="0" t="n">
         <x:v>0</x:v>
@@ -11421,16 +11427,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S139" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T139" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U139" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V139" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:22">
@@ -11441,10 +11447,10 @@
         <x:v>299</x:v>
       </x:c>
       <x:c r="C140" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D140" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E140" s="0" t="n">
         <x:v>0</x:v>
@@ -11453,16 +11459,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G140" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H140" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I140" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J140" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K140" s="0" t="n">
         <x:v>0</x:v>
@@ -11471,34 +11477,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M140" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N140" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O140" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P140" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="Q140" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R140" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S140" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T140" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U140" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V140" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:22">
@@ -11512,16 +11518,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D141" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E141" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F141" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G141" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H141" s="0" t="n">
         <x:v>0</x:v>
@@ -11530,7 +11536,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J141" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K141" s="0" t="n">
         <x:v>0</x:v>
@@ -11542,7 +11548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N141" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O141" s="0" t="n">
         <x:v>0</x:v>
@@ -11551,10 +11557,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q141" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S141" s="0" t="n">
         <x:v>0</x:v>
@@ -11563,10 +11569,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U141" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V141" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:22">
@@ -11580,16 +11586,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D142" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E142" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F142" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G142" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H142" s="0" t="n">
         <x:v>0</x:v>
@@ -11598,7 +11604,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J142" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K142" s="0" t="n">
         <x:v>0</x:v>
@@ -11610,7 +11616,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N142" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O142" s="0" t="n">
         <x:v>0</x:v>
@@ -11619,7 +11625,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q142" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R142" s="0" t="n">
         <x:v>0</x:v>
@@ -11628,13 +11634,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T142" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U142" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V142" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:22">
@@ -11645,10 +11651,10 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="C143" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D143" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E143" s="0" t="n">
         <x:v>0</x:v>
@@ -11657,7 +11663,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G143" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H143" s="0" t="n">
         <x:v>0</x:v>
@@ -11666,10 +11672,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J143" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K143" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L143" s="0" t="n">
         <x:v>0</x:v>
@@ -11678,10 +11684,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N143" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O143" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P143" s="0" t="n">
         <x:v>0</x:v>
@@ -11696,13 +11702,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T143" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U143" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V143" s="0" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="U143" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V143" s="0" t="n">
-        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:22">
@@ -11713,10 +11719,10 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="C144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E144" s="0" t="n">
         <x:v>0</x:v>
@@ -11725,7 +11731,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G144" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H144" s="0" t="n">
         <x:v>0</x:v>
@@ -11734,10 +11740,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L144" s="0" t="n">
         <x:v>0</x:v>
@@ -11746,10 +11752,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N144" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="O144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P144" s="0" t="n">
         <x:v>0</x:v>
@@ -11764,13 +11770,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U144" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V144" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:22">
@@ -11781,10 +11787,10 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="C145" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D145" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E145" s="0" t="n">
         <x:v>0</x:v>
@@ -11793,7 +11799,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G145" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H145" s="0" t="n">
         <x:v>0</x:v>
@@ -11802,7 +11808,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J145" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K145" s="0" t="n">
         <x:v>0</x:v>
@@ -11811,34 +11817,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M145" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N145" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O145" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P145" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q145" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R145" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S145" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T145" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U145" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V145" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:22">
@@ -11849,28 +11855,28 @@
         <x:v>311</x:v>
       </x:c>
       <x:c r="C146" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D146" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E146" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F146" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G146" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H146" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I146" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J146" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K146" s="0" t="n">
         <x:v>0</x:v>
@@ -11882,31 +11888,31 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="N146" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O146" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P146" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="Q146" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R146" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S146" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T146" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U146" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V146" s="0" t="n">
-        <x:v>231</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:22">
@@ -11917,64 +11923,64 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="C147" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D147" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E147" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F147" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G147" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H147" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I147" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J147" s="0" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="K147" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L147" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M147" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="N147" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="O147" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="P147" s="0" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="Q147" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="R147" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S147" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H147" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I147" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J147" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K147" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L147" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M147" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N147" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="O147" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P147" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Q147" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R147" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S147" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="T147" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U147" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="V147" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:22">
@@ -11988,25 +11994,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D148" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E148" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F148" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G148" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H148" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I148" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J148" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K148" s="0" t="n">
         <x:v>0</x:v>
@@ -12015,16 +12021,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M148" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N148" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O148" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P148" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q148" s="0" t="n">
         <x:v>1</x:v>
@@ -12036,13 +12042,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T148" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U148" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V148" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:22">
@@ -12062,19 +12068,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F149" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G149" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H149" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I149" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J149" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K149" s="0" t="n">
         <x:v>0</x:v>
@@ -12083,19 +12089,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M149" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N149" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O149" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P149" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q149" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R149" s="0" t="n">
         <x:v>0</x:v>
@@ -12104,13 +12110,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T149" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U149" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V149" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:22">
@@ -12154,13 +12160,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N150" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O150" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P150" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q150" s="0" t="n">
         <x:v>0</x:v>
@@ -12178,7 +12184,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V150" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:22">
@@ -12192,7 +12198,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D151" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E151" s="0" t="n">
         <x:v>0</x:v>
@@ -12201,13 +12207,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G151" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H151" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I151" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J151" s="0" t="n">
         <x:v>0</x:v>
@@ -12222,13 +12228,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N151" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O151" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P151" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q151" s="0" t="n">
         <x:v>0</x:v>
@@ -12246,7 +12252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V151" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:22">
@@ -12260,7 +12266,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D152" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E152" s="0" t="n">
         <x:v>0</x:v>
@@ -12269,16 +12275,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G152" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H152" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I152" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J152" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K152" s="0" t="n">
         <x:v>0</x:v>
@@ -12290,13 +12296,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N152" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O152" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P152" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q152" s="0" t="n">
         <x:v>0</x:v>
@@ -12311,10 +12317,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U152" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V152" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:22">
@@ -12337,7 +12343,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G153" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H153" s="0" t="n">
         <x:v>0</x:v>
@@ -12346,7 +12352,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J153" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K153" s="0" t="n">
         <x:v>0</x:v>
@@ -12358,16 +12364,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N153" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="O153" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P153" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q153" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R153" s="0" t="n">
         <x:v>0</x:v>
@@ -12376,13 +12382,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T153" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U153" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V153" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:22">
@@ -12396,7 +12402,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D154" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E154" s="0" t="n">
         <x:v>0</x:v>
@@ -12405,37 +12411,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G154" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N154" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="H154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I154" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J154" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M154" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N154" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="O154" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P154" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q154" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R154" s="0" t="n">
         <x:v>0</x:v>
@@ -12444,13 +12450,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T154" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U154" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V154" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
@@ -12473,34 +12479,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G155" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H155" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I155" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J155" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K155" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L155" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M155" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N155" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="H155" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I155" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J155" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K155" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L155" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M155" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N155" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="O155" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P155" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q155" s="0" t="n">
         <x:v>0</x:v>
@@ -12512,13 +12518,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T155" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U155" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V155" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:22">
@@ -12541,7 +12547,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G156" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H156" s="0" t="n">
         <x:v>0</x:v>
@@ -12550,7 +12556,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J156" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K156" s="0" t="n">
         <x:v>0</x:v>
@@ -12562,7 +12568,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N156" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O156" s="0" t="n">
         <x:v>0</x:v>
@@ -12574,19 +12580,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R156" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S156" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T156" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U156" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V156" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:22">
@@ -12600,7 +12606,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D157" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E157" s="0" t="n">
         <x:v>0</x:v>
@@ -12609,7 +12615,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H157" s="0" t="n">
         <x:v>0</x:v>
@@ -12618,7 +12624,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J157" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K157" s="0" t="n">
         <x:v>0</x:v>
@@ -12630,7 +12636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N157" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O157" s="0" t="n">
         <x:v>0</x:v>
@@ -12642,19 +12648,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R157" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S157" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T157" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U157" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V157" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:22">
@@ -12698,7 +12704,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N158" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O158" s="0" t="n">
         <x:v>0</x:v>
@@ -12722,7 +12728,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V158" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:22">
@@ -12733,25 +12739,25 @@
         <x:v>337</x:v>
       </x:c>
       <x:c r="C159" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D159" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E159" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F159" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G159" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H159" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I159" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J159" s="0" t="n">
         <x:v>0</x:v>
@@ -12763,10 +12769,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M159" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N159" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O159" s="0" t="n">
         <x:v>0</x:v>
@@ -12775,22 +12781,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q159" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R159" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S159" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T159" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U159" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V159" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:22">
@@ -12801,10 +12807,10 @@
         <x:v>339</x:v>
       </x:c>
       <x:c r="C160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D160" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E160" s="0" t="n">
         <x:v>0</x:v>
@@ -12813,7 +12819,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G160" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H160" s="0" t="n">
         <x:v>0</x:v>
@@ -12822,7 +12828,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J160" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K160" s="0" t="n">
         <x:v>0</x:v>
@@ -12831,10 +12837,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N160" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O160" s="0" t="n">
         <x:v>0</x:v>
@@ -12843,22 +12849,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q160" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R160" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="S160" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T160" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U160" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="V160" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
@@ -12872,13 +12878,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D161" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E161" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F161" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G161" s="0" t="n">
         <x:v>2</x:v>
@@ -12890,7 +12896,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J161" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K161" s="0" t="n">
         <x:v>0</x:v>
@@ -12899,10 +12905,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M161" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N161" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O161" s="0" t="n">
         <x:v>0</x:v>
@@ -12911,7 +12917,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q161" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R161" s="0" t="n">
         <x:v>1</x:v>
@@ -12920,13 +12926,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T161" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U161" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V161" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:22">
@@ -12940,7 +12946,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D162" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E162" s="0" t="n">
         <x:v>0</x:v>
@@ -12949,16 +12955,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H162" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J162" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K162" s="0" t="n">
         <x:v>0</x:v>
@@ -12982,19 +12988,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S162" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T162" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U162" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="V162" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:22">
@@ -13005,10 +13011,10 @@
         <x:v>345</x:v>
       </x:c>
       <x:c r="C163" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D163" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E163" s="0" t="n">
         <x:v>0</x:v>
@@ -13026,7 +13032,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J163" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K163" s="0" t="n">
         <x:v>0</x:v>
@@ -13035,10 +13041,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M163" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N163" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O163" s="0" t="n">
         <x:v>0</x:v>
@@ -13059,10 +13065,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U163" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V163" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:22">
@@ -13073,64 +13079,64 @@
         <x:v>347</x:v>
       </x:c>
       <x:c r="C164" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N164" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="O164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V164" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="D164" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E164" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F164" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G164" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H164" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I164" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J164" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="K164" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L164" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M164" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N164" s="0" t="n">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="O164" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P164" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q164" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R164" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S164" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T164" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="U164" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V164" s="0" t="n">
-        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:22">
@@ -13141,28 +13147,28 @@
         <x:v>349</x:v>
       </x:c>
       <x:c r="C165" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D165" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E165" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F165" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G165" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H165" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I165" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J165" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K165" s="0" t="n">
         <x:v>0</x:v>
@@ -13171,34 +13177,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M165" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N165" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O165" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P165" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q165" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R165" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S165" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T165" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U165" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V165" s="0" t="n">
-        <x:v>279</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:22">
@@ -13209,28 +13215,28 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="C166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G166" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K166" s="0" t="n">
         <x:v>0</x:v>
@@ -13239,34 +13245,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N166" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="Q166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U166" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="V166" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:22">
@@ -13289,7 +13295,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G167" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H167" s="0" t="n">
         <x:v>0</x:v>
@@ -13310,7 +13316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N167" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O167" s="0" t="n">
         <x:v>0</x:v>
@@ -13334,7 +13340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V167" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:22">
@@ -13348,7 +13354,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D168" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E168" s="0" t="n">
         <x:v>0</x:v>
@@ -13357,7 +13363,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G168" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H168" s="0" t="n">
         <x:v>0</x:v>
@@ -13366,7 +13372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J168" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K168" s="0" t="n">
         <x:v>0</x:v>
@@ -13378,7 +13384,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N168" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O168" s="0" t="n">
         <x:v>0</x:v>
@@ -13396,13 +13402,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T168" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U168" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V168" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:22">
@@ -13416,7 +13422,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D169" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E169" s="0" t="n">
         <x:v>0</x:v>
@@ -13425,7 +13431,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G169" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H169" s="0" t="n">
         <x:v>0</x:v>
@@ -13434,7 +13440,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J169" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K169" s="0" t="n">
         <x:v>0</x:v>
@@ -13443,10 +13449,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M169" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N169" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O169" s="0" t="n">
         <x:v>0</x:v>
@@ -13464,13 +13470,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T169" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U169" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V169" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:22">
@@ -13481,19 +13487,19 @@
         <x:v>359</x:v>
       </x:c>
       <x:c r="C170" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D170" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E170" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F170" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G170" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H170" s="0" t="n">
         <x:v>0</x:v>
@@ -13502,7 +13508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K170" s="0" t="n">
         <x:v>0</x:v>
@@ -13511,16 +13517,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M170" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N170" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O170" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P170" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q170" s="0" t="n">
         <x:v>0</x:v>
@@ -13529,16 +13535,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S170" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T170" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U170" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V170" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:22">
@@ -13549,19 +13555,19 @@
         <x:v>361</x:v>
       </x:c>
       <x:c r="C171" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D171" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E171" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F171" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G171" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H171" s="0" t="n">
         <x:v>0</x:v>
@@ -13582,13 +13588,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N171" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O171" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P171" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q171" s="0" t="n">
         <x:v>0</x:v>
@@ -13597,16 +13603,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S171" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T171" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U171" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V171" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">
@@ -13650,7 +13656,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N172" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O172" s="0" t="n">
         <x:v>0</x:v>
@@ -13674,7 +13680,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V172" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:22">
@@ -13688,7 +13694,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D173" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E173" s="0" t="n">
         <x:v>0</x:v>
@@ -13703,7 +13709,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I173" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J173" s="0" t="n">
         <x:v>0</x:v>
@@ -13715,16 +13721,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M173" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N173" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O173" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P173" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q173" s="0" t="n">
         <x:v>0</x:v>
@@ -13742,7 +13748,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V173" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:22">
@@ -13756,7 +13762,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D174" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E174" s="0" t="n">
         <x:v>0</x:v>
@@ -13765,13 +13771,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H174" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I174" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J174" s="0" t="n">
         <x:v>0</x:v>
@@ -13783,16 +13789,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O174" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P174" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q174" s="0" t="n">
         <x:v>0</x:v>
@@ -13824,7 +13830,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D175" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E175" s="0" t="n">
         <x:v>0</x:v>
@@ -13842,7 +13848,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J175" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K175" s="0" t="n">
         <x:v>0</x:v>
@@ -13860,25 +13866,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P175" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q175" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R175" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S175" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T175" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U175" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V175" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:22">
@@ -13901,7 +13907,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H176" s="0" t="n">
         <x:v>0</x:v>
@@ -13910,7 +13916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K176" s="0" t="n">
         <x:v>0</x:v>
@@ -13919,10 +13925,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O176" s="0" t="n">
         <x:v>0</x:v>
@@ -13934,19 +13940,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S176" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U176" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V176" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:22">
@@ -13960,16 +13966,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D177" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E177" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F177" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G177" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H177" s="0" t="n">
         <x:v>0</x:v>
@@ -13978,7 +13984,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J177" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K177" s="0" t="n">
         <x:v>0</x:v>
@@ -13990,13 +13996,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N177" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O177" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P177" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q177" s="0" t="n">
         <x:v>0</x:v>
@@ -14008,13 +14014,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T177" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U177" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V177" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:22">
@@ -14028,16 +14034,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D178" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E178" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F178" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G178" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H178" s="0" t="n">
         <x:v>0</x:v>
@@ -14046,7 +14052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J178" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K178" s="0" t="n">
         <x:v>0</x:v>
@@ -14058,13 +14064,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N178" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O178" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P178" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q178" s="0" t="n">
         <x:v>0</x:v>
@@ -14073,7 +14079,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S178" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T178" s="0" t="n">
         <x:v>1</x:v>
@@ -14082,7 +14088,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V178" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:22">
@@ -14132,7 +14138,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P179" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q179" s="0" t="n">
         <x:v>0</x:v>
@@ -14141,7 +14147,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S179" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T179" s="0" t="n">
         <x:v>1</x:v>
@@ -14150,7 +14156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V179" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
@@ -14164,16 +14170,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D180" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F180" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G180" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H180" s="0" t="n">
         <x:v>0</x:v>
@@ -14182,7 +14188,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J180" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K180" s="0" t="n">
         <x:v>0</x:v>
@@ -14194,16 +14200,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N180" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P180" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q180" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R180" s="0" t="n">
         <x:v>0</x:v>
@@ -14212,13 +14218,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T180" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U180" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V180" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="U180" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V180" s="0" t="n">
-        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
@@ -14232,16 +14238,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E181" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H181" s="0" t="n">
         <x:v>0</x:v>
@@ -14250,7 +14256,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K181" s="0" t="n">
         <x:v>0</x:v>
@@ -14262,16 +14268,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="O181" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R181" s="0" t="n">
         <x:v>0</x:v>
@@ -14280,13 +14286,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U181" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V181" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
@@ -14309,7 +14315,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G182" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H182" s="0" t="n">
         <x:v>0</x:v>
@@ -14354,7 +14360,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V182" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:22">
@@ -14377,7 +14383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G183" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H183" s="0" t="n">
         <x:v>0</x:v>
@@ -14404,7 +14410,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P183" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q183" s="0" t="n">
         <x:v>0</x:v>
@@ -14445,7 +14451,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G184" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H184" s="0" t="n">
         <x:v>0</x:v>
@@ -14484,13 +14490,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T184" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U184" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V184" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:22">
@@ -14510,7 +14516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F185" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G185" s="0" t="n">
         <x:v>1</x:v>
@@ -14522,7 +14528,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J185" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K185" s="0" t="n">
         <x:v>0</x:v>
@@ -14531,16 +14537,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M185" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N185" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O185" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P185" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q185" s="0" t="n">
         <x:v>0</x:v>
@@ -14552,13 +14558,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T185" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U185" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V185" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:22">
@@ -14572,16 +14578,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D186" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E186" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F186" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G186" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H186" s="0" t="n">
         <x:v>0</x:v>
@@ -14590,7 +14596,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J186" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K186" s="0" t="n">
         <x:v>0</x:v>
@@ -14599,10 +14605,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M186" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N186" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O186" s="0" t="n">
         <x:v>0</x:v>
@@ -14626,7 +14632,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V186" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:22">
@@ -14640,7 +14646,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D187" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E187" s="0" t="n">
         <x:v>0</x:v>
@@ -14670,7 +14676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N187" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O187" s="0" t="n">
         <x:v>0</x:v>
@@ -14694,7 +14700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V187" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
@@ -14708,7 +14714,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D188" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E188" s="0" t="n">
         <x:v>0</x:v>
@@ -14738,7 +14744,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O188" s="0" t="n">
         <x:v>0</x:v>
@@ -14759,10 +14765,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U188" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V188" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
@@ -14776,61 +14782,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D189" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E189" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F189" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G189" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H189" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I189" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J189" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K189" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L189" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M189" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N189" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O189" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P189" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q189" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R189" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S189" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T189" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U189" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V189" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="E189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G189" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J189" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N189" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V189" s="0" t="n">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:22">
@@ -14844,7 +14850,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D190" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E190" s="0" t="n">
         <x:v>0</x:v>
@@ -14853,34 +14859,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G190" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H190" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I190" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J190" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K190" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L190" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M190" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N190" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O190" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P190" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q190" s="0" t="n">
         <x:v>0</x:v>
@@ -14889,16 +14895,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S190" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T190" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U190" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V190" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:22">
@@ -14909,64 +14915,64 @@
         <x:v>401</x:v>
       </x:c>
       <x:c r="C191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D191" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E191" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G191" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H191" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I191" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J191" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K191" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N191" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O191" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P191" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="T191" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="U191" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V191" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
@@ -14980,7 +14986,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D192" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E192" s="0" t="n">
         <x:v>0</x:v>
@@ -14989,16 +14995,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H192" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K192" s="0" t="n">
         <x:v>0</x:v>
@@ -15007,34 +15013,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M192" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N192" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P192" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q192" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="R192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S192" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T192" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U192" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V192" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:22">
@@ -15048,61 +15054,61 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D193" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E193" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G193" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H193" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I193" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J193" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K193" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L193" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M193" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="N193" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H193" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I193" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J193" s="0" t="n">
+      <x:c r="O193" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P193" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="K193" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L193" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M193" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N193" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="O193" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P193" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="Q193" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R193" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S193" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T193" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U193" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V193" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
@@ -15113,19 +15119,19 @@
         <x:v>407</x:v>
       </x:c>
       <x:c r="C194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E194" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F194" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G194" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H194" s="0" t="n">
         <x:v>0</x:v>
@@ -15134,7 +15140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K194" s="0" t="n">
         <x:v>0</x:v>
@@ -15143,16 +15149,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O194" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="Q194" s="0" t="n">
         <x:v>0</x:v>
@@ -15161,16 +15167,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V194" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">
@@ -15184,16 +15190,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D195" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E195" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F195" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G195" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H195" s="0" t="n">
         <x:v>0</x:v>
@@ -15202,7 +15208,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J195" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K195" s="0" t="n">
         <x:v>0</x:v>
@@ -15214,13 +15220,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N195" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O195" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P195" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q195" s="0" t="n">
         <x:v>0</x:v>
@@ -15232,13 +15238,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T195" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U195" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V195" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
@@ -15252,7 +15258,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D196" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E196" s="0" t="n">
         <x:v>0</x:v>
@@ -15261,7 +15267,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G196" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H196" s="0" t="n">
         <x:v>0</x:v>
@@ -15270,7 +15276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J196" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K196" s="0" t="n">
         <x:v>0</x:v>
@@ -15282,13 +15288,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N196" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O196" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P196" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q196" s="0" t="n">
         <x:v>0</x:v>
@@ -15300,13 +15306,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T196" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U196" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V196" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:22">
@@ -15320,7 +15326,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D197" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E197" s="0" t="n">
         <x:v>0</x:v>
@@ -15338,7 +15344,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J197" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K197" s="0" t="n">
         <x:v>0</x:v>
@@ -15350,13 +15356,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N197" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O197" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P197" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q197" s="0" t="n">
         <x:v>0</x:v>
@@ -15374,7 +15380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V197" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:22">
@@ -15388,7 +15394,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D198" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E198" s="0" t="n">
         <x:v>0</x:v>
@@ -15397,34 +15403,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J198" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M198" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N198" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J198" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="O198" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P198" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q198" s="0" t="n">
         <x:v>0</x:v>
@@ -15456,7 +15462,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D199" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E199" s="0" t="n">
         <x:v>0</x:v>
@@ -15471,7 +15477,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I199" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J199" s="0" t="n">
         <x:v>1</x:v>
@@ -15483,19 +15489,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M199" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N199" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O199" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P199" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q199" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R199" s="0" t="n">
         <x:v>0</x:v>
@@ -15510,7 +15516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V199" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:22">
@@ -15524,7 +15530,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D200" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E200" s="0" t="n">
         <x:v>0</x:v>
@@ -15533,16 +15539,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G200" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H200" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I200" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J200" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K200" s="0" t="n">
         <x:v>0</x:v>
@@ -15551,19 +15557,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M200" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N200" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O200" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P200" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q200" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R200" s="0" t="n">
         <x:v>0</x:v>
@@ -15578,7 +15584,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V200" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">
@@ -15601,7 +15607,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H201" s="0" t="n">
         <x:v>0</x:v>
@@ -15625,7 +15631,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O201" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P201" s="0" t="n">
         <x:v>1</x:v>
@@ -15646,7 +15652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V201" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:22">
@@ -15657,64 +15663,64 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="C202" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D202" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E202" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F202" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G202" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H202" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I202" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J202" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K202" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L202" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M202" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N202" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O202" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P202" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q202" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R202" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S202" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T202" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U202" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V202" s="0" t="n">
-        <x:v>264</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:22">
@@ -15725,64 +15731,64 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E203" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G203" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H203" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L203" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N203" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="O203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="Q203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R203" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="U203" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="V203" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:22">
@@ -15805,7 +15811,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G204" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H204" s="0" t="n">
         <x:v>0</x:v>
@@ -15826,7 +15832,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N204" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O204" s="0" t="n">
         <x:v>0</x:v>
@@ -15850,7 +15856,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V204" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:22">
@@ -15873,7 +15879,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G205" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H205" s="0" t="n">
         <x:v>0</x:v>
@@ -15882,7 +15888,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J205" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K205" s="0" t="n">
         <x:v>0</x:v>
@@ -15894,7 +15900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N205" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O205" s="0" t="n">
         <x:v>0</x:v>
@@ -15918,7 +15924,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V205" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:22">
@@ -15941,7 +15947,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G206" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H206" s="0" t="n">
         <x:v>0</x:v>
@@ -15950,7 +15956,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J206" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K206" s="0" t="n">
         <x:v>0</x:v>
@@ -15962,10 +15968,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N206" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O206" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P206" s="0" t="n">
         <x:v>0</x:v>
@@ -15986,7 +15992,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V206" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:22">
@@ -16009,7 +16015,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G207" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H207" s="0" t="n">
         <x:v>0</x:v>
@@ -16030,10 +16036,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N207" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O207" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P207" s="0" t="n">
         <x:v>0</x:v>
@@ -16045,7 +16051,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S207" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T207" s="0" t="n">
         <x:v>0</x:v>
@@ -16054,7 +16060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V207" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:22">
@@ -16068,7 +16074,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D208" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E208" s="0" t="n">
         <x:v>0</x:v>
@@ -16095,34 +16101,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M208" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N208" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O208" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P208" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q208" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R208" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S208" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T208" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U208" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V208" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="N208" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="O208" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P208" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q208" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R208" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S208" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T208" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="U208" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V208" s="0" t="n">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:22">
@@ -16136,7 +16142,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D209" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E209" s="0" t="n">
         <x:v>0</x:v>
@@ -16145,7 +16151,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G209" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H209" s="0" t="n">
         <x:v>0</x:v>
@@ -16163,17 +16169,17 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M209" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N209" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O209" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P209" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="O209" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P209" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="Q209" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -16184,13 +16190,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T209" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U209" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V209" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
@@ -16204,7 +16210,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D210" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E210" s="0" t="n">
         <x:v>0</x:v>
@@ -16234,13 +16240,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N210" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O210" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P210" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q210" s="0" t="n">
         <x:v>0</x:v>
@@ -16258,7 +16264,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V210" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:22">
@@ -16281,7 +16287,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G211" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H211" s="0" t="n">
         <x:v>0</x:v>
@@ -16290,10 +16296,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J211" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K211" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L211" s="0" t="n">
         <x:v>0</x:v>
@@ -16326,7 +16332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V211" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
@@ -16340,7 +16346,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D212" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E212" s="0" t="n">
         <x:v>0</x:v>
@@ -16361,7 +16367,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K212" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L212" s="0" t="n">
         <x:v>0</x:v>
@@ -16370,13 +16376,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N212" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O212" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P212" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q212" s="0" t="n">
         <x:v>0</x:v>
@@ -16394,7 +16400,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V212" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:22">
@@ -16408,7 +16414,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D213" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E213" s="0" t="n">
         <x:v>0</x:v>
@@ -16417,7 +16423,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G213" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H213" s="0" t="n">
         <x:v>0</x:v>
@@ -16438,7 +16444,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N213" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O213" s="0" t="n">
         <x:v>0</x:v>
@@ -16462,7 +16468,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V213" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:22">
@@ -16476,7 +16482,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D214" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E214" s="0" t="n">
         <x:v>0</x:v>
@@ -16494,7 +16500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J214" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K214" s="0" t="n">
         <x:v>0</x:v>
@@ -16515,7 +16521,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q214" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R214" s="0" t="n">
         <x:v>0</x:v>
@@ -16524,13 +16530,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T214" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U214" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V214" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:22">
@@ -16544,7 +16550,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D215" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E215" s="0" t="n">
         <x:v>0</x:v>
@@ -16583,7 +16589,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q215" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R215" s="0" t="n">
         <x:v>0</x:v>
@@ -16592,13 +16598,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T215" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U215" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V215" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:22">
@@ -16621,7 +16627,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G216" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H216" s="0" t="n">
         <x:v>0</x:v>
@@ -16648,7 +16654,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P216" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q216" s="0" t="n">
         <x:v>0</x:v>
@@ -16663,10 +16669,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U216" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V216" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:22">
@@ -16689,7 +16695,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G217" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H217" s="0" t="n">
         <x:v>0</x:v>
@@ -16710,13 +16716,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N217" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O217" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P217" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q217" s="0" t="n">
         <x:v>0</x:v>
@@ -16731,10 +16737,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U217" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V217" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:22">
@@ -16766,7 +16772,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J218" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K218" s="0" t="n">
         <x:v>0</x:v>
@@ -16778,13 +16784,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N218" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O218" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P218" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q218" s="0" t="n">
         <x:v>0</x:v>
@@ -16802,7 +16808,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V218" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
@@ -16825,7 +16831,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G219" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H219" s="0" t="n">
         <x:v>0</x:v>
@@ -16834,7 +16840,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J219" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K219" s="0" t="n">
         <x:v>0</x:v>
@@ -16846,7 +16852,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N219" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O219" s="0" t="n">
         <x:v>0</x:v>
@@ -16870,7 +16876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V219" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:22">
@@ -16884,7 +16890,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D220" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E220" s="0" t="n">
         <x:v>0</x:v>
@@ -16893,7 +16899,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G220" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H220" s="0" t="n">
         <x:v>0</x:v>
@@ -16905,16 +16911,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K220" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L220" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M220" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N220" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O220" s="0" t="n">
         <x:v>0</x:v>
@@ -16938,7 +16944,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V220" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:22">
@@ -16949,10 +16955,10 @@
         <x:v>461</x:v>
       </x:c>
       <x:c r="C221" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D221" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E221" s="0" t="n">
         <x:v>0</x:v>
@@ -16961,16 +16967,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G221" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H221" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I221" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J221" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K221" s="0" t="n">
         <x:v>1</x:v>
@@ -16982,13 +16988,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N221" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O221" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P221" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q221" s="0" t="n">
         <x:v>0</x:v>
@@ -17000,13 +17006,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T221" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U221" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V221" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
@@ -17017,46 +17023,46 @@
         <x:v>463</x:v>
       </x:c>
       <x:c r="C222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D222" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E222" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F222" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G222" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H222" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I222" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J222" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E222" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F222" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G222" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H222" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I222" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J222" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="K222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L222" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M222" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N222" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O222" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P222" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q222" s="0" t="n">
         <x:v>0</x:v>
@@ -17068,13 +17074,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T222" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U222" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V222" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:22">
@@ -17088,7 +17094,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E223" s="0" t="n">
         <x:v>0</x:v>
@@ -17097,7 +17103,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H223" s="0" t="n">
         <x:v>0</x:v>
@@ -17106,7 +17112,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K223" s="0" t="n">
         <x:v>0</x:v>
@@ -17115,16 +17121,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q223" s="0" t="n">
         <x:v>0</x:v>
@@ -17136,13 +17142,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U223" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V223" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:22">
@@ -17153,10 +17159,10 @@
         <x:v>467</x:v>
       </x:c>
       <x:c r="C224" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D224" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E224" s="0" t="n">
         <x:v>0</x:v>
@@ -17165,16 +17171,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G224" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H224" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I224" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J224" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K224" s="0" t="n">
         <x:v>0</x:v>
@@ -17186,13 +17192,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N224" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O224" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P224" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q224" s="0" t="n">
         <x:v>0</x:v>
@@ -17204,13 +17210,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T224" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U224" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V224" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:22">
@@ -17221,25 +17227,25 @@
         <x:v>469</x:v>
       </x:c>
       <x:c r="C225" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D225" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E225" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F225" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G225" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H225" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I225" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J225" s="0" t="n">
         <x:v>1</x:v>
@@ -17251,16 +17257,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M225" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N225" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O225" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P225" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q225" s="0" t="n">
         <x:v>0</x:v>
@@ -17269,16 +17275,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S225" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T225" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U225" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V225" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">
@@ -17298,10 +17304,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F226" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G226" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H226" s="0" t="n">
         <x:v>0</x:v>
@@ -17310,7 +17316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J226" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K226" s="0" t="n">
         <x:v>0</x:v>
@@ -17322,31 +17328,31 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N226" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="O226" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P226" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="Q226" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R226" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S226" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T226" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="O226" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P226" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q226" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R226" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S226" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T226" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="U226" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V226" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:22">
@@ -17357,10 +17363,10 @@
         <x:v>473</x:v>
       </x:c>
       <x:c r="C227" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D227" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E227" s="0" t="n">
         <x:v>0</x:v>
@@ -17375,10 +17381,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I227" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J227" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K227" s="0" t="n">
         <x:v>0</x:v>
@@ -17387,34 +17393,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M227" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N227" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O227" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P227" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q227" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R227" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S227" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T227" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U227" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V227" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:22">
@@ -17425,10 +17431,10 @@
         <x:v>475</x:v>
       </x:c>
       <x:c r="C228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E228" s="0" t="n">
         <x:v>0</x:v>
@@ -17437,16 +17443,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G228" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H228" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I228" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J228" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K228" s="0" t="n">
         <x:v>0</x:v>
@@ -17455,34 +17461,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M228" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O228" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P228" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="Q228" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R228" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S228" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="Q228" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R228" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S228" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="T228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="U228" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V228" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:22">
@@ -17505,16 +17511,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G229" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H229" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I229" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J229" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K229" s="0" t="n">
         <x:v>0</x:v>
@@ -17523,16 +17529,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M229" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N229" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O229" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P229" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q229" s="0" t="n">
         <x:v>0</x:v>
@@ -17550,7 +17556,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V229" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:22">
@@ -17594,7 +17600,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N230" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O230" s="0" t="n">
         <x:v>0</x:v>
@@ -17618,7 +17624,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V230" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:22">
@@ -17632,7 +17638,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D231" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E231" s="0" t="n">
         <x:v>0</x:v>
@@ -17662,10 +17668,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N231" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O231" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P231" s="0" t="n">
         <x:v>0</x:v>
@@ -17686,7 +17692,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V231" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:22">
@@ -17700,7 +17706,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D232" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E232" s="0" t="n">
         <x:v>0</x:v>
@@ -17718,7 +17724,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J232" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K232" s="0" t="n">
         <x:v>0</x:v>
@@ -17730,10 +17736,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N232" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O232" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P232" s="0" t="n">
         <x:v>0</x:v>
@@ -17745,7 +17751,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S232" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T232" s="0" t="n">
         <x:v>0</x:v>
@@ -17754,7 +17760,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V232" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:22">
@@ -17768,26 +17774,26 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D233" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E233" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F233" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G233" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H233" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I233" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J233" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E233" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F233" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G233" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H233" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I233" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J233" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="K233" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -17795,19 +17801,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M233" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N233" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O233" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P233" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q233" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R233" s="0" t="n">
         <x:v>0</x:v>
@@ -17816,13 +17822,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T233" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U233" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V233" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:22">
@@ -17833,64 +17839,64 @@
         <x:v>487</x:v>
       </x:c>
       <x:c r="C234" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D234" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E234" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F234" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G234" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H234" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I234" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J234" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K234" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L234" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M234" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N234" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O234" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P234" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="Q234" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R234" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S234" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T234" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="U234" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V234" s="0" t="n">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="U234" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="V234" s="0" t="n">
-        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:22">
@@ -17901,64 +17907,64 @@
         <x:v>489</x:v>
       </x:c>
       <x:c r="C235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E235" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G235" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H235" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J235" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L235" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N235" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="O235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P235" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R235" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="U235" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="V235" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:22">
@@ -17981,7 +17987,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G236" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H236" s="0" t="n">
         <x:v>0</x:v>
@@ -17990,7 +17996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J236" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K236" s="0" t="n">
         <x:v>0</x:v>
@@ -18002,13 +18008,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N236" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O236" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P236" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q236" s="0" t="n">
         <x:v>0</x:v>
@@ -18026,7 +18032,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V236" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:22">
@@ -18058,7 +18064,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J237" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K237" s="0" t="n">
         <x:v>0</x:v>
@@ -18070,7 +18076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N237" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O237" s="0" t="n">
         <x:v>0</x:v>
@@ -18126,7 +18132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J238" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K238" s="0" t="n">
         <x:v>0</x:v>
@@ -18138,7 +18144,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N238" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O238" s="0" t="n">
         <x:v>0</x:v>
@@ -18162,7 +18168,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V238" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">
@@ -18206,13 +18212,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N239" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O239" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P239" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q239" s="0" t="n">
         <x:v>0</x:v>
@@ -18230,7 +18236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V239" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:22">
@@ -18244,16 +18250,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D240" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E240" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F240" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G240" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H240" s="0" t="n">
         <x:v>0</x:v>
@@ -18274,7 +18280,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N240" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O240" s="0" t="n">
         <x:v>0</x:v>
@@ -18289,16 +18295,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S240" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T240" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U240" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V240" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:22">
@@ -18312,16 +18318,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E241" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H241" s="0" t="n">
         <x:v>0</x:v>
@@ -18342,13 +18348,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N241" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="O241" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q241" s="0" t="n">
         <x:v>0</x:v>
@@ -18357,16 +18363,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T241" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V241" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
@@ -18380,25 +18386,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D242" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E242" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F242" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G242" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H242" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I242" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J242" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K242" s="0" t="n">
         <x:v>0</x:v>
@@ -18410,7 +18416,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N242" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O242" s="0" t="n">
         <x:v>0</x:v>
@@ -18425,16 +18431,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S242" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T242" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U242" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V242" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:22">
@@ -18448,25 +18454,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D243" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E243" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F243" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G243" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H243" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I243" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J243" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K243" s="0" t="n">
         <x:v>0</x:v>
@@ -18478,7 +18484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N243" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="O243" s="0" t="n">
         <x:v>0</x:v>
@@ -18493,16 +18499,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S243" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T243" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U243" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="V243" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:22">
@@ -18516,7 +18522,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D244" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E244" s="0" t="n">
         <x:v>0</x:v>
@@ -18525,7 +18531,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G244" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H244" s="0" t="n">
         <x:v>0</x:v>
@@ -18534,7 +18540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J244" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K244" s="0" t="n">
         <x:v>0</x:v>
@@ -18546,13 +18552,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N244" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O244" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P244" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q244" s="0" t="n">
         <x:v>0</x:v>
@@ -18564,13 +18570,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T244" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U244" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V244" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:22">
@@ -18584,7 +18590,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D245" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E245" s="0" t="n">
         <x:v>0</x:v>
@@ -18602,7 +18608,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J245" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K245" s="0" t="n">
         <x:v>0</x:v>
@@ -18614,13 +18620,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N245" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O245" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P245" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q245" s="0" t="n">
         <x:v>0</x:v>
@@ -18638,7 +18644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V245" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:22">
@@ -18652,7 +18658,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D246" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E246" s="0" t="n">
         <x:v>0</x:v>
@@ -18661,7 +18667,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G246" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H246" s="0" t="n">
         <x:v>0</x:v>
@@ -18682,7 +18688,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N246" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O246" s="0" t="n">
         <x:v>0</x:v>
@@ -18700,13 +18706,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T246" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U246" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V246" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
@@ -18720,7 +18726,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D247" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E247" s="0" t="n">
         <x:v>0</x:v>
@@ -18729,7 +18735,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G247" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H247" s="0" t="n">
         <x:v>0</x:v>
@@ -18750,7 +18756,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N247" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O247" s="0" t="n">
         <x:v>0</x:v>
@@ -18774,7 +18780,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V247" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:22">
@@ -18788,13 +18794,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D248" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E248" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F248" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G248" s="0" t="n">
         <x:v>4</x:v>
@@ -18818,7 +18824,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N248" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O248" s="0" t="n">
         <x:v>0</x:v>
@@ -18836,13 +18842,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T248" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U248" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V248" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:22">
@@ -18856,61 +18862,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D249" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E249" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F249" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G249" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N249" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T249" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U249" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V249" s="0" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="H249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N249" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="O249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T249" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="U249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V249" s="0" t="n">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:22">
@@ -18924,7 +18930,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D250" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E250" s="0" t="n">
         <x:v>0</x:v>
@@ -18933,7 +18939,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G250" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H250" s="0" t="n">
         <x:v>0</x:v>
@@ -18954,7 +18960,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N250" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O250" s="0" t="n">
         <x:v>0</x:v>
@@ -18972,13 +18978,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T250" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U250" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V250" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:22">
@@ -18992,7 +18998,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D251" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E251" s="0" t="n">
         <x:v>0</x:v>
@@ -19001,7 +19007,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G251" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H251" s="0" t="n">
         <x:v>0</x:v>
@@ -19022,7 +19028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N251" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O251" s="0" t="n">
         <x:v>0</x:v>
@@ -19040,13 +19046,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T251" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U251" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V251" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:22">
@@ -19060,7 +19066,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D252" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E252" s="0" t="n">
         <x:v>0</x:v>
@@ -19069,7 +19075,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G252" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H252" s="0" t="n">
         <x:v>0</x:v>
@@ -19090,7 +19096,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N252" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O252" s="0" t="n">
         <x:v>0</x:v>
@@ -19108,13 +19114,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T252" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="U252" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V252" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:22">
@@ -19128,7 +19134,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D253" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E253" s="0" t="n">
         <x:v>0</x:v>
@@ -19137,7 +19143,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G253" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H253" s="0" t="n">
         <x:v>0</x:v>
@@ -19158,7 +19164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N253" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O253" s="0" t="n">
         <x:v>0</x:v>
@@ -19182,7 +19188,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V253" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:22">
@@ -19196,7 +19202,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D254" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E254" s="0" t="n">
         <x:v>0</x:v>
@@ -19205,7 +19211,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G254" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H254" s="0" t="n">
         <x:v>0</x:v>
@@ -19226,7 +19232,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N254" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O254" s="0" t="n">
         <x:v>0</x:v>
@@ -19244,13 +19250,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T254" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U254" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V254" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:22">
@@ -19264,7 +19270,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D255" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E255" s="0" t="n">
         <x:v>0</x:v>
@@ -19273,7 +19279,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G255" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H255" s="0" t="n">
         <x:v>0</x:v>
@@ -19294,7 +19300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N255" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O255" s="0" t="n">
         <x:v>0</x:v>
@@ -19312,13 +19318,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T255" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U255" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V255" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:22">
@@ -19332,60 +19338,128 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G256" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N256" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="O256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T256" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="U256" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V256" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="257" spans="1:22">
+      <x:c r="A257" s="0" t="s">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="B257" s="0" t="s">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="C257" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D257" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G256" s="0" t="n">
+      <x:c r="E257" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F257" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G257" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N256" s="0" t="n">
+      <x:c r="H257" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I257" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J257" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K257" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L257" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M257" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N257" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="O256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T256" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V256" s="0" t="n">
+      <x:c r="O257" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P257" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q257" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R257" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S257" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T257" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U257" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V257" s="0" t="n">
         <x:v>15</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -6622,7 +6622,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
         <x:v>0</x:v>
@@ -6676,7 +6676,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V69" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:22">
@@ -11858,7 +11858,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D146" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E146" s="0" t="n">
         <x:v>0</x:v>
@@ -11867,7 +11867,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G146" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H146" s="0" t="n">
         <x:v>0</x:v>
@@ -11876,7 +11876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J146" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K146" s="0" t="n">
         <x:v>0</x:v>
@@ -11894,7 +11894,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P146" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="Q146" s="0" t="n">
         <x:v>2</x:v>
@@ -11906,13 +11906,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T146" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U146" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="V146" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:22">
@@ -11926,7 +11926,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D147" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E147" s="0" t="n">
         <x:v>0</x:v>
@@ -11944,7 +11944,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J147" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="K147" s="0" t="n">
         <x:v>0</x:v>
@@ -11962,7 +11962,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="P147" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="Q147" s="0" t="n">
         <x:v>6</x:v>
@@ -11980,7 +11980,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="V147" s="0" t="n">
-        <x:v>231</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:22">
@@ -14918,7 +14918,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D191" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E191" s="0" t="n">
         <x:v>0</x:v>
@@ -14954,7 +14954,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P191" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q191" s="0" t="n">
         <x:v>0</x:v>
@@ -14972,7 +14972,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V191" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
@@ -15140,7 +15140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J194" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K194" s="0" t="n">
         <x:v>0</x:v>
@@ -15176,7 +15176,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V194" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -8739,7 +8739,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G100" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H100" s="0" t="n">
         <x:v>0</x:v>
@@ -8784,7 +8784,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V100" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">
@@ -12024,7 +12024,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N148" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="O148" s="0" t="n">
         <x:v>0</x:v>
@@ -12048,7 +12048,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V148" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -2445,7 +2445,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
         <x:v>0</x:v>
@@ -2466,7 +2466,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O7" s="0" t="n">
         <x:v>0</x:v>
@@ -2490,7 +2490,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V7" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:22">
@@ -3338,7 +3338,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J20" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K20" s="0" t="n">
         <x:v>0</x:v>
@@ -3371,10 +3371,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="U20" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="V20" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:22">
@@ -5547,10 +5547,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U52" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="V52" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:22">
@@ -6478,7 +6478,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N66" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O66" s="0" t="n">
         <x:v>0</x:v>
@@ -6502,7 +6502,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V66" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:22">
@@ -6856,16 +6856,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
         <x:v>0</x:v>
@@ -6874,7 +6874,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="J72" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K72" s="0" t="n">
         <x:v>0</x:v>
@@ -6883,16 +6883,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M72" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N72" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O72" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="P72" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="Q72" s="0" t="n">
         <x:v>2</x:v>
@@ -6904,13 +6904,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T72" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U72" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="V72" s="0" t="n">
-        <x:v>404</x:v>
+        <x:v>418</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:22">
@@ -7193,7 +7193,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="C77" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
         <x:v>3</x:v>
@@ -7205,7 +7205,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
         <x:v>0</x:v>
@@ -7214,7 +7214,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="J77" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K77" s="0" t="n">
         <x:v>3</x:v>
@@ -7226,7 +7226,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="N77" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O77" s="0" t="n">
         <x:v>0</x:v>
@@ -7235,7 +7235,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q77" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R77" s="0" t="n">
         <x:v>0</x:v>
@@ -7244,13 +7244,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T77" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V77" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:22">
@@ -8021,7 +8021,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
         <x:v>0</x:v>
@@ -8030,7 +8030,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J89" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K89" s="0" t="n">
         <x:v>1</x:v>
@@ -8048,7 +8048,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="P89" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="Q89" s="0" t="n">
         <x:v>1</x:v>
@@ -8066,7 +8066,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="V89" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:22">
@@ -8361,7 +8361,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G94" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H94" s="0" t="n">
         <x:v>0</x:v>
@@ -8406,7 +8406,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V94" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:22">
@@ -11986,7 +11986,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N147" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O147" s="0" t="n">
         <x:v>1</x:v>
@@ -12010,7 +12010,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V147" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:22">
@@ -13384,7 +13384,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D168" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E168" s="0" t="n">
         <x:v>0</x:v>
@@ -13414,7 +13414,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N168" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="O168" s="0" t="n">
         <x:v>0</x:v>
@@ -13438,7 +13438,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V168" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:22">
@@ -14094,7 +14094,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N178" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O178" s="0" t="n">
         <x:v>0</x:v>
@@ -14118,7 +14118,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V178" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:22">
@@ -15256,7 +15256,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P195" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q195" s="0" t="n">
         <x:v>0</x:v>
@@ -15274,7 +15274,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V195" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
@@ -15841,7 +15841,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G204" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H204" s="0" t="n">
         <x:v>0</x:v>
@@ -15886,7 +15886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V204" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:22">
@@ -17346,7 +17346,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J226" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K226" s="0" t="n">
         <x:v>1</x:v>
@@ -17382,7 +17382,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V226" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:22">
@@ -18739,10 +18739,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U246" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="V246" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -4825,7 +4825,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
         <x:v>0</x:v>
@@ -4846,7 +4846,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="N42" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O42" s="0" t="n">
         <x:v>0</x:v>
@@ -4870,7 +4870,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V42" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:22">
@@ -6049,7 +6049,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
         <x:v>0</x:v>
@@ -6094,7 +6094,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V60" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:22">
@@ -6788,7 +6788,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
         <x:v>0</x:v>
@@ -6842,7 +6842,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V71" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:22">
@@ -7468,7 +7468,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="D81" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
         <x:v>0</x:v>
@@ -7516,13 +7516,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="T81" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="U81" s="0" t="n">
         <x:v>138</x:v>
       </x:c>
       <x:c r="V81" s="0" t="n">
-        <x:v>714</x:v>
+        <x:v>716</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:22">
@@ -8757,7 +8757,7 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="C100" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D100" s="0" t="n">
         <x:v>12</x:v>
@@ -8814,7 +8814,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="V100" s="0" t="n">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">
@@ -13384,7 +13384,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D168" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E168" s="0" t="n">
         <x:v>0</x:v>
@@ -13438,7 +13438,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V168" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:22">
@@ -16045,7 +16045,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G207" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H207" s="0" t="n">
         <x:v>0</x:v>
@@ -16090,7 +16090,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="V207" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:22">
@@ -19126,7 +19126,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N252" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="O252" s="0" t="n">
         <x:v>0</x:v>
@@ -19150,7 +19150,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V252" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -6806,7 +6806,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J71" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K71" s="0" t="n">
         <x:v>0</x:v>
@@ -6842,7 +6842,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V71" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:22">
@@ -7749,7 +7749,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G85" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H85" s="0" t="n">
         <x:v>0</x:v>
@@ -7767,7 +7767,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N85" s="0" t="n">
         <x:v>4</x:v>
@@ -7794,7 +7794,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V85" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:22">
@@ -8775,7 +8775,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I100" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J100" s="0" t="n">
         <x:v>36</x:v>
@@ -8814,7 +8814,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="V100" s="0" t="n">
-        <x:v>311</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">
@@ -12740,7 +12740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P158" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q158" s="0" t="n">
         <x:v>0</x:v>
@@ -12758,7 +12758,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V158" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:22">
@@ -12870,7 +12870,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N160" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="O160" s="0" t="n">
         <x:v>0</x:v>
@@ -12888,13 +12888,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T160" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U160" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V160" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -5360,7 +5360,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
         <x:v>0</x:v>
@@ -5414,7 +5414,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V50" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:22">
@@ -15460,7 +15460,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="P198" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="Q198" s="0" t="n">
         <x:v>0</x:v>
@@ -15478,7 +15478,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V198" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -2105,7 +2105,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
         <x:v>0</x:v>
@@ -2150,7 +2150,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V2" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:22">
@@ -2377,7 +2377,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
         <x:v>0</x:v>
@@ -2398,7 +2398,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N6" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O6" s="0" t="n">
         <x:v>0</x:v>
@@ -2422,7 +2422,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V6" s="0" t="n">
-        <x:v>138</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:22">
@@ -4710,7 +4710,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N40" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O40" s="0" t="n">
         <x:v>1</x:v>
@@ -4734,7 +4734,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V40" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:22">
@@ -5476,13 +5476,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V51" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:22">
@@ -6836,13 +6836,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T71" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U71" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="V71" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:22">
@@ -6989,10 +6989,10 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="C74" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
         <x:v>0</x:v>
@@ -7028,7 +7028,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="P74" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q74" s="0" t="n">
         <x:v>1</x:v>
@@ -7046,7 +7046,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V74" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:22">
@@ -7702,7 +7702,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N84" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O84" s="0" t="n">
         <x:v>1</x:v>
@@ -7726,7 +7726,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V84" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
@@ -7788,13 +7788,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T85" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U85" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="V85" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:22">
@@ -7808,7 +7808,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D86" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
         <x:v>0</x:v>
@@ -7856,7 +7856,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T86" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="U86" s="0" t="n">
         <x:v>16</x:v>
@@ -8781,7 +8781,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K100" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L100" s="0" t="n">
         <x:v>0</x:v>
@@ -8790,7 +8790,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N100" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O100" s="0" t="n">
         <x:v>1</x:v>
@@ -8814,7 +8814,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="V100" s="0" t="n">
-        <x:v>310</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">
@@ -12849,7 +12849,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G160" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H160" s="0" t="n">
         <x:v>0</x:v>
@@ -12870,7 +12870,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N160" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="O160" s="0" t="n">
         <x:v>0</x:v>
@@ -12888,13 +12888,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T160" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U160" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V160" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
@@ -13177,7 +13177,7 @@
         <x:v>349</x:v>
       </x:c>
       <x:c r="C165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D165" s="0" t="n">
         <x:v>1</x:v>
@@ -13189,7 +13189,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G165" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H165" s="0" t="n">
         <x:v>0</x:v>
@@ -13198,7 +13198,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J165" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K165" s="0" t="n">
         <x:v>0</x:v>
@@ -13234,7 +13234,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V165" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:22">
@@ -14842,7 +14842,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N189" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O189" s="0" t="n">
         <x:v>0</x:v>
@@ -14866,7 +14866,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V189" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:22">
@@ -14910,7 +14910,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N190" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O190" s="0" t="n">
         <x:v>0</x:v>
@@ -14934,7 +14934,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V190" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:22">
@@ -15250,7 +15250,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N195" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O195" s="0" t="n">
         <x:v>1</x:v>
@@ -15274,7 +15274,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V195" s="0" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
@@ -15386,7 +15386,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N197" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O197" s="0" t="n">
         <x:v>1</x:v>
@@ -15410,7 +15410,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V197" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:22">
@@ -15868,7 +15868,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P204" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q204" s="0" t="n">
         <x:v>1</x:v>
@@ -15886,7 +15886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V204" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:22">
@@ -16054,7 +16054,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="J207" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K207" s="0" t="n">
         <x:v>2</x:v>
@@ -16090,7 +16090,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="V207" s="0" t="n">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:22">
@@ -16997,7 +16997,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G221" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H221" s="0" t="n">
         <x:v>0</x:v>
@@ -17042,7 +17042,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V221" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
@@ -17290,7 +17290,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N225" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O225" s="0" t="n">
         <x:v>0</x:v>
@@ -17314,7 +17314,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V225" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">
@@ -17541,10 +17541,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G229" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H229" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I229" s="0" t="n">
         <x:v>1</x:v>
@@ -17568,7 +17568,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P229" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q229" s="0" t="n">
         <x:v>0</x:v>
@@ -17586,7 +17586,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V229" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:22">
@@ -17624,7 +17624,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L230" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M230" s="0" t="n">
         <x:v>1</x:v>
@@ -17654,7 +17654,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V230" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:22">
@@ -18354,7 +18354,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G241" s="0" t="n">
         <x:v>1</x:v>
@@ -18375,7 +18375,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N241" s="0" t="n">
         <x:v>2</x:v>
@@ -18393,16 +18393,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T241" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U241" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V241" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -3356,13 +3356,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="P20" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R20" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S20" s="0" t="n">
         <x:v>2</x:v>
@@ -3371,10 +3371,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="U20" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="V20" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:22">
@@ -6478,7 +6478,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N66" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O66" s="0" t="n">
         <x:v>0</x:v>
@@ -6502,7 +6502,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V66" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:22">
@@ -8790,7 +8790,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N100" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="O100" s="0" t="n">
         <x:v>1</x:v>
@@ -8814,7 +8814,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="V100" s="0" t="n">
-        <x:v>308</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -3356,13 +3356,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="P20" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R20" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S20" s="0" t="n">
         <x:v>2</x:v>
@@ -3371,10 +3371,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="U20" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="V20" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:22">
@@ -7749,7 +7749,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G85" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H85" s="0" t="n">
         <x:v>0</x:v>
@@ -7794,7 +7794,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V85" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:22">
@@ -13142,7 +13142,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N164" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O164" s="0" t="n">
         <x:v>0</x:v>
@@ -13166,7 +13166,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V164" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:22">
@@ -15948,13 +15948,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T205" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U205" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V205" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -2301,7 +2301,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S4" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T4" s="0" t="n">
         <x:v>1</x:v>
@@ -2310,7 +2310,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V4" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:22">
@@ -3625,7 +3625,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
         <x:v>0</x:v>
@@ -3634,7 +3634,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K24" s="0" t="n">
         <x:v>1</x:v>
@@ -3646,7 +3646,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="N24" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
         <x:v>0</x:v>
@@ -3670,7 +3670,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V24" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:22">
@@ -6898,7 +6898,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J72" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K72" s="0" t="n">
         <x:v>0</x:v>
@@ -6934,7 +6934,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V72" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:22">
@@ -8920,7 +8920,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D102" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E102" s="0" t="n">
         <x:v>1</x:v>
@@ -8974,7 +8974,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="V102" s="0" t="n">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">
@@ -15611,10 +15611,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M200" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N200" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O200" s="0" t="n">
         <x:v>1</x:v>
@@ -15638,7 +15638,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V200" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">
@@ -16770,7 +16770,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="N217" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O217" s="0" t="n">
         <x:v>1</x:v>
@@ -16794,7 +16794,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V217" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -2422,7 +2422,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N6" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="O6" s="0" t="n">
         <x:v>0</x:v>
@@ -2446,7 +2446,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V6" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:22">
@@ -3625,7 +3625,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
         <x:v>0</x:v>
@@ -3670,7 +3670,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V24" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:22">
@@ -6880,7 +6880,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
         <x:v>0</x:v>
@@ -6934,7 +6934,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V72" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:22">
@@ -6984,7 +6984,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="P73" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="Q73" s="0" t="n">
         <x:v>2</x:v>
@@ -7002,7 +7002,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="V73" s="0" t="n">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:22">
@@ -7084,7 +7084,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
         <x:v>0</x:v>
@@ -7132,13 +7132,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T75" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U75" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="V75" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:22">
@@ -7557,7 +7557,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="C82" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D82" s="0" t="n">
         <x:v>48</x:v>
@@ -7608,13 +7608,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="T82" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="U82" s="0" t="n">
         <x:v>156</x:v>
       </x:c>
       <x:c r="V82" s="0" t="n">
-        <x:v>797</x:v>
+        <x:v>799</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:22">
@@ -8444,7 +8444,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D95" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E95" s="0" t="n">
         <x:v>0</x:v>
@@ -8462,7 +8462,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J95" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K95" s="0" t="n">
         <x:v>0</x:v>
@@ -8480,7 +8480,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P95" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="Q95" s="0" t="n">
         <x:v>0</x:v>
@@ -8489,16 +8489,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S95" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T95" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="U95" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="V95" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">
@@ -9970,14 +9970,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N117" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="O117" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P117" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="O117" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P117" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="Q117" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -9991,10 +9991,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U117" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V117" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:22">
@@ -10561,7 +10561,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G126" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H126" s="0" t="n">
         <x:v>0</x:v>
@@ -10582,7 +10582,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N126" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O126" s="0" t="n">
         <x:v>0</x:v>
@@ -10606,7 +10606,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V126" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:22">
@@ -14272,13 +14272,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V180" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
@@ -18041,7 +18041,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G236" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H236" s="0" t="n">
         <x:v>0</x:v>
@@ -18059,13 +18059,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M236" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N236" s="0" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O236" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P236" s="0" t="n">
         <x:v>14</x:v>
@@ -18086,7 +18086,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V236" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -5435,10 +5435,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U50" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="V50" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:22">
@@ -6570,7 +6570,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N67" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O67" s="0" t="n">
         <x:v>0</x:v>
@@ -6594,7 +6594,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V67" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:22">
@@ -8385,7 +8385,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G94" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H94" s="0" t="n">
         <x:v>0</x:v>
@@ -8412,7 +8412,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P94" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q94" s="0" t="n">
         <x:v>0</x:v>
@@ -15661,7 +15661,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G201" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H201" s="0" t="n">
         <x:v>0</x:v>
@@ -15679,7 +15679,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M201" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N201" s="0" t="n">
         <x:v>9</x:v>
@@ -15700,13 +15700,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T201" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U201" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="V201" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -7557,7 +7557,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="C82" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D82" s="0" t="n">
         <x:v>48</x:v>
@@ -7569,7 +7569,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G82" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H82" s="0" t="n">
         <x:v>0</x:v>
@@ -7611,10 +7611,10 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="U82" s="0" t="n">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="V82" s="0" t="n">
-        <x:v>799</x:v>
+        <x:v>796</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:22">
@@ -9772,7 +9772,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P114" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q114" s="0" t="n">
         <x:v>0</x:v>
@@ -9790,7 +9790,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -15614,7 +15614,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="N200" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O200" s="0" t="n">
         <x:v>1</x:v>
@@ -15638,7 +15638,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V200" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -1327,7 +1327,7 @@
     <x:t>MN0730100</x:t>
   </x:si>
   <x:si>
-    <x:t>Cold Spring/Richmond Police Dept</x:t>
+    <x:t>Cold Spring / Richmond Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0730200</x:t>
@@ -1489,7 +1489,7 @@
     <x:t>MN0821100</x:t>
   </x:si>
   <x:si>
-    <x:t>Woodbury Public Safety</x:t>
+    <x:t>Woodbury Dept of Public Safety</x:t>
   </x:si>
   <x:si>
     <x:t>MN0821400</x:t>
@@ -1567,7 +1567,7 @@
     <x:t>MNCON0000</x:t>
   </x:si>
   <x:si>
-    <x:t>MN Dept of Natural Resources - License Bureau</x:t>
+    <x:t>MN Dept of Natural Resources - Enforcement Division</x:t>
   </x:si>
   <x:si>
     <x:t>MNDI01900</x:t>
@@ -1585,7 +1585,7 @@
     <x:t>MNDI02400</x:t>
   </x:si>
   <x:si>
-    <x:t>Mille Lacs Band of Ojibwe Tribal Police Dept</x:t>
+    <x:t>Mille Lacs Tribal Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MNDI06000</x:t>
@@ -2150,7 +2150,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N2" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O2" s="0" t="n">
         <x:v>0</x:v>
@@ -2174,7 +2174,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V2" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:22">
@@ -4515,7 +4515,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I37" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
         <x:v>1</x:v>
@@ -4536,7 +4536,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="P37" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q37" s="0" t="n">
         <x:v>0</x:v>
@@ -4554,7 +4554,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V37" s="0" t="n">
-        <x:v>153</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:22">
@@ -5597,7 +5597,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G53" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H53" s="0" t="n">
         <x:v>0</x:v>
@@ -5642,7 +5642,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="V53" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:22">
@@ -6168,7 +6168,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P61" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="Q61" s="0" t="n">
         <x:v>0</x:v>
@@ -6186,7 +6186,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V61" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:22">
@@ -6203,7 +6203,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>1</x:v>
@@ -6236,7 +6236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P62" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="Q62" s="0" t="n">
         <x:v>0</x:v>
@@ -6254,7 +6254,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V62" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:22">
@@ -6916,7 +6916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P72" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="Q72" s="0" t="n">
         <x:v>0</x:v>
@@ -6934,7 +6934,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V72" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:22">
@@ -11318,7 +11318,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J137" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K137" s="0" t="n">
         <x:v>0</x:v>
@@ -11354,7 +11354,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V137" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:22">
@@ -12465,7 +12465,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G154" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H154" s="0" t="n">
         <x:v>0</x:v>
@@ -12474,7 +12474,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J154" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K154" s="0" t="n">
         <x:v>0</x:v>
@@ -12492,7 +12492,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P154" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q154" s="0" t="n">
         <x:v>1</x:v>
@@ -12510,7 +12510,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V154" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
@@ -17012,7 +17012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D221" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E221" s="0" t="n">
         <x:v>0</x:v>
@@ -17030,7 +17030,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J221" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K221" s="0" t="n">
         <x:v>0</x:v>
@@ -17042,7 +17042,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N221" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O221" s="0" t="n">
         <x:v>0</x:v>
@@ -17066,7 +17066,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V221" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
@@ -17719,7 +17719,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M231" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N231" s="0" t="n">
         <x:v>4</x:v>
@@ -17746,7 +17746,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V231" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:22">
@@ -19830,7 +19830,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N262" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O262" s="0" t="n">
         <x:v>0</x:v>
@@ -19854,7 +19854,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V262" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -202,6 +202,9 @@
     <x:t>16</x:t>
   </x:si>
   <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
     <x:t>MN0020700</x:t>
   </x:si>
   <x:si>
@@ -358,9 +361,6 @@
     <x:t>13</x:t>
   </x:si>
   <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
     <x:t>MN0100200</x:t>
   </x:si>
   <x:si>
@@ -538,258 +538,258 @@
     <x:t>South St Paul Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>MN0190700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inver Grove Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apple Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakeville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alexandria Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wells Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0230400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Preston Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albert Lea Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cannon Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Wing Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0260000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bloomington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>491</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Center Police Dept</x:t>
+  </x:si>
+  <x:si>
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>MN0190700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West St Paul Police Dept</x:t>
+    <x:t>MN0270300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deephaven Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South Lake Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Golden Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hopkins Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minneapolis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>887</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Hope Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>24</x:t>
   </x:si>
   <x:si>
-    <x:t>MN0190800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inver Grove Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apple Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakeville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kasson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alexandria Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wells Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0230400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Preston Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Albert Lea Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cannon Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Wing Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0260000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bloomington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>491</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Center Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deephaven Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South Lake Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Golden Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hopkins Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minneapolis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>887</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Hope Police Dept</x:t>
-  </x:si>
-  <x:si>
     <x:t>MN0271500</x:t>
   </x:si>
   <x:si>
@@ -994,10 +994,7 @@
     <x:t>Willmar Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108</x:t>
+    <x:t>109</x:t>
   </x:si>
   <x:si>
     <x:t>MN0350000</x:t>
@@ -1375,6 +1372,9 @@
     <x:t>Maplewood Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
     <x:t>MN0620500</x:t>
   </x:si>
   <x:si>
@@ -1411,9 +1411,6 @@
     <x:t>36</x:t>
   </x:si>
   <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
     <x:t>94</x:t>
   </x:si>
   <x:si>
@@ -1585,7 +1582,7 @@
     <x:t>Shakopee Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>167</x:t>
+    <x:t>166</x:t>
   </x:si>
   <x:si>
     <x:t>MN0700600</x:t>
@@ -3054,18 +3051,18 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="U10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="V10" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:22">
       <x:c r="A11" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>25</x:v>
@@ -3130,10 +3127,10 @@
     </x:row>
     <x:row r="12" spans="1:22">
       <x:c r="A12" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
         <x:v>25</x:v>
@@ -3198,10 +3195,10 @@
     </x:row>
     <x:row r="13" spans="1:22">
       <x:c r="A13" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>25</x:v>
@@ -3266,10 +3263,10 @@
     </x:row>
     <x:row r="14" spans="1:22">
       <x:c r="A14" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>25</x:v>
@@ -3334,10 +3331,10 @@
     </x:row>
     <x:row r="15" spans="1:22">
       <x:c r="A15" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>24</x:v>
@@ -3349,7 +3346,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
         <x:v>32</x:v>
@@ -3402,10 +3399,10 @@
     </x:row>
     <x:row r="16" spans="1:22">
       <x:c r="A16" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>25</x:v>
@@ -3470,10 +3467,10 @@
     </x:row>
     <x:row r="17" spans="1:22">
       <x:c r="A17" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>25</x:v>
@@ -3538,10 +3535,10 @@
     </x:row>
     <x:row r="18" spans="1:22">
       <x:c r="A18" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>25</x:v>
@@ -3606,10 +3603,10 @@
     </x:row>
     <x:row r="19" spans="1:22">
       <x:c r="A19" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>32</x:v>
@@ -3669,15 +3666,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V19" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:22">
       <x:c r="A20" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>25</x:v>
@@ -3713,7 +3710,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N20" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O20" s="0" t="s">
         <x:v>35</x:v>
@@ -3737,15 +3734,15 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V20" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:22">
       <x:c r="A21" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>25</x:v>
@@ -3810,10 +3807,10 @@
     </x:row>
     <x:row r="22" spans="1:22">
       <x:c r="A22" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>25</x:v>
@@ -3878,10 +3875,10 @@
     </x:row>
     <x:row r="23" spans="1:22">
       <x:c r="A23" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>25</x:v>
@@ -3946,10 +3943,10 @@
     </x:row>
     <x:row r="24" spans="1:22">
       <x:c r="A24" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>25</x:v>
@@ -4009,21 +4006,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V24" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:22">
       <x:c r="A25" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>25</x:v>
@@ -4053,7 +4050,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="O25" s="0" t="s">
         <x:v>25</x:v>
@@ -4077,15 +4074,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V25" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:22">
       <x:c r="A26" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>25</x:v>
@@ -4150,10 +4147,10 @@
     </x:row>
     <x:row r="27" spans="1:22">
       <x:c r="A27" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>25</x:v>
@@ -4168,7 +4165,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
         <x:v>25</x:v>
@@ -4213,15 +4210,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V27" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:22">
       <x:c r="A28" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>25</x:v>
@@ -4257,7 +4254,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N28" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="O28" s="0" t="s">
         <x:v>25</x:v>
@@ -4286,10 +4283,10 @@
     </x:row>
     <x:row r="29" spans="1:22">
       <x:c r="A29" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>25</x:v>
@@ -4349,15 +4346,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V29" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:22">
       <x:c r="A30" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>24</x:v>
@@ -4372,7 +4369,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
         <x:v>25</x:v>
@@ -4381,7 +4378,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J30" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K30" s="0" t="s">
         <x:v>25</x:v>
@@ -4393,7 +4390,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="N30" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="O30" s="0" t="s">
         <x:v>24</x:v>
@@ -4417,7 +4414,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V30" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:22">
@@ -4547,13 +4544,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T32" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="U32" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="V32" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:22">
@@ -4807,7 +4804,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P36" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="Q36" s="0" t="s">
         <x:v>25</x:v>
@@ -4884,7 +4881,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="S37" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="T37" s="0" t="s">
         <x:v>24</x:v>
@@ -4949,7 +4946,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="R38" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="S38" s="0" t="s">
         <x:v>24</x:v>
@@ -5141,7 +5138,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N41" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O41" s="0" t="s">
         <x:v>24</x:v>
@@ -5165,7 +5162,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V41" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:22">
@@ -5363,7 +5360,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T44" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="U44" s="0" t="s">
         <x:v>25</x:v>
@@ -5437,7 +5434,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V45" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:22">
@@ -5505,7 +5502,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V46" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:22">
@@ -5605,7 +5602,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J48" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="K48" s="0" t="s">
         <x:v>25</x:v>
@@ -5617,7 +5614,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N48" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="O48" s="0" t="s">
         <x:v>25</x:v>
@@ -5910,7 +5907,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U52" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="V52" s="0" t="s">
         <x:v>130</x:v>
@@ -6081,7 +6078,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J55" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K55" s="0" t="s">
         <x:v>25</x:v>
@@ -6117,15 +6114,15 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="V55" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:22">
       <x:c r="A56" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
         <x:v>175</x:v>
-      </x:c>
-      <x:c r="B56" s="0" t="s">
-        <x:v>176</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>25</x:v>
@@ -6182,18 +6179,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="U56" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="V56" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:22">
       <x:c r="A57" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
         <x:v>24</x:v>
@@ -6235,7 +6232,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P57" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="Q57" s="0" t="s">
         <x:v>24</x:v>
@@ -6253,15 +6250,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V57" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:22">
       <x:c r="A58" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>24</x:v>
@@ -6321,15 +6318,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V58" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:22">
       <x:c r="A59" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
         <x:v>25</x:v>
@@ -6365,7 +6362,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N59" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O59" s="0" t="s">
         <x:v>25</x:v>
@@ -6394,10 +6391,10 @@
     </x:row>
     <x:row r="60" spans="1:22">
       <x:c r="A60" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
         <x:v>25</x:v>
@@ -6462,10 +6459,10 @@
     </x:row>
     <x:row r="61" spans="1:22">
       <x:c r="A61" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
         <x:v>25</x:v>
@@ -6507,7 +6504,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P61" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="Q61" s="0" t="s">
         <x:v>25</x:v>
@@ -6525,15 +6522,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V61" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:22">
       <x:c r="A62" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
         <x:v>25</x:v>
@@ -6598,10 +6595,10 @@
     </x:row>
     <x:row r="63" spans="1:22">
       <x:c r="A63" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
         <x:v>25</x:v>
@@ -6637,13 +6634,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N63" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="O63" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="P63" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="Q63" s="0" t="s">
         <x:v>25</x:v>
@@ -6652,7 +6649,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="S63" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="T63" s="0" t="s">
         <x:v>40</x:v>
@@ -6661,15 +6658,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V63" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:22">
       <x:c r="A64" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
         <x:v>25</x:v>
@@ -6711,7 +6708,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="Q64" s="0" t="s">
         <x:v>25</x:v>
@@ -6734,10 +6731,10 @@
     </x:row>
     <x:row r="65" spans="1:22">
       <x:c r="A65" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
         <x:v>25</x:v>
@@ -6802,10 +6799,10 @@
     </x:row>
     <x:row r="66" spans="1:22">
       <x:c r="A66" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
         <x:v>25</x:v>
@@ -6870,10 +6867,10 @@
     </x:row>
     <x:row r="67" spans="1:22">
       <x:c r="A67" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
         <x:v>25</x:v>
@@ -6938,10 +6935,10 @@
     </x:row>
     <x:row r="68" spans="1:22">
       <x:c r="A68" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
         <x:v>25</x:v>
@@ -7006,16 +7003,16 @@
     </x:row>
     <x:row r="69" spans="1:22">
       <x:c r="A69" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
         <x:v>25</x:v>
@@ -7024,7 +7021,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H69" s="0" t="s">
         <x:v>25</x:v>
@@ -7045,7 +7042,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N69" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="O69" s="0" t="s">
         <x:v>25</x:v>
@@ -7069,15 +7066,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V69" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:22">
       <x:c r="A70" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>25</x:v>
@@ -7137,15 +7134,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V70" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
       <x:c r="A71" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>25</x:v>
@@ -7210,10 +7207,10 @@
     </x:row>
     <x:row r="72" spans="1:22">
       <x:c r="A72" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>25</x:v>
@@ -7278,10 +7275,10 @@
     </x:row>
     <x:row r="73" spans="1:22">
       <x:c r="A73" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>25</x:v>
@@ -7346,16 +7343,16 @@
     </x:row>
     <x:row r="74" spans="1:22">
       <x:c r="A74" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
         <x:v>25</x:v>
@@ -7373,7 +7370,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J74" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="K74" s="0" t="s">
         <x:v>25</x:v>
@@ -7409,18 +7406,18 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="V74" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:22">
       <x:c r="A75" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
         <x:v>134</x:v>
@@ -7432,16 +7429,16 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G75" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="H75" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J75" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="K75" s="0" t="s">
         <x:v>25</x:v>
@@ -7459,7 +7456,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P75" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="Q75" s="0" t="s">
         <x:v>32</x:v>
@@ -7471,21 +7468,21 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="T75" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="U75" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="V75" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:22">
       <x:c r="A76" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>25</x:v>
@@ -7545,21 +7542,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V76" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:22">
       <x:c r="A77" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
         <x:v>228</x:v>
-      </x:c>
-      <x:c r="B77" s="0" t="s">
-        <x:v>229</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
         <x:v>25</x:v>
@@ -7595,7 +7592,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="P77" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="Q77" s="0" t="s">
         <x:v>24</x:v>
@@ -7613,15 +7610,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V77" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:22">
       <x:c r="A78" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
         <x:v>231</x:v>
-      </x:c>
-      <x:c r="B78" s="0" t="s">
-        <x:v>232</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
         <x:v>25</x:v>
@@ -7686,10 +7683,10 @@
     </x:row>
     <x:row r="79" spans="1:22">
       <x:c r="A79" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
         <x:v>233</x:v>
-      </x:c>
-      <x:c r="B79" s="0" t="s">
-        <x:v>234</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
         <x:v>25</x:v>
@@ -7754,16 +7751,16 @@
     </x:row>
     <x:row r="80" spans="1:22">
       <x:c r="A80" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
         <x:v>235</x:v>
-      </x:c>
-      <x:c r="B80" s="0" t="s">
-        <x:v>236</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>25</x:v>
@@ -7772,7 +7769,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H80" s="0" t="s">
         <x:v>25</x:v>
@@ -7793,7 +7790,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="O80" s="0" t="s">
         <x:v>25</x:v>
@@ -7811,21 +7808,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T80" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="U80" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="V80" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:22">
       <x:c r="A81" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
         <x:v>238</x:v>
-      </x:c>
-      <x:c r="B81" s="0" t="s">
-        <x:v>239</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>25</x:v>
@@ -7890,10 +7887,10 @@
     </x:row>
     <x:row r="82" spans="1:22">
       <x:c r="A82" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
         <x:v>240</x:v>
-      </x:c>
-      <x:c r="B82" s="0" t="s">
-        <x:v>241</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>25</x:v>
@@ -7958,10 +7955,10 @@
     </x:row>
     <x:row r="83" spans="1:22">
       <x:c r="A83" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
         <x:v>242</x:v>
-      </x:c>
-      <x:c r="B83" s="0" t="s">
-        <x:v>243</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
         <x:v>25</x:v>
@@ -8021,21 +8018,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V83" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
       <x:c r="A84" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
         <x:v>244</x:v>
       </x:c>
-      <x:c r="B84" s="0" t="s">
+      <x:c r="C84" s="0" t="s">
         <x:v>245</x:v>
       </x:c>
-      <x:c r="C84" s="0" t="s">
+      <x:c r="D84" s="0" t="s">
         <x:v>246</x:v>
-      </x:c>
-      <x:c r="D84" s="0" t="s">
-        <x:v>247</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>25</x:v>
@@ -8044,16 +8041,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="H84" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I84" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="J84" s="0" t="s">
         <x:v>248</x:v>
-      </x:c>
-      <x:c r="H84" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I84" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="J84" s="0" t="s">
-        <x:v>249</x:v>
       </x:c>
       <x:c r="K84" s="0" t="s">
         <x:v>25</x:v>
@@ -8065,7 +8062,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N84" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="O84" s="0" t="s">
         <x:v>25</x:v>
@@ -8083,21 +8080,21 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="T84" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="U84" s="0" t="s">
         <x:v>251</x:v>
       </x:c>
-      <x:c r="U84" s="0" t="s">
+      <x:c r="V84" s="0" t="s">
         <x:v>252</x:v>
-      </x:c>
-      <x:c r="V84" s="0" t="s">
-        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
       <x:c r="A85" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
         <x:v>254</x:v>
-      </x:c>
-      <x:c r="B85" s="0" t="s">
-        <x:v>255</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>25</x:v>
@@ -8162,10 +8159,10 @@
     </x:row>
     <x:row r="86" spans="1:22">
       <x:c r="A86" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
         <x:v>256</x:v>
-      </x:c>
-      <x:c r="B86" s="0" t="s">
-        <x:v>257</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>24</x:v>
@@ -8201,7 +8198,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N86" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="O86" s="0" t="s">
         <x:v>25</x:v>
@@ -8225,7 +8222,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V86" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:22">
@@ -8316,7 +8313,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G88" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H88" s="0" t="s">
         <x:v>25</x:v>
@@ -8343,7 +8340,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="P88" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="Q88" s="0" t="s">
         <x:v>24</x:v>
@@ -8361,7 +8358,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V88" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">
@@ -8375,7 +8372,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
         <x:v>25</x:v>
@@ -8423,13 +8420,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T89" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="U89" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
       <x:c r="V89" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:22">
@@ -8443,7 +8440,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
         <x:v>25</x:v>
@@ -8461,7 +8458,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J90" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K90" s="0" t="s">
         <x:v>25</x:v>
@@ -8565,7 +8562,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V91" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:22">
@@ -8588,7 +8585,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G92" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H92" s="0" t="s">
         <x:v>25</x:v>
@@ -8609,13 +8606,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N92" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O92" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="P92" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="Q92" s="0" t="s">
         <x:v>24</x:v>
@@ -8633,7 +8630,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V92" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:22">
@@ -8769,7 +8766,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V94" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:22">
@@ -8792,7 +8789,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H95" s="0" t="s">
         <x:v>25</x:v>
@@ -8837,7 +8834,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V95" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">
@@ -8860,7 +8857,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G96" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H96" s="0" t="s">
         <x:v>25</x:v>
@@ -8919,7 +8916,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
         <x:v>25</x:v>
@@ -8949,7 +8946,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N97" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O97" s="0" t="s">
         <x:v>32</x:v>
@@ -9392,7 +9389,7 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
         <x:v>45</x:v>
@@ -9401,7 +9398,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F104" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="G104" s="0" t="s">
         <x:v>40</x:v>
@@ -9431,7 +9428,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="P104" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="Q104" s="0" t="s">
         <x:v>35</x:v>
@@ -9540,7 +9537,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G106" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="H106" s="0" t="s">
         <x:v>25</x:v>
@@ -9567,7 +9564,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P106" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="Q106" s="0" t="s">
         <x:v>25</x:v>
@@ -9901,7 +9898,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N111" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="O111" s="0" t="s">
         <x:v>24</x:v>
@@ -9993,7 +9990,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V112" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:22">
@@ -10197,7 +10194,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V115" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:22">
@@ -10220,7 +10217,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G116" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H116" s="0" t="s">
         <x:v>25</x:v>
@@ -10297,7 +10294,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="J117" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="K117" s="0" t="s">
         <x:v>25</x:v>
@@ -10309,7 +10306,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N117" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O117" s="0" t="s">
         <x:v>25</x:v>
@@ -10333,15 +10330,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V117" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
         <x:v>328</x:v>
-      </x:c>
-      <x:c r="B118" s="0" t="s">
-        <x:v>329</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>25</x:v>
@@ -10406,10 +10403,10 @@
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
         <x:v>330</x:v>
-      </x:c>
-      <x:c r="B119" s="0" t="s">
-        <x:v>331</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10474,10 +10471,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
         <x:v>332</x:v>
-      </x:c>
-      <x:c r="B120" s="0" t="s">
-        <x:v>333</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>25</x:v>
@@ -10542,10 +10539,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
         <x:v>334</x:v>
-      </x:c>
-      <x:c r="B121" s="0" t="s">
-        <x:v>335</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10610,10 +10607,10 @@
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
         <x:v>336</x:v>
-      </x:c>
-      <x:c r="B122" s="0" t="s">
-        <x:v>337</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -10678,10 +10675,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
         <x:v>338</x:v>
-      </x:c>
-      <x:c r="B123" s="0" t="s">
-        <x:v>339</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>25</x:v>
@@ -10746,10 +10743,10 @@
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
         <x:v>340</x:v>
-      </x:c>
-      <x:c r="B124" s="0" t="s">
-        <x:v>341</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>24</x:v>
@@ -10814,10 +10811,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
         <x:v>342</x:v>
-      </x:c>
-      <x:c r="B125" s="0" t="s">
-        <x:v>343</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>25</x:v>
@@ -10882,10 +10879,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
         <x:v>344</x:v>
-      </x:c>
-      <x:c r="B126" s="0" t="s">
-        <x:v>345</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -10950,10 +10947,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
         <x:v>346</x:v>
-      </x:c>
-      <x:c r="B127" s="0" t="s">
-        <x:v>347</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11018,11 +11015,11 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
         <x:v>348</x:v>
       </x:c>
-      <x:c r="B128" s="0" t="s">
-        <x:v>349</x:v>
-      </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -11057,7 +11054,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N128" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O128" s="0" t="s">
         <x:v>25</x:v>
@@ -11086,10 +11083,10 @@
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
         <x:v>350</x:v>
-      </x:c>
-      <x:c r="B129" s="0" t="s">
-        <x:v>351</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11131,7 +11128,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P129" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="Q129" s="0" t="s">
         <x:v>25</x:v>
@@ -11149,15 +11146,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V129" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
         <x:v>352</x:v>
-      </x:c>
-      <x:c r="B130" s="0" t="s">
-        <x:v>353</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11193,7 +11190,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N130" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="O130" s="0" t="s">
         <x:v>25</x:v>
@@ -11217,15 +11214,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V130" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
         <x:v>355</x:v>
-      </x:c>
-      <x:c r="B131" s="0" t="s">
-        <x:v>356</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11290,10 +11287,10 @@
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
         <x:v>357</x:v>
-      </x:c>
-      <x:c r="B132" s="0" t="s">
-        <x:v>358</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>25</x:v>
@@ -11308,7 +11305,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G132" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H132" s="0" t="s">
         <x:v>25</x:v>
@@ -11353,15 +11350,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V132" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
         <x:v>359</x:v>
-      </x:c>
-      <x:c r="B133" s="0" t="s">
-        <x:v>360</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>32</x:v>
@@ -11397,7 +11394,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N133" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="O133" s="0" t="s">
         <x:v>25</x:v>
@@ -11426,10 +11423,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
         <x:v>361</x:v>
-      </x:c>
-      <x:c r="B134" s="0" t="s">
-        <x:v>362</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>25</x:v>
@@ -11494,10 +11491,10 @@
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
         <x:v>363</x:v>
-      </x:c>
-      <x:c r="B135" s="0" t="s">
-        <x:v>364</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11562,10 +11559,10 @@
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
         <x:v>365</x:v>
-      </x:c>
-      <x:c r="B136" s="0" t="s">
-        <x:v>366</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -11630,10 +11627,10 @@
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
         <x:v>367</x:v>
-      </x:c>
-      <x:c r="B137" s="0" t="s">
-        <x:v>368</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -11669,7 +11666,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N137" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O137" s="0" t="s">
         <x:v>25</x:v>
@@ -11698,10 +11695,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
         <x:v>369</x:v>
-      </x:c>
-      <x:c r="B138" s="0" t="s">
-        <x:v>370</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -11766,10 +11763,10 @@
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
         <x:v>371</x:v>
-      </x:c>
-      <x:c r="B139" s="0" t="s">
-        <x:v>372</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -11805,7 +11802,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N139" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="O139" s="0" t="s">
         <x:v>25</x:v>
@@ -11834,11 +11831,11 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
         <x:v>373</x:v>
       </x:c>
-      <x:c r="B140" s="0" t="s">
-        <x:v>374</x:v>
-      </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -11873,7 +11870,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N140" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O140" s="0" t="s">
         <x:v>25</x:v>
@@ -11902,10 +11899,10 @@
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
         <x:v>375</x:v>
-      </x:c>
-      <x:c r="B141" s="0" t="s">
-        <x:v>376</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -11970,10 +11967,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
         <x:v>377</x:v>
-      </x:c>
-      <x:c r="B142" s="0" t="s">
-        <x:v>378</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12009,7 +12006,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N142" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="O142" s="0" t="s">
         <x:v>25</x:v>
@@ -12033,15 +12030,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V142" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
         <x:v>379</x:v>
-      </x:c>
-      <x:c r="B143" s="0" t="s">
-        <x:v>380</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12106,10 +12103,10 @@
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
         <x:v>381</x:v>
-      </x:c>
-      <x:c r="B144" s="0" t="s">
-        <x:v>382</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12174,10 +12171,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
         <x:v>383</x:v>
-      </x:c>
-      <x:c r="B145" s="0" t="s">
-        <x:v>384</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12242,10 +12239,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
         <x:v>385</x:v>
-      </x:c>
-      <x:c r="B146" s="0" t="s">
-        <x:v>386</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12310,10 +12307,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
         <x:v>387</x:v>
-      </x:c>
-      <x:c r="B147" s="0" t="s">
-        <x:v>388</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12373,15 +12370,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V147" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
         <x:v>389</x:v>
-      </x:c>
-      <x:c r="B148" s="0" t="s">
-        <x:v>390</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12441,15 +12438,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V148" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>390</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
         <x:v>392</x:v>
-      </x:c>
-      <x:c r="B149" s="0" t="s">
-        <x:v>393</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>32</x:v>
@@ -12464,7 +12461,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G149" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H149" s="0" t="s">
         <x:v>25</x:v>
@@ -12491,7 +12488,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P149" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="Q149" s="0" t="s">
         <x:v>25</x:v>
@@ -12509,15 +12506,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V149" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
         <x:v>395</x:v>
-      </x:c>
-      <x:c r="B150" s="0" t="s">
-        <x:v>396</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>25</x:v>
@@ -12582,10 +12579,10 @@
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
         <x:v>397</x:v>
-      </x:c>
-      <x:c r="B151" s="0" t="s">
-        <x:v>398</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -12650,10 +12647,10 @@
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
         <x:v>399</x:v>
-      </x:c>
-      <x:c r="B152" s="0" t="s">
-        <x:v>400</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -12668,7 +12665,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G152" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="H152" s="0" t="s">
         <x:v>25</x:v>
@@ -12718,10 +12715,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
         <x:v>401</x:v>
-      </x:c>
-      <x:c r="B153" s="0" t="s">
-        <x:v>402</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>24</x:v>
@@ -12781,15 +12778,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V153" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
         <x:v>403</x:v>
-      </x:c>
-      <x:c r="B154" s="0" t="s">
-        <x:v>404</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>25</x:v>
@@ -12854,10 +12851,10 @@
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
         <x:v>405</x:v>
-      </x:c>
-      <x:c r="B155" s="0" t="s">
-        <x:v>406</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>40</x:v>
@@ -12922,10 +12919,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
         <x:v>407</x:v>
-      </x:c>
-      <x:c r="B156" s="0" t="s">
-        <x:v>408</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -12990,10 +12987,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
         <x:v>409</x:v>
-      </x:c>
-      <x:c r="B157" s="0" t="s">
-        <x:v>410</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>32</x:v>
@@ -13008,7 +13005,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G157" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H157" s="0" t="s">
         <x:v>25</x:v>
@@ -13017,7 +13014,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J157" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="K157" s="0" t="s">
         <x:v>25</x:v>
@@ -13026,10 +13023,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M157" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="N157" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O157" s="0" t="s">
         <x:v>24</x:v>
@@ -13053,40 +13050,40 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="V157" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>410</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
         <x:v>412</x:v>
       </x:c>
-      <x:c r="B158" s="0" t="s">
+      <x:c r="C158" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D158" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="E158" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F158" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G158" s="0" t="s">
         <x:v>413</x:v>
       </x:c>
-      <x:c r="C158" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D158" s="0" t="s">
-        <x:v>391</x:v>
-      </x:c>
-      <x:c r="E158" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F158" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G158" s="0" t="s">
+      <x:c r="H158" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I158" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J158" s="0" t="s">
         <x:v>414</x:v>
       </x:c>
-      <x:c r="H158" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I158" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="J158" s="0" t="s">
-        <x:v>415</x:v>
-      </x:c>
       <x:c r="K158" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -13094,25 +13091,25 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M158" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="N158" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="O158" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="P158" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="Q158" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="R158" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="S158" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="T158" s="0" t="s">
         <x:v>40</x:v>
@@ -13121,15 +13118,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V158" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>416</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
         <x:v>418</x:v>
-      </x:c>
-      <x:c r="B159" s="0" t="s">
-        <x:v>419</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>25</x:v>
@@ -13165,7 +13162,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N159" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="O159" s="0" t="s">
         <x:v>25</x:v>
@@ -13189,15 +13186,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V159" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
         <x:v>420</x:v>
-      </x:c>
-      <x:c r="B160" s="0" t="s">
-        <x:v>421</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>25</x:v>
@@ -13221,7 +13218,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="J160" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K160" s="0" t="s">
         <x:v>25</x:v>
@@ -13262,10 +13259,10 @@
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
         <x:v>422</x:v>
-      </x:c>
-      <x:c r="B161" s="0" t="s">
-        <x:v>423</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>25</x:v>
@@ -13330,10 +13327,10 @@
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
         <x:v>424</x:v>
-      </x:c>
-      <x:c r="B162" s="0" t="s">
-        <x:v>425</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>25</x:v>
@@ -13398,10 +13395,10 @@
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
+        <x:v>425</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
         <x:v>426</x:v>
-      </x:c>
-      <x:c r="B163" s="0" t="s">
-        <x:v>427</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>25</x:v>
@@ -13461,15 +13458,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V163" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
         <x:v>428</x:v>
-      </x:c>
-      <x:c r="B164" s="0" t="s">
-        <x:v>429</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>25</x:v>
@@ -13529,15 +13526,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V164" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>429</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
         <x:v>431</x:v>
-      </x:c>
-      <x:c r="B165" s="0" t="s">
-        <x:v>432</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>25</x:v>
@@ -13573,7 +13570,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N165" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="O165" s="0" t="s">
         <x:v>25</x:v>
@@ -13597,15 +13594,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V165" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
         <x:v>433</x:v>
-      </x:c>
-      <x:c r="B166" s="0" t="s">
-        <x:v>434</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>25</x:v>
@@ -13665,15 +13662,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V166" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
+        <x:v>434</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
         <x:v>435</x:v>
-      </x:c>
-      <x:c r="B167" s="0" t="s">
-        <x:v>436</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>25</x:v>
@@ -13709,7 +13706,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N167" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O167" s="0" t="s">
         <x:v>25</x:v>
@@ -13733,15 +13730,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V167" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
         <x:v>437</x:v>
-      </x:c>
-      <x:c r="B168" s="0" t="s">
-        <x:v>438</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>25</x:v>
@@ -13801,15 +13798,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V168" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
+        <x:v>439</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
         <x:v>440</x:v>
-      </x:c>
-      <x:c r="B169" s="0" t="s">
-        <x:v>441</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>25</x:v>
@@ -13874,10 +13871,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
+        <x:v>441</x:v>
+      </x:c>
+      <x:c r="B170" s="0" t="s">
         <x:v>442</x:v>
-      </x:c>
-      <x:c r="B170" s="0" t="s">
-        <x:v>443</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>25</x:v>
@@ -13942,10 +13939,10 @@
     </x:row>
     <x:row r="171" spans="1:22">
       <x:c r="A171" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="B171" s="0" t="s">
         <x:v>444</x:v>
-      </x:c>
-      <x:c r="B171" s="0" t="s">
-        <x:v>445</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>25</x:v>
@@ -14010,10 +14007,10 @@
     </x:row>
     <x:row r="172" spans="1:22">
       <x:c r="A172" s="0" t="s">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c r="B172" s="0" t="s">
         <x:v>446</x:v>
-      </x:c>
-      <x:c r="B172" s="0" t="s">
-        <x:v>447</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>25</x:v>
@@ -14078,10 +14075,10 @@
     </x:row>
     <x:row r="173" spans="1:22">
       <x:c r="A173" s="0" t="s">
+        <x:v>447</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
         <x:v>448</x:v>
-      </x:c>
-      <x:c r="B173" s="0" t="s">
-        <x:v>449</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>24</x:v>
@@ -14117,7 +14114,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N173" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="O173" s="0" t="s">
         <x:v>25</x:v>
@@ -14141,15 +14138,15 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="V173" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>449</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:22">
       <x:c r="A174" s="0" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
         <x:v>451</x:v>
-      </x:c>
-      <x:c r="B174" s="0" t="s">
-        <x:v>452</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>35</x:v>
@@ -14194,7 +14191,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="Q174" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="R174" s="0" t="s">
         <x:v>24</x:v>
@@ -14209,7 +14206,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V174" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>452</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:22">
@@ -14345,7 +14342,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V176" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:22">
@@ -14492,7 +14489,7 @@
         <x:v>463</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D179" s="0" t="s">
         <x:v>464</x:v>
@@ -14501,10 +14498,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F179" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="G179" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H179" s="0" t="s">
         <x:v>25</x:v>
@@ -14513,7 +14510,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J179" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="K179" s="0" t="s">
         <x:v>25</x:v>
@@ -14525,13 +14522,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="N179" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="O179" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P179" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="Q179" s="0" t="s">
         <x:v>28</x:v>
@@ -14543,21 +14540,21 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="T179" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="U179" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="V179" s="0" t="s">
         <x:v>467</x:v>
-      </x:c>
-      <x:c r="V179" s="0" t="s">
-        <x:v>468</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
       <x:c r="A180" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="B180" s="0" t="s">
         <x:v>469</x:v>
-      </x:c>
-      <x:c r="B180" s="0" t="s">
-        <x:v>470</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>25</x:v>
@@ -14622,10 +14619,10 @@
     </x:row>
     <x:row r="181" spans="1:22">
       <x:c r="A181" s="0" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="B181" s="0" t="s">
         <x:v>471</x:v>
-      </x:c>
-      <x:c r="B181" s="0" t="s">
-        <x:v>472</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>25</x:v>
@@ -14690,11 +14687,11 @@
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="B182" s="0" t="s">
         <x:v>473</x:v>
       </x:c>
-      <x:c r="B182" s="0" t="s">
-        <x:v>474</x:v>
-      </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -14708,7 +14705,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G182" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="H182" s="0" t="s">
         <x:v>25</x:v>
@@ -14753,16 +14750,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V182" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
         <x:v>475</x:v>
       </x:c>
-      <x:c r="B183" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -14776,7 +14773,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G183" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H183" s="0" t="s">
         <x:v>25</x:v>
@@ -14826,10 +14823,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
         <x:v>477</x:v>
-      </x:c>
-      <x:c r="B184" s="0" t="s">
-        <x:v>478</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>32</x:v>
@@ -14871,7 +14868,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P184" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="Q184" s="0" t="s">
         <x:v>25</x:v>
@@ -14889,15 +14886,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V184" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
         <x:v>479</x:v>
-      </x:c>
-      <x:c r="B185" s="0" t="s">
-        <x:v>480</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -14962,10 +14959,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
         <x:v>481</x:v>
-      </x:c>
-      <x:c r="B186" s="0" t="s">
-        <x:v>482</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>25</x:v>
@@ -15030,10 +15027,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
+        <x:v>482</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
         <x:v>483</x:v>
-      </x:c>
-      <x:c r="B187" s="0" t="s">
-        <x:v>484</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>25</x:v>
@@ -15098,10 +15095,10 @@
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
         <x:v>485</x:v>
-      </x:c>
-      <x:c r="B188" s="0" t="s">
-        <x:v>486</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>25</x:v>
@@ -15166,10 +15163,10 @@
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
         <x:v>487</x:v>
-      </x:c>
-      <x:c r="B189" s="0" t="s">
-        <x:v>488</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>25</x:v>
@@ -15234,10 +15231,10 @@
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
         <x:v>489</x:v>
-      </x:c>
-      <x:c r="B190" s="0" t="s">
-        <x:v>490</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15302,10 +15299,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
         <x:v>491</x:v>
-      </x:c>
-      <x:c r="B191" s="0" t="s">
-        <x:v>492</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>25</x:v>
@@ -15329,7 +15326,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J191" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K191" s="0" t="s">
         <x:v>25</x:v>
@@ -15341,13 +15338,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N191" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="O191" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P191" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="Q191" s="0" t="s">
         <x:v>25</x:v>
@@ -15365,15 +15362,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V191" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>492</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
+        <x:v>493</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="s">
         <x:v>494</x:v>
-      </x:c>
-      <x:c r="B192" s="0" t="s">
-        <x:v>495</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>25</x:v>
@@ -15438,10 +15435,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
         <x:v>496</x:v>
-      </x:c>
-      <x:c r="B193" s="0" t="s">
-        <x:v>497</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>25</x:v>
@@ -15506,16 +15503,16 @@
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c r="B194" s="0" t="s">
         <x:v>498</x:v>
       </x:c>
-      <x:c r="B194" s="0" t="s">
-        <x:v>499</x:v>
-      </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="D194" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E194" s="0" t="s">
         <x:v>25</x:v>
@@ -15533,7 +15530,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J194" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="K194" s="0" t="s">
         <x:v>25</x:v>
@@ -15563,21 +15560,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T194" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="U194" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V194" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>499</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="B195" s="0" t="s">
         <x:v>501</x:v>
-      </x:c>
-      <x:c r="B195" s="0" t="s">
-        <x:v>502</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>25</x:v>
@@ -15642,10 +15639,10 @@
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="s">
         <x:v>503</x:v>
-      </x:c>
-      <x:c r="B196" s="0" t="s">
-        <x:v>504</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -15710,10 +15707,10 @@
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
         <x:v>505</x:v>
-      </x:c>
-      <x:c r="B197" s="0" t="s">
-        <x:v>506</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>25</x:v>
@@ -15778,10 +15775,10 @@
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="s">
         <x:v>507</x:v>
-      </x:c>
-      <x:c r="B198" s="0" t="s">
-        <x:v>508</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -15846,11 +15843,11 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
         <x:v>509</x:v>
       </x:c>
-      <x:c r="B199" s="0" t="s">
-        <x:v>510</x:v>
-      </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -15885,7 +15882,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N199" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="O199" s="0" t="s">
         <x:v>25</x:v>
@@ -15909,15 +15906,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V199" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:22">
       <x:c r="A200" s="0" t="s">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="B200" s="0" t="s">
         <x:v>511</x:v>
-      </x:c>
-      <x:c r="B200" s="0" t="s">
-        <x:v>512</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>25</x:v>
@@ -15982,10 +15979,10 @@
     </x:row>
     <x:row r="201" spans="1:22">
       <x:c r="A201" s="0" t="s">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="s">
         <x:v>513</x:v>
-      </x:c>
-      <x:c r="B201" s="0" t="s">
-        <x:v>514</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>25</x:v>
@@ -16050,10 +16047,10 @@
     </x:row>
     <x:row r="202" spans="1:22">
       <x:c r="A202" s="0" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="B202" s="0" t="s">
         <x:v>515</x:v>
-      </x:c>
-      <x:c r="B202" s="0" t="s">
-        <x:v>516</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>25</x:v>
@@ -16118,10 +16115,10 @@
     </x:row>
     <x:row r="203" spans="1:22">
       <x:c r="A203" s="0" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
         <x:v>517</x:v>
-      </x:c>
-      <x:c r="B203" s="0" t="s">
-        <x:v>518</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>25</x:v>
@@ -16186,10 +16183,10 @@
     </x:row>
     <x:row r="204" spans="1:22">
       <x:c r="A204" s="0" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="B204" s="0" t="s">
         <x:v>519</x:v>
-      </x:c>
-      <x:c r="B204" s="0" t="s">
-        <x:v>520</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>25</x:v>
@@ -16254,16 +16251,16 @@
     </x:row>
     <x:row r="205" spans="1:22">
       <x:c r="A205" s="0" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="B205" s="0" t="s">
         <x:v>521</x:v>
       </x:c>
-      <x:c r="B205" s="0" t="s">
-        <x:v>522</x:v>
-      </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="D205" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E205" s="0" t="s">
         <x:v>25</x:v>
@@ -16281,7 +16278,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="J205" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="K205" s="0" t="s">
         <x:v>25</x:v>
@@ -16293,13 +16290,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N205" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="O205" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="P205" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="Q205" s="0" t="s">
         <x:v>25</x:v>
@@ -16308,24 +16305,24 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="S205" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="T205" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="U205" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="V205" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>522</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:22">
       <x:c r="A206" s="0" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="B206" s="0" t="s">
         <x:v>524</x:v>
-      </x:c>
-      <x:c r="B206" s="0" t="s">
-        <x:v>525</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>32</x:v>
@@ -16349,7 +16346,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="J206" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K206" s="0" t="s">
         <x:v>25</x:v>
@@ -16367,7 +16364,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P206" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="Q206" s="0" t="s">
         <x:v>24</x:v>
@@ -16385,15 +16382,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V206" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:22">
       <x:c r="A207" s="0" t="s">
+        <x:v>525</x:v>
+      </x:c>
+      <x:c r="B207" s="0" t="s">
         <x:v>526</x:v>
-      </x:c>
-      <x:c r="B207" s="0" t="s">
-        <x:v>527</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>24</x:v>
@@ -16453,15 +16450,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V207" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>413</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:22">
       <x:c r="A208" s="0" t="s">
+        <x:v>527</x:v>
+      </x:c>
+      <x:c r="B208" s="0" t="s">
         <x:v>528</x:v>
-      </x:c>
-      <x:c r="B208" s="0" t="s">
-        <x:v>529</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>24</x:v>
@@ -16503,7 +16500,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="P208" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="Q208" s="0" t="s">
         <x:v>25</x:v>
@@ -16515,21 +16512,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T208" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="U208" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="V208" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>529</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:22">
       <x:c r="A209" s="0" t="s">
+        <x:v>530</x:v>
+      </x:c>
+      <x:c r="B209" s="0" t="s">
         <x:v>531</x:v>
-      </x:c>
-      <x:c r="B209" s="0" t="s">
-        <x:v>532</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>25</x:v>
@@ -16594,11 +16591,11 @@
     </x:row>
     <x:row r="210" spans="1:22">
       <x:c r="A210" s="0" t="s">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="B210" s="0" t="s">
         <x:v>533</x:v>
       </x:c>
-      <x:c r="B210" s="0" t="s">
-        <x:v>534</x:v>
-      </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -16612,7 +16609,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G210" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H210" s="0" t="s">
         <x:v>25</x:v>
@@ -16657,15 +16654,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V210" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>390</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:22">
       <x:c r="A211" s="0" t="s">
+        <x:v>534</x:v>
+      </x:c>
+      <x:c r="B211" s="0" t="s">
         <x:v>535</x:v>
-      </x:c>
-      <x:c r="B211" s="0" t="s">
-        <x:v>536</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>25</x:v>
@@ -16730,11 +16727,11 @@
     </x:row>
     <x:row r="212" spans="1:22">
       <x:c r="A212" s="0" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="B212" s="0" t="s">
         <x:v>537</x:v>
       </x:c>
-      <x:c r="B212" s="0" t="s">
-        <x:v>538</x:v>
-      </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -16769,7 +16766,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N212" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O212" s="0" t="s">
         <x:v>25</x:v>
@@ -16798,10 +16795,10 @@
     </x:row>
     <x:row r="213" spans="1:22">
       <x:c r="A213" s="0" t="s">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="B213" s="0" t="s">
         <x:v>539</x:v>
-      </x:c>
-      <x:c r="B213" s="0" t="s">
-        <x:v>540</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>25</x:v>
@@ -16866,10 +16863,10 @@
     </x:row>
     <x:row r="214" spans="1:22">
       <x:c r="A214" s="0" t="s">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="B214" s="0" t="s">
         <x:v>541</x:v>
-      </x:c>
-      <x:c r="B214" s="0" t="s">
-        <x:v>542</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>25</x:v>
@@ -16934,10 +16931,10 @@
     </x:row>
     <x:row r="215" spans="1:22">
       <x:c r="A215" s="0" t="s">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c r="B215" s="0" t="s">
         <x:v>543</x:v>
-      </x:c>
-      <x:c r="B215" s="0" t="s">
-        <x:v>544</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>25</x:v>
@@ -16973,7 +16970,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N215" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="O215" s="0" t="s">
         <x:v>24</x:v>
@@ -17002,10 +16999,10 @@
     </x:row>
     <x:row r="216" spans="1:22">
       <x:c r="A216" s="0" t="s">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c r="B216" s="0" t="s">
         <x:v>545</x:v>
-      </x:c>
-      <x:c r="B216" s="0" t="s">
-        <x:v>546</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>25</x:v>
@@ -17070,10 +17067,10 @@
     </x:row>
     <x:row r="217" spans="1:22">
       <x:c r="A217" s="0" t="s">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c r="B217" s="0" t="s">
         <x:v>547</x:v>
-      </x:c>
-      <x:c r="B217" s="0" t="s">
-        <x:v>548</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>25</x:v>
@@ -17138,16 +17135,16 @@
     </x:row>
     <x:row r="218" spans="1:22">
       <x:c r="A218" s="0" t="s">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="B218" s="0" t="s">
         <x:v>549</x:v>
-      </x:c>
-      <x:c r="B218" s="0" t="s">
-        <x:v>550</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="D218" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E218" s="0" t="s">
         <x:v>25</x:v>
@@ -17162,7 +17159,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I218" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J218" s="0" t="s">
         <x:v>42</x:v>
@@ -17177,39 +17174,39 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N218" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="O218" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="P218" s="0" t="s">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="Q218" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R218" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="S218" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="T218" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="U218" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="V218" s="0" t="s">
         <x:v>551</x:v>
-      </x:c>
-      <x:c r="Q218" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R218" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="S218" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="T218" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="U218" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="V218" s="0" t="s">
-        <x:v>552</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="B219" s="0" t="s">
         <x:v>553</x:v>
-      </x:c>
-      <x:c r="B219" s="0" t="s">
-        <x:v>554</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17274,10 +17271,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="B220" s="0" t="s">
         <x:v>555</x:v>
-      </x:c>
-      <x:c r="B220" s="0" t="s">
-        <x:v>556</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17342,10 +17339,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c r="B221" s="0" t="s">
         <x:v>557</x:v>
-      </x:c>
-      <x:c r="B221" s="0" t="s">
-        <x:v>558</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>25</x:v>
@@ -17410,10 +17407,10 @@
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c r="B222" s="0" t="s">
         <x:v>559</x:v>
-      </x:c>
-      <x:c r="B222" s="0" t="s">
-        <x:v>560</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17478,10 +17475,10 @@
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c r="B223" s="0" t="s">
         <x:v>561</x:v>
-      </x:c>
-      <x:c r="B223" s="0" t="s">
-        <x:v>562</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>25</x:v>
@@ -17546,10 +17543,10 @@
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c r="B224" s="0" t="s">
         <x:v>563</x:v>
-      </x:c>
-      <x:c r="B224" s="0" t="s">
-        <x:v>564</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -17609,15 +17606,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V224" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c r="B225" s="0" t="s">
         <x:v>565</x:v>
-      </x:c>
-      <x:c r="B225" s="0" t="s">
-        <x:v>566</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -17677,15 +17674,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V225" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
+        <x:v>566</x:v>
+      </x:c>
+      <x:c r="B226" s="0" t="s">
         <x:v>567</x:v>
-      </x:c>
-      <x:c r="B226" s="0" t="s">
-        <x:v>568</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -17750,10 +17747,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
+        <x:v>568</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
         <x:v>569</x:v>
-      </x:c>
-      <x:c r="B227" s="0" t="s">
-        <x:v>570</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -17818,10 +17815,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
+        <x:v>570</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
         <x:v>571</x:v>
-      </x:c>
-      <x:c r="B228" s="0" t="s">
-        <x:v>572</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>25</x:v>
@@ -17881,15 +17878,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V228" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
+        <x:v>572</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="s">
         <x:v>573</x:v>
-      </x:c>
-      <x:c r="B229" s="0" t="s">
-        <x:v>574</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -17954,10 +17951,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
+        <x:v>574</x:v>
+      </x:c>
+      <x:c r="B230" s="0" t="s">
         <x:v>575</x:v>
-      </x:c>
-      <x:c r="B230" s="0" t="s">
-        <x:v>576</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18022,10 +18019,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
+        <x:v>576</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="s">
         <x:v>577</x:v>
-      </x:c>
-      <x:c r="B231" s="0" t="s">
-        <x:v>578</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18090,10 +18087,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
+        <x:v>578</x:v>
+      </x:c>
+      <x:c r="B232" s="0" t="s">
         <x:v>579</x:v>
-      </x:c>
-      <x:c r="B232" s="0" t="s">
-        <x:v>580</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18158,10 +18155,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="B233" s="0" t="s">
         <x:v>581</x:v>
-      </x:c>
-      <x:c r="B233" s="0" t="s">
-        <x:v>582</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18226,10 +18223,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
+        <x:v>582</x:v>
+      </x:c>
+      <x:c r="B234" s="0" t="s">
         <x:v>583</x:v>
-      </x:c>
-      <x:c r="B234" s="0" t="s">
-        <x:v>584</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18294,10 +18291,10 @@
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
+        <x:v>584</x:v>
+      </x:c>
+      <x:c r="B235" s="0" t="s">
         <x:v>585</x:v>
-      </x:c>
-      <x:c r="B235" s="0" t="s">
-        <x:v>586</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>25</x:v>
@@ -18362,10 +18359,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
+        <x:v>586</x:v>
+      </x:c>
+      <x:c r="B236" s="0" t="s">
         <x:v>587</x:v>
-      </x:c>
-      <x:c r="B236" s="0" t="s">
-        <x:v>588</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>25</x:v>
@@ -18430,16 +18427,16 @@
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c r="B237" s="0" t="s">
         <x:v>589</x:v>
       </x:c>
-      <x:c r="B237" s="0" t="s">
-        <x:v>590</x:v>
-      </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="D237" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E237" s="0" t="s">
         <x:v>25</x:v>
@@ -18448,7 +18445,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G237" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H237" s="0" t="s">
         <x:v>25</x:v>
@@ -18475,7 +18472,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="P237" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="Q237" s="0" t="s">
         <x:v>25</x:v>
@@ -18493,15 +18490,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V237" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>529</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="B238" s="0" t="s">
         <x:v>591</x:v>
-      </x:c>
-      <x:c r="B238" s="0" t="s">
-        <x:v>592</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>25</x:v>
@@ -18537,13 +18534,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N238" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O238" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="P238" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="Q238" s="0" t="s">
         <x:v>25</x:v>
@@ -18561,15 +18558,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V238" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="B239" s="0" t="s">
         <x:v>593</x:v>
-      </x:c>
-      <x:c r="B239" s="0" t="s">
-        <x:v>594</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>25</x:v>
@@ -18634,10 +18631,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c r="B240" s="0" t="s">
         <x:v>595</x:v>
-      </x:c>
-      <x:c r="B240" s="0" t="s">
-        <x:v>596</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>24</x:v>
@@ -18702,10 +18699,10 @@
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
+        <x:v>596</x:v>
+      </x:c>
+      <x:c r="B241" s="0" t="s">
         <x:v>597</x:v>
-      </x:c>
-      <x:c r="B241" s="0" t="s">
-        <x:v>598</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>25</x:v>
@@ -18765,15 +18762,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
+        <x:v>598</x:v>
+      </x:c>
+      <x:c r="B242" s="0" t="s">
         <x:v>599</x:v>
-      </x:c>
-      <x:c r="B242" s="0" t="s">
-        <x:v>600</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>24</x:v>
@@ -18809,7 +18806,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N242" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="O242" s="0" t="s">
         <x:v>25</x:v>
@@ -18838,16 +18835,16 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="B243" s="0" t="s">
         <x:v>601</x:v>
-      </x:c>
-      <x:c r="B243" s="0" t="s">
-        <x:v>602</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D243" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E243" s="0" t="s">
         <x:v>25</x:v>
@@ -18874,7 +18871,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M243" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="N243" s="0" t="s">
         <x:v>29</x:v>
@@ -18895,21 +18892,21 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="T243" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="U243" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="V243" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
+        <x:v>602</x:v>
+      </x:c>
+      <x:c r="B244" s="0" t="s">
         <x:v>603</x:v>
-      </x:c>
-      <x:c r="B244" s="0" t="s">
-        <x:v>604</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>25</x:v>
@@ -18974,10 +18971,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="B245" s="0" t="s">
         <x:v>605</x:v>
-      </x:c>
-      <x:c r="B245" s="0" t="s">
-        <x:v>606</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>25</x:v>
@@ -19042,10 +19039,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
+        <x:v>606</x:v>
+      </x:c>
+      <x:c r="B246" s="0" t="s">
         <x:v>607</x:v>
-      </x:c>
-      <x:c r="B246" s="0" t="s">
-        <x:v>608</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>25</x:v>
@@ -19110,10 +19107,10 @@
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
+        <x:v>608</x:v>
+      </x:c>
+      <x:c r="B247" s="0" t="s">
         <x:v>609</x:v>
-      </x:c>
-      <x:c r="B247" s="0" t="s">
-        <x:v>610</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>25</x:v>
@@ -19178,10 +19175,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
+        <x:v>610</x:v>
+      </x:c>
+      <x:c r="B248" s="0" t="s">
         <x:v>611</x:v>
-      </x:c>
-      <x:c r="B248" s="0" t="s">
-        <x:v>612</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>25</x:v>
@@ -19246,10 +19243,10 @@
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
+        <x:v>612</x:v>
+      </x:c>
+      <x:c r="B249" s="0" t="s">
         <x:v>613</x:v>
-      </x:c>
-      <x:c r="B249" s="0" t="s">
-        <x:v>614</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>25</x:v>
@@ -19309,15 +19306,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V249" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
+        <x:v>614</x:v>
+      </x:c>
+      <x:c r="B250" s="0" t="s">
         <x:v>615</x:v>
-      </x:c>
-      <x:c r="B250" s="0" t="s">
-        <x:v>616</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19377,21 +19374,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V250" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>429</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="B251" s="0" t="s">
         <x:v>617</x:v>
       </x:c>
-      <x:c r="B251" s="0" t="s">
-        <x:v>618</x:v>
-      </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="D251" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E251" s="0" t="s">
         <x:v>25</x:v>
@@ -19409,7 +19406,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="J251" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K251" s="0" t="s">
         <x:v>32</x:v>
@@ -19421,7 +19418,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="N251" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="O251" s="0" t="s">
         <x:v>35</x:v>
@@ -19439,21 +19436,21 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="T251" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="U251" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="V251" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>618</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
+        <x:v>619</x:v>
+      </x:c>
+      <x:c r="B252" s="0" t="s">
         <x:v>620</x:v>
-      </x:c>
-      <x:c r="B252" s="0" t="s">
-        <x:v>621</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>25</x:v>
@@ -19518,10 +19515,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="B253" s="0" t="s">
         <x:v>622</x:v>
-      </x:c>
-      <x:c r="B253" s="0" t="s">
-        <x:v>623</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>25</x:v>
@@ -19586,10 +19583,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
+        <x:v>623</x:v>
+      </x:c>
+      <x:c r="B254" s="0" t="s">
         <x:v>624</x:v>
-      </x:c>
-      <x:c r="B254" s="0" t="s">
-        <x:v>625</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>25</x:v>
@@ -19654,11 +19651,11 @@
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
+        <x:v>625</x:v>
+      </x:c>
+      <x:c r="B255" s="0" t="s">
         <x:v>626</x:v>
       </x:c>
-      <x:c r="B255" s="0" t="s">
-        <x:v>627</x:v>
-      </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -19693,7 +19690,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N255" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O255" s="0" t="s">
         <x:v>25</x:v>
@@ -19722,10 +19719,10 @@
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
+        <x:v>627</x:v>
+      </x:c>
+      <x:c r="B256" s="0" t="s">
         <x:v>628</x:v>
-      </x:c>
-      <x:c r="B256" s="0" t="s">
-        <x:v>629</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>25</x:v>
@@ -19790,10 +19787,10 @@
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="B257" s="0" t="s">
         <x:v>630</x:v>
-      </x:c>
-      <x:c r="B257" s="0" t="s">
-        <x:v>631</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>25</x:v>
@@ -19853,15 +19850,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V257" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>452</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c r="B258" s="0" t="s">
         <x:v>632</x:v>
-      </x:c>
-      <x:c r="B258" s="0" t="s">
-        <x:v>633</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>25</x:v>
@@ -19926,10 +19923,10 @@
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
+        <x:v>633</x:v>
+      </x:c>
+      <x:c r="B259" s="0" t="s">
         <x:v>634</x:v>
-      </x:c>
-      <x:c r="B259" s="0" t="s">
-        <x:v>635</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>25</x:v>
@@ -19965,7 +19962,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N259" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="O259" s="0" t="s">
         <x:v>25</x:v>
@@ -19986,18 +19983,18 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U259" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="V259" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>635</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
+        <x:v>636</x:v>
+      </x:c>
+      <x:c r="B260" s="0" t="s">
         <x:v>637</x:v>
-      </x:c>
-      <x:c r="B260" s="0" t="s">
-        <x:v>638</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>25</x:v>
@@ -20062,10 +20059,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
+        <x:v>638</x:v>
+      </x:c>
+      <x:c r="B261" s="0" t="s">
         <x:v>639</x:v>
-      </x:c>
-      <x:c r="B261" s="0" t="s">
-        <x:v>640</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>25</x:v>
@@ -20130,10 +20127,10 @@
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
+        <x:v>640</x:v>
+      </x:c>
+      <x:c r="B262" s="0" t="s">
         <x:v>641</x:v>
-      </x:c>
-      <x:c r="B262" s="0" t="s">
-        <x:v>642</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>25</x:v>
@@ -20198,10 +20195,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
+        <x:v>642</x:v>
+      </x:c>
+      <x:c r="B263" s="0" t="s">
         <x:v>643</x:v>
-      </x:c>
-      <x:c r="B263" s="0" t="s">
-        <x:v>644</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20237,7 +20234,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N263" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="O263" s="0" t="s">
         <x:v>25</x:v>
@@ -20266,10 +20263,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
+        <x:v>644</x:v>
+      </x:c>
+      <x:c r="B264" s="0" t="s">
         <x:v>645</x:v>
-      </x:c>
-      <x:c r="B264" s="0" t="s">
-        <x:v>646</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20334,11 +20331,11 @@
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c r="B265" s="0" t="s">
         <x:v>647</x:v>
       </x:c>
-      <x:c r="B265" s="0" t="s">
-        <x:v>648</x:v>
-      </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -20352,7 +20349,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G265" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H265" s="0" t="s">
         <x:v>25</x:v>
@@ -20402,10 +20399,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c r="B266" s="0" t="s">
         <x:v>649</x:v>
-      </x:c>
-      <x:c r="B266" s="0" t="s">
-        <x:v>650</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>25</x:v>
@@ -20441,7 +20438,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N266" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="O266" s="0" t="s">
         <x:v>25</x:v>
@@ -20459,7 +20456,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T266" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="U266" s="0" t="s">
         <x:v>25</x:v>
@@ -20470,10 +20467,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c r="B267" s="0" t="s">
         <x:v>651</x:v>
-      </x:c>
-      <x:c r="B267" s="0" t="s">
-        <x:v>652</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20533,15 +20530,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V267" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c r="B268" s="0" t="s">
         <x:v>653</x:v>
-      </x:c>
-      <x:c r="B268" s="0" t="s">
-        <x:v>654</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>25</x:v>
@@ -20577,7 +20574,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N268" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="O268" s="0" t="s">
         <x:v>25</x:v>
@@ -20606,10 +20603,10 @@
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
+        <x:v>654</x:v>
+      </x:c>
+      <x:c r="B269" s="0" t="s">
         <x:v>655</x:v>
-      </x:c>
-      <x:c r="B269" s="0" t="s">
-        <x:v>656</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -20669,15 +20666,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V269" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
+        <x:v>656</x:v>
+      </x:c>
+      <x:c r="B270" s="0" t="s">
         <x:v>657</x:v>
-      </x:c>
-      <x:c r="B270" s="0" t="s">
-        <x:v>658</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -20737,15 +20734,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V270" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c r="B271" s="0" t="s">
         <x:v>659</x:v>
-      </x:c>
-      <x:c r="B271" s="0" t="s">
-        <x:v>660</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -20810,10 +20807,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
+        <x:v>660</x:v>
+      </x:c>
+      <x:c r="B272" s="0" t="s">
         <x:v>661</x:v>
-      </x:c>
-      <x:c r="B272" s="0" t="s">
-        <x:v>662</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -20878,10 +20875,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
+        <x:v>662</x:v>
+      </x:c>
+      <x:c r="B273" s="0" t="s">
         <x:v>663</x:v>
-      </x:c>
-      <x:c r="B273" s="0" t="s">
-        <x:v>664</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -271,7 +271,10 @@
     <x:t>Bemidji Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>76</x:t>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
   </x:si>
   <x:si>
     <x:t>MN0040200</x:t>
@@ -358,9 +361,6 @@
     <x:t>12</x:t>
   </x:si>
   <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
     <x:t>MN0100200</x:t>
   </x:si>
   <x:si>
@@ -424,7 +424,7 @@
     <x:t>49</x:t>
   </x:si>
   <x:si>
-    <x:t>159</x:t>
+    <x:t>160</x:t>
   </x:si>
   <x:si>
     <x:t>MN0140600</x:t>
@@ -586,7 +586,7 @@
     <x:t>Douglas County Sheriff</x:t>
   </x:si>
   <x:si>
-    <x:t>56</x:t>
+    <x:t>57</x:t>
   </x:si>
   <x:si>
     <x:t>MN0210100</x:t>
@@ -1195,9 +1195,6 @@
     <x:t>Austin Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
     <x:t>MN0510000</x:t>
   </x:si>
   <x:si>
@@ -1513,7 +1510,7 @@
     <x:t>Duluth Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>123</x:t>
+    <x:t>127</x:t>
   </x:si>
   <x:si>
     <x:t>MN0690700</x:t>
@@ -3698,7 +3695,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J20" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="K20" s="0" t="s">
         <x:v>25</x:v>
@@ -3734,15 +3731,15 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V20" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:22">
       <x:c r="A21" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>25</x:v>
@@ -3807,10 +3804,10 @@
     </x:row>
     <x:row r="22" spans="1:22">
       <x:c r="A22" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>25</x:v>
@@ -3875,10 +3872,10 @@
     </x:row>
     <x:row r="23" spans="1:22">
       <x:c r="A23" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>25</x:v>
@@ -3943,10 +3940,10 @@
     </x:row>
     <x:row r="24" spans="1:22">
       <x:c r="A24" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>25</x:v>
@@ -4006,21 +4003,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V24" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:22">
       <x:c r="A25" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>25</x:v>
@@ -4050,7 +4047,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O25" s="0" t="s">
         <x:v>25</x:v>
@@ -4074,15 +4071,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V25" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:22">
       <x:c r="A26" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>25</x:v>
@@ -4147,10 +4144,10 @@
     </x:row>
     <x:row r="27" spans="1:22">
       <x:c r="A27" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>25</x:v>
@@ -4165,7 +4162,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
         <x:v>25</x:v>
@@ -4210,15 +4207,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V27" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:22">
       <x:c r="A28" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>25</x:v>
@@ -4254,7 +4251,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N28" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="O28" s="0" t="s">
         <x:v>25</x:v>
@@ -4283,10 +4280,10 @@
     </x:row>
     <x:row r="29" spans="1:22">
       <x:c r="A29" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>25</x:v>
@@ -4346,15 +4343,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V29" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:22">
       <x:c r="A30" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>24</x:v>
@@ -4369,7 +4366,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
         <x:v>25</x:v>
@@ -4390,7 +4387,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="N30" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="O30" s="0" t="s">
         <x:v>24</x:v>
@@ -4544,13 +4541,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T32" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="U32" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="V32" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:22">
@@ -4804,7 +4801,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P36" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="Q36" s="0" t="s">
         <x:v>25</x:v>
@@ -4940,13 +4937,13 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="P38" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q38" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="R38" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="S38" s="0" t="s">
         <x:v>24</x:v>
@@ -5162,7 +5159,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V41" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:22">
@@ -5602,7 +5599,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J48" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="K48" s="0" t="s">
         <x:v>25</x:v>
@@ -5614,7 +5611,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N48" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="O48" s="0" t="s">
         <x:v>25</x:v>
@@ -5907,7 +5904,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U52" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="V52" s="0" t="s">
         <x:v>130</x:v>
@@ -6108,13 +6105,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T55" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="U55" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="V55" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:22">
@@ -6250,7 +6247,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V57" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:22">
@@ -6318,7 +6315,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V58" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:22">
@@ -6622,7 +6619,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J63" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K63" s="0" t="s">
         <x:v>25</x:v>
@@ -6634,13 +6631,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N63" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="O63" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="P63" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="Q63" s="0" t="s">
         <x:v>25</x:v>
@@ -6708,7 +6705,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="Q64" s="0" t="s">
         <x:v>25</x:v>
@@ -6992,13 +6989,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="U68" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V68" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:22">
@@ -7021,7 +7018,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H69" s="0" t="s">
         <x:v>25</x:v>
@@ -7042,7 +7039,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N69" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="O69" s="0" t="s">
         <x:v>25</x:v>
@@ -7234,7 +7231,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J72" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K72" s="0" t="s">
         <x:v>25</x:v>
@@ -7246,7 +7243,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N72" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="O72" s="0" t="s">
         <x:v>25</x:v>
@@ -7270,7 +7267,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V72" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:22">
@@ -7417,7 +7414,7 @@
         <x:v>218</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
         <x:v>134</x:v>
@@ -7556,7 +7553,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
         <x:v>25</x:v>
@@ -7769,7 +7766,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H80" s="0" t="s">
         <x:v>25</x:v>
@@ -7808,7 +7805,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T80" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="U80" s="0" t="s">
         <x:v>24</x:v>
@@ -8018,7 +8015,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V83" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -8340,7 +8337,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="P88" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="Q88" s="0" t="s">
         <x:v>24</x:v>
@@ -8372,7 +8369,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
         <x:v>25</x:v>
@@ -8420,7 +8417,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T89" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="U89" s="0" t="s">
         <x:v>130</x:v>
@@ -8789,7 +8786,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H95" s="0" t="s">
         <x:v>25</x:v>
@@ -8857,7 +8854,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G96" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H96" s="0" t="s">
         <x:v>25</x:v>
@@ -9389,7 +9386,7 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
         <x:v>45</x:v>
@@ -9564,7 +9561,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P106" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="Q106" s="0" t="s">
         <x:v>25</x:v>
@@ -11146,7 +11143,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V129" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
@@ -11190,7 +11187,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N130" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="O130" s="0" t="s">
         <x:v>25</x:v>
@@ -11350,7 +11347,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V132" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:22">
@@ -11394,7 +11391,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N133" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="O133" s="0" t="s">
         <x:v>25</x:v>
@@ -12370,7 +12367,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V147" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:22">
@@ -12506,15 +12503,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V149" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
         <x:v>394</x:v>
-      </x:c>
-      <x:c r="B150" s="0" t="s">
-        <x:v>395</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>25</x:v>
@@ -12579,10 +12576,10 @@
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
         <x:v>396</x:v>
-      </x:c>
-      <x:c r="B151" s="0" t="s">
-        <x:v>397</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -12647,10 +12644,10 @@
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
         <x:v>398</x:v>
-      </x:c>
-      <x:c r="B152" s="0" t="s">
-        <x:v>399</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -12715,10 +12712,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
         <x:v>400</x:v>
-      </x:c>
-      <x:c r="B153" s="0" t="s">
-        <x:v>401</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>24</x:v>
@@ -12783,10 +12780,10 @@
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
         <x:v>402</x:v>
-      </x:c>
-      <x:c r="B154" s="0" t="s">
-        <x:v>403</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>25</x:v>
@@ -12851,10 +12848,10 @@
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
         <x:v>404</x:v>
-      </x:c>
-      <x:c r="B155" s="0" t="s">
-        <x:v>405</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>40</x:v>
@@ -12919,10 +12916,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
         <x:v>406</x:v>
-      </x:c>
-      <x:c r="B156" s="0" t="s">
-        <x:v>407</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -12987,10 +12984,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
         <x:v>408</x:v>
-      </x:c>
-      <x:c r="B157" s="0" t="s">
-        <x:v>409</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>32</x:v>
@@ -13005,7 +13002,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G157" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H157" s="0" t="s">
         <x:v>25</x:v>
@@ -13014,7 +13011,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J157" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="K157" s="0" t="s">
         <x:v>25</x:v>
@@ -13050,15 +13047,15 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="V157" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>409</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
         <x:v>411</x:v>
-      </x:c>
-      <x:c r="B158" s="0" t="s">
-        <x:v>412</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>73</x:v>
@@ -13073,16 +13070,16 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G158" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="H158" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I158" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J158" s="0" t="s">
         <x:v>413</x:v>
-      </x:c>
-      <x:c r="H158" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I158" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="J158" s="0" t="s">
-        <x:v>414</x:v>
       </x:c>
       <x:c r="K158" s="0" t="s">
         <x:v>25</x:v>
@@ -13094,13 +13091,13 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="N158" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="O158" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="P158" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="Q158" s="0" t="s">
         <x:v>73</x:v>
@@ -13118,15 +13115,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V158" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>415</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
         <x:v>417</x:v>
-      </x:c>
-      <x:c r="B159" s="0" t="s">
-        <x:v>418</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>25</x:v>
@@ -13162,7 +13159,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N159" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="O159" s="0" t="s">
         <x:v>25</x:v>
@@ -13191,10 +13188,10 @@
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
         <x:v>419</x:v>
-      </x:c>
-      <x:c r="B160" s="0" t="s">
-        <x:v>420</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>25</x:v>
@@ -13259,10 +13256,10 @@
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
         <x:v>421</x:v>
-      </x:c>
-      <x:c r="B161" s="0" t="s">
-        <x:v>422</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>25</x:v>
@@ -13327,10 +13324,10 @@
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
         <x:v>423</x:v>
-      </x:c>
-      <x:c r="B162" s="0" t="s">
-        <x:v>424</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>25</x:v>
@@ -13395,10 +13392,10 @@
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
         <x:v>425</x:v>
-      </x:c>
-      <x:c r="B163" s="0" t="s">
-        <x:v>426</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>25</x:v>
@@ -13463,10 +13460,10 @@
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
         <x:v>427</x:v>
-      </x:c>
-      <x:c r="B164" s="0" t="s">
-        <x:v>428</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>25</x:v>
@@ -13526,15 +13523,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V164" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>428</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
         <x:v>430</x:v>
-      </x:c>
-      <x:c r="B165" s="0" t="s">
-        <x:v>431</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>25</x:v>
@@ -13570,7 +13567,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N165" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="O165" s="0" t="s">
         <x:v>25</x:v>
@@ -13594,15 +13591,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V165" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
         <x:v>432</x:v>
-      </x:c>
-      <x:c r="B166" s="0" t="s">
-        <x:v>433</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>25</x:v>
@@ -13667,10 +13664,10 @@
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
         <x:v>434</x:v>
-      </x:c>
-      <x:c r="B167" s="0" t="s">
-        <x:v>435</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>25</x:v>
@@ -13735,10 +13732,10 @@
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
         <x:v>436</x:v>
-      </x:c>
-      <x:c r="B168" s="0" t="s">
-        <x:v>437</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>25</x:v>
@@ -13798,15 +13795,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V168" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>437</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
         <x:v>439</x:v>
-      </x:c>
-      <x:c r="B169" s="0" t="s">
-        <x:v>440</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>25</x:v>
@@ -13871,10 +13868,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c r="B170" s="0" t="s">
         <x:v>441</x:v>
-      </x:c>
-      <x:c r="B170" s="0" t="s">
-        <x:v>442</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>25</x:v>
@@ -13939,10 +13936,10 @@
     </x:row>
     <x:row r="171" spans="1:22">
       <x:c r="A171" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="B171" s="0" t="s">
         <x:v>443</x:v>
-      </x:c>
-      <x:c r="B171" s="0" t="s">
-        <x:v>444</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>25</x:v>
@@ -14007,10 +14004,10 @@
     </x:row>
     <x:row r="172" spans="1:22">
       <x:c r="A172" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="B172" s="0" t="s">
         <x:v>445</x:v>
-      </x:c>
-      <x:c r="B172" s="0" t="s">
-        <x:v>446</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>25</x:v>
@@ -14075,10 +14072,10 @@
     </x:row>
     <x:row r="173" spans="1:22">
       <x:c r="A173" s="0" t="s">
+        <x:v>446</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
         <x:v>447</x:v>
-      </x:c>
-      <x:c r="B173" s="0" t="s">
-        <x:v>448</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>24</x:v>
@@ -14138,15 +14135,15 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="V173" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>448</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:22">
       <x:c r="A174" s="0" t="s">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
         <x:v>450</x:v>
-      </x:c>
-      <x:c r="B174" s="0" t="s">
-        <x:v>451</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>35</x:v>
@@ -14206,15 +14203,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V174" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:22">
       <x:c r="A175" s="0" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="s">
         <x:v>453</x:v>
-      </x:c>
-      <x:c r="B175" s="0" t="s">
-        <x:v>454</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
         <x:v>32</x:v>
@@ -14279,10 +14276,10 @@
     </x:row>
     <x:row r="176" spans="1:22">
       <x:c r="A176" s="0" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="B176" s="0" t="s">
         <x:v>455</x:v>
-      </x:c>
-      <x:c r="B176" s="0" t="s">
-        <x:v>456</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>32</x:v>
@@ -14347,10 +14344,10 @@
     </x:row>
     <x:row r="177" spans="1:22">
       <x:c r="A177" s="0" t="s">
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="B177" s="0" t="s">
         <x:v>457</x:v>
-      </x:c>
-      <x:c r="B177" s="0" t="s">
-        <x:v>458</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>24</x:v>
@@ -14415,10 +14412,10 @@
     </x:row>
     <x:row r="178" spans="1:22">
       <x:c r="A178" s="0" t="s">
+        <x:v>458</x:v>
+      </x:c>
+      <x:c r="B178" s="0" t="s">
         <x:v>459</x:v>
-      </x:c>
-      <x:c r="B178" s="0" t="s">
-        <x:v>460</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>40</x:v>
@@ -14478,21 +14475,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V178" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:22">
       <x:c r="A179" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="B179" s="0" t="s">
         <x:v>462</x:v>
       </x:c>
-      <x:c r="B179" s="0" t="s">
+      <x:c r="C179" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D179" s="0" t="s">
         <x:v>463</x:v>
-      </x:c>
-      <x:c r="C179" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D179" s="0" t="s">
-        <x:v>464</x:v>
       </x:c>
       <x:c r="E179" s="0" t="s">
         <x:v>25</x:v>
@@ -14510,7 +14507,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J179" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="K179" s="0" t="s">
         <x:v>25</x:v>
@@ -14528,7 +14525,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P179" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="Q179" s="0" t="s">
         <x:v>28</x:v>
@@ -14543,18 +14540,18 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="U179" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="V179" s="0" t="s">
         <x:v>466</x:v>
-      </x:c>
-      <x:c r="V179" s="0" t="s">
-        <x:v>467</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
       <x:c r="A180" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="B180" s="0" t="s">
         <x:v>468</x:v>
-      </x:c>
-      <x:c r="B180" s="0" t="s">
-        <x:v>469</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>25</x:v>
@@ -14619,10 +14616,10 @@
     </x:row>
     <x:row r="181" spans="1:22">
       <x:c r="A181" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="B181" s="0" t="s">
         <x:v>470</x:v>
-      </x:c>
-      <x:c r="B181" s="0" t="s">
-        <x:v>471</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>25</x:v>
@@ -14687,10 +14684,10 @@
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
+        <x:v>471</x:v>
+      </x:c>
+      <x:c r="B182" s="0" t="s">
         <x:v>472</x:v>
-      </x:c>
-      <x:c r="B182" s="0" t="s">
-        <x:v>473</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -14755,11 +14752,11 @@
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
         <x:v>474</x:v>
       </x:c>
-      <x:c r="B183" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -14773,7 +14770,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G183" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H183" s="0" t="s">
         <x:v>25</x:v>
@@ -14823,10 +14820,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
+        <x:v>475</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
         <x:v>476</x:v>
-      </x:c>
-      <x:c r="B184" s="0" t="s">
-        <x:v>477</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>32</x:v>
@@ -14886,15 +14883,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V184" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
         <x:v>478</x:v>
-      </x:c>
-      <x:c r="B185" s="0" t="s">
-        <x:v>479</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -14959,10 +14956,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
+        <x:v>479</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
         <x:v>480</x:v>
-      </x:c>
-      <x:c r="B186" s="0" t="s">
-        <x:v>481</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>25</x:v>
@@ -15027,10 +15024,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
         <x:v>482</x:v>
-      </x:c>
-      <x:c r="B187" s="0" t="s">
-        <x:v>483</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>25</x:v>
@@ -15095,10 +15092,10 @@
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
         <x:v>484</x:v>
-      </x:c>
-      <x:c r="B188" s="0" t="s">
-        <x:v>485</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>25</x:v>
@@ -15163,10 +15160,10 @@
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
         <x:v>486</x:v>
-      </x:c>
-      <x:c r="B189" s="0" t="s">
-        <x:v>487</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>25</x:v>
@@ -15231,10 +15228,10 @@
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
         <x:v>488</x:v>
-      </x:c>
-      <x:c r="B190" s="0" t="s">
-        <x:v>489</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15299,10 +15296,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
         <x:v>490</x:v>
-      </x:c>
-      <x:c r="B191" s="0" t="s">
-        <x:v>491</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>25</x:v>
@@ -15362,15 +15359,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V191" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>491</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="s">
         <x:v>493</x:v>
-      </x:c>
-      <x:c r="B192" s="0" t="s">
-        <x:v>494</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>25</x:v>
@@ -15435,10 +15432,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
         <x:v>495</x:v>
-      </x:c>
-      <x:c r="B193" s="0" t="s">
-        <x:v>496</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>25</x:v>
@@ -15503,16 +15500,16 @@
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="B194" s="0" t="s">
         <x:v>497</x:v>
       </x:c>
-      <x:c r="B194" s="0" t="s">
-        <x:v>498</x:v>
-      </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="D194" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E194" s="0" t="s">
         <x:v>25</x:v>
@@ -15530,7 +15527,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J194" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="K194" s="0" t="s">
         <x:v>25</x:v>
@@ -15542,7 +15539,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N194" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="O194" s="0" t="s">
         <x:v>25</x:v>
@@ -15566,15 +15563,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V194" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>498</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
+        <x:v>499</x:v>
+      </x:c>
+      <x:c r="B195" s="0" t="s">
         <x:v>500</x:v>
-      </x:c>
-      <x:c r="B195" s="0" t="s">
-        <x:v>501</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>25</x:v>
@@ -15639,10 +15636,10 @@
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
+        <x:v>501</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="s">
         <x:v>502</x:v>
-      </x:c>
-      <x:c r="B196" s="0" t="s">
-        <x:v>503</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -15707,10 +15704,10 @@
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
+        <x:v>503</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
         <x:v>504</x:v>
-      </x:c>
-      <x:c r="B197" s="0" t="s">
-        <x:v>505</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>25</x:v>
@@ -15775,10 +15772,10 @@
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
+        <x:v>505</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="s">
         <x:v>506</x:v>
-      </x:c>
-      <x:c r="B198" s="0" t="s">
-        <x:v>507</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -15843,10 +15840,10 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
         <x:v>508</x:v>
-      </x:c>
-      <x:c r="B199" s="0" t="s">
-        <x:v>509</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>25</x:v>
@@ -15906,15 +15903,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V199" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:22">
       <x:c r="A200" s="0" t="s">
+        <x:v>509</x:v>
+      </x:c>
+      <x:c r="B200" s="0" t="s">
         <x:v>510</x:v>
-      </x:c>
-      <x:c r="B200" s="0" t="s">
-        <x:v>511</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>25</x:v>
@@ -15979,10 +15976,10 @@
     </x:row>
     <x:row r="201" spans="1:22">
       <x:c r="A201" s="0" t="s">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="s">
         <x:v>512</x:v>
-      </x:c>
-      <x:c r="B201" s="0" t="s">
-        <x:v>513</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>25</x:v>
@@ -16047,10 +16044,10 @@
     </x:row>
     <x:row r="202" spans="1:22">
       <x:c r="A202" s="0" t="s">
+        <x:v>513</x:v>
+      </x:c>
+      <x:c r="B202" s="0" t="s">
         <x:v>514</x:v>
-      </x:c>
-      <x:c r="B202" s="0" t="s">
-        <x:v>515</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>25</x:v>
@@ -16115,10 +16112,10 @@
     </x:row>
     <x:row r="203" spans="1:22">
       <x:c r="A203" s="0" t="s">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
         <x:v>516</x:v>
-      </x:c>
-      <x:c r="B203" s="0" t="s">
-        <x:v>517</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>25</x:v>
@@ -16183,10 +16180,10 @@
     </x:row>
     <x:row r="204" spans="1:22">
       <x:c r="A204" s="0" t="s">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="B204" s="0" t="s">
         <x:v>518</x:v>
-      </x:c>
-      <x:c r="B204" s="0" t="s">
-        <x:v>519</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>25</x:v>
@@ -16251,10 +16248,10 @@
     </x:row>
     <x:row r="205" spans="1:22">
       <x:c r="A205" s="0" t="s">
+        <x:v>519</x:v>
+      </x:c>
+      <x:c r="B205" s="0" t="s">
         <x:v>520</x:v>
-      </x:c>
-      <x:c r="B205" s="0" t="s">
-        <x:v>521</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>24</x:v>
@@ -16278,7 +16275,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="J205" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="K205" s="0" t="s">
         <x:v>25</x:v>
@@ -16305,24 +16302,24 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="S205" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="T205" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="U205" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="V205" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>521</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:22">
       <x:c r="A206" s="0" t="s">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c r="B206" s="0" t="s">
         <x:v>523</x:v>
-      </x:c>
-      <x:c r="B206" s="0" t="s">
-        <x:v>524</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>32</x:v>
@@ -16387,10 +16384,10 @@
     </x:row>
     <x:row r="207" spans="1:22">
       <x:c r="A207" s="0" t="s">
+        <x:v>524</x:v>
+      </x:c>
+      <x:c r="B207" s="0" t="s">
         <x:v>525</x:v>
-      </x:c>
-      <x:c r="B207" s="0" t="s">
-        <x:v>526</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>24</x:v>
@@ -16450,15 +16447,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V207" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>412</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:22">
       <x:c r="A208" s="0" t="s">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="B208" s="0" t="s">
         <x:v>527</x:v>
-      </x:c>
-      <x:c r="B208" s="0" t="s">
-        <x:v>528</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>24</x:v>
@@ -16518,15 +16515,15 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="V208" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>528</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:22">
       <x:c r="A209" s="0" t="s">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="B209" s="0" t="s">
         <x:v>530</x:v>
-      </x:c>
-      <x:c r="B209" s="0" t="s">
-        <x:v>531</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>25</x:v>
@@ -16591,10 +16588,10 @@
     </x:row>
     <x:row r="210" spans="1:22">
       <x:c r="A210" s="0" t="s">
+        <x:v>531</x:v>
+      </x:c>
+      <x:c r="B210" s="0" t="s">
         <x:v>532</x:v>
-      </x:c>
-      <x:c r="B210" s="0" t="s">
-        <x:v>533</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>25</x:v>
@@ -16659,10 +16656,10 @@
     </x:row>
     <x:row r="211" spans="1:22">
       <x:c r="A211" s="0" t="s">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="B211" s="0" t="s">
         <x:v>534</x:v>
-      </x:c>
-      <x:c r="B211" s="0" t="s">
-        <x:v>535</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>25</x:v>
@@ -16727,10 +16724,10 @@
     </x:row>
     <x:row r="212" spans="1:22">
       <x:c r="A212" s="0" t="s">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c r="B212" s="0" t="s">
         <x:v>536</x:v>
-      </x:c>
-      <x:c r="B212" s="0" t="s">
-        <x:v>537</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>25</x:v>
@@ -16795,10 +16792,10 @@
     </x:row>
     <x:row r="213" spans="1:22">
       <x:c r="A213" s="0" t="s">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c r="B213" s="0" t="s">
         <x:v>538</x:v>
-      </x:c>
-      <x:c r="B213" s="0" t="s">
-        <x:v>539</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>25</x:v>
@@ -16863,10 +16860,10 @@
     </x:row>
     <x:row r="214" spans="1:22">
       <x:c r="A214" s="0" t="s">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c r="B214" s="0" t="s">
         <x:v>540</x:v>
-      </x:c>
-      <x:c r="B214" s="0" t="s">
-        <x:v>541</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>25</x:v>
@@ -16931,10 +16928,10 @@
     </x:row>
     <x:row r="215" spans="1:22">
       <x:c r="A215" s="0" t="s">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="B215" s="0" t="s">
         <x:v>542</x:v>
-      </x:c>
-      <x:c r="B215" s="0" t="s">
-        <x:v>543</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>25</x:v>
@@ -16970,7 +16967,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N215" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="O215" s="0" t="s">
         <x:v>24</x:v>
@@ -16999,10 +16996,10 @@
     </x:row>
     <x:row r="216" spans="1:22">
       <x:c r="A216" s="0" t="s">
+        <x:v>543</x:v>
+      </x:c>
+      <x:c r="B216" s="0" t="s">
         <x:v>544</x:v>
-      </x:c>
-      <x:c r="B216" s="0" t="s">
-        <x:v>545</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>25</x:v>
@@ -17067,10 +17064,10 @@
     </x:row>
     <x:row r="217" spans="1:22">
       <x:c r="A217" s="0" t="s">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c r="B217" s="0" t="s">
         <x:v>546</x:v>
-      </x:c>
-      <x:c r="B217" s="0" t="s">
-        <x:v>547</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>25</x:v>
@@ -17135,16 +17132,16 @@
     </x:row>
     <x:row r="218" spans="1:22">
       <x:c r="A218" s="0" t="s">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c r="B218" s="0" t="s">
         <x:v>548</x:v>
-      </x:c>
-      <x:c r="B218" s="0" t="s">
-        <x:v>549</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="D218" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E218" s="0" t="s">
         <x:v>25</x:v>
@@ -17174,13 +17171,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N218" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O218" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="P218" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="Q218" s="0" t="s">
         <x:v>24</x:v>
@@ -17195,18 +17192,18 @@
         <x:v>206</x:v>
       </x:c>
       <x:c r="U218" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="V218" s="0" t="s">
-        <x:v>551</x:v>
+        <x:v>550</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c r="B219" s="0" t="s">
         <x:v>552</x:v>
-      </x:c>
-      <x:c r="B219" s="0" t="s">
-        <x:v>553</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17271,10 +17268,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="B220" s="0" t="s">
         <x:v>554</x:v>
-      </x:c>
-      <x:c r="B220" s="0" t="s">
-        <x:v>555</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17339,10 +17336,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="B221" s="0" t="s">
         <x:v>556</x:v>
-      </x:c>
-      <x:c r="B221" s="0" t="s">
-        <x:v>557</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>25</x:v>
@@ -17407,10 +17404,10 @@
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
+        <x:v>557</x:v>
+      </x:c>
+      <x:c r="B222" s="0" t="s">
         <x:v>558</x:v>
-      </x:c>
-      <x:c r="B222" s="0" t="s">
-        <x:v>559</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17475,10 +17472,10 @@
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
+        <x:v>559</x:v>
+      </x:c>
+      <x:c r="B223" s="0" t="s">
         <x:v>560</x:v>
-      </x:c>
-      <x:c r="B223" s="0" t="s">
-        <x:v>561</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>25</x:v>
@@ -17543,10 +17540,10 @@
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
+        <x:v>561</x:v>
+      </x:c>
+      <x:c r="B224" s="0" t="s">
         <x:v>562</x:v>
-      </x:c>
-      <x:c r="B224" s="0" t="s">
-        <x:v>563</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -17606,15 +17603,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V224" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
+        <x:v>563</x:v>
+      </x:c>
+      <x:c r="B225" s="0" t="s">
         <x:v>564</x:v>
-      </x:c>
-      <x:c r="B225" s="0" t="s">
-        <x:v>565</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -17674,15 +17671,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V225" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
+        <x:v>565</x:v>
+      </x:c>
+      <x:c r="B226" s="0" t="s">
         <x:v>566</x:v>
-      </x:c>
-      <x:c r="B226" s="0" t="s">
-        <x:v>567</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -17747,10 +17744,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
         <x:v>568</x:v>
-      </x:c>
-      <x:c r="B227" s="0" t="s">
-        <x:v>569</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -17815,10 +17812,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
+        <x:v>569</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
         <x:v>570</x:v>
-      </x:c>
-      <x:c r="B228" s="0" t="s">
-        <x:v>571</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>25</x:v>
@@ -17883,10 +17880,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
+        <x:v>571</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="s">
         <x:v>572</x:v>
-      </x:c>
-      <x:c r="B229" s="0" t="s">
-        <x:v>573</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -17951,10 +17948,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
+        <x:v>573</x:v>
+      </x:c>
+      <x:c r="B230" s="0" t="s">
         <x:v>574</x:v>
-      </x:c>
-      <x:c r="B230" s="0" t="s">
-        <x:v>575</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18019,10 +18016,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
+        <x:v>575</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="s">
         <x:v>576</x:v>
-      </x:c>
-      <x:c r="B231" s="0" t="s">
-        <x:v>577</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18087,10 +18084,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c r="B232" s="0" t="s">
         <x:v>578</x:v>
-      </x:c>
-      <x:c r="B232" s="0" t="s">
-        <x:v>579</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18155,10 +18152,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="B233" s="0" t="s">
         <x:v>580</x:v>
-      </x:c>
-      <x:c r="B233" s="0" t="s">
-        <x:v>581</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18223,10 +18220,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
+        <x:v>581</x:v>
+      </x:c>
+      <x:c r="B234" s="0" t="s">
         <x:v>582</x:v>
-      </x:c>
-      <x:c r="B234" s="0" t="s">
-        <x:v>583</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18291,10 +18288,10 @@
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
+        <x:v>583</x:v>
+      </x:c>
+      <x:c r="B235" s="0" t="s">
         <x:v>584</x:v>
-      </x:c>
-      <x:c r="B235" s="0" t="s">
-        <x:v>585</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>25</x:v>
@@ -18359,10 +18356,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
+        <x:v>585</x:v>
+      </x:c>
+      <x:c r="B236" s="0" t="s">
         <x:v>586</x:v>
-      </x:c>
-      <x:c r="B236" s="0" t="s">
-        <x:v>587</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>25</x:v>
@@ -18427,16 +18424,16 @@
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
+        <x:v>587</x:v>
+      </x:c>
+      <x:c r="B237" s="0" t="s">
         <x:v>588</x:v>
       </x:c>
-      <x:c r="B237" s="0" t="s">
-        <x:v>589</x:v>
-      </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="D237" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E237" s="0" t="s">
         <x:v>25</x:v>
@@ -18466,13 +18463,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N237" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="O237" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="P237" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="Q237" s="0" t="s">
         <x:v>25</x:v>
@@ -18490,15 +18487,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V237" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
+        <x:v>589</x:v>
+      </x:c>
+      <x:c r="B238" s="0" t="s">
         <x:v>590</x:v>
-      </x:c>
-      <x:c r="B238" s="0" t="s">
-        <x:v>591</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>25</x:v>
@@ -18558,15 +18555,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V238" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
+        <x:v>591</x:v>
+      </x:c>
+      <x:c r="B239" s="0" t="s">
         <x:v>592</x:v>
-      </x:c>
-      <x:c r="B239" s="0" t="s">
-        <x:v>593</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>25</x:v>
@@ -18631,10 +18628,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
+        <x:v>593</x:v>
+      </x:c>
+      <x:c r="B240" s="0" t="s">
         <x:v>594</x:v>
-      </x:c>
-      <x:c r="B240" s="0" t="s">
-        <x:v>595</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>24</x:v>
@@ -18699,10 +18696,10 @@
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
+        <x:v>595</x:v>
+      </x:c>
+      <x:c r="B241" s="0" t="s">
         <x:v>596</x:v>
-      </x:c>
-      <x:c r="B241" s="0" t="s">
-        <x:v>597</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>25</x:v>
@@ -18767,10 +18764,10 @@
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="B242" s="0" t="s">
         <x:v>598</x:v>
-      </x:c>
-      <x:c r="B242" s="0" t="s">
-        <x:v>599</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>24</x:v>
@@ -18806,7 +18803,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N242" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="O242" s="0" t="s">
         <x:v>25</x:v>
@@ -18835,10 +18832,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="B243" s="0" t="s">
         <x:v>600</x:v>
-      </x:c>
-      <x:c r="B243" s="0" t="s">
-        <x:v>601</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>28</x:v>
@@ -18892,7 +18889,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="T243" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="U243" s="0" t="s">
         <x:v>24</x:v>
@@ -18903,10 +18900,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
+        <x:v>601</x:v>
+      </x:c>
+      <x:c r="B244" s="0" t="s">
         <x:v>602</x:v>
-      </x:c>
-      <x:c r="B244" s="0" t="s">
-        <x:v>603</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>25</x:v>
@@ -18971,10 +18968,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
+        <x:v>603</x:v>
+      </x:c>
+      <x:c r="B245" s="0" t="s">
         <x:v>604</x:v>
-      </x:c>
-      <x:c r="B245" s="0" t="s">
-        <x:v>605</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>25</x:v>
@@ -19039,10 +19036,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
+        <x:v>605</x:v>
+      </x:c>
+      <x:c r="B246" s="0" t="s">
         <x:v>606</x:v>
-      </x:c>
-      <x:c r="B246" s="0" t="s">
-        <x:v>607</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>25</x:v>
@@ -19107,10 +19104,10 @@
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
+        <x:v>607</x:v>
+      </x:c>
+      <x:c r="B247" s="0" t="s">
         <x:v>608</x:v>
-      </x:c>
-      <x:c r="B247" s="0" t="s">
-        <x:v>609</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>25</x:v>
@@ -19175,10 +19172,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
+        <x:v>609</x:v>
+      </x:c>
+      <x:c r="B248" s="0" t="s">
         <x:v>610</x:v>
-      </x:c>
-      <x:c r="B248" s="0" t="s">
-        <x:v>611</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>25</x:v>
@@ -19243,10 +19240,10 @@
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c r="B249" s="0" t="s">
         <x:v>612</x:v>
-      </x:c>
-      <x:c r="B249" s="0" t="s">
-        <x:v>613</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>25</x:v>
@@ -19311,10 +19308,10 @@
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
+        <x:v>613</x:v>
+      </x:c>
+      <x:c r="B250" s="0" t="s">
         <x:v>614</x:v>
-      </x:c>
-      <x:c r="B250" s="0" t="s">
-        <x:v>615</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19374,21 +19371,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V250" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>428</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="B251" s="0" t="s">
         <x:v>616</x:v>
       </x:c>
-      <x:c r="B251" s="0" t="s">
-        <x:v>617</x:v>
-      </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="D251" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E251" s="0" t="s">
         <x:v>25</x:v>
@@ -19418,7 +19415,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="N251" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="O251" s="0" t="s">
         <x:v>35</x:v>
@@ -19436,21 +19433,21 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="T251" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="U251" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="V251" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>617</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="B252" s="0" t="s">
         <x:v>619</x:v>
-      </x:c>
-      <x:c r="B252" s="0" t="s">
-        <x:v>620</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>25</x:v>
@@ -19515,10 +19512,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
+        <x:v>620</x:v>
+      </x:c>
+      <x:c r="B253" s="0" t="s">
         <x:v>621</x:v>
-      </x:c>
-      <x:c r="B253" s="0" t="s">
-        <x:v>622</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>25</x:v>
@@ -19583,10 +19580,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
+        <x:v>622</x:v>
+      </x:c>
+      <x:c r="B254" s="0" t="s">
         <x:v>623</x:v>
-      </x:c>
-      <x:c r="B254" s="0" t="s">
-        <x:v>624</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>25</x:v>
@@ -19651,10 +19648,10 @@
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="B255" s="0" t="s">
         <x:v>625</x:v>
-      </x:c>
-      <x:c r="B255" s="0" t="s">
-        <x:v>626</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>25</x:v>
@@ -19719,10 +19716,10 @@
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
+        <x:v>626</x:v>
+      </x:c>
+      <x:c r="B256" s="0" t="s">
         <x:v>627</x:v>
-      </x:c>
-      <x:c r="B256" s="0" t="s">
-        <x:v>628</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>25</x:v>
@@ -19787,10 +19784,10 @@
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c r="B257" s="0" t="s">
         <x:v>629</x:v>
-      </x:c>
-      <x:c r="B257" s="0" t="s">
-        <x:v>630</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>25</x:v>
@@ -19850,15 +19847,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V257" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
+        <x:v>630</x:v>
+      </x:c>
+      <x:c r="B258" s="0" t="s">
         <x:v>631</x:v>
-      </x:c>
-      <x:c r="B258" s="0" t="s">
-        <x:v>632</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>25</x:v>
@@ -19923,10 +19920,10 @@
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
+        <x:v>632</x:v>
+      </x:c>
+      <x:c r="B259" s="0" t="s">
         <x:v>633</x:v>
-      </x:c>
-      <x:c r="B259" s="0" t="s">
-        <x:v>634</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>25</x:v>
@@ -19986,15 +19983,15 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="V259" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>634</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
+        <x:v>635</x:v>
+      </x:c>
+      <x:c r="B260" s="0" t="s">
         <x:v>636</x:v>
-      </x:c>
-      <x:c r="B260" s="0" t="s">
-        <x:v>637</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>25</x:v>
@@ -20059,10 +20056,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="B261" s="0" t="s">
         <x:v>638</x:v>
-      </x:c>
-      <x:c r="B261" s="0" t="s">
-        <x:v>639</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>25</x:v>
@@ -20127,10 +20124,10 @@
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
+        <x:v>639</x:v>
+      </x:c>
+      <x:c r="B262" s="0" t="s">
         <x:v>640</x:v>
-      </x:c>
-      <x:c r="B262" s="0" t="s">
-        <x:v>641</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>25</x:v>
@@ -20195,10 +20192,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
+        <x:v>641</x:v>
+      </x:c>
+      <x:c r="B263" s="0" t="s">
         <x:v>642</x:v>
-      </x:c>
-      <x:c r="B263" s="0" t="s">
-        <x:v>643</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20234,7 +20231,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N263" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="O263" s="0" t="s">
         <x:v>25</x:v>
@@ -20263,10 +20260,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
+        <x:v>643</x:v>
+      </x:c>
+      <x:c r="B264" s="0" t="s">
         <x:v>644</x:v>
-      </x:c>
-      <x:c r="B264" s="0" t="s">
-        <x:v>645</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20331,10 +20328,10 @@
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c r="B265" s="0" t="s">
         <x:v>646</x:v>
-      </x:c>
-      <x:c r="B265" s="0" t="s">
-        <x:v>647</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20399,10 +20396,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
+        <x:v>647</x:v>
+      </x:c>
+      <x:c r="B266" s="0" t="s">
         <x:v>648</x:v>
-      </x:c>
-      <x:c r="B266" s="0" t="s">
-        <x:v>649</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>25</x:v>
@@ -20438,7 +20435,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N266" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="O266" s="0" t="s">
         <x:v>25</x:v>
@@ -20462,15 +20459,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V266" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>463</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
+        <x:v>649</x:v>
+      </x:c>
+      <x:c r="B267" s="0" t="s">
         <x:v>650</x:v>
-      </x:c>
-      <x:c r="B267" s="0" t="s">
-        <x:v>651</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20530,15 +20527,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V267" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
+        <x:v>651</x:v>
+      </x:c>
+      <x:c r="B268" s="0" t="s">
         <x:v>652</x:v>
-      </x:c>
-      <x:c r="B268" s="0" t="s">
-        <x:v>653</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>25</x:v>
@@ -20603,10 +20600,10 @@
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="B269" s="0" t="s">
         <x:v>654</x:v>
-      </x:c>
-      <x:c r="B269" s="0" t="s">
-        <x:v>655</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -20671,10 +20668,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
+        <x:v>655</x:v>
+      </x:c>
+      <x:c r="B270" s="0" t="s">
         <x:v>656</x:v>
-      </x:c>
-      <x:c r="B270" s="0" t="s">
-        <x:v>657</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -20734,15 +20731,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V270" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
+        <x:v>657</x:v>
+      </x:c>
+      <x:c r="B271" s="0" t="s">
         <x:v>658</x:v>
-      </x:c>
-      <x:c r="B271" s="0" t="s">
-        <x:v>659</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -20807,10 +20804,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
+        <x:v>659</x:v>
+      </x:c>
+      <x:c r="B272" s="0" t="s">
         <x:v>660</x:v>
-      </x:c>
-      <x:c r="B272" s="0" t="s">
-        <x:v>661</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -20875,10 +20872,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
+        <x:v>661</x:v>
+      </x:c>
+      <x:c r="B273" s="0" t="s">
         <x:v>662</x:v>
-      </x:c>
-      <x:c r="B273" s="0" t="s">
-        <x:v>663</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -235,45 +235,48 @@
     <x:t>Becker County Sheriff</x:t>
   </x:si>
   <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Detroit Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audubon Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Callaway Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beltrami County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bemidji Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>MN0030100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Detroit Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Audubon Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Callaway Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beltrami County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bemidji Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
     <x:t>75</x:t>
   </x:si>
   <x:si>
@@ -407,9 +410,6 @@
   </x:si>
   <x:si>
     <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
   </x:si>
   <x:si>
     <x:t>MN0140400</x:t>
@@ -3343,55 +3343,55 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N15" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="O15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="S15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="T15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U15" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="V15" s="0" t="s">
         <x:v>73</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J15" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K15" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L15" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M15" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="N15" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="O15" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P15" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="Q15" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="R15" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="S15" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="T15" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="U15" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="V15" s="0" t="s">
-        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:22">
@@ -3707,7 +3707,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N20" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O20" s="0" t="s">
         <x:v>35</x:v>
@@ -3731,15 +3731,15 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V20" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:22">
       <x:c r="A21" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>25</x:v>
@@ -3804,10 +3804,10 @@
     </x:row>
     <x:row r="22" spans="1:22">
       <x:c r="A22" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>25</x:v>
@@ -3872,10 +3872,10 @@
     </x:row>
     <x:row r="23" spans="1:22">
       <x:c r="A23" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>25</x:v>
@@ -3940,10 +3940,10 @@
     </x:row>
     <x:row r="24" spans="1:22">
       <x:c r="A24" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>25</x:v>
@@ -4003,21 +4003,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V24" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:22">
       <x:c r="A25" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>25</x:v>
@@ -4047,7 +4047,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O25" s="0" t="s">
         <x:v>25</x:v>
@@ -4071,15 +4071,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V25" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:22">
       <x:c r="A26" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>25</x:v>
@@ -4144,10 +4144,10 @@
     </x:row>
     <x:row r="27" spans="1:22">
       <x:c r="A27" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>25</x:v>
@@ -4162,7 +4162,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
         <x:v>25</x:v>
@@ -4207,15 +4207,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V27" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:22">
       <x:c r="A28" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>25</x:v>
@@ -4251,7 +4251,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N28" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="O28" s="0" t="s">
         <x:v>25</x:v>
@@ -4280,10 +4280,10 @@
     </x:row>
     <x:row r="29" spans="1:22">
       <x:c r="A29" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>25</x:v>
@@ -4343,15 +4343,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V29" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:22">
       <x:c r="A30" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>24</x:v>
@@ -4366,7 +4366,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
         <x:v>25</x:v>
@@ -4375,7 +4375,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J30" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K30" s="0" t="s">
         <x:v>25</x:v>
@@ -4416,10 +4416,10 @@
     </x:row>
     <x:row r="31" spans="1:22">
       <x:c r="A31" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>24</x:v>
@@ -4484,10 +4484,10 @@
     </x:row>
     <x:row r="32" spans="1:22">
       <x:c r="A32" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>25</x:v>
@@ -4541,21 +4541,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T32" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="U32" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="V32" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:22">
       <x:c r="A33" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
         <x:v>25</x:v>
@@ -4615,15 +4615,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V33" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:22">
       <x:c r="A34" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
         <x:v>25</x:v>
@@ -4688,10 +4688,10 @@
     </x:row>
     <x:row r="35" spans="1:22">
       <x:c r="A35" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>25</x:v>
@@ -4756,10 +4756,10 @@
     </x:row>
     <x:row r="36" spans="1:22">
       <x:c r="A36" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
         <x:v>25</x:v>
@@ -4801,7 +4801,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P36" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="Q36" s="0" t="s">
         <x:v>25</x:v>
@@ -4824,10 +4824,10 @@
     </x:row>
     <x:row r="37" spans="1:22">
       <x:c r="A37" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
         <x:v>24</x:v>
@@ -4869,7 +4869,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P37" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="Q37" s="0" t="s">
         <x:v>25</x:v>
@@ -4878,7 +4878,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="S37" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="T37" s="0" t="s">
         <x:v>24</x:v>
@@ -4887,7 +4887,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="V37" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:22">
@@ -4943,7 +4943,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="R38" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="S38" s="0" t="s">
         <x:v>24</x:v>
@@ -5135,7 +5135,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N41" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O41" s="0" t="s">
         <x:v>24</x:v>
@@ -5159,7 +5159,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V41" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:22">
@@ -5357,7 +5357,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T44" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="U44" s="0" t="s">
         <x:v>25</x:v>
@@ -5431,7 +5431,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V45" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:22">
@@ -5499,7 +5499,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V46" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:22">
@@ -5599,7 +5599,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J48" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="K48" s="0" t="s">
         <x:v>25</x:v>
@@ -5611,7 +5611,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N48" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="O48" s="0" t="s">
         <x:v>25</x:v>
@@ -5853,7 +5853,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>25</x:v>
@@ -5883,7 +5883,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N52" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="O52" s="0" t="s">
         <x:v>25</x:v>
@@ -5904,10 +5904,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U52" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="V52" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:22">
@@ -6111,7 +6111,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="V55" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:22">
@@ -6229,7 +6229,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P57" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="Q57" s="0" t="s">
         <x:v>24</x:v>
@@ -6247,7 +6247,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V57" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:22">
@@ -6315,7 +6315,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V58" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:22">
@@ -6359,7 +6359,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N59" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O59" s="0" t="s">
         <x:v>25</x:v>
@@ -6501,7 +6501,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P61" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="Q61" s="0" t="s">
         <x:v>25</x:v>
@@ -6519,7 +6519,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V61" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:22">
@@ -6631,7 +6631,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N63" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="O63" s="0" t="s">
         <x:v>32</x:v>
@@ -6705,7 +6705,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="Q64" s="0" t="s">
         <x:v>25</x:v>
@@ -6723,7 +6723,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V64" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:22">
@@ -7009,7 +7009,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
         <x:v>25</x:v>
@@ -7018,7 +7018,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H69" s="0" t="s">
         <x:v>25</x:v>
@@ -7267,7 +7267,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V72" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:22">
@@ -7385,7 +7385,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P74" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="Q74" s="0" t="s">
         <x:v>25</x:v>
@@ -7432,7 +7432,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="J75" s="0" t="s">
         <x:v>220</x:v>
@@ -7553,7 +7553,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
         <x:v>25</x:v>
@@ -7589,7 +7589,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="P77" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="Q77" s="0" t="s">
         <x:v>24</x:v>
@@ -7757,7 +7757,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>25</x:v>
@@ -7766,7 +7766,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H80" s="0" t="s">
         <x:v>25</x:v>
@@ -7805,7 +7805,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T80" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="U80" s="0" t="s">
         <x:v>24</x:v>
@@ -8015,7 +8015,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V83" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -8310,7 +8310,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G88" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H88" s="0" t="s">
         <x:v>25</x:v>
@@ -8337,7 +8337,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="P88" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="Q88" s="0" t="s">
         <x:v>24</x:v>
@@ -8417,10 +8417,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T89" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="U89" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="V89" s="0" t="s">
         <x:v>221</x:v>
@@ -8437,7 +8437,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
         <x:v>25</x:v>
@@ -8455,7 +8455,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J90" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K90" s="0" t="s">
         <x:v>25</x:v>
@@ -8582,7 +8582,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G92" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H92" s="0" t="s">
         <x:v>25</x:v>
@@ -8603,7 +8603,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N92" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O92" s="0" t="s">
         <x:v>28</x:v>
@@ -8763,7 +8763,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V94" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:22">
@@ -8786,7 +8786,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H95" s="0" t="s">
         <x:v>25</x:v>
@@ -8854,7 +8854,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G96" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H96" s="0" t="s">
         <x:v>25</x:v>
@@ -8913,7 +8913,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
         <x:v>25</x:v>
@@ -8943,7 +8943,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N97" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O97" s="0" t="s">
         <x:v>32</x:v>
@@ -9307,7 +9307,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V102" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">
@@ -9386,7 +9386,7 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
         <x:v>45</x:v>
@@ -9561,7 +9561,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P106" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="Q106" s="0" t="s">
         <x:v>25</x:v>
@@ -9987,7 +9987,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V112" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:22">
@@ -10214,7 +10214,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G116" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H116" s="0" t="s">
         <x:v>25</x:v>
@@ -11051,7 +11051,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N128" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O128" s="0" t="s">
         <x:v>25</x:v>
@@ -11125,7 +11125,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P129" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="Q129" s="0" t="s">
         <x:v>25</x:v>
@@ -11143,7 +11143,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V129" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
@@ -11187,7 +11187,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N130" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="O130" s="0" t="s">
         <x:v>25</x:v>
@@ -11302,7 +11302,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G132" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H132" s="0" t="s">
         <x:v>25</x:v>
@@ -11347,7 +11347,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V132" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:22">
@@ -11391,7 +11391,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N133" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="O133" s="0" t="s">
         <x:v>25</x:v>
@@ -11663,7 +11663,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N137" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O137" s="0" t="s">
         <x:v>25</x:v>
@@ -11867,7 +11867,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N140" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O140" s="0" t="s">
         <x:v>25</x:v>
@@ -12299,7 +12299,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V146" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:22">
@@ -12458,7 +12458,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G149" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H149" s="0" t="s">
         <x:v>25</x:v>
@@ -12887,7 +12887,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N155" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O155" s="0" t="s">
         <x:v>24</x:v>
@@ -13002,7 +13002,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G157" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H157" s="0" t="s">
         <x:v>25</x:v>
@@ -13011,7 +13011,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J157" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="K157" s="0" t="s">
         <x:v>25</x:v>
@@ -13020,10 +13020,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M157" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N157" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O157" s="0" t="s">
         <x:v>24</x:v>
@@ -13058,7 +13058,7 @@
         <x:v>411</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D158" s="0" t="s">
         <x:v>390</x:v>
@@ -13088,10 +13088,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M158" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N158" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="O158" s="0" t="s">
         <x:v>51</x:v>
@@ -13100,13 +13100,13 @@
         <x:v>414</x:v>
       </x:c>
       <x:c r="Q158" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="R158" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="S158" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="T158" s="0" t="s">
         <x:v>40</x:v>
@@ -13215,7 +13215,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="J160" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K160" s="0" t="s">
         <x:v>25</x:v>
@@ -13567,7 +13567,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N165" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="O165" s="0" t="s">
         <x:v>25</x:v>
@@ -13591,7 +13591,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V165" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:22">
@@ -13703,7 +13703,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N167" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O167" s="0" t="s">
         <x:v>25</x:v>
@@ -13771,7 +13771,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N168" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="O168" s="0" t="s">
         <x:v>25</x:v>
@@ -14179,7 +14179,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N174" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="O174" s="0" t="s">
         <x:v>25</x:v>
@@ -14439,7 +14439,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="J178" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="K178" s="0" t="s">
         <x:v>25</x:v>
@@ -14486,7 +14486,7 @@
         <x:v>462</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D179" s="0" t="s">
         <x:v>463</x:v>
@@ -14770,7 +14770,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G183" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H183" s="0" t="s">
         <x:v>25</x:v>
@@ -14865,7 +14865,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P184" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="Q184" s="0" t="s">
         <x:v>25</x:v>
@@ -14883,7 +14883,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V184" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:22">
@@ -15323,7 +15323,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J191" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K191" s="0" t="s">
         <x:v>25</x:v>
@@ -15509,7 +15509,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D194" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E194" s="0" t="s">
         <x:v>25</x:v>
@@ -15557,7 +15557,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T194" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="U194" s="0" t="s">
         <x:v>25</x:v>
@@ -15903,7 +15903,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V199" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:22">
@@ -16275,7 +16275,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="J205" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="K205" s="0" t="s">
         <x:v>25</x:v>
@@ -16302,10 +16302,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="S205" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="T205" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="U205" s="0" t="s">
         <x:v>32</x:v>
@@ -16343,7 +16343,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="J206" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K206" s="0" t="s">
         <x:v>25</x:v>
@@ -16361,7 +16361,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P206" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="Q206" s="0" t="s">
         <x:v>24</x:v>
@@ -16509,7 +16509,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T208" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="U208" s="0" t="s">
         <x:v>40</x:v>
@@ -16606,7 +16606,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G210" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H210" s="0" t="s">
         <x:v>25</x:v>
@@ -16763,7 +16763,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N212" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O212" s="0" t="s">
         <x:v>25</x:v>
@@ -16967,7 +16967,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N215" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="O215" s="0" t="s">
         <x:v>24</x:v>
@@ -17141,7 +17141,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D218" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E218" s="0" t="s">
         <x:v>25</x:v>
@@ -17156,7 +17156,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I218" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="J218" s="0" t="s">
         <x:v>42</x:v>
@@ -17171,7 +17171,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N218" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O218" s="0" t="s">
         <x:v>51</x:v>
@@ -17603,7 +17603,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V224" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:22">
@@ -17671,7 +17671,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V225" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">
@@ -18093,7 +18093,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D232" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E232" s="0" t="s">
         <x:v>25</x:v>
@@ -18147,7 +18147,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V232" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:22">
@@ -18433,7 +18433,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D237" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E237" s="0" t="s">
         <x:v>25</x:v>
@@ -18442,7 +18442,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G237" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H237" s="0" t="s">
         <x:v>25</x:v>
@@ -18463,7 +18463,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N237" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="O237" s="0" t="s">
         <x:v>40</x:v>
@@ -18531,13 +18531,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N238" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O238" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="P238" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="Q238" s="0" t="s">
         <x:v>25</x:v>
@@ -18555,7 +18555,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V238" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">
@@ -18841,7 +18841,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D243" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E243" s="0" t="s">
         <x:v>25</x:v>
@@ -18868,7 +18868,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M243" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N243" s="0" t="s">
         <x:v>29</x:v>
@@ -18889,7 +18889,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="T243" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="U243" s="0" t="s">
         <x:v>24</x:v>
@@ -19303,7 +19303,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V249" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:22">
@@ -19394,7 +19394,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G251" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H251" s="0" t="s">
         <x:v>25</x:v>
@@ -19403,7 +19403,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="J251" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K251" s="0" t="s">
         <x:v>32</x:v>
@@ -19687,7 +19687,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N255" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O255" s="0" t="s">
         <x:v>25</x:v>
@@ -19980,7 +19980,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U259" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="V259" s="0" t="s">
         <x:v>634</x:v>
@@ -20231,7 +20231,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N263" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="O263" s="0" t="s">
         <x:v>25</x:v>
@@ -20346,7 +20346,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G265" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H265" s="0" t="s">
         <x:v>25</x:v>
@@ -20435,7 +20435,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N266" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="O266" s="0" t="s">
         <x:v>25</x:v>
@@ -20453,7 +20453,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T266" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="U266" s="0" t="s">
         <x:v>25</x:v>
@@ -20731,7 +20731,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V270" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -5883,7 +5883,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N52" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O52" s="0" t="s">
         <x:v>25</x:v>
@@ -5904,7 +5904,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U52" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="V52" s="0" t="s">
         <x:v>99</x:v>
@@ -17635,7 +17635,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J225" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K225" s="0" t="s">
         <x:v>24</x:v>
@@ -17647,13 +17647,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N225" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O225" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P225" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q225" s="0" t="s">
         <x:v>25</x:v>
@@ -17671,7 +17671,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V225" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -562,6 +562,9 @@
     <x:t>Apple Valley Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
     <x:t>MN0191100</x:t>
   </x:si>
   <x:si>
@@ -865,9 +868,6 @@
     <x:t>Maple Grove Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
     <x:t>65</x:t>
   </x:si>
   <x:si>
@@ -1853,9 +1853,6 @@
   </x:si>
   <x:si>
     <x:t>Woodbury Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108</x:t>
   </x:si>
   <x:si>
     <x:t>MN0821400</x:t>
@@ -6410,7 +6407,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P59" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q59" s="0" t="s">
         <x:v>25</x:v>
@@ -6428,15 +6425,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V59" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:22">
       <x:c r="A60" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
         <x:v>25</x:v>
@@ -6501,10 +6498,10 @@
     </x:row>
     <x:row r="61" spans="1:22">
       <x:c r="A61" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
         <x:v>25</x:v>
@@ -6569,10 +6566,10 @@
     </x:row>
     <x:row r="62" spans="1:22">
       <x:c r="A62" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
         <x:v>25</x:v>
@@ -6637,10 +6634,10 @@
     </x:row>
     <x:row r="63" spans="1:22">
       <x:c r="A63" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
         <x:v>25</x:v>
@@ -6676,7 +6673,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N63" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="O63" s="0" t="s">
         <x:v>32</x:v>
@@ -6700,15 +6697,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V63" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:22">
       <x:c r="A64" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
         <x:v>25</x:v>
@@ -6773,10 +6770,10 @@
     </x:row>
     <x:row r="65" spans="1:22">
       <x:c r="A65" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
         <x:v>25</x:v>
@@ -6841,10 +6838,10 @@
     </x:row>
     <x:row r="66" spans="1:22">
       <x:c r="A66" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
         <x:v>25</x:v>
@@ -6909,10 +6906,10 @@
     </x:row>
     <x:row r="67" spans="1:22">
       <x:c r="A67" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
         <x:v>25</x:v>
@@ -6977,10 +6974,10 @@
     </x:row>
     <x:row r="68" spans="1:22">
       <x:c r="A68" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
         <x:v>25</x:v>
@@ -7045,10 +7042,10 @@
     </x:row>
     <x:row r="69" spans="1:22">
       <x:c r="A69" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
         <x:v>25</x:v>
@@ -7108,15 +7105,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V69" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:22">
       <x:c r="A70" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>25</x:v>
@@ -7176,15 +7173,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V70" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
       <x:c r="A71" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>25</x:v>
@@ -7249,10 +7246,10 @@
     </x:row>
     <x:row r="72" spans="1:22">
       <x:c r="A72" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>25</x:v>
@@ -7312,15 +7309,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V72" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:22">
       <x:c r="A73" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>25</x:v>
@@ -7385,16 +7382,16 @@
     </x:row>
     <x:row r="74" spans="1:22">
       <x:c r="A74" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
         <x:v>25</x:v>
@@ -7412,7 +7409,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J74" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="K74" s="0" t="s">
         <x:v>25</x:v>
@@ -7448,15 +7445,15 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="V74" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:22">
       <x:c r="A75" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
         <x:v>59</x:v>
@@ -7480,7 +7477,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="J75" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="K75" s="0" t="s">
         <x:v>25</x:v>
@@ -7492,13 +7489,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N75" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="O75" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="P75" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="Q75" s="0" t="s">
         <x:v>32</x:v>
@@ -7510,21 +7507,21 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="T75" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="U75" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="V75" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:22">
       <x:c r="A76" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>24</x:v>
@@ -7589,10 +7586,10 @@
     </x:row>
     <x:row r="77" spans="1:22">
       <x:c r="A77" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>28</x:v>
@@ -7652,15 +7649,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V77" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:22">
       <x:c r="A78" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
         <x:v>25</x:v>
@@ -7725,10 +7722,10 @@
     </x:row>
     <x:row r="79" spans="1:22">
       <x:c r="A79" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
         <x:v>25</x:v>
@@ -7793,10 +7790,10 @@
     </x:row>
     <x:row r="80" spans="1:22">
       <x:c r="A80" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
         <x:v>35</x:v>
@@ -7811,7 +7808,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H80" s="0" t="s">
         <x:v>25</x:v>
@@ -7856,15 +7853,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V80" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:22">
       <x:c r="A81" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>25</x:v>
@@ -7929,10 +7926,10 @@
     </x:row>
     <x:row r="82" spans="1:22">
       <x:c r="A82" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>25</x:v>
@@ -7997,10 +7994,10 @@
     </x:row>
     <x:row r="83" spans="1:22">
       <x:c r="A83" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
         <x:v>25</x:v>
@@ -8065,16 +8062,16 @@
     </x:row>
     <x:row r="84" spans="1:22">
       <x:c r="A84" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>25</x:v>
@@ -8083,16 +8080,16 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H84" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="I84" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="J84" s="0" t="s">
         <x:v>249</x:v>
-      </x:c>
-      <x:c r="J84" s="0" t="s">
-        <x:v>248</x:v>
       </x:c>
       <x:c r="K84" s="0" t="s">
         <x:v>25</x:v>
@@ -8104,7 +8101,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="N84" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="O84" s="0" t="s">
         <x:v>25</x:v>
@@ -8122,21 +8119,21 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="T84" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="U84" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="V84" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
       <x:c r="A85" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>25</x:v>
@@ -8201,10 +8198,10 @@
     </x:row>
     <x:row r="86" spans="1:22">
       <x:c r="A86" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>32</x:v>
@@ -8269,10 +8266,10 @@
     </x:row>
     <x:row r="87" spans="1:22">
       <x:c r="A87" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>25</x:v>
@@ -8337,10 +8334,10 @@
     </x:row>
     <x:row r="88" spans="1:22">
       <x:c r="A88" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>24</x:v>
@@ -8400,15 +8397,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V88" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">
       <x:c r="A89" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>24</x:v>
@@ -8462,21 +8459,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T89" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="U89" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="V89" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:22">
       <x:c r="A90" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>61</x:v>
@@ -8536,15 +8533,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V90" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:22">
       <x:c r="A91" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>24</x:v>
@@ -8609,10 +8606,10 @@
     </x:row>
     <x:row r="92" spans="1:22">
       <x:c r="A92" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>48</x:v>
@@ -8672,15 +8669,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V92" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:22">
       <x:c r="A93" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>25</x:v>
@@ -8745,10 +8742,10 @@
     </x:row>
     <x:row r="94" spans="1:22">
       <x:c r="A94" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>32</x:v>
@@ -8813,10 +8810,10 @@
     </x:row>
     <x:row r="95" spans="1:22">
       <x:c r="A95" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
         <x:v>25</x:v>
@@ -8881,10 +8878,10 @@
     </x:row>
     <x:row r="96" spans="1:22">
       <x:c r="A96" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>25</x:v>
@@ -8944,15 +8941,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V96" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:22">
       <x:c r="A97" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>32</x:v>
@@ -8994,7 +8991,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="P97" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="Q97" s="0" t="s">
         <x:v>25</x:v>
@@ -9508,7 +9505,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F105" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G105" s="0" t="s">
         <x:v>40</x:v>
@@ -9517,10 +9514,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I105" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="J105" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="K105" s="0" t="s">
         <x:v>24</x:v>
@@ -9538,7 +9535,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="P105" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="Q105" s="0" t="s">
         <x:v>35</x:v>
@@ -11912,7 +11909,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N140" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="O140" s="0" t="s">
         <x:v>25</x:v>
@@ -12140,7 +12137,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V143" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:22">
@@ -13272,13 +13269,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N160" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="O160" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="P160" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="Q160" s="0" t="s">
         <x:v>45</x:v>
@@ -13630,13 +13627,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T165" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="U165" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V165" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:22">
@@ -13840,7 +13837,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V168" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:22">
@@ -14316,7 +14313,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="V175" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:22">
@@ -14700,7 +14697,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="N181" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="O181" s="0" t="s">
         <x:v>25</x:v>
@@ -16506,7 +16503,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D208" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E208" s="0" t="s">
         <x:v>25</x:v>
@@ -16524,7 +16521,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="J208" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="K208" s="0" t="s">
         <x:v>25</x:v>
@@ -16542,7 +16539,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P208" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="Q208" s="0" t="s">
         <x:v>25</x:v>
@@ -16696,7 +16693,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V210" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:22">
@@ -16900,7 +16897,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V213" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:22">
@@ -17438,7 +17435,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="T221" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="U221" s="0" t="s">
         <x:v>44</x:v>
@@ -17852,7 +17849,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V227" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:22">
@@ -19144,7 +19141,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V246" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
@@ -19271,7 +19268,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S248" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="T248" s="0" t="s">
         <x:v>55</x:v>
@@ -19280,15 +19277,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V248" s="0" t="s">
-        <x:v>613</x:v>
+        <x:v>418</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
+        <x:v>613</x:v>
+      </x:c>
+      <x:c r="B249" s="0" t="s">
         <x:v>614</x:v>
-      </x:c>
-      <x:c r="B249" s="0" t="s">
-        <x:v>615</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>25</x:v>
@@ -19353,10 +19350,10 @@
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="B250" s="0" t="s">
         <x:v>616</x:v>
-      </x:c>
-      <x:c r="B250" s="0" t="s">
-        <x:v>617</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19421,10 +19418,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
+        <x:v>617</x:v>
+      </x:c>
+      <x:c r="B251" s="0" t="s">
         <x:v>618</x:v>
-      </x:c>
-      <x:c r="B251" s="0" t="s">
-        <x:v>619</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>25</x:v>
@@ -19489,10 +19486,10 @@
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
+        <x:v>619</x:v>
+      </x:c>
+      <x:c r="B252" s="0" t="s">
         <x:v>620</x:v>
-      </x:c>
-      <x:c r="B252" s="0" t="s">
-        <x:v>621</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>25</x:v>
@@ -19557,10 +19554,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="B253" s="0" t="s">
         <x:v>622</x:v>
-      </x:c>
-      <x:c r="B253" s="0" t="s">
-        <x:v>623</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>25</x:v>
@@ -19625,10 +19622,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
+        <x:v>623</x:v>
+      </x:c>
+      <x:c r="B254" s="0" t="s">
         <x:v>624</x:v>
-      </x:c>
-      <x:c r="B254" s="0" t="s">
-        <x:v>625</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>25</x:v>
@@ -19693,10 +19690,10 @@
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
+        <x:v>625</x:v>
+      </x:c>
+      <x:c r="B255" s="0" t="s">
         <x:v>626</x:v>
-      </x:c>
-      <x:c r="B255" s="0" t="s">
-        <x:v>627</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>25</x:v>
@@ -19756,15 +19753,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V255" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>627</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c r="B256" s="0" t="s">
         <x:v>629</x:v>
-      </x:c>
-      <x:c r="B256" s="0" t="s">
-        <x:v>630</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>24</x:v>
@@ -19779,7 +19776,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="G256" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="H256" s="0" t="s">
         <x:v>25</x:v>
@@ -19800,7 +19797,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="N256" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="O256" s="0" t="s">
         <x:v>35</x:v>
@@ -19824,15 +19821,15 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="V256" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>630</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c r="B257" s="0" t="s">
         <x:v>632</x:v>
-      </x:c>
-      <x:c r="B257" s="0" t="s">
-        <x:v>633</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>25</x:v>
@@ -19897,10 +19894,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
+        <x:v>633</x:v>
+      </x:c>
+      <x:c r="B258" s="0" t="s">
         <x:v>634</x:v>
-      </x:c>
-      <x:c r="B258" s="0" t="s">
-        <x:v>635</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>25</x:v>
@@ -19965,10 +19962,10 @@
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
+        <x:v>635</x:v>
+      </x:c>
+      <x:c r="B259" s="0" t="s">
         <x:v>636</x:v>
-      </x:c>
-      <x:c r="B259" s="0" t="s">
-        <x:v>637</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>25</x:v>
@@ -20033,10 +20030,10 @@
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="B260" s="0" t="s">
         <x:v>638</x:v>
-      </x:c>
-      <x:c r="B260" s="0" t="s">
-        <x:v>639</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>25</x:v>
@@ -20101,10 +20098,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
+        <x:v>639</x:v>
+      </x:c>
+      <x:c r="B261" s="0" t="s">
         <x:v>640</x:v>
-      </x:c>
-      <x:c r="B261" s="0" t="s">
-        <x:v>641</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>25</x:v>
@@ -20169,10 +20166,10 @@
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
+        <x:v>641</x:v>
+      </x:c>
+      <x:c r="B262" s="0" t="s">
         <x:v>642</x:v>
-      </x:c>
-      <x:c r="B262" s="0" t="s">
-        <x:v>643</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>24</x:v>
@@ -20208,7 +20205,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N262" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="O262" s="0" t="s">
         <x:v>25</x:v>
@@ -20237,10 +20234,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
+        <x:v>643</x:v>
+      </x:c>
+      <x:c r="B263" s="0" t="s">
         <x:v>644</x:v>
-      </x:c>
-      <x:c r="B263" s="0" t="s">
-        <x:v>645</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20305,10 +20302,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c r="B264" s="0" t="s">
         <x:v>646</x:v>
-      </x:c>
-      <x:c r="B264" s="0" t="s">
-        <x:v>647</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20344,7 +20341,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N264" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="O264" s="0" t="s">
         <x:v>25</x:v>
@@ -20368,15 +20365,15 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="V264" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>647</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c r="B265" s="0" t="s">
         <x:v>649</x:v>
-      </x:c>
-      <x:c r="B265" s="0" t="s">
-        <x:v>650</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20441,10 +20438,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c r="B266" s="0" t="s">
         <x:v>651</x:v>
-      </x:c>
-      <x:c r="B266" s="0" t="s">
-        <x:v>652</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>25</x:v>
@@ -20509,10 +20506,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c r="B267" s="0" t="s">
         <x:v>653</x:v>
-      </x:c>
-      <x:c r="B267" s="0" t="s">
-        <x:v>654</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20577,10 +20574,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
+        <x:v>654</x:v>
+      </x:c>
+      <x:c r="B268" s="0" t="s">
         <x:v>655</x:v>
-      </x:c>
-      <x:c r="B268" s="0" t="s">
-        <x:v>656</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>25</x:v>
@@ -20645,10 +20642,10 @@
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
+        <x:v>656</x:v>
+      </x:c>
+      <x:c r="B269" s="0" t="s">
         <x:v>657</x:v>
-      </x:c>
-      <x:c r="B269" s="0" t="s">
-        <x:v>658</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -20708,15 +20705,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V269" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c r="B270" s="0" t="s">
         <x:v>659</x:v>
-      </x:c>
-      <x:c r="B270" s="0" t="s">
-        <x:v>660</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -20781,10 +20778,10 @@
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
+        <x:v>660</x:v>
+      </x:c>
+      <x:c r="B271" s="0" t="s">
         <x:v>661</x:v>
-      </x:c>
-      <x:c r="B271" s="0" t="s">
-        <x:v>662</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -20849,10 +20846,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
+        <x:v>662</x:v>
+      </x:c>
+      <x:c r="B272" s="0" t="s">
         <x:v>663</x:v>
-      </x:c>
-      <x:c r="B272" s="0" t="s">
-        <x:v>664</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -20917,10 +20914,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
+        <x:v>664</x:v>
+      </x:c>
+      <x:c r="B273" s="0" t="s">
         <x:v>665</x:v>
-      </x:c>
-      <x:c r="B273" s="0" t="s">
-        <x:v>666</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -20980,15 +20977,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V273" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>666</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c r="B274" s="0" t="s">
         <x:v>668</x:v>
-      </x:c>
-      <x:c r="B274" s="0" t="s">
-        <x:v>669</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21053,10 +21050,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c r="B275" s="0" t="s">
         <x:v>670</x:v>
-      </x:c>
-      <x:c r="B275" s="0" t="s">
-        <x:v>671</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21121,10 +21118,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
+        <x:v>671</x:v>
+      </x:c>
+      <x:c r="B276" s="0" t="s">
         <x:v>672</x:v>
-      </x:c>
-      <x:c r="B276" s="0" t="s">
-        <x:v>673</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21189,10 +21186,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="B277" s="0" t="s">
         <x:v>674</x:v>
-      </x:c>
-      <x:c r="B277" s="0" t="s">
-        <x:v>675</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21257,10 +21254,10 @@
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
+        <x:v>675</x:v>
+      </x:c>
+      <x:c r="B278" s="0" t="s">
         <x:v>676</x:v>
-      </x:c>
-      <x:c r="B278" s="0" t="s">
-        <x:v>677</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -922,7 +922,10 @@
     <x:t>82</x:t>
   </x:si>
   <x:si>
-    <x:t>400</x:t>
+    <x:t>83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>401</x:t>
   </x:si>
   <x:si>
     <x:t>MN0280000</x:t>
@@ -9547,21 +9550,21 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="T105" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="U105" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="V105" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:22">
       <x:c r="A106" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>25</x:v>
@@ -9626,10 +9629,10 @@
     </x:row>
     <x:row r="107" spans="1:22">
       <x:c r="A107" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>25</x:v>
@@ -9689,15 +9692,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V107" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:22">
       <x:c r="A108" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>25</x:v>
@@ -9762,10 +9765,10 @@
     </x:row>
     <x:row r="109" spans="1:22">
       <x:c r="A109" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>25</x:v>
@@ -9830,10 +9833,10 @@
     </x:row>
     <x:row r="110" spans="1:22">
       <x:c r="A110" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>24</x:v>
@@ -9898,10 +9901,10 @@
     </x:row>
     <x:row r="111" spans="1:22">
       <x:c r="A111" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>25</x:v>
@@ -9966,10 +9969,10 @@
     </x:row>
     <x:row r="112" spans="1:22">
       <x:c r="A112" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>25</x:v>
@@ -10034,10 +10037,10 @@
     </x:row>
     <x:row r="113" spans="1:22">
       <x:c r="A113" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>25</x:v>
@@ -10102,10 +10105,10 @@
     </x:row>
     <x:row r="114" spans="1:22">
       <x:c r="A114" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>25</x:v>
@@ -10170,10 +10173,10 @@
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10238,10 +10241,10 @@
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>25</x:v>
@@ -10306,10 +10309,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>25</x:v>
@@ -10374,10 +10377,10 @@
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>25</x:v>
@@ -10413,7 +10416,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N118" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="O118" s="0" t="s">
         <x:v>25</x:v>
@@ -10437,15 +10440,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V118" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10510,10 +10513,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>25</x:v>
@@ -10578,10 +10581,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10646,10 +10649,10 @@
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -10714,10 +10717,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>25</x:v>
@@ -10782,10 +10785,10 @@
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -10850,10 +10853,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>24</x:v>
@@ -10918,10 +10921,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -10986,10 +10989,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11054,10 +11057,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11122,10 +11125,10 @@
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11190,10 +11193,10 @@
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11258,10 +11261,10 @@
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11321,15 +11324,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V131" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>25</x:v>
@@ -11394,10 +11397,10 @@
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11462,10 +11465,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>32</x:v>
@@ -11530,10 +11533,10 @@
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11598,10 +11601,10 @@
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -11666,10 +11669,10 @@
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -11734,10 +11737,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -11802,10 +11805,10 @@
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -11870,10 +11873,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -11933,15 +11936,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V140" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -12006,10 +12009,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12074,10 +12077,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12142,10 +12145,10 @@
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12210,10 +12213,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12278,10 +12281,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12346,10 +12349,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12414,10 +12417,10 @@
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12482,10 +12485,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>25</x:v>
@@ -12550,10 +12553,10 @@
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>32</x:v>
@@ -12613,15 +12616,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V150" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -12686,10 +12689,10 @@
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -12754,10 +12757,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -12822,10 +12825,10 @@
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>25</x:v>
@@ -12885,15 +12888,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V154" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>24</x:v>
@@ -12958,10 +12961,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -13026,10 +13029,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>52</x:v>
@@ -13089,15 +13092,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V157" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>25</x:v>
@@ -13162,10 +13165,10 @@
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>32</x:v>
@@ -13225,15 +13228,15 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="V159" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>27</x:v>
@@ -13248,7 +13251,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G160" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="H160" s="0" t="s">
         <x:v>32</x:v>
@@ -13257,7 +13260,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J160" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="K160" s="0" t="s">
         <x:v>25</x:v>
@@ -13293,15 +13296,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V160" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>25</x:v>
@@ -13361,15 +13364,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V161" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>25</x:v>
@@ -13434,10 +13437,10 @@
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>25</x:v>
@@ -13502,10 +13505,10 @@
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>25</x:v>
@@ -13570,10 +13573,10 @@
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>25</x:v>
@@ -13638,10 +13641,10 @@
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>25</x:v>
@@ -13701,15 +13704,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V166" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>25</x:v>
@@ -13774,10 +13777,10 @@
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>25</x:v>
@@ -13842,10 +13845,10 @@
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>25</x:v>
@@ -13910,10 +13913,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>25</x:v>
@@ -13973,15 +13976,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V170" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:22">
       <x:c r="A171" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>25</x:v>
@@ -14046,10 +14049,10 @@
     </x:row>
     <x:row r="172" spans="1:22">
       <x:c r="A172" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>25</x:v>
@@ -14114,10 +14117,10 @@
     </x:row>
     <x:row r="173" spans="1:22">
       <x:c r="A173" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>25</x:v>
@@ -14182,10 +14185,10 @@
     </x:row>
     <x:row r="174" spans="1:22">
       <x:c r="A174" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>25</x:v>
@@ -14250,10 +14253,10 @@
     </x:row>
     <x:row r="175" spans="1:22">
       <x:c r="A175" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
         <x:v>24</x:v>
@@ -14318,10 +14321,10 @@
     </x:row>
     <x:row r="176" spans="1:22">
       <x:c r="A176" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>35</x:v>
@@ -14381,15 +14384,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V176" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:22">
       <x:c r="A177" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>32</x:v>
@@ -14454,10 +14457,10 @@
     </x:row>
     <x:row r="178" spans="1:22">
       <x:c r="A178" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>32</x:v>
@@ -14522,10 +14525,10 @@
     </x:row>
     <x:row r="179" spans="1:22">
       <x:c r="A179" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
         <x:v>24</x:v>
@@ -14590,10 +14593,10 @@
     </x:row>
     <x:row r="180" spans="1:22">
       <x:c r="A180" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>40</x:v>
@@ -14629,7 +14632,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N180" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="O180" s="0" t="s">
         <x:v>25</x:v>
@@ -14653,15 +14656,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V180" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
       <x:c r="A181" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>36</x:v>
@@ -14676,7 +14679,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G181" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="H181" s="0" t="s">
         <x:v>25</x:v>
@@ -14685,7 +14688,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J181" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="K181" s="0" t="s">
         <x:v>25</x:v>
@@ -14703,7 +14706,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P181" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="Q181" s="0" t="s">
         <x:v>40</x:v>
@@ -14718,18 +14721,18 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="U181" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="V181" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -14794,10 +14797,10 @@
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -14862,10 +14865,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -14925,15 +14928,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V184" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -14998,10 +15001,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>32</x:v>
@@ -15066,10 +15069,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>25</x:v>
@@ -15134,10 +15137,10 @@
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>25</x:v>
@@ -15202,10 +15205,10 @@
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>25</x:v>
@@ -15270,10 +15273,10 @@
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15338,10 +15341,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>25</x:v>
@@ -15406,10 +15409,10 @@
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>25</x:v>
@@ -15474,10 +15477,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>25</x:v>
@@ -15537,15 +15540,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V193" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>25</x:v>
@@ -15610,10 +15613,10 @@
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>25</x:v>
@@ -15678,10 +15681,10 @@
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -15705,7 +15708,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J196" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="K196" s="0" t="s">
         <x:v>25</x:v>
@@ -15717,7 +15720,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N196" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="O196" s="0" t="s">
         <x:v>25</x:v>
@@ -15741,15 +15744,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V196" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>25</x:v>
@@ -15814,10 +15817,10 @@
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -15882,10 +15885,10 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>25</x:v>
@@ -15950,10 +15953,10 @@
     </x:row>
     <x:row r="200" spans="1:22">
       <x:c r="A200" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>25</x:v>
@@ -16018,10 +16021,10 @@
     </x:row>
     <x:row r="201" spans="1:22">
       <x:c r="A201" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>25</x:v>
@@ -16086,10 +16089,10 @@
     </x:row>
     <x:row r="202" spans="1:22">
       <x:c r="A202" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>25</x:v>
@@ -16154,10 +16157,10 @@
     </x:row>
     <x:row r="203" spans="1:22">
       <x:c r="A203" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>25</x:v>
@@ -16222,10 +16225,10 @@
     </x:row>
     <x:row r="204" spans="1:22">
       <x:c r="A204" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>25</x:v>
@@ -16290,10 +16293,10 @@
     </x:row>
     <x:row r="205" spans="1:22">
       <x:c r="A205" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>25</x:v>
@@ -16358,10 +16361,10 @@
     </x:row>
     <x:row r="206" spans="1:22">
       <x:c r="A206" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>25</x:v>
@@ -16426,10 +16429,10 @@
     </x:row>
     <x:row r="207" spans="1:22">
       <x:c r="A207" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>25</x:v>
@@ -16494,10 +16497,10 @@
     </x:row>
     <x:row r="208" spans="1:22">
       <x:c r="A208" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>24</x:v>
@@ -16533,7 +16536,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N208" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="O208" s="0" t="s">
         <x:v>24</x:v>
@@ -16557,15 +16560,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V208" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:22">
       <x:c r="A209" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>32</x:v>
@@ -16625,15 +16628,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V209" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
       <x:c r="A210" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>24</x:v>
@@ -16698,10 +16701,10 @@
     </x:row>
     <x:row r="211" spans="1:22">
       <x:c r="A211" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>24</x:v>
@@ -16761,15 +16764,15 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="V211" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>536</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
       <x:c r="A212" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>25</x:v>
@@ -16834,10 +16837,10 @@
     </x:row>
     <x:row r="213" spans="1:22">
       <x:c r="A213" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>25</x:v>
@@ -16902,10 +16905,10 @@
     </x:row>
     <x:row r="214" spans="1:22">
       <x:c r="A214" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>25</x:v>
@@ -16970,10 +16973,10 @@
     </x:row>
     <x:row r="215" spans="1:22">
       <x:c r="A215" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>25</x:v>
@@ -17038,10 +17041,10 @@
     </x:row>
     <x:row r="216" spans="1:22">
       <x:c r="A216" s="0" t="s">
-        <x:v>544</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>25</x:v>
@@ -17106,10 +17109,10 @@
     </x:row>
     <x:row r="217" spans="1:22">
       <x:c r="A217" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
-        <x:v>547</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>25</x:v>
@@ -17174,10 +17177,10 @@
     </x:row>
     <x:row r="218" spans="1:22">
       <x:c r="A218" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
-        <x:v>549</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>25</x:v>
@@ -17242,10 +17245,10 @@
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
-        <x:v>551</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17310,10 +17313,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
-        <x:v>552</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
-        <x:v>553</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17378,10 +17381,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
-        <x:v>554</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
-        <x:v>555</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>27</x:v>
@@ -17396,7 +17399,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G221" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="H221" s="0" t="s">
         <x:v>25</x:v>
@@ -17423,7 +17426,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="P221" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="Q221" s="0" t="s">
         <x:v>24</x:v>
@@ -17441,15 +17444,15 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>558</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
-        <x:v>558</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17514,10 +17517,10 @@
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
-        <x:v>560</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
-        <x:v>561</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>25</x:v>
@@ -17582,10 +17585,10 @@
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
-        <x:v>562</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
-        <x:v>563</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -17650,10 +17653,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
-        <x:v>564</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -17718,10 +17721,10 @@
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
-        <x:v>566</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
-        <x:v>567</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -17786,10 +17789,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
-        <x:v>568</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
-        <x:v>569</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -17854,10 +17857,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>25</x:v>
@@ -17922,10 +17925,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
-        <x:v>572</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -17990,10 +17993,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18058,10 +18061,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18126,10 +18129,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18194,10 +18197,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
-        <x:v>581</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18262,10 +18265,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18330,10 +18333,10 @@
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>25</x:v>
@@ -18398,10 +18401,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>25</x:v>
@@ -18466,10 +18469,10 @@
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
-        <x:v>588</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
-        <x:v>589</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>25</x:v>
@@ -18534,10 +18537,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
-        <x:v>591</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>25</x:v>
@@ -18602,10 +18605,10 @@
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
-        <x:v>592</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>25</x:v>
@@ -18670,10 +18673,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
-        <x:v>594</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>25</x:v>
@@ -18738,10 +18741,10 @@
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>32</x:v>
@@ -18801,15 +18804,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>598</x:v>
+        <x:v>599</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>25</x:v>
@@ -18874,10 +18877,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
-        <x:v>601</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>25</x:v>
@@ -18942,10 +18945,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
-        <x:v>603</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
-        <x:v>604</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>25</x:v>
@@ -19010,10 +19013,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>24</x:v>
@@ -19078,10 +19081,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
-        <x:v>608</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>25</x:v>
@@ -19146,10 +19149,10 @@
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
-        <x:v>609</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>24</x:v>
@@ -19214,10 +19217,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
-        <x:v>612</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>28</x:v>
@@ -19277,15 +19280,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V248" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
-        <x:v>613</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
-        <x:v>614</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>25</x:v>
@@ -19350,10 +19353,10 @@
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19418,10 +19421,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
-        <x:v>617</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>25</x:v>
@@ -19486,10 +19489,10 @@
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
-        <x:v>620</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>25</x:v>
@@ -19554,10 +19557,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>25</x:v>
@@ -19622,10 +19625,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>25</x:v>
@@ -19690,10 +19693,10 @@
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>25</x:v>
@@ -19753,15 +19756,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V255" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>24</x:v>
@@ -19821,15 +19824,15 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="V256" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>25</x:v>
@@ -19894,10 +19897,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>25</x:v>
@@ -19962,10 +19965,10 @@
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>25</x:v>
@@ -20030,10 +20033,10 @@
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
-        <x:v>637</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>25</x:v>
@@ -20098,10 +20101,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>25</x:v>
@@ -20166,10 +20169,10 @@
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>24</x:v>
@@ -20229,15 +20232,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V262" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
-        <x:v>643</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20302,10 +20305,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20365,15 +20368,15 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="V264" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20438,10 +20441,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>25</x:v>
@@ -20506,10 +20509,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20574,10 +20577,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>25</x:v>
@@ -20642,10 +20645,10 @@
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -20710,10 +20713,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -20778,10 +20781,10 @@
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -20846,10 +20849,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -20914,10 +20917,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -20977,15 +20980,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V273" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21050,10 +21053,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21118,10 +21121,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21186,10 +21189,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21254,10 +21257,10 @@
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -157,13 +157,13 @@
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>105</x:t>
+    <x:t>106</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>166</x:t>
+    <x:t>167</x:t>
   </x:si>
   <x:si>
     <x:t>MN0020300</x:t>
@@ -728,9 +728,6 @@
   </x:si>
   <x:si>
     <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106</x:t>
   </x:si>
   <x:si>
     <x:t>MN0270700</x:t>
@@ -5898,7 +5895,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>25</x:v>
@@ -5934,7 +5931,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P52" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="Q52" s="0" t="s">
         <x:v>25</x:v>
@@ -5946,13 +5943,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T52" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="U52" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="V52" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:22">
@@ -6099,7 +6096,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
         <x:v>24</x:v>
@@ -6156,7 +6153,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="V55" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:22">
@@ -7560,7 +7557,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O76" s="0" t="s">
         <x:v>25</x:v>
@@ -7584,7 +7581,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V76" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:22">
@@ -7856,15 +7853,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V80" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:22">
       <x:c r="A81" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
         <x:v>239</x:v>
-      </x:c>
-      <x:c r="B81" s="0" t="s">
-        <x:v>240</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>25</x:v>
@@ -7929,10 +7926,10 @@
     </x:row>
     <x:row r="82" spans="1:22">
       <x:c r="A82" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
         <x:v>241</x:v>
-      </x:c>
-      <x:c r="B82" s="0" t="s">
-        <x:v>242</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>25</x:v>
@@ -7997,10 +7994,10 @@
     </x:row>
     <x:row r="83" spans="1:22">
       <x:c r="A83" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
         <x:v>243</x:v>
-      </x:c>
-      <x:c r="B83" s="0" t="s">
-        <x:v>244</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
         <x:v>25</x:v>
@@ -8065,16 +8062,16 @@
     </x:row>
     <x:row r="84" spans="1:22">
       <x:c r="A84" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
         <x:v>245</x:v>
       </x:c>
-      <x:c r="B84" s="0" t="s">
+      <x:c r="C84" s="0" t="s">
         <x:v>246</x:v>
       </x:c>
-      <x:c r="C84" s="0" t="s">
+      <x:c r="D84" s="0" t="s">
         <x:v>247</x:v>
-      </x:c>
-      <x:c r="D84" s="0" t="s">
-        <x:v>248</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>25</x:v>
@@ -8083,16 +8080,16 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="H84" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I84" s="0" t="s">
         <x:v>249</x:v>
       </x:c>
-      <x:c r="H84" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I84" s="0" t="s">
-        <x:v>250</x:v>
-      </x:c>
       <x:c r="J84" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="K84" s="0" t="s">
         <x:v>25</x:v>
@@ -8104,7 +8101,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="N84" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="O84" s="0" t="s">
         <x:v>25</x:v>
@@ -8122,21 +8119,21 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="T84" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="U84" s="0" t="s">
         <x:v>252</x:v>
       </x:c>
-      <x:c r="U84" s="0" t="s">
+      <x:c r="V84" s="0" t="s">
         <x:v>253</x:v>
-      </x:c>
-      <x:c r="V84" s="0" t="s">
-        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
       <x:c r="A85" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
         <x:v>255</x:v>
-      </x:c>
-      <x:c r="B85" s="0" t="s">
-        <x:v>256</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>25</x:v>
@@ -8201,10 +8198,10 @@
     </x:row>
     <x:row r="86" spans="1:22">
       <x:c r="A86" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
         <x:v>257</x:v>
-      </x:c>
-      <x:c r="B86" s="0" t="s">
-        <x:v>258</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>32</x:v>
@@ -8269,10 +8266,10 @@
     </x:row>
     <x:row r="87" spans="1:22">
       <x:c r="A87" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
         <x:v>259</x:v>
-      </x:c>
-      <x:c r="B87" s="0" t="s">
-        <x:v>260</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>25</x:v>
@@ -8337,10 +8334,10 @@
     </x:row>
     <x:row r="88" spans="1:22">
       <x:c r="A88" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
         <x:v>261</x:v>
-      </x:c>
-      <x:c r="B88" s="0" t="s">
-        <x:v>262</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>24</x:v>
@@ -8400,15 +8397,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V88" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">
       <x:c r="A89" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
         <x:v>263</x:v>
-      </x:c>
-      <x:c r="B89" s="0" t="s">
-        <x:v>264</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>24</x:v>
@@ -8462,21 +8459,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T89" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="U89" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="V89" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:22">
       <x:c r="A90" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
         <x:v>267</x:v>
-      </x:c>
-      <x:c r="B90" s="0" t="s">
-        <x:v>268</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>61</x:v>
@@ -8541,10 +8538,10 @@
     </x:row>
     <x:row r="91" spans="1:22">
       <x:c r="A91" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
         <x:v>269</x:v>
-      </x:c>
-      <x:c r="B91" s="0" t="s">
-        <x:v>270</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>24</x:v>
@@ -8609,10 +8606,10 @@
     </x:row>
     <x:row r="92" spans="1:22">
       <x:c r="A92" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
         <x:v>271</x:v>
-      </x:c>
-      <x:c r="B92" s="0" t="s">
-        <x:v>272</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>48</x:v>
@@ -8672,15 +8669,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V92" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:22">
       <x:c r="A93" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
         <x:v>274</x:v>
-      </x:c>
-      <x:c r="B93" s="0" t="s">
-        <x:v>275</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>25</x:v>
@@ -8745,10 +8742,10 @@
     </x:row>
     <x:row r="94" spans="1:22">
       <x:c r="A94" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
         <x:v>276</x:v>
-      </x:c>
-      <x:c r="B94" s="0" t="s">
-        <x:v>277</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>32</x:v>
@@ -8813,10 +8810,10 @@
     </x:row>
     <x:row r="95" spans="1:22">
       <x:c r="A95" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
         <x:v>278</x:v>
-      </x:c>
-      <x:c r="B95" s="0" t="s">
-        <x:v>279</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
         <x:v>25</x:v>
@@ -8881,10 +8878,10 @@
     </x:row>
     <x:row r="96" spans="1:22">
       <x:c r="A96" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
         <x:v>280</x:v>
-      </x:c>
-      <x:c r="B96" s="0" t="s">
-        <x:v>281</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>25</x:v>
@@ -8949,10 +8946,10 @@
     </x:row>
     <x:row r="97" spans="1:22">
       <x:c r="A97" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
         <x:v>282</x:v>
-      </x:c>
-      <x:c r="B97" s="0" t="s">
-        <x:v>283</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>32</x:v>
@@ -9012,15 +9009,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V97" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:22">
       <x:c r="A98" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
         <x:v>285</x:v>
-      </x:c>
-      <x:c r="B98" s="0" t="s">
-        <x:v>286</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>25</x:v>
@@ -9085,10 +9082,10 @@
     </x:row>
     <x:row r="99" spans="1:22">
       <x:c r="A99" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
         <x:v>287</x:v>
-      </x:c>
-      <x:c r="B99" s="0" t="s">
-        <x:v>288</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>25</x:v>
@@ -9153,10 +9150,10 @@
     </x:row>
     <x:row r="100" spans="1:22">
       <x:c r="A100" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
         <x:v>289</x:v>
-      </x:c>
-      <x:c r="B100" s="0" t="s">
-        <x:v>290</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>25</x:v>
@@ -9221,10 +9218,10 @@
     </x:row>
     <x:row r="101" spans="1:22">
       <x:c r="A101" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
         <x:v>291</x:v>
-      </x:c>
-      <x:c r="B101" s="0" t="s">
-        <x:v>292</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>25</x:v>
@@ -9289,10 +9286,10 @@
     </x:row>
     <x:row r="102" spans="1:22">
       <x:c r="A102" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
         <x:v>293</x:v>
-      </x:c>
-      <x:c r="B102" s="0" t="s">
-        <x:v>294</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>25</x:v>
@@ -9357,10 +9354,10 @@
     </x:row>
     <x:row r="103" spans="1:22">
       <x:c r="A103" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
         <x:v>295</x:v>
-      </x:c>
-      <x:c r="B103" s="0" t="s">
-        <x:v>296</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>25</x:v>
@@ -9425,10 +9422,10 @@
     </x:row>
     <x:row r="104" spans="1:22">
       <x:c r="A104" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
         <x:v>297</x:v>
-      </x:c>
-      <x:c r="B104" s="0" t="s">
-        <x:v>298</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>25</x:v>
@@ -9493,10 +9490,10 @@
     </x:row>
     <x:row r="105" spans="1:22">
       <x:c r="A105" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
         <x:v>299</x:v>
-      </x:c>
-      <x:c r="B105" s="0" t="s">
-        <x:v>300</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
         <x:v>179</x:v>
@@ -9532,7 +9529,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N105" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="O105" s="0" t="s">
         <x:v>35</x:v>
@@ -9550,21 +9547,21 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="T105" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="U105" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="V105" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:22">
       <x:c r="A106" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
         <x:v>304</x:v>
-      </x:c>
-      <x:c r="B106" s="0" t="s">
-        <x:v>305</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>25</x:v>
@@ -9629,10 +9626,10 @@
     </x:row>
     <x:row r="107" spans="1:22">
       <x:c r="A107" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
         <x:v>306</x:v>
-      </x:c>
-      <x:c r="B107" s="0" t="s">
-        <x:v>307</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>25</x:v>
@@ -9692,15 +9689,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V107" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:22">
       <x:c r="A108" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
         <x:v>309</x:v>
-      </x:c>
-      <x:c r="B108" s="0" t="s">
-        <x:v>310</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>25</x:v>
@@ -9765,10 +9762,10 @@
     </x:row>
     <x:row r="109" spans="1:22">
       <x:c r="A109" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
         <x:v>311</x:v>
-      </x:c>
-      <x:c r="B109" s="0" t="s">
-        <x:v>312</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>25</x:v>
@@ -9833,10 +9830,10 @@
     </x:row>
     <x:row r="110" spans="1:22">
       <x:c r="A110" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
         <x:v>313</x:v>
-      </x:c>
-      <x:c r="B110" s="0" t="s">
-        <x:v>314</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>24</x:v>
@@ -9901,10 +9898,10 @@
     </x:row>
     <x:row r="111" spans="1:22">
       <x:c r="A111" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
         <x:v>315</x:v>
-      </x:c>
-      <x:c r="B111" s="0" t="s">
-        <x:v>316</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>25</x:v>
@@ -9969,11 +9966,11 @@
     </x:row>
     <x:row r="112" spans="1:22">
       <x:c r="A112" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
         <x:v>317</x:v>
       </x:c>
-      <x:c r="B112" s="0" t="s">
-        <x:v>318</x:v>
-      </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -9987,7 +9984,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G112" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H112" s="0" t="s">
         <x:v>25</x:v>
@@ -9996,7 +9993,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J112" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K112" s="0" t="s">
         <x:v>25</x:v>
@@ -10008,13 +10005,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N112" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="O112" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P112" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="Q112" s="0" t="s">
         <x:v>25</x:v>
@@ -10026,21 +10023,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T112" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="U112" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="V112" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:22">
       <x:c r="A113" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
         <x:v>319</x:v>
-      </x:c>
-      <x:c r="B113" s="0" t="s">
-        <x:v>320</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>25</x:v>
@@ -10105,10 +10102,10 @@
     </x:row>
     <x:row r="114" spans="1:22">
       <x:c r="A114" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
         <x:v>321</x:v>
-      </x:c>
-      <x:c r="B114" s="0" t="s">
-        <x:v>322</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>25</x:v>
@@ -10173,10 +10170,10 @@
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
         <x:v>323</x:v>
-      </x:c>
-      <x:c r="B115" s="0" t="s">
-        <x:v>324</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10241,10 +10238,10 @@
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
         <x:v>325</x:v>
-      </x:c>
-      <x:c r="B116" s="0" t="s">
-        <x:v>326</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>25</x:v>
@@ -10309,10 +10306,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
         <x:v>327</x:v>
-      </x:c>
-      <x:c r="B117" s="0" t="s">
-        <x:v>328</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>25</x:v>
@@ -10377,10 +10374,10 @@
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
         <x:v>329</x:v>
-      </x:c>
-      <x:c r="B118" s="0" t="s">
-        <x:v>330</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>25</x:v>
@@ -10416,7 +10413,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N118" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="O118" s="0" t="s">
         <x:v>25</x:v>
@@ -10440,15 +10437,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V118" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
         <x:v>333</x:v>
-      </x:c>
-      <x:c r="B119" s="0" t="s">
-        <x:v>334</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10513,10 +10510,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
         <x:v>335</x:v>
-      </x:c>
-      <x:c r="B120" s="0" t="s">
-        <x:v>336</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>25</x:v>
@@ -10581,10 +10578,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
         <x:v>337</x:v>
-      </x:c>
-      <x:c r="B121" s="0" t="s">
-        <x:v>338</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10649,10 +10646,10 @@
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
         <x:v>339</x:v>
-      </x:c>
-      <x:c r="B122" s="0" t="s">
-        <x:v>340</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -10717,10 +10714,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
         <x:v>341</x:v>
-      </x:c>
-      <x:c r="B123" s="0" t="s">
-        <x:v>342</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>25</x:v>
@@ -10785,10 +10782,10 @@
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
         <x:v>343</x:v>
-      </x:c>
-      <x:c r="B124" s="0" t="s">
-        <x:v>344</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -10853,10 +10850,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
         <x:v>345</x:v>
-      </x:c>
-      <x:c r="B125" s="0" t="s">
-        <x:v>346</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>24</x:v>
@@ -10921,10 +10918,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
         <x:v>347</x:v>
-      </x:c>
-      <x:c r="B126" s="0" t="s">
-        <x:v>348</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -10989,10 +10986,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
         <x:v>349</x:v>
-      </x:c>
-      <x:c r="B127" s="0" t="s">
-        <x:v>350</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11057,10 +11054,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
         <x:v>351</x:v>
-      </x:c>
-      <x:c r="B128" s="0" t="s">
-        <x:v>352</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11125,11 +11122,11 @@
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
         <x:v>353</x:v>
       </x:c>
-      <x:c r="B129" s="0" t="s">
-        <x:v>354</x:v>
-      </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -11143,7 +11140,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G129" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H129" s="0" t="s">
         <x:v>25</x:v>
@@ -11164,7 +11161,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N129" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O129" s="0" t="s">
         <x:v>25</x:v>
@@ -11188,15 +11185,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V129" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
         <x:v>355</x:v>
-      </x:c>
-      <x:c r="B130" s="0" t="s">
-        <x:v>356</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11261,10 +11258,10 @@
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
         <x:v>357</x:v>
-      </x:c>
-      <x:c r="B131" s="0" t="s">
-        <x:v>358</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11324,15 +11321,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V131" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
         <x:v>360</x:v>
-      </x:c>
-      <x:c r="B132" s="0" t="s">
-        <x:v>361</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>25</x:v>
@@ -11397,10 +11394,10 @@
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
         <x:v>362</x:v>
-      </x:c>
-      <x:c r="B133" s="0" t="s">
-        <x:v>363</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11415,7 +11412,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G133" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H133" s="0" t="s">
         <x:v>25</x:v>
@@ -11460,15 +11457,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V133" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
         <x:v>364</x:v>
-      </x:c>
-      <x:c r="B134" s="0" t="s">
-        <x:v>365</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>32</x:v>
@@ -11533,10 +11530,10 @@
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
         <x:v>366</x:v>
-      </x:c>
-      <x:c r="B135" s="0" t="s">
-        <x:v>367</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11601,10 +11598,10 @@
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
         <x:v>368</x:v>
-      </x:c>
-      <x:c r="B136" s="0" t="s">
-        <x:v>369</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -11669,10 +11666,10 @@
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
         <x:v>370</x:v>
-      </x:c>
-      <x:c r="B137" s="0" t="s">
-        <x:v>371</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -11737,10 +11734,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
         <x:v>372</x:v>
-      </x:c>
-      <x:c r="B138" s="0" t="s">
-        <x:v>373</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -11805,10 +11802,10 @@
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
         <x:v>374</x:v>
-      </x:c>
-      <x:c r="B139" s="0" t="s">
-        <x:v>375</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -11873,10 +11870,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
         <x:v>376</x:v>
-      </x:c>
-      <x:c r="B140" s="0" t="s">
-        <x:v>377</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -11936,15 +11933,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V140" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
         <x:v>379</x:v>
-      </x:c>
-      <x:c r="B141" s="0" t="s">
-        <x:v>380</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -12009,10 +12006,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
         <x:v>381</x:v>
-      </x:c>
-      <x:c r="B142" s="0" t="s">
-        <x:v>382</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12077,10 +12074,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
         <x:v>383</x:v>
-      </x:c>
-      <x:c r="B143" s="0" t="s">
-        <x:v>384</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12145,10 +12142,10 @@
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
         <x:v>385</x:v>
-      </x:c>
-      <x:c r="B144" s="0" t="s">
-        <x:v>386</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12213,10 +12210,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
         <x:v>387</x:v>
-      </x:c>
-      <x:c r="B145" s="0" t="s">
-        <x:v>388</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12281,10 +12278,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
         <x:v>389</x:v>
-      </x:c>
-      <x:c r="B146" s="0" t="s">
-        <x:v>390</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12349,10 +12346,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
         <x:v>391</x:v>
-      </x:c>
-      <x:c r="B147" s="0" t="s">
-        <x:v>392</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12417,10 +12414,10 @@
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
         <x:v>393</x:v>
-      </x:c>
-      <x:c r="B148" s="0" t="s">
-        <x:v>394</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12485,10 +12482,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
         <x:v>395</x:v>
-      </x:c>
-      <x:c r="B149" s="0" t="s">
-        <x:v>396</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>25</x:v>
@@ -12553,10 +12550,10 @@
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
         <x:v>397</x:v>
-      </x:c>
-      <x:c r="B150" s="0" t="s">
-        <x:v>398</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>32</x:v>
@@ -12616,15 +12613,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V150" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>398</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
         <x:v>400</x:v>
-      </x:c>
-      <x:c r="B151" s="0" t="s">
-        <x:v>401</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -12689,10 +12686,10 @@
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
         <x:v>402</x:v>
-      </x:c>
-      <x:c r="B152" s="0" t="s">
-        <x:v>403</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -12757,10 +12754,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
         <x:v>404</x:v>
-      </x:c>
-      <x:c r="B153" s="0" t="s">
-        <x:v>405</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -12825,10 +12822,10 @@
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
         <x:v>406</x:v>
-      </x:c>
-      <x:c r="B154" s="0" t="s">
-        <x:v>407</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>25</x:v>
@@ -12888,15 +12885,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V154" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
         <x:v>408</x:v>
-      </x:c>
-      <x:c r="B155" s="0" t="s">
-        <x:v>409</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>24</x:v>
@@ -12961,10 +12958,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
         <x:v>410</x:v>
-      </x:c>
-      <x:c r="B156" s="0" t="s">
-        <x:v>411</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -13029,10 +13026,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
         <x:v>412</x:v>
-      </x:c>
-      <x:c r="B157" s="0" t="s">
-        <x:v>413</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>52</x:v>
@@ -13092,15 +13089,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V157" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>413</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
         <x:v>415</x:v>
-      </x:c>
-      <x:c r="B158" s="0" t="s">
-        <x:v>416</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>25</x:v>
@@ -13165,10 +13162,10 @@
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
         <x:v>417</x:v>
-      </x:c>
-      <x:c r="B159" s="0" t="s">
-        <x:v>418</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>32</x:v>
@@ -13228,15 +13225,15 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="V159" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>418</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
         <x:v>420</x:v>
-      </x:c>
-      <x:c r="B160" s="0" t="s">
-        <x:v>421</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>27</x:v>
@@ -13251,7 +13248,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G160" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="H160" s="0" t="s">
         <x:v>32</x:v>
@@ -13260,7 +13257,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J160" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="K160" s="0" t="s">
         <x:v>25</x:v>
@@ -13278,7 +13275,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="P160" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="Q160" s="0" t="s">
         <x:v>45</x:v>
@@ -13296,15 +13293,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V160" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>422</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
         <x:v>424</x:v>
-      </x:c>
-      <x:c r="B161" s="0" t="s">
-        <x:v>425</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>25</x:v>
@@ -13364,15 +13361,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V161" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
+        <x:v>425</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
         <x:v>426</x:v>
-      </x:c>
-      <x:c r="B162" s="0" t="s">
-        <x:v>427</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>25</x:v>
@@ -13437,10 +13434,10 @@
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
         <x:v>428</x:v>
-      </x:c>
-      <x:c r="B163" s="0" t="s">
-        <x:v>429</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>25</x:v>
@@ -13505,10 +13502,10 @@
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
         <x:v>430</x:v>
-      </x:c>
-      <x:c r="B164" s="0" t="s">
-        <x:v>431</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>25</x:v>
@@ -13573,10 +13570,10 @@
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
         <x:v>432</x:v>
-      </x:c>
-      <x:c r="B165" s="0" t="s">
-        <x:v>433</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>25</x:v>
@@ -13641,10 +13638,10 @@
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
         <x:v>434</x:v>
-      </x:c>
-      <x:c r="B166" s="0" t="s">
-        <x:v>435</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>25</x:v>
@@ -13704,15 +13701,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V166" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
         <x:v>436</x:v>
-      </x:c>
-      <x:c r="B167" s="0" t="s">
-        <x:v>437</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>25</x:v>
@@ -13777,10 +13774,10 @@
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
         <x:v>438</x:v>
-      </x:c>
-      <x:c r="B168" s="0" t="s">
-        <x:v>439</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>25</x:v>
@@ -13845,10 +13842,10 @@
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
+        <x:v>439</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
         <x:v>440</x:v>
-      </x:c>
-      <x:c r="B169" s="0" t="s">
-        <x:v>441</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>25</x:v>
@@ -13913,10 +13910,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
+        <x:v>441</x:v>
+      </x:c>
+      <x:c r="B170" s="0" t="s">
         <x:v>442</x:v>
-      </x:c>
-      <x:c r="B170" s="0" t="s">
-        <x:v>443</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>25</x:v>
@@ -13976,15 +13973,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V170" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>443</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:22">
       <x:c r="A171" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="B171" s="0" t="s">
         <x:v>445</x:v>
-      </x:c>
-      <x:c r="B171" s="0" t="s">
-        <x:v>446</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>25</x:v>
@@ -14049,10 +14046,10 @@
     </x:row>
     <x:row r="172" spans="1:22">
       <x:c r="A172" s="0" t="s">
+        <x:v>446</x:v>
+      </x:c>
+      <x:c r="B172" s="0" t="s">
         <x:v>447</x:v>
-      </x:c>
-      <x:c r="B172" s="0" t="s">
-        <x:v>448</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>25</x:v>
@@ -14117,10 +14114,10 @@
     </x:row>
     <x:row r="173" spans="1:22">
       <x:c r="A173" s="0" t="s">
+        <x:v>448</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
         <x:v>449</x:v>
-      </x:c>
-      <x:c r="B173" s="0" t="s">
-        <x:v>450</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>25</x:v>
@@ -14185,10 +14182,10 @@
     </x:row>
     <x:row r="174" spans="1:22">
       <x:c r="A174" s="0" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
         <x:v>451</x:v>
-      </x:c>
-      <x:c r="B174" s="0" t="s">
-        <x:v>452</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>25</x:v>
@@ -14253,10 +14250,10 @@
     </x:row>
     <x:row r="175" spans="1:22">
       <x:c r="A175" s="0" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="s">
         <x:v>453</x:v>
-      </x:c>
-      <x:c r="B175" s="0" t="s">
-        <x:v>454</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
         <x:v>24</x:v>
@@ -14321,10 +14318,10 @@
     </x:row>
     <x:row r="176" spans="1:22">
       <x:c r="A176" s="0" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="B176" s="0" t="s">
         <x:v>455</x:v>
-      </x:c>
-      <x:c r="B176" s="0" t="s">
-        <x:v>456</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>35</x:v>
@@ -14384,15 +14381,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V176" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:22">
       <x:c r="A177" s="0" t="s">
+        <x:v>457</x:v>
+      </x:c>
+      <x:c r="B177" s="0" t="s">
         <x:v>458</x:v>
-      </x:c>
-      <x:c r="B177" s="0" t="s">
-        <x:v>459</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>32</x:v>
@@ -14457,10 +14454,10 @@
     </x:row>
     <x:row r="178" spans="1:22">
       <x:c r="A178" s="0" t="s">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c r="B178" s="0" t="s">
         <x:v>460</x:v>
-      </x:c>
-      <x:c r="B178" s="0" t="s">
-        <x:v>461</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>32</x:v>
@@ -14525,10 +14522,10 @@
     </x:row>
     <x:row r="179" spans="1:22">
       <x:c r="A179" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="B179" s="0" t="s">
         <x:v>462</x:v>
-      </x:c>
-      <x:c r="B179" s="0" t="s">
-        <x:v>463</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
         <x:v>24</x:v>
@@ -14593,10 +14590,10 @@
     </x:row>
     <x:row r="180" spans="1:22">
       <x:c r="A180" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="B180" s="0" t="s">
         <x:v>464</x:v>
-      </x:c>
-      <x:c r="B180" s="0" t="s">
-        <x:v>465</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>40</x:v>
@@ -14632,7 +14629,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N180" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="O180" s="0" t="s">
         <x:v>25</x:v>
@@ -14656,15 +14653,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V180" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
       <x:c r="A181" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="B181" s="0" t="s">
         <x:v>468</x:v>
-      </x:c>
-      <x:c r="B181" s="0" t="s">
-        <x:v>469</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>36</x:v>
@@ -14679,7 +14676,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G181" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="H181" s="0" t="s">
         <x:v>25</x:v>
@@ -14688,7 +14685,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J181" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="K181" s="0" t="s">
         <x:v>25</x:v>
@@ -14706,7 +14703,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P181" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="Q181" s="0" t="s">
         <x:v>40</x:v>
@@ -14721,18 +14718,18 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="U181" s="0" t="s">
+        <x:v>471</x:v>
+      </x:c>
+      <x:c r="V181" s="0" t="s">
         <x:v>472</x:v>
-      </x:c>
-      <x:c r="V181" s="0" t="s">
-        <x:v>473</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c r="B182" s="0" t="s">
         <x:v>474</x:v>
-      </x:c>
-      <x:c r="B182" s="0" t="s">
-        <x:v>475</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -14797,10 +14794,10 @@
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
+        <x:v>475</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
         <x:v>476</x:v>
-      </x:c>
-      <x:c r="B183" s="0" t="s">
-        <x:v>477</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -14865,10 +14862,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
         <x:v>478</x:v>
-      </x:c>
-      <x:c r="B184" s="0" t="s">
-        <x:v>479</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -14928,15 +14925,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V184" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
+        <x:v>479</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
         <x:v>480</x:v>
-      </x:c>
-      <x:c r="B185" s="0" t="s">
-        <x:v>481</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -15001,10 +14998,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
         <x:v>482</x:v>
-      </x:c>
-      <x:c r="B186" s="0" t="s">
-        <x:v>483</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>32</x:v>
@@ -15069,10 +15066,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
         <x:v>484</x:v>
-      </x:c>
-      <x:c r="B187" s="0" t="s">
-        <x:v>485</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>25</x:v>
@@ -15137,10 +15134,10 @@
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
         <x:v>486</x:v>
-      </x:c>
-      <x:c r="B188" s="0" t="s">
-        <x:v>487</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>25</x:v>
@@ -15205,10 +15202,10 @@
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
         <x:v>488</x:v>
-      </x:c>
-      <x:c r="B189" s="0" t="s">
-        <x:v>489</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>25</x:v>
@@ -15273,10 +15270,10 @@
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
         <x:v>490</x:v>
-      </x:c>
-      <x:c r="B190" s="0" t="s">
-        <x:v>491</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15341,10 +15338,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
+        <x:v>491</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
         <x:v>492</x:v>
-      </x:c>
-      <x:c r="B191" s="0" t="s">
-        <x:v>493</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>25</x:v>
@@ -15409,10 +15406,10 @@
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
+        <x:v>493</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="s">
         <x:v>494</x:v>
-      </x:c>
-      <x:c r="B192" s="0" t="s">
-        <x:v>495</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>25</x:v>
@@ -15477,10 +15474,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
         <x:v>496</x:v>
-      </x:c>
-      <x:c r="B193" s="0" t="s">
-        <x:v>497</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>25</x:v>
@@ -15540,15 +15537,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V193" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c r="B194" s="0" t="s">
         <x:v>498</x:v>
-      </x:c>
-      <x:c r="B194" s="0" t="s">
-        <x:v>499</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>25</x:v>
@@ -15613,10 +15610,10 @@
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
+        <x:v>499</x:v>
+      </x:c>
+      <x:c r="B195" s="0" t="s">
         <x:v>500</x:v>
-      </x:c>
-      <x:c r="B195" s="0" t="s">
-        <x:v>501</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>25</x:v>
@@ -15681,10 +15678,10 @@
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
+        <x:v>501</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="s">
         <x:v>502</x:v>
-      </x:c>
-      <x:c r="B196" s="0" t="s">
-        <x:v>503</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -15708,7 +15705,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J196" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="K196" s="0" t="s">
         <x:v>25</x:v>
@@ -15720,7 +15717,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N196" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="O196" s="0" t="s">
         <x:v>25</x:v>
@@ -15744,15 +15741,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V196" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>503</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
         <x:v>505</x:v>
-      </x:c>
-      <x:c r="B197" s="0" t="s">
-        <x:v>506</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>25</x:v>
@@ -15817,10 +15814,10 @@
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="s">
         <x:v>507</x:v>
-      </x:c>
-      <x:c r="B198" s="0" t="s">
-        <x:v>508</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -15885,10 +15882,10 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
         <x:v>509</x:v>
-      </x:c>
-      <x:c r="B199" s="0" t="s">
-        <x:v>510</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>25</x:v>
@@ -15953,10 +15950,10 @@
     </x:row>
     <x:row r="200" spans="1:22">
       <x:c r="A200" s="0" t="s">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="B200" s="0" t="s">
         <x:v>511</x:v>
-      </x:c>
-      <x:c r="B200" s="0" t="s">
-        <x:v>512</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>25</x:v>
@@ -16021,10 +16018,10 @@
     </x:row>
     <x:row r="201" spans="1:22">
       <x:c r="A201" s="0" t="s">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="s">
         <x:v>513</x:v>
-      </x:c>
-      <x:c r="B201" s="0" t="s">
-        <x:v>514</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>25</x:v>
@@ -16089,10 +16086,10 @@
     </x:row>
     <x:row r="202" spans="1:22">
       <x:c r="A202" s="0" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="B202" s="0" t="s">
         <x:v>515</x:v>
-      </x:c>
-      <x:c r="B202" s="0" t="s">
-        <x:v>516</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>25</x:v>
@@ -16157,10 +16154,10 @@
     </x:row>
     <x:row r="203" spans="1:22">
       <x:c r="A203" s="0" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
         <x:v>517</x:v>
-      </x:c>
-      <x:c r="B203" s="0" t="s">
-        <x:v>518</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>25</x:v>
@@ -16225,10 +16222,10 @@
     </x:row>
     <x:row r="204" spans="1:22">
       <x:c r="A204" s="0" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="B204" s="0" t="s">
         <x:v>519</x:v>
-      </x:c>
-      <x:c r="B204" s="0" t="s">
-        <x:v>520</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>25</x:v>
@@ -16293,10 +16290,10 @@
     </x:row>
     <x:row r="205" spans="1:22">
       <x:c r="A205" s="0" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="B205" s="0" t="s">
         <x:v>521</x:v>
-      </x:c>
-      <x:c r="B205" s="0" t="s">
-        <x:v>522</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>25</x:v>
@@ -16361,10 +16358,10 @@
     </x:row>
     <x:row r="206" spans="1:22">
       <x:c r="A206" s="0" t="s">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c r="B206" s="0" t="s">
         <x:v>523</x:v>
-      </x:c>
-      <x:c r="B206" s="0" t="s">
-        <x:v>524</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>25</x:v>
@@ -16429,10 +16426,10 @@
     </x:row>
     <x:row r="207" spans="1:22">
       <x:c r="A207" s="0" t="s">
+        <x:v>524</x:v>
+      </x:c>
+      <x:c r="B207" s="0" t="s">
         <x:v>525</x:v>
-      </x:c>
-      <x:c r="B207" s="0" t="s">
-        <x:v>526</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>25</x:v>
@@ -16497,10 +16494,10 @@
     </x:row>
     <x:row r="208" spans="1:22">
       <x:c r="A208" s="0" t="s">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="B208" s="0" t="s">
         <x:v>527</x:v>
-      </x:c>
-      <x:c r="B208" s="0" t="s">
-        <x:v>528</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>24</x:v>
@@ -16536,7 +16533,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N208" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="O208" s="0" t="s">
         <x:v>24</x:v>
@@ -16560,15 +16557,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V208" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>528</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:22">
       <x:c r="A209" s="0" t="s">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="B209" s="0" t="s">
         <x:v>530</x:v>
-      </x:c>
-      <x:c r="B209" s="0" t="s">
-        <x:v>531</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>32</x:v>
@@ -16628,15 +16625,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V209" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
       <x:c r="A210" s="0" t="s">
+        <x:v>531</x:v>
+      </x:c>
+      <x:c r="B210" s="0" t="s">
         <x:v>532</x:v>
-      </x:c>
-      <x:c r="B210" s="0" t="s">
-        <x:v>533</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>24</x:v>
@@ -16701,10 +16698,10 @@
     </x:row>
     <x:row r="211" spans="1:22">
       <x:c r="A211" s="0" t="s">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="B211" s="0" t="s">
         <x:v>534</x:v>
-      </x:c>
-      <x:c r="B211" s="0" t="s">
-        <x:v>535</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>24</x:v>
@@ -16764,15 +16761,15 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="V211" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
       <x:c r="A212" s="0" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="B212" s="0" t="s">
         <x:v>537</x:v>
-      </x:c>
-      <x:c r="B212" s="0" t="s">
-        <x:v>538</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>25</x:v>
@@ -16837,10 +16834,10 @@
     </x:row>
     <x:row r="213" spans="1:22">
       <x:c r="A213" s="0" t="s">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="B213" s="0" t="s">
         <x:v>539</x:v>
-      </x:c>
-      <x:c r="B213" s="0" t="s">
-        <x:v>540</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>25</x:v>
@@ -16905,10 +16902,10 @@
     </x:row>
     <x:row r="214" spans="1:22">
       <x:c r="A214" s="0" t="s">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="B214" s="0" t="s">
         <x:v>541</x:v>
-      </x:c>
-      <x:c r="B214" s="0" t="s">
-        <x:v>542</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>25</x:v>
@@ -16973,10 +16970,10 @@
     </x:row>
     <x:row r="215" spans="1:22">
       <x:c r="A215" s="0" t="s">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c r="B215" s="0" t="s">
         <x:v>543</x:v>
-      </x:c>
-      <x:c r="B215" s="0" t="s">
-        <x:v>544</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>25</x:v>
@@ -17041,10 +17038,10 @@
     </x:row>
     <x:row r="216" spans="1:22">
       <x:c r="A216" s="0" t="s">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c r="B216" s="0" t="s">
         <x:v>545</x:v>
-      </x:c>
-      <x:c r="B216" s="0" t="s">
-        <x:v>546</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>25</x:v>
@@ -17109,10 +17106,10 @@
     </x:row>
     <x:row r="217" spans="1:22">
       <x:c r="A217" s="0" t="s">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c r="B217" s="0" t="s">
         <x:v>547</x:v>
-      </x:c>
-      <x:c r="B217" s="0" t="s">
-        <x:v>548</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>25</x:v>
@@ -17177,10 +17174,10 @@
     </x:row>
     <x:row r="218" spans="1:22">
       <x:c r="A218" s="0" t="s">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="B218" s="0" t="s">
         <x:v>549</x:v>
-      </x:c>
-      <x:c r="B218" s="0" t="s">
-        <x:v>550</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>25</x:v>
@@ -17245,10 +17242,10 @@
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="B219" s="0" t="s">
         <x:v>551</x:v>
-      </x:c>
-      <x:c r="B219" s="0" t="s">
-        <x:v>552</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17313,10 +17310,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="B220" s="0" t="s">
         <x:v>553</x:v>
-      </x:c>
-      <x:c r="B220" s="0" t="s">
-        <x:v>554</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17381,10 +17378,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="B221" s="0" t="s">
         <x:v>555</x:v>
-      </x:c>
-      <x:c r="B221" s="0" t="s">
-        <x:v>556</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>27</x:v>
@@ -17399,7 +17396,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G221" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="H221" s="0" t="s">
         <x:v>25</x:v>
@@ -17426,7 +17423,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="P221" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="Q221" s="0" t="s">
         <x:v>24</x:v>
@@ -17444,15 +17441,15 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>558</x:v>
+        <x:v>557</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c r="B222" s="0" t="s">
         <x:v>559</x:v>
-      </x:c>
-      <x:c r="B222" s="0" t="s">
-        <x:v>560</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17517,10 +17514,10 @@
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c r="B223" s="0" t="s">
         <x:v>561</x:v>
-      </x:c>
-      <x:c r="B223" s="0" t="s">
-        <x:v>562</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>25</x:v>
@@ -17585,10 +17582,10 @@
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c r="B224" s="0" t="s">
         <x:v>563</x:v>
-      </x:c>
-      <x:c r="B224" s="0" t="s">
-        <x:v>564</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -17653,10 +17650,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c r="B225" s="0" t="s">
         <x:v>565</x:v>
-      </x:c>
-      <x:c r="B225" s="0" t="s">
-        <x:v>566</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -17721,10 +17718,10 @@
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
+        <x:v>566</x:v>
+      </x:c>
+      <x:c r="B226" s="0" t="s">
         <x:v>567</x:v>
-      </x:c>
-      <x:c r="B226" s="0" t="s">
-        <x:v>568</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -17789,10 +17786,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
+        <x:v>568</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
         <x:v>569</x:v>
-      </x:c>
-      <x:c r="B227" s="0" t="s">
-        <x:v>570</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -17857,10 +17854,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
+        <x:v>570</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
         <x:v>571</x:v>
-      </x:c>
-      <x:c r="B228" s="0" t="s">
-        <x:v>572</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>25</x:v>
@@ -17925,10 +17922,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
+        <x:v>572</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="s">
         <x:v>573</x:v>
-      </x:c>
-      <x:c r="B229" s="0" t="s">
-        <x:v>574</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -17993,10 +17990,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
+        <x:v>574</x:v>
+      </x:c>
+      <x:c r="B230" s="0" t="s">
         <x:v>575</x:v>
-      </x:c>
-      <x:c r="B230" s="0" t="s">
-        <x:v>576</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18061,10 +18058,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
+        <x:v>576</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="s">
         <x:v>577</x:v>
-      </x:c>
-      <x:c r="B231" s="0" t="s">
-        <x:v>578</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18129,10 +18126,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
+        <x:v>578</x:v>
+      </x:c>
+      <x:c r="B232" s="0" t="s">
         <x:v>579</x:v>
-      </x:c>
-      <x:c r="B232" s="0" t="s">
-        <x:v>580</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18197,10 +18194,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="B233" s="0" t="s">
         <x:v>581</x:v>
-      </x:c>
-      <x:c r="B233" s="0" t="s">
-        <x:v>582</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18265,10 +18262,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
+        <x:v>582</x:v>
+      </x:c>
+      <x:c r="B234" s="0" t="s">
         <x:v>583</x:v>
-      </x:c>
-      <x:c r="B234" s="0" t="s">
-        <x:v>584</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18333,10 +18330,10 @@
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
+        <x:v>584</x:v>
+      </x:c>
+      <x:c r="B235" s="0" t="s">
         <x:v>585</x:v>
-      </x:c>
-      <x:c r="B235" s="0" t="s">
-        <x:v>586</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>25</x:v>
@@ -18401,10 +18398,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
+        <x:v>586</x:v>
+      </x:c>
+      <x:c r="B236" s="0" t="s">
         <x:v>587</x:v>
-      </x:c>
-      <x:c r="B236" s="0" t="s">
-        <x:v>588</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>25</x:v>
@@ -18469,10 +18466,10 @@
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c r="B237" s="0" t="s">
         <x:v>589</x:v>
-      </x:c>
-      <x:c r="B237" s="0" t="s">
-        <x:v>590</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>25</x:v>
@@ -18537,10 +18534,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="B238" s="0" t="s">
         <x:v>591</x:v>
-      </x:c>
-      <x:c r="B238" s="0" t="s">
-        <x:v>592</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>25</x:v>
@@ -18605,10 +18602,10 @@
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="B239" s="0" t="s">
         <x:v>593</x:v>
-      </x:c>
-      <x:c r="B239" s="0" t="s">
-        <x:v>594</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>25</x:v>
@@ -18673,10 +18670,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c r="B240" s="0" t="s">
         <x:v>595</x:v>
-      </x:c>
-      <x:c r="B240" s="0" t="s">
-        <x:v>596</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>25</x:v>
@@ -18741,10 +18738,10 @@
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
+        <x:v>596</x:v>
+      </x:c>
+      <x:c r="B241" s="0" t="s">
         <x:v>597</x:v>
-      </x:c>
-      <x:c r="B241" s="0" t="s">
-        <x:v>598</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>32</x:v>
@@ -18804,15 +18801,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>598</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="B242" s="0" t="s">
         <x:v>600</x:v>
-      </x:c>
-      <x:c r="B242" s="0" t="s">
-        <x:v>601</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>25</x:v>
@@ -18877,10 +18874,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
+        <x:v>601</x:v>
+      </x:c>
+      <x:c r="B243" s="0" t="s">
         <x:v>602</x:v>
-      </x:c>
-      <x:c r="B243" s="0" t="s">
-        <x:v>603</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>25</x:v>
@@ -18945,10 +18942,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
+        <x:v>603</x:v>
+      </x:c>
+      <x:c r="B244" s="0" t="s">
         <x:v>604</x:v>
-      </x:c>
-      <x:c r="B244" s="0" t="s">
-        <x:v>605</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>25</x:v>
@@ -19013,10 +19010,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
+        <x:v>605</x:v>
+      </x:c>
+      <x:c r="B245" s="0" t="s">
         <x:v>606</x:v>
-      </x:c>
-      <x:c r="B245" s="0" t="s">
-        <x:v>607</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>24</x:v>
@@ -19081,10 +19078,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
+        <x:v>607</x:v>
+      </x:c>
+      <x:c r="B246" s="0" t="s">
         <x:v>608</x:v>
-      </x:c>
-      <x:c r="B246" s="0" t="s">
-        <x:v>609</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>25</x:v>
@@ -19144,15 +19141,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V246" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
+        <x:v>609</x:v>
+      </x:c>
+      <x:c r="B247" s="0" t="s">
         <x:v>610</x:v>
-      </x:c>
-      <x:c r="B247" s="0" t="s">
-        <x:v>611</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>24</x:v>
@@ -19217,10 +19214,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c r="B248" s="0" t="s">
         <x:v>612</x:v>
-      </x:c>
-      <x:c r="B248" s="0" t="s">
-        <x:v>613</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>28</x:v>
@@ -19280,15 +19277,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V248" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>418</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
+        <x:v>613</x:v>
+      </x:c>
+      <x:c r="B249" s="0" t="s">
         <x:v>614</x:v>
-      </x:c>
-      <x:c r="B249" s="0" t="s">
-        <x:v>615</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>25</x:v>
@@ -19353,10 +19350,10 @@
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="B250" s="0" t="s">
         <x:v>616</x:v>
-      </x:c>
-      <x:c r="B250" s="0" t="s">
-        <x:v>617</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19421,10 +19418,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
+        <x:v>617</x:v>
+      </x:c>
+      <x:c r="B251" s="0" t="s">
         <x:v>618</x:v>
-      </x:c>
-      <x:c r="B251" s="0" t="s">
-        <x:v>619</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>25</x:v>
@@ -19489,10 +19486,10 @@
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
+        <x:v>619</x:v>
+      </x:c>
+      <x:c r="B252" s="0" t="s">
         <x:v>620</x:v>
-      </x:c>
-      <x:c r="B252" s="0" t="s">
-        <x:v>621</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>25</x:v>
@@ -19557,10 +19554,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="B253" s="0" t="s">
         <x:v>622</x:v>
-      </x:c>
-      <x:c r="B253" s="0" t="s">
-        <x:v>623</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>25</x:v>
@@ -19625,10 +19622,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
+        <x:v>623</x:v>
+      </x:c>
+      <x:c r="B254" s="0" t="s">
         <x:v>624</x:v>
-      </x:c>
-      <x:c r="B254" s="0" t="s">
-        <x:v>625</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>25</x:v>
@@ -19693,10 +19690,10 @@
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
+        <x:v>625</x:v>
+      </x:c>
+      <x:c r="B255" s="0" t="s">
         <x:v>626</x:v>
-      </x:c>
-      <x:c r="B255" s="0" t="s">
-        <x:v>627</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>25</x:v>
@@ -19756,15 +19753,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V255" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>627</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c r="B256" s="0" t="s">
         <x:v>629</x:v>
-      </x:c>
-      <x:c r="B256" s="0" t="s">
-        <x:v>630</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>24</x:v>
@@ -19800,7 +19797,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="N256" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="O256" s="0" t="s">
         <x:v>35</x:v>
@@ -19824,15 +19821,15 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="V256" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>630</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c r="B257" s="0" t="s">
         <x:v>632</x:v>
-      </x:c>
-      <x:c r="B257" s="0" t="s">
-        <x:v>633</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>25</x:v>
@@ -19897,10 +19894,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
+        <x:v>633</x:v>
+      </x:c>
+      <x:c r="B258" s="0" t="s">
         <x:v>634</x:v>
-      </x:c>
-      <x:c r="B258" s="0" t="s">
-        <x:v>635</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>25</x:v>
@@ -19965,10 +19962,10 @@
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
+        <x:v>635</x:v>
+      </x:c>
+      <x:c r="B259" s="0" t="s">
         <x:v>636</x:v>
-      </x:c>
-      <x:c r="B259" s="0" t="s">
-        <x:v>637</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>25</x:v>
@@ -20033,10 +20030,10 @@
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="B260" s="0" t="s">
         <x:v>638</x:v>
-      </x:c>
-      <x:c r="B260" s="0" t="s">
-        <x:v>639</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>25</x:v>
@@ -20078,7 +20075,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P260" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Q260" s="0" t="s">
         <x:v>25</x:v>
@@ -20096,15 +20093,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V260" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
+        <x:v>639</x:v>
+      </x:c>
+      <x:c r="B261" s="0" t="s">
         <x:v>640</x:v>
-      </x:c>
-      <x:c r="B261" s="0" t="s">
-        <x:v>641</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>25</x:v>
@@ -20169,10 +20166,10 @@
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
+        <x:v>641</x:v>
+      </x:c>
+      <x:c r="B262" s="0" t="s">
         <x:v>642</x:v>
-      </x:c>
-      <x:c r="B262" s="0" t="s">
-        <x:v>643</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>24</x:v>
@@ -20232,15 +20229,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V262" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>398</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
+        <x:v>643</x:v>
+      </x:c>
+      <x:c r="B263" s="0" t="s">
         <x:v>644</x:v>
-      </x:c>
-      <x:c r="B263" s="0" t="s">
-        <x:v>645</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20305,10 +20302,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c r="B264" s="0" t="s">
         <x:v>646</x:v>
-      </x:c>
-      <x:c r="B264" s="0" t="s">
-        <x:v>647</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20368,15 +20365,15 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="V264" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>647</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c r="B265" s="0" t="s">
         <x:v>649</x:v>
-      </x:c>
-      <x:c r="B265" s="0" t="s">
-        <x:v>650</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20441,10 +20438,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c r="B266" s="0" t="s">
         <x:v>651</x:v>
-      </x:c>
-      <x:c r="B266" s="0" t="s">
-        <x:v>652</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>25</x:v>
@@ -20509,10 +20506,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c r="B267" s="0" t="s">
         <x:v>653</x:v>
-      </x:c>
-      <x:c r="B267" s="0" t="s">
-        <x:v>654</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20577,10 +20574,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
+        <x:v>654</x:v>
+      </x:c>
+      <x:c r="B268" s="0" t="s">
         <x:v>655</x:v>
-      </x:c>
-      <x:c r="B268" s="0" t="s">
-        <x:v>656</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>25</x:v>
@@ -20645,10 +20642,10 @@
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
+        <x:v>656</x:v>
+      </x:c>
+      <x:c r="B269" s="0" t="s">
         <x:v>657</x:v>
-      </x:c>
-      <x:c r="B269" s="0" t="s">
-        <x:v>658</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -20713,10 +20710,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c r="B270" s="0" t="s">
         <x:v>659</x:v>
-      </x:c>
-      <x:c r="B270" s="0" t="s">
-        <x:v>660</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -20781,10 +20778,10 @@
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
+        <x:v>660</x:v>
+      </x:c>
+      <x:c r="B271" s="0" t="s">
         <x:v>661</x:v>
-      </x:c>
-      <x:c r="B271" s="0" t="s">
-        <x:v>662</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -20849,10 +20846,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
+        <x:v>662</x:v>
+      </x:c>
+      <x:c r="B272" s="0" t="s">
         <x:v>663</x:v>
-      </x:c>
-      <x:c r="B272" s="0" t="s">
-        <x:v>664</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -20917,10 +20914,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
+        <x:v>664</x:v>
+      </x:c>
+      <x:c r="B273" s="0" t="s">
         <x:v>665</x:v>
-      </x:c>
-      <x:c r="B273" s="0" t="s">
-        <x:v>666</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -20980,15 +20977,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V273" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>666</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c r="B274" s="0" t="s">
         <x:v>668</x:v>
-      </x:c>
-      <x:c r="B274" s="0" t="s">
-        <x:v>669</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21024,7 +21021,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N274" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O274" s="0" t="s">
         <x:v>25</x:v>
@@ -21048,15 +21045,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V274" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c r="B275" s="0" t="s">
         <x:v>670</x:v>
-      </x:c>
-      <x:c r="B275" s="0" t="s">
-        <x:v>671</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21121,10 +21118,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
+        <x:v>671</x:v>
+      </x:c>
+      <x:c r="B276" s="0" t="s">
         <x:v>672</x:v>
-      </x:c>
-      <x:c r="B276" s="0" t="s">
-        <x:v>673</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21189,10 +21186,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="B277" s="0" t="s">
         <x:v>674</x:v>
-      </x:c>
-      <x:c r="B277" s="0" t="s">
-        <x:v>675</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21257,10 +21254,10 @@
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
+        <x:v>675</x:v>
+      </x:c>
+      <x:c r="B278" s="0" t="s">
         <x:v>676</x:v>
-      </x:c>
-      <x:c r="B278" s="0" t="s">
-        <x:v>677</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -772,10 +772,10 @@
     <x:t>98</x:t>
   </x:si>
   <x:si>
-    <x:t>188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>927</x:t>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>928</x:t>
   </x:si>
   <x:si>
     <x:t>MN0271200</x:t>
@@ -1384,129 +1384,132 @@
     <x:t>Maplewood Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mounds View Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Brighton Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0621000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>White Bear Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0630000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Lake County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0640000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0640200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olivia Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Northfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0680000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0680200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Warroad Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Louis County Sheriff</x:t>
+  </x:si>
+  <x:si>
     <x:t>60</x:t>
   </x:si>
   <x:si>
-    <x:t>MN0620500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mounds View Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Brighton Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>456</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0621000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>White Bear Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0630000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Lake County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0640000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0640200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olivia Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Northfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0680000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0680200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Warroad Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Louis County Sheriff</x:t>
-  </x:si>
-  <x:si>
     <x:t>MN0690200</x:t>
   </x:si>
   <x:si>
@@ -1600,7 +1603,7 @@
     <x:t>Shakopee Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>184</x:t>
+    <x:t>185</x:t>
   </x:si>
   <x:si>
     <x:t>MN0700600</x:t>
@@ -14336,7 +14339,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G176" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H176" s="0" t="s">
         <x:v>25</x:v>
@@ -15537,15 +15540,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V193" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>497</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>25</x:v>
@@ -15610,10 +15613,10 @@
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>25</x:v>
@@ -15678,10 +15681,10 @@
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -15717,7 +15720,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N196" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="O196" s="0" t="s">
         <x:v>25</x:v>
@@ -15741,15 +15744,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V196" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>25</x:v>
@@ -15814,10 +15817,10 @@
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -15882,10 +15885,10 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>25</x:v>
@@ -15950,10 +15953,10 @@
     </x:row>
     <x:row r="200" spans="1:22">
       <x:c r="A200" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>25</x:v>
@@ -16018,10 +16021,10 @@
     </x:row>
     <x:row r="201" spans="1:22">
       <x:c r="A201" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>25</x:v>
@@ -16086,10 +16089,10 @@
     </x:row>
     <x:row r="202" spans="1:22">
       <x:c r="A202" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>25</x:v>
@@ -16154,10 +16157,10 @@
     </x:row>
     <x:row r="203" spans="1:22">
       <x:c r="A203" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>25</x:v>
@@ -16222,10 +16225,10 @@
     </x:row>
     <x:row r="204" spans="1:22">
       <x:c r="A204" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>25</x:v>
@@ -16290,10 +16293,10 @@
     </x:row>
     <x:row r="205" spans="1:22">
       <x:c r="A205" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>25</x:v>
@@ -16358,10 +16361,10 @@
     </x:row>
     <x:row r="206" spans="1:22">
       <x:c r="A206" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>25</x:v>
@@ -16426,10 +16429,10 @@
     </x:row>
     <x:row r="207" spans="1:22">
       <x:c r="A207" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>25</x:v>
@@ -16494,10 +16497,10 @@
     </x:row>
     <x:row r="208" spans="1:22">
       <x:c r="A208" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>24</x:v>
@@ -16512,7 +16515,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G208" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H208" s="0" t="s">
         <x:v>25</x:v>
@@ -16557,15 +16560,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V208" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:22">
       <x:c r="A209" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>32</x:v>
@@ -16630,10 +16633,10 @@
     </x:row>
     <x:row r="210" spans="1:22">
       <x:c r="A210" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>24</x:v>
@@ -16698,10 +16701,10 @@
     </x:row>
     <x:row r="211" spans="1:22">
       <x:c r="A211" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>24</x:v>
@@ -16761,15 +16764,15 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="V211" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>536</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
       <x:c r="A212" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>25</x:v>
@@ -16834,10 +16837,10 @@
     </x:row>
     <x:row r="213" spans="1:22">
       <x:c r="A213" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>25</x:v>
@@ -16902,10 +16905,10 @@
     </x:row>
     <x:row r="214" spans="1:22">
       <x:c r="A214" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>25</x:v>
@@ -16970,10 +16973,10 @@
     </x:row>
     <x:row r="215" spans="1:22">
       <x:c r="A215" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>25</x:v>
@@ -17038,10 +17041,10 @@
     </x:row>
     <x:row r="216" spans="1:22">
       <x:c r="A216" s="0" t="s">
-        <x:v>544</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>25</x:v>
@@ -17106,10 +17109,10 @@
     </x:row>
     <x:row r="217" spans="1:22">
       <x:c r="A217" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
-        <x:v>547</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>25</x:v>
@@ -17174,10 +17177,10 @@
     </x:row>
     <x:row r="218" spans="1:22">
       <x:c r="A218" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
-        <x:v>549</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>25</x:v>
@@ -17242,10 +17245,10 @@
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
-        <x:v>551</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17310,10 +17313,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
-        <x:v>552</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
-        <x:v>553</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17378,10 +17381,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
-        <x:v>554</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
-        <x:v>555</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>27</x:v>
@@ -17423,7 +17426,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="P221" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="Q221" s="0" t="s">
         <x:v>24</x:v>
@@ -17441,15 +17444,15 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>558</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
-        <x:v>558</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17514,10 +17517,10 @@
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
-        <x:v>560</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
-        <x:v>561</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>25</x:v>
@@ -17582,10 +17585,10 @@
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
-        <x:v>562</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
-        <x:v>563</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -17650,10 +17653,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
-        <x:v>564</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -17718,10 +17721,10 @@
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
-        <x:v>566</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
-        <x:v>567</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -17786,10 +17789,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
-        <x:v>568</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
-        <x:v>569</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -17854,10 +17857,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>25</x:v>
@@ -17922,10 +17925,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
-        <x:v>572</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -17990,10 +17993,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18058,10 +18061,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18126,10 +18129,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18194,10 +18197,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
-        <x:v>581</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18262,10 +18265,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18330,10 +18333,10 @@
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>25</x:v>
@@ -18398,10 +18401,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>25</x:v>
@@ -18466,10 +18469,10 @@
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
-        <x:v>588</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
-        <x:v>589</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>25</x:v>
@@ -18534,10 +18537,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
-        <x:v>591</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>25</x:v>
@@ -18602,10 +18605,10 @@
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
-        <x:v>592</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>25</x:v>
@@ -18670,10 +18673,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
-        <x:v>594</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>25</x:v>
@@ -18738,10 +18741,10 @@
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>32</x:v>
@@ -18801,15 +18804,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>598</x:v>
+        <x:v>599</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>25</x:v>
@@ -18874,10 +18877,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
-        <x:v>601</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>25</x:v>
@@ -18942,10 +18945,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
-        <x:v>603</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
-        <x:v>604</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>25</x:v>
@@ -19010,10 +19013,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>24</x:v>
@@ -19078,10 +19081,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
-        <x:v>608</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>25</x:v>
@@ -19146,10 +19149,10 @@
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
-        <x:v>609</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>24</x:v>
@@ -19214,10 +19217,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
-        <x:v>612</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>28</x:v>
@@ -19282,10 +19285,10 @@
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
-        <x:v>613</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
-        <x:v>614</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>25</x:v>
@@ -19350,10 +19353,10 @@
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19418,10 +19421,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
-        <x:v>617</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>25</x:v>
@@ -19486,10 +19489,10 @@
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
-        <x:v>620</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>25</x:v>
@@ -19554,10 +19557,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>25</x:v>
@@ -19622,10 +19625,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>25</x:v>
@@ -19690,10 +19693,10 @@
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>25</x:v>
@@ -19753,15 +19756,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V255" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>24</x:v>
@@ -19821,15 +19824,15 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="V256" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>25</x:v>
@@ -19894,10 +19897,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>25</x:v>
@@ -19962,10 +19965,10 @@
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>25</x:v>
@@ -20030,10 +20033,10 @@
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
-        <x:v>637</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>25</x:v>
@@ -20098,10 +20101,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>25</x:v>
@@ -20166,10 +20169,10 @@
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>24</x:v>
@@ -20234,10 +20237,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
-        <x:v>643</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20302,10 +20305,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20365,15 +20368,15 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="V264" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20438,10 +20441,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>25</x:v>
@@ -20506,10 +20509,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20574,10 +20577,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>25</x:v>
@@ -20642,10 +20645,10 @@
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -20710,10 +20713,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -20778,10 +20781,10 @@
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -20846,10 +20849,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -20914,10 +20917,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -20977,15 +20980,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V273" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21050,10 +21053,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21118,10 +21121,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21186,10 +21189,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21254,10 +21257,10 @@
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -685,13 +685,13 @@
     <x:t>43</x:t>
   </x:si>
   <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>521</x:t>
+    <x:t>159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>523</x:t>
   </x:si>
   <x:si>
     <x:t>MN0270200</x:t>
@@ -6268,7 +6268,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N57" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O57" s="0" t="s">
         <x:v>24</x:v>
@@ -6292,7 +6292,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V57" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:22">
@@ -9121,10 +9121,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M99" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="N99" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="O99" s="0" t="s">
         <x:v>25</x:v>
@@ -9148,7 +9148,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V99" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:22">
@@ -14942,7 +14942,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D185" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E185" s="0" t="s">
         <x:v>25</x:v>
@@ -14960,7 +14960,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J185" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K185" s="0" t="s">
         <x:v>25</x:v>
@@ -14978,7 +14978,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P185" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="Q185" s="0" t="s">
         <x:v>25</x:v>
@@ -14996,7 +14996,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V185" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:22">
@@ -18372,7 +18372,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N235" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O235" s="0" t="s">
         <x:v>25</x:v>
@@ -18396,7 +18396,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V235" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -157,579 +157,582 @@
     <x:t>15</x:t>
   </x:si>
   <x:si>
+    <x:t>107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Centennial Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Columbia Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coon Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fridley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lino Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spring Lake Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0021300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0021500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Francis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Detroit Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audubon Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Callaway Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beltrami County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bemidji Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blackduck Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0050000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benton County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0050200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sauk Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mankato Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0071000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Madison Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Ulm Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlton County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cloquet Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chaska Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Branch Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakes Area Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dilworth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moorhead Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glyndon Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bagley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windom Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brainerd Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosby Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breezy Point Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosslake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baxter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nisswa Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burnsville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farmington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hastings Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mendota Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rosemount Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inver Grove Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apple Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakeville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alexandria Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wells Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0230400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Preston Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albert Lea Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cannon Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Wing Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0260000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bloomington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Center Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deephaven Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
     <x:t>106</x:t>
   </x:si>
   <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Centennial Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Columbia Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coon Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fridley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lino Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Spring Lake Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0021300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0021500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Francis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Detroit Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Audubon Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Callaway Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beltrami County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bemidji Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blackduck Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0050000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benton County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0050200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sauk Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mankato Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0071000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Madison Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Ulm Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cloquet Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carver County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chaska Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Branch Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakes Area Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dilworth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moorhead Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glyndon Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bagley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windom Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brainerd Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosby Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breezy Point Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosslake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baxter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nisswa Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burnsville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farmington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hastings Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mendota Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rosemount Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inver Grove Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apple Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakeville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kasson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alexandria Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wells Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0230400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Preston Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Albert Lea Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cannon Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Wing Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0260000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bloomington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Center Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deephaven Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
     <x:t>MN0270700</x:t>
   </x:si>
   <x:si>
@@ -1147,9 +1150,6 @@
     <x:t>Meeker County Sheriff</x:t>
   </x:si>
   <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
     <x:t>MN0470100</x:t>
   </x:si>
   <x:si>
@@ -1168,6 +1168,9 @@
     <x:t>Mille Lacs County Sheriff</x:t>
   </x:si>
   <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
     <x:t>MN0480100</x:t>
   </x:si>
   <x:si>
@@ -1268,9 +1271,6 @@
   </x:si>
   <x:si>
     <x:t>Olmsted County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
   </x:si>
   <x:si>
     <x:t>MN0550100</x:t>
@@ -4275,7 +4275,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
         <x:v>24</x:v>
@@ -4296,7 +4296,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N28" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O28" s="0" t="s">
         <x:v>25</x:v>
@@ -4320,15 +4320,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V28" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:22">
       <x:c r="A29" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>24</x:v>
@@ -4388,15 +4388,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V29" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:22">
       <x:c r="A30" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>24</x:v>
@@ -4461,10 +4461,10 @@
     </x:row>
     <x:row r="31" spans="1:22">
       <x:c r="A31" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>24</x:v>
@@ -4529,10 +4529,10 @@
     </x:row>
     <x:row r="32" spans="1:22">
       <x:c r="A32" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>25</x:v>
@@ -4597,10 +4597,10 @@
     </x:row>
     <x:row r="33" spans="1:22">
       <x:c r="A33" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
         <x:v>25</x:v>
@@ -4660,15 +4660,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V33" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:22">
       <x:c r="A34" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
         <x:v>25</x:v>
@@ -4733,10 +4733,10 @@
     </x:row>
     <x:row r="35" spans="1:22">
       <x:c r="A35" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>25</x:v>
@@ -4801,10 +4801,10 @@
     </x:row>
     <x:row r="36" spans="1:22">
       <x:c r="A36" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
         <x:v>25</x:v>
@@ -4869,10 +4869,10 @@
     </x:row>
     <x:row r="37" spans="1:22">
       <x:c r="A37" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
         <x:v>32</x:v>
@@ -4937,10 +4937,10 @@
     </x:row>
     <x:row r="38" spans="1:22">
       <x:c r="A38" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
         <x:v>61</x:v>
@@ -4976,10 +4976,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N38" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="O38" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P38" s="0" t="s">
         <x:v>52</x:v>
@@ -4988,7 +4988,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="R38" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="S38" s="0" t="s">
         <x:v>24</x:v>
@@ -5000,15 +5000,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V38" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:22">
       <x:c r="A39" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>25</x:v>
@@ -5073,10 +5073,10 @@
     </x:row>
     <x:row r="40" spans="1:22">
       <x:c r="A40" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>25</x:v>
@@ -5141,10 +5141,10 @@
     </x:row>
     <x:row r="41" spans="1:22">
       <x:c r="A41" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
         <x:v>25</x:v>
@@ -5209,10 +5209,10 @@
     </x:row>
     <x:row r="42" spans="1:22">
       <x:c r="A42" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
         <x:v>25</x:v>
@@ -5277,10 +5277,10 @@
     </x:row>
     <x:row r="43" spans="1:22">
       <x:c r="A43" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
         <x:v>24</x:v>
@@ -5345,10 +5345,10 @@
     </x:row>
     <x:row r="44" spans="1:22">
       <x:c r="A44" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>24</x:v>
@@ -5384,7 +5384,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="O44" s="0" t="s">
         <x:v>25</x:v>
@@ -5408,15 +5408,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V44" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:22">
       <x:c r="A45" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
         <x:v>25</x:v>
@@ -5481,10 +5481,10 @@
     </x:row>
     <x:row r="46" spans="1:22">
       <x:c r="A46" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
         <x:v>25</x:v>
@@ -5549,10 +5549,10 @@
     </x:row>
     <x:row r="47" spans="1:22">
       <x:c r="A47" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>25</x:v>
@@ -5617,10 +5617,10 @@
     </x:row>
     <x:row r="48" spans="1:22">
       <x:c r="A48" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
         <x:v>25</x:v>
@@ -5656,7 +5656,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N48" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="O48" s="0" t="s">
         <x:v>25</x:v>
@@ -5680,15 +5680,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V48" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:22">
       <x:c r="A49" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>25</x:v>
@@ -5753,10 +5753,10 @@
     </x:row>
     <x:row r="50" spans="1:22">
       <x:c r="A50" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
         <x:v>25</x:v>
@@ -5821,10 +5821,10 @@
     </x:row>
     <x:row r="51" spans="1:22">
       <x:c r="A51" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
         <x:v>25</x:v>
@@ -5889,10 +5889,10 @@
     </x:row>
     <x:row r="52" spans="1:22">
       <x:c r="A52" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
         <x:v>25</x:v>
@@ -5957,10 +5957,10 @@
     </x:row>
     <x:row r="53" spans="1:22">
       <x:c r="A53" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
         <x:v>25</x:v>
@@ -6025,10 +6025,10 @@
     </x:row>
     <x:row r="54" spans="1:22">
       <x:c r="A54" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
         <x:v>25</x:v>
@@ -6093,10 +6093,10 @@
     </x:row>
     <x:row r="55" spans="1:22">
       <x:c r="A55" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
         <x:v>24</x:v>
@@ -6153,18 +6153,18 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="U55" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="V55" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:22">
       <x:c r="A56" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>25</x:v>
@@ -6229,10 +6229,10 @@
     </x:row>
     <x:row r="57" spans="1:22">
       <x:c r="A57" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
         <x:v>24</x:v>
@@ -6297,10 +6297,10 @@
     </x:row>
     <x:row r="58" spans="1:22">
       <x:c r="A58" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>24</x:v>
@@ -6360,15 +6360,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V58" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:22">
       <x:c r="A59" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
         <x:v>25</x:v>
@@ -6404,7 +6404,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N59" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O59" s="0" t="s">
         <x:v>25</x:v>
@@ -6428,15 +6428,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V59" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:22">
       <x:c r="A60" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
         <x:v>25</x:v>
@@ -6501,10 +6501,10 @@
     </x:row>
     <x:row r="61" spans="1:22">
       <x:c r="A61" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
         <x:v>25</x:v>
@@ -6569,10 +6569,10 @@
     </x:row>
     <x:row r="62" spans="1:22">
       <x:c r="A62" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
         <x:v>25</x:v>
@@ -6637,10 +6637,10 @@
     </x:row>
     <x:row r="63" spans="1:22">
       <x:c r="A63" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
         <x:v>25</x:v>
@@ -6676,7 +6676,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N63" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="O63" s="0" t="s">
         <x:v>32</x:v>
@@ -6700,15 +6700,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V63" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:22">
       <x:c r="A64" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
         <x:v>25</x:v>
@@ -6768,15 +6768,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V64" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:22">
       <x:c r="A65" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
         <x:v>25</x:v>
@@ -6841,10 +6841,10 @@
     </x:row>
     <x:row r="66" spans="1:22">
       <x:c r="A66" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
         <x:v>25</x:v>
@@ -6909,10 +6909,10 @@
     </x:row>
     <x:row r="67" spans="1:22">
       <x:c r="A67" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
         <x:v>25</x:v>
@@ -6977,10 +6977,10 @@
     </x:row>
     <x:row r="68" spans="1:22">
       <x:c r="A68" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
         <x:v>25</x:v>
@@ -7045,10 +7045,10 @@
     </x:row>
     <x:row r="69" spans="1:22">
       <x:c r="A69" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
         <x:v>25</x:v>
@@ -7063,7 +7063,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H69" s="0" t="s">
         <x:v>25</x:v>
@@ -7108,15 +7108,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V69" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:22">
       <x:c r="A70" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>25</x:v>
@@ -7152,7 +7152,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N70" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="O70" s="0" t="s">
         <x:v>25</x:v>
@@ -7176,15 +7176,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V70" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
       <x:c r="A71" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>25</x:v>
@@ -7249,10 +7249,10 @@
     </x:row>
     <x:row r="72" spans="1:22">
       <x:c r="A72" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>25</x:v>
@@ -7312,15 +7312,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V72" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:22">
       <x:c r="A73" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>25</x:v>
@@ -7385,16 +7385,16 @@
     </x:row>
     <x:row r="74" spans="1:22">
       <x:c r="A74" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
         <x:v>25</x:v>
@@ -7412,7 +7412,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J74" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="K74" s="0" t="s">
         <x:v>25</x:v>
@@ -7427,7 +7427,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="O74" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="P74" s="0" t="s">
         <x:v>86</x:v>
@@ -7448,7 +7448,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="V74" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:22">
@@ -7832,7 +7832,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="O80" s="0" t="s">
         <x:v>25</x:v>
@@ -7856,15 +7856,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V80" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:22">
       <x:c r="A81" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>25</x:v>
@@ -7929,10 +7929,10 @@
     </x:row>
     <x:row r="82" spans="1:22">
       <x:c r="A82" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>25</x:v>
@@ -7997,10 +7997,10 @@
     </x:row>
     <x:row r="83" spans="1:22">
       <x:c r="A83" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
         <x:v>25</x:v>
@@ -8060,21 +8060,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V83" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
       <x:c r="A84" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>25</x:v>
@@ -8083,16 +8083,16 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H84" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="I84" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="J84" s="0" t="s">
         <x:v>249</x:v>
-      </x:c>
-      <x:c r="J84" s="0" t="s">
-        <x:v>248</x:v>
       </x:c>
       <x:c r="K84" s="0" t="s">
         <x:v>25</x:v>
@@ -8104,7 +8104,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="N84" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="O84" s="0" t="s">
         <x:v>25</x:v>
@@ -8122,21 +8122,21 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="T84" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="U84" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="V84" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
       <x:c r="A85" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>25</x:v>
@@ -8201,10 +8201,10 @@
     </x:row>
     <x:row r="86" spans="1:22">
       <x:c r="A86" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>32</x:v>
@@ -8264,15 +8264,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V86" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:22">
       <x:c r="A87" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>25</x:v>
@@ -8337,10 +8337,10 @@
     </x:row>
     <x:row r="88" spans="1:22">
       <x:c r="A88" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>24</x:v>
@@ -8400,15 +8400,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V88" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">
       <x:c r="A89" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>24</x:v>
@@ -8444,7 +8444,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N89" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="O89" s="0" t="s">
         <x:v>25</x:v>
@@ -8462,21 +8462,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T89" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="U89" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="V89" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:22">
       <x:c r="A90" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>61</x:v>
@@ -8541,10 +8541,10 @@
     </x:row>
     <x:row r="91" spans="1:22">
       <x:c r="A91" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>24</x:v>
@@ -8609,10 +8609,10 @@
     </x:row>
     <x:row r="92" spans="1:22">
       <x:c r="A92" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>48</x:v>
@@ -8672,15 +8672,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V92" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:22">
       <x:c r="A93" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>25</x:v>
@@ -8745,10 +8745,10 @@
     </x:row>
     <x:row r="94" spans="1:22">
       <x:c r="A94" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>32</x:v>
@@ -8813,10 +8813,10 @@
     </x:row>
     <x:row r="95" spans="1:22">
       <x:c r="A95" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
         <x:v>25</x:v>
@@ -8881,10 +8881,10 @@
     </x:row>
     <x:row r="96" spans="1:22">
       <x:c r="A96" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>25</x:v>
@@ -8949,10 +8949,10 @@
     </x:row>
     <x:row r="97" spans="1:22">
       <x:c r="A97" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>32</x:v>
@@ -8994,7 +8994,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="P97" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="Q97" s="0" t="s">
         <x:v>25</x:v>
@@ -9012,15 +9012,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V97" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:22">
       <x:c r="A98" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>25</x:v>
@@ -9085,10 +9085,10 @@
     </x:row>
     <x:row r="99" spans="1:22">
       <x:c r="A99" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>25</x:v>
@@ -9153,10 +9153,10 @@
     </x:row>
     <x:row r="100" spans="1:22">
       <x:c r="A100" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>25</x:v>
@@ -9221,10 +9221,10 @@
     </x:row>
     <x:row r="101" spans="1:22">
       <x:c r="A101" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>25</x:v>
@@ -9289,10 +9289,10 @@
     </x:row>
     <x:row r="102" spans="1:22">
       <x:c r="A102" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>25</x:v>
@@ -9357,10 +9357,10 @@
     </x:row>
     <x:row r="103" spans="1:22">
       <x:c r="A103" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>25</x:v>
@@ -9425,10 +9425,10 @@
     </x:row>
     <x:row r="104" spans="1:22">
       <x:c r="A104" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>25</x:v>
@@ -9493,13 +9493,13 @@
     </x:row>
     <x:row r="105" spans="1:22">
       <x:c r="A105" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D105" s="0" t="s">
         <x:v>46</x:v>
@@ -9508,7 +9508,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F105" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G105" s="0" t="s">
         <x:v>40</x:v>
@@ -9517,7 +9517,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I105" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J105" s="0" t="s">
         <x:v>230</x:v>
@@ -9532,7 +9532,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N105" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="O105" s="0" t="s">
         <x:v>35</x:v>
@@ -9550,21 +9550,21 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="T105" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="U105" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="V105" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:22">
       <x:c r="A106" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>25</x:v>
@@ -9629,10 +9629,10 @@
     </x:row>
     <x:row r="107" spans="1:22">
       <x:c r="A107" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>25</x:v>
@@ -9692,15 +9692,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V107" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:22">
       <x:c r="A108" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>25</x:v>
@@ -9765,10 +9765,10 @@
     </x:row>
     <x:row r="109" spans="1:22">
       <x:c r="A109" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>25</x:v>
@@ -9833,10 +9833,10 @@
     </x:row>
     <x:row r="110" spans="1:22">
       <x:c r="A110" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>24</x:v>
@@ -9901,10 +9901,10 @@
     </x:row>
     <x:row r="111" spans="1:22">
       <x:c r="A111" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>25</x:v>
@@ -9969,10 +9969,10 @@
     </x:row>
     <x:row r="112" spans="1:22">
       <x:c r="A112" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>25</x:v>
@@ -10032,15 +10032,15 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="V112" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:22">
       <x:c r="A113" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>25</x:v>
@@ -10105,10 +10105,10 @@
     </x:row>
     <x:row r="114" spans="1:22">
       <x:c r="A114" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>25</x:v>
@@ -10173,10 +10173,10 @@
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10241,10 +10241,10 @@
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>25</x:v>
@@ -10309,10 +10309,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>25</x:v>
@@ -10377,10 +10377,10 @@
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>25</x:v>
@@ -10416,7 +10416,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N118" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="O118" s="0" t="s">
         <x:v>25</x:v>
@@ -10440,15 +10440,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V118" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10513,10 +10513,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>25</x:v>
@@ -10581,10 +10581,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10649,10 +10649,10 @@
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -10717,10 +10717,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>25</x:v>
@@ -10785,10 +10785,10 @@
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -10853,10 +10853,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>24</x:v>
@@ -10921,10 +10921,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -10989,10 +10989,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11057,10 +11057,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11075,7 +11075,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G128" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H128" s="0" t="s">
         <x:v>25</x:v>
@@ -11102,7 +11102,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P128" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="Q128" s="0" t="s">
         <x:v>25</x:v>
@@ -11120,15 +11120,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V128" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11193,10 +11193,10 @@
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11261,10 +11261,10 @@
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11324,15 +11324,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V131" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>25</x:v>
@@ -11392,15 +11392,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V132" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11465,10 +11465,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>32</x:v>
@@ -11528,15 +11528,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V134" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11601,10 +11601,10 @@
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -11669,10 +11669,10 @@
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -11737,10 +11737,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -11805,10 +11805,10 @@
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -11873,10 +11873,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -11912,7 +11912,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N140" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="O140" s="0" t="s">
         <x:v>25</x:v>
@@ -11936,7 +11936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V140" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:22">
@@ -12104,7 +12104,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J143" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K143" s="0" t="s">
         <x:v>25</x:v>
@@ -12140,15 +12140,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V143" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>384</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12213,10 +12213,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12281,10 +12281,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12349,10 +12349,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12412,15 +12412,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V147" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12485,10 +12485,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>25</x:v>
@@ -12548,15 +12548,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V149" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>32</x:v>
@@ -12616,15 +12616,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V150" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -12689,10 +12689,10 @@
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -12757,10 +12757,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -12825,10 +12825,10 @@
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>25</x:v>
@@ -12888,15 +12888,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V154" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>24</x:v>
@@ -12956,15 +12956,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V155" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -13029,10 +13029,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>52</x:v>
@@ -13068,7 +13068,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N157" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="O157" s="0" t="s">
         <x:v>24</x:v>
@@ -13092,15 +13092,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V157" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>25</x:v>
@@ -13165,10 +13165,10 @@
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>32</x:v>
@@ -13228,7 +13228,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="V159" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:22">
@@ -13242,7 +13242,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D160" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E160" s="0" t="s">
         <x:v>25</x:v>
@@ -13260,7 +13260,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J160" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="K160" s="0" t="s">
         <x:v>25</x:v>
@@ -13272,13 +13272,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N160" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="O160" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="P160" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="Q160" s="0" t="s">
         <x:v>45</x:v>
@@ -13364,7 +13364,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V161" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:22">
@@ -13704,7 +13704,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V166" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:22">
@@ -13840,7 +13840,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V168" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:22">
@@ -13908,7 +13908,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V169" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:22">
@@ -14292,7 +14292,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="N175" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="O175" s="0" t="s">
         <x:v>25</x:v>
@@ -14316,7 +14316,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="V175" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:22">
@@ -14718,7 +14718,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="T181" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="U181" s="0" t="s">
         <x:v>471</x:v>
@@ -14883,7 +14883,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G184" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H184" s="0" t="s">
         <x:v>25</x:v>
@@ -14928,7 +14928,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V184" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:22">
@@ -14951,10 +14951,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G185" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H185" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I185" s="0" t="s">
         <x:v>25</x:v>
@@ -14972,7 +14972,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N185" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="O185" s="0" t="s">
         <x:v>25</x:v>
@@ -14996,7 +14996,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V185" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:22">
@@ -15708,7 +15708,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J196" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K196" s="0" t="s">
         <x:v>25</x:v>
@@ -16506,7 +16506,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D208" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E208" s="0" t="s">
         <x:v>25</x:v>
@@ -16515,7 +16515,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G208" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H208" s="0" t="s">
         <x:v>25</x:v>
@@ -16524,7 +16524,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="J208" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="K208" s="0" t="s">
         <x:v>25</x:v>
@@ -16536,13 +16536,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N208" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="O208" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="P208" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="Q208" s="0" t="s">
         <x:v>25</x:v>
@@ -16696,7 +16696,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V210" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:22">
@@ -16900,7 +16900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V213" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:22">
@@ -17240,7 +17240,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V218" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
@@ -17399,7 +17399,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G221" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H221" s="0" t="s">
         <x:v>25</x:v>
@@ -17420,7 +17420,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N221" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="O221" s="0" t="s">
         <x:v>52</x:v>
@@ -17852,7 +17852,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V227" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:22">
@@ -18100,7 +18100,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N231" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O231" s="0" t="s">
         <x:v>25</x:v>
@@ -19144,7 +19144,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V246" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
@@ -19256,13 +19256,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N248" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="O248" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="P248" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q248" s="0" t="s">
         <x:v>24</x:v>
@@ -19280,7 +19280,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V248" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:22">
@@ -19800,7 +19800,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="N256" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="O256" s="0" t="s">
         <x:v>35</x:v>
@@ -20078,7 +20078,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P260" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q260" s="0" t="s">
         <x:v>25</x:v>
@@ -20096,7 +20096,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V260" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:22">
@@ -20208,7 +20208,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N262" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="O262" s="0" t="s">
         <x:v>25</x:v>
@@ -20232,7 +20232,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V262" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:22">
@@ -20708,7 +20708,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V269" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:22">
@@ -20820,7 +20820,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N271" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O271" s="0" t="s">
         <x:v>25</x:v>
@@ -20956,7 +20956,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N273" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O273" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -673,6 +673,9 @@
     <x:t>Hennepin County Sheriff</x:t>
   </x:si>
   <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
     <x:t>MN0270100</x:t>
   </x:si>
   <x:si>
@@ -1282,7 +1285,7 @@
     <x:t>37</x:t>
   </x:si>
   <x:si>
-    <x:t>322</x:t>
+    <x:t>323</x:t>
   </x:si>
   <x:si>
     <x:t>MN0560000</x:t>
@@ -7403,7 +7406,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G74" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H74" s="0" t="s">
         <x:v>25</x:v>
@@ -7421,7 +7424,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M74" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N74" s="0" t="s">
         <x:v>32</x:v>
@@ -7448,15 +7451,15 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="V74" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:22">
       <x:c r="A75" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
         <x:v>59</x:v>
@@ -7480,7 +7483,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="J75" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="K75" s="0" t="s">
         <x:v>25</x:v>
@@ -7492,13 +7495,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N75" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="O75" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="P75" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="Q75" s="0" t="s">
         <x:v>32</x:v>
@@ -7510,21 +7513,21 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="T75" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="U75" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="V75" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:22">
       <x:c r="A76" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>24</x:v>
@@ -7589,10 +7592,10 @@
     </x:row>
     <x:row r="77" spans="1:22">
       <x:c r="A77" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>28</x:v>
@@ -7652,15 +7655,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V77" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:22">
       <x:c r="A78" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
         <x:v>25</x:v>
@@ -7725,10 +7728,10 @@
     </x:row>
     <x:row r="79" spans="1:22">
       <x:c r="A79" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
         <x:v>25</x:v>
@@ -7793,10 +7796,10 @@
     </x:row>
     <x:row r="80" spans="1:22">
       <x:c r="A80" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
         <x:v>35</x:v>
@@ -7811,7 +7814,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H80" s="0" t="s">
         <x:v>25</x:v>
@@ -7856,15 +7859,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V80" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:22">
       <x:c r="A81" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>25</x:v>
@@ -7929,10 +7932,10 @@
     </x:row>
     <x:row r="82" spans="1:22">
       <x:c r="A82" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>25</x:v>
@@ -7997,10 +8000,10 @@
     </x:row>
     <x:row r="83" spans="1:22">
       <x:c r="A83" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
         <x:v>25</x:v>
@@ -8065,16 +8068,16 @@
     </x:row>
     <x:row r="84" spans="1:22">
       <x:c r="A84" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>25</x:v>
@@ -8083,16 +8086,16 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H84" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="I84" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="J84" s="0" t="s">
         <x:v>250</x:v>
-      </x:c>
-      <x:c r="J84" s="0" t="s">
-        <x:v>249</x:v>
       </x:c>
       <x:c r="K84" s="0" t="s">
         <x:v>25</x:v>
@@ -8104,7 +8107,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="N84" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="O84" s="0" t="s">
         <x:v>25</x:v>
@@ -8122,21 +8125,21 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="T84" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="U84" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="V84" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
       <x:c r="A85" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>25</x:v>
@@ -8201,10 +8204,10 @@
     </x:row>
     <x:row r="86" spans="1:22">
       <x:c r="A86" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>32</x:v>
@@ -8269,10 +8272,10 @@
     </x:row>
     <x:row r="87" spans="1:22">
       <x:c r="A87" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>25</x:v>
@@ -8337,10 +8340,10 @@
     </x:row>
     <x:row r="88" spans="1:22">
       <x:c r="A88" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>24</x:v>
@@ -8400,15 +8403,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V88" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">
       <x:c r="A89" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>24</x:v>
@@ -8462,21 +8465,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T89" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="U89" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="V89" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:22">
       <x:c r="A90" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>61</x:v>
@@ -8536,15 +8539,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V90" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:22">
       <x:c r="A91" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>24</x:v>
@@ -8609,10 +8612,10 @@
     </x:row>
     <x:row r="92" spans="1:22">
       <x:c r="A92" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>48</x:v>
@@ -8672,15 +8675,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V92" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:22">
       <x:c r="A93" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>25</x:v>
@@ -8745,10 +8748,10 @@
     </x:row>
     <x:row r="94" spans="1:22">
       <x:c r="A94" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>32</x:v>
@@ -8813,10 +8816,10 @@
     </x:row>
     <x:row r="95" spans="1:22">
       <x:c r="A95" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
         <x:v>25</x:v>
@@ -8881,10 +8884,10 @@
     </x:row>
     <x:row r="96" spans="1:22">
       <x:c r="A96" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>25</x:v>
@@ -8944,15 +8947,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V96" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:22">
       <x:c r="A97" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>32</x:v>
@@ -9012,15 +9015,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V97" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:22">
       <x:c r="A98" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>25</x:v>
@@ -9085,10 +9088,10 @@
     </x:row>
     <x:row r="99" spans="1:22">
       <x:c r="A99" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>25</x:v>
@@ -9153,10 +9156,10 @@
     </x:row>
     <x:row r="100" spans="1:22">
       <x:c r="A100" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>25</x:v>
@@ -9221,10 +9224,10 @@
     </x:row>
     <x:row r="101" spans="1:22">
       <x:c r="A101" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>25</x:v>
@@ -9289,10 +9292,10 @@
     </x:row>
     <x:row r="102" spans="1:22">
       <x:c r="A102" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>25</x:v>
@@ -9357,10 +9360,10 @@
     </x:row>
     <x:row r="103" spans="1:22">
       <x:c r="A103" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>25</x:v>
@@ -9425,10 +9428,10 @@
     </x:row>
     <x:row r="104" spans="1:22">
       <x:c r="A104" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>25</x:v>
@@ -9493,10 +9496,10 @@
     </x:row>
     <x:row r="105" spans="1:22">
       <x:c r="A105" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
         <x:v>98</x:v>
@@ -9520,7 +9523,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J105" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="K105" s="0" t="s">
         <x:v>24</x:v>
@@ -9532,13 +9535,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N105" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="O105" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="P105" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="Q105" s="0" t="s">
         <x:v>35</x:v>
@@ -9550,21 +9553,21 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="T105" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="U105" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="V105" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:22">
       <x:c r="A106" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>25</x:v>
@@ -9629,10 +9632,10 @@
     </x:row>
     <x:row r="107" spans="1:22">
       <x:c r="A107" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>25</x:v>
@@ -9692,15 +9695,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V107" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:22">
       <x:c r="A108" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>25</x:v>
@@ -9765,10 +9768,10 @@
     </x:row>
     <x:row r="109" spans="1:22">
       <x:c r="A109" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>25</x:v>
@@ -9833,10 +9836,10 @@
     </x:row>
     <x:row r="110" spans="1:22">
       <x:c r="A110" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>24</x:v>
@@ -9901,10 +9904,10 @@
     </x:row>
     <x:row r="111" spans="1:22">
       <x:c r="A111" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>25</x:v>
@@ -9969,10 +9972,10 @@
     </x:row>
     <x:row r="112" spans="1:22">
       <x:c r="A112" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>25</x:v>
@@ -10032,15 +10035,15 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="V112" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:22">
       <x:c r="A113" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>25</x:v>
@@ -10105,10 +10108,10 @@
     </x:row>
     <x:row r="114" spans="1:22">
       <x:c r="A114" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>25</x:v>
@@ -10173,10 +10176,10 @@
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10241,10 +10244,10 @@
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>25</x:v>
@@ -10309,10 +10312,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>25</x:v>
@@ -10377,10 +10380,10 @@
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>25</x:v>
@@ -10416,7 +10419,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N118" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="O118" s="0" t="s">
         <x:v>25</x:v>
@@ -10440,15 +10443,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V118" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10513,10 +10516,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>25</x:v>
@@ -10581,10 +10584,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10649,10 +10652,10 @@
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -10717,10 +10720,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>25</x:v>
@@ -10785,10 +10788,10 @@
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -10853,10 +10856,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>24</x:v>
@@ -10921,10 +10924,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -10989,10 +10992,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11057,10 +11060,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11125,10 +11128,10 @@
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11193,10 +11196,10 @@
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11261,10 +11264,10 @@
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11324,15 +11327,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V131" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>25</x:v>
@@ -11397,10 +11400,10 @@
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11465,10 +11468,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>32</x:v>
@@ -11533,10 +11536,10 @@
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11601,10 +11604,10 @@
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -11669,10 +11672,10 @@
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -11737,10 +11740,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -11805,10 +11808,10 @@
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -11873,10 +11876,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -11941,10 +11944,10 @@
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -12009,10 +12012,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12077,10 +12080,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12140,15 +12143,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V143" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12213,10 +12216,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12281,10 +12284,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12349,10 +12352,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12417,10 +12420,10 @@
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12485,10 +12488,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>25</x:v>
@@ -12553,10 +12556,10 @@
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>32</x:v>
@@ -12616,15 +12619,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V150" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -12689,10 +12692,10 @@
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -12757,10 +12760,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -12825,10 +12828,10 @@
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>25</x:v>
@@ -12893,10 +12896,10 @@
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>24</x:v>
@@ -12961,10 +12964,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -13029,10 +13032,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>52</x:v>
@@ -13092,15 +13095,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V157" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>25</x:v>
@@ -13165,10 +13168,10 @@
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>32</x:v>
@@ -13233,10 +13236,10 @@
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>27</x:v>
@@ -13251,7 +13254,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G160" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="H160" s="0" t="s">
         <x:v>32</x:v>
@@ -13260,7 +13263,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J160" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="K160" s="0" t="s">
         <x:v>25</x:v>
@@ -13278,7 +13281,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="P160" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="Q160" s="0" t="s">
         <x:v>45</x:v>
@@ -13287,7 +13290,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S160" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="T160" s="0" t="s">
         <x:v>40</x:v>
@@ -13296,15 +13299,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V160" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>25</x:v>
@@ -13369,10 +13372,10 @@
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>25</x:v>
@@ -13437,10 +13440,10 @@
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>25</x:v>
@@ -13505,10 +13508,10 @@
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>25</x:v>
@@ -13573,10 +13576,10 @@
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>25</x:v>
@@ -13641,10 +13644,10 @@
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>25</x:v>
@@ -13709,10 +13712,10 @@
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>25</x:v>
@@ -13777,10 +13780,10 @@
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>25</x:v>
@@ -13845,10 +13848,10 @@
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>25</x:v>
@@ -13913,10 +13916,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>25</x:v>
@@ -13976,15 +13979,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V170" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:22">
       <x:c r="A171" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>25</x:v>
@@ -14049,10 +14052,10 @@
     </x:row>
     <x:row r="172" spans="1:22">
       <x:c r="A172" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>25</x:v>
@@ -14117,10 +14120,10 @@
     </x:row>
     <x:row r="173" spans="1:22">
       <x:c r="A173" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>25</x:v>
@@ -14185,10 +14188,10 @@
     </x:row>
     <x:row r="174" spans="1:22">
       <x:c r="A174" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>25</x:v>
@@ -14253,10 +14256,10 @@
     </x:row>
     <x:row r="175" spans="1:22">
       <x:c r="A175" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
         <x:v>24</x:v>
@@ -14321,10 +14324,10 @@
     </x:row>
     <x:row r="176" spans="1:22">
       <x:c r="A176" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>35</x:v>
@@ -14384,15 +14387,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V176" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:22">
       <x:c r="A177" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>32</x:v>
@@ -14457,10 +14460,10 @@
     </x:row>
     <x:row r="178" spans="1:22">
       <x:c r="A178" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>32</x:v>
@@ -14525,10 +14528,10 @@
     </x:row>
     <x:row r="179" spans="1:22">
       <x:c r="A179" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
         <x:v>24</x:v>
@@ -14593,10 +14596,10 @@
     </x:row>
     <x:row r="180" spans="1:22">
       <x:c r="A180" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>40</x:v>
@@ -14632,7 +14635,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N180" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="O180" s="0" t="s">
         <x:v>25</x:v>
@@ -14656,15 +14659,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V180" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
       <x:c r="A181" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>36</x:v>
@@ -14679,7 +14682,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G181" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="H181" s="0" t="s">
         <x:v>25</x:v>
@@ -14688,7 +14691,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J181" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="K181" s="0" t="s">
         <x:v>25</x:v>
@@ -14700,13 +14703,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="N181" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="O181" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P181" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="Q181" s="0" t="s">
         <x:v>40</x:v>
@@ -14721,18 +14724,18 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="U181" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="V181" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -14797,10 +14800,10 @@
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -14865,10 +14868,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -14933,10 +14936,10 @@
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -15001,10 +15004,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>32</x:v>
@@ -15069,10 +15072,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>25</x:v>
@@ -15137,10 +15140,10 @@
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>25</x:v>
@@ -15205,10 +15208,10 @@
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>25</x:v>
@@ -15273,10 +15276,10 @@
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15341,10 +15344,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>25</x:v>
@@ -15409,10 +15412,10 @@
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>25</x:v>
@@ -15477,10 +15480,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>25</x:v>
@@ -15540,15 +15543,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V193" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>25</x:v>
@@ -15613,10 +15616,10 @@
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>25</x:v>
@@ -15681,10 +15684,10 @@
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -15720,7 +15723,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N196" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="O196" s="0" t="s">
         <x:v>25</x:v>
@@ -15744,15 +15747,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V196" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>25</x:v>
@@ -15817,10 +15820,10 @@
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -15885,10 +15888,10 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>25</x:v>
@@ -15953,10 +15956,10 @@
     </x:row>
     <x:row r="200" spans="1:22">
       <x:c r="A200" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>25</x:v>
@@ -16021,10 +16024,10 @@
     </x:row>
     <x:row r="201" spans="1:22">
       <x:c r="A201" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>25</x:v>
@@ -16089,10 +16092,10 @@
     </x:row>
     <x:row r="202" spans="1:22">
       <x:c r="A202" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>25</x:v>
@@ -16157,10 +16160,10 @@
     </x:row>
     <x:row r="203" spans="1:22">
       <x:c r="A203" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>25</x:v>
@@ -16225,10 +16228,10 @@
     </x:row>
     <x:row r="204" spans="1:22">
       <x:c r="A204" s="0" t="s">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>25</x:v>
@@ -16293,10 +16296,10 @@
     </x:row>
     <x:row r="205" spans="1:22">
       <x:c r="A205" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>25</x:v>
@@ -16361,10 +16364,10 @@
     </x:row>
     <x:row r="206" spans="1:22">
       <x:c r="A206" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>25</x:v>
@@ -16429,10 +16432,10 @@
     </x:row>
     <x:row r="207" spans="1:22">
       <x:c r="A207" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>25</x:v>
@@ -16497,10 +16500,10 @@
     </x:row>
     <x:row r="208" spans="1:22">
       <x:c r="A208" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>24</x:v>
@@ -16560,15 +16563,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V208" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:22">
       <x:c r="A209" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>32</x:v>
@@ -16628,15 +16631,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V209" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
       <x:c r="A210" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>24</x:v>
@@ -16701,10 +16704,10 @@
     </x:row>
     <x:row r="211" spans="1:22">
       <x:c r="A211" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>24</x:v>
@@ -16764,15 +16767,15 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="V211" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>537</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
       <x:c r="A212" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>25</x:v>
@@ -16837,10 +16840,10 @@
     </x:row>
     <x:row r="213" spans="1:22">
       <x:c r="A213" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>25</x:v>
@@ -16905,10 +16908,10 @@
     </x:row>
     <x:row r="214" spans="1:22">
       <x:c r="A214" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>25</x:v>
@@ -16973,10 +16976,10 @@
     </x:row>
     <x:row r="215" spans="1:22">
       <x:c r="A215" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
-        <x:v>544</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>25</x:v>
@@ -17041,10 +17044,10 @@
     </x:row>
     <x:row r="216" spans="1:22">
       <x:c r="A216" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>25</x:v>
@@ -17109,10 +17112,10 @@
     </x:row>
     <x:row r="217" spans="1:22">
       <x:c r="A217" s="0" t="s">
-        <x:v>547</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>25</x:v>
@@ -17177,10 +17180,10 @@
     </x:row>
     <x:row r="218" spans="1:22">
       <x:c r="A218" s="0" t="s">
-        <x:v>549</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>25</x:v>
@@ -17245,10 +17248,10 @@
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
-        <x:v>551</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
-        <x:v>552</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17313,10 +17316,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
-        <x:v>553</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
-        <x:v>554</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17381,10 +17384,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
-        <x:v>555</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>27</x:v>
@@ -17426,7 +17429,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="P221" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="Q221" s="0" t="s">
         <x:v>24</x:v>
@@ -17438,21 +17441,21 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="T221" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="U221" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>558</x:v>
+        <x:v>559</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
-        <x:v>560</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17517,10 +17520,10 @@
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
-        <x:v>561</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
-        <x:v>562</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>25</x:v>
@@ -17585,10 +17588,10 @@
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
-        <x:v>563</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
-        <x:v>564</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -17653,10 +17656,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
-        <x:v>566</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -17721,10 +17724,10 @@
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
-        <x:v>567</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
-        <x:v>568</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -17789,10 +17792,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
-        <x:v>569</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -17857,10 +17860,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
-        <x:v>572</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>25</x:v>
@@ -17925,10 +17928,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -17993,10 +17996,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18061,10 +18064,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18129,10 +18132,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18197,10 +18200,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
-        <x:v>581</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18265,10 +18268,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18333,10 +18336,10 @@
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>25</x:v>
@@ -18401,10 +18404,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
-        <x:v>588</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>25</x:v>
@@ -18469,10 +18472,10 @@
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
-        <x:v>589</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>25</x:v>
@@ -18537,10 +18540,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
-        <x:v>591</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
-        <x:v>592</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>25</x:v>
@@ -18605,10 +18608,10 @@
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
-        <x:v>594</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>25</x:v>
@@ -18673,10 +18676,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>25</x:v>
@@ -18741,10 +18744,10 @@
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
-        <x:v>598</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>32</x:v>
@@ -18804,15 +18807,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>600</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
-        <x:v>601</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>25</x:v>
@@ -18877,10 +18880,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
-        <x:v>603</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>25</x:v>
@@ -18945,10 +18948,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
-        <x:v>604</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>25</x:v>
@@ -19013,10 +19016,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>24</x:v>
@@ -19081,10 +19084,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
-        <x:v>608</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
-        <x:v>609</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>25</x:v>
@@ -19144,15 +19147,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V246" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>24</x:v>
@@ -19217,10 +19220,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
-        <x:v>612</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
-        <x:v>613</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>28</x:v>
@@ -19285,10 +19288,10 @@
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
-        <x:v>614</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>25</x:v>
@@ -19353,10 +19356,10 @@
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
-        <x:v>617</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19421,10 +19424,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>25</x:v>
@@ -19489,10 +19492,10 @@
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
-        <x:v>620</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>25</x:v>
@@ -19557,10 +19560,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>25</x:v>
@@ -19625,10 +19628,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>25</x:v>
@@ -19693,10 +19696,10 @@
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>25</x:v>
@@ -19756,15 +19759,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V255" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>24</x:v>
@@ -19779,7 +19782,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="G256" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="H256" s="0" t="s">
         <x:v>25</x:v>
@@ -19800,7 +19803,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="N256" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="O256" s="0" t="s">
         <x:v>35</x:v>
@@ -19824,15 +19827,15 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="V256" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>25</x:v>
@@ -19897,10 +19900,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>25</x:v>
@@ -19965,10 +19968,10 @@
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
-        <x:v>637</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>25</x:v>
@@ -20033,10 +20036,10 @@
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>25</x:v>
@@ -20101,10 +20104,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>25</x:v>
@@ -20169,10 +20172,10 @@
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
-        <x:v>643</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>24</x:v>
@@ -20232,15 +20235,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V262" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20305,10 +20308,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20344,7 +20347,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N264" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="O264" s="0" t="s">
         <x:v>25</x:v>
@@ -20368,15 +20371,15 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="V264" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20441,10 +20444,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>25</x:v>
@@ -20509,10 +20512,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20577,10 +20580,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>25</x:v>
@@ -20645,10 +20648,10 @@
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -20713,10 +20716,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -20781,10 +20784,10 @@
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -20849,10 +20852,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -20917,10 +20920,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -20980,15 +20983,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V273" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21053,10 +21056,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21121,10 +21124,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21189,10 +21192,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21257,10 +21260,10 @@
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
-        <x:v>677</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -97,456 +97,456 @@
     <x:t>11</x:t>
   </x:si>
   <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0010100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aitkin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anoka County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anoka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blaine Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Centennial Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Columbia Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>4</x:t>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coon Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fridley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lino Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spring Lake Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0021300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0021500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Francis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Detroit Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audubon Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Callaway Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beltrami County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bemidji Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blackduck Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0050000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benton County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0050200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sauk Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mankato Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0071000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Madison Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Ulm Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlton County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cloquet Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chaska Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Branch Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakes Area Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dilworth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moorhead Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glyndon Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bagley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windom Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brainerd Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosby Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breezy Point Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosslake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baxter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nisswa Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burnsville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farmington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hastings Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mendota Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rosemount Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West St Paul Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>25</x:t>
   </x:si>
   <x:si>
-    <x:t>MN0010100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aitkin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anoka County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anoka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blaine Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Centennial Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Columbia Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coon Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fridley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lino Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Spring Lake Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0021300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0021500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Francis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Detroit Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Audubon Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Callaway Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beltrami County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bemidji Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blackduck Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0050000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benton County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0050200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sauk Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mankato Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0071000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Madison Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Ulm Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cloquet Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carver County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chaska Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Branch Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakes Area Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dilworth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moorhead Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glyndon Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bagley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windom Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brainerd Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosby Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breezy Point Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosslake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baxter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nisswa Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burnsville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farmington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hastings Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mendota Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rosemount Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
     <x:t>MN0190800</x:t>
   </x:si>
   <x:si>
@@ -808,6 +808,9 @@
     <x:t>Plymouth Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
     <x:t>MN0271800</x:t>
   </x:si>
   <x:si>
@@ -1169,9 +1172,6 @@
   </x:si>
   <x:si>
     <x:t>Mille Lacs County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
   </x:si>
   <x:si>
     <x:t>MN0480100</x:t>
@@ -2871,7 +2871,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N7" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O7" s="0" t="s">
         <x:v>25</x:v>
@@ -2900,10 +2900,10 @@
     </x:row>
     <x:row r="8" spans="1:22">
       <x:c r="A8" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>54</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>32</x:v>
@@ -2927,7 +2927,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K8" s="0" t="s">
         <x:v>25</x:v>
@@ -3093,7 +3093,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T10" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U10" s="0" t="s">
         <x:v>32</x:v>
@@ -3122,7 +3122,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
         <x:v>25</x:v>
@@ -3391,7 +3391,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
         <x:v>40</x:v>
@@ -3734,7 +3734,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
         <x:v>25</x:v>
@@ -3983,7 +3983,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V23" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:22">
@@ -4231,7 +4231,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N27" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="O27" s="0" t="s">
         <x:v>25</x:v>
@@ -4278,7 +4278,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
         <x:v>24</x:v>
@@ -4391,15 +4391,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V29" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:22">
       <x:c r="A30" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
         <x:v>115</x:v>
-      </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>116</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>24</x:v>
@@ -4464,10 +4464,10 @@
     </x:row>
     <x:row r="31" spans="1:22">
       <x:c r="A31" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>24</x:v>
@@ -4532,10 +4532,10 @@
     </x:row>
     <x:row r="32" spans="1:22">
       <x:c r="A32" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
         <x:v>119</x:v>
-      </x:c>
-      <x:c r="B32" s="0" t="s">
-        <x:v>120</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>25</x:v>
@@ -4600,10 +4600,10 @@
     </x:row>
     <x:row r="33" spans="1:22">
       <x:c r="A33" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="B33" s="0" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
         <x:v>25</x:v>
@@ -4645,7 +4645,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P33" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q33" s="0" t="s">
         <x:v>25</x:v>
@@ -4663,15 +4663,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V33" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:22">
       <x:c r="A34" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
         <x:v>123</x:v>
-      </x:c>
-      <x:c r="B34" s="0" t="s">
-        <x:v>124</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
         <x:v>25</x:v>
@@ -4736,10 +4736,10 @@
     </x:row>
     <x:row r="35" spans="1:22">
       <x:c r="A35" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
         <x:v>125</x:v>
-      </x:c>
-      <x:c r="B35" s="0" t="s">
-        <x:v>126</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>25</x:v>
@@ -4804,10 +4804,10 @@
     </x:row>
     <x:row r="36" spans="1:22">
       <x:c r="A36" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
         <x:v>127</x:v>
-      </x:c>
-      <x:c r="B36" s="0" t="s">
-        <x:v>128</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
         <x:v>25</x:v>
@@ -4872,10 +4872,10 @@
     </x:row>
     <x:row r="37" spans="1:22">
       <x:c r="A37" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="B37" s="0" t="s">
-        <x:v>130</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
         <x:v>32</x:v>
@@ -4940,10 +4940,10 @@
     </x:row>
     <x:row r="38" spans="1:22">
       <x:c r="A38" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
         <x:v>131</x:v>
-      </x:c>
-      <x:c r="B38" s="0" t="s">
-        <x:v>132</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
         <x:v>61</x:v>
@@ -4979,39 +4979,39 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N38" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="O38" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="O38" s="0" t="s">
+      <x:c r="P38" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q38" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R38" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="P38" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="Q38" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="R38" s="0" t="s">
+      <x:c r="S38" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="T38" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="U38" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="V38" s="0" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="S38" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="T38" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="U38" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="V38" s="0" t="s">
-        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:22">
       <x:c r="A39" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
         <x:v>137</x:v>
-      </x:c>
-      <x:c r="B39" s="0" t="s">
-        <x:v>138</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>25</x:v>
@@ -5076,10 +5076,10 @@
     </x:row>
     <x:row r="40" spans="1:22">
       <x:c r="A40" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
         <x:v>139</x:v>
-      </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>140</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>25</x:v>
@@ -5144,10 +5144,10 @@
     </x:row>
     <x:row r="41" spans="1:22">
       <x:c r="A41" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
         <x:v>141</x:v>
-      </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>142</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
         <x:v>25</x:v>
@@ -5183,7 +5183,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N41" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O41" s="0" t="s">
         <x:v>24</x:v>
@@ -5212,10 +5212,10 @@
     </x:row>
     <x:row r="42" spans="1:22">
       <x:c r="A42" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
         <x:v>143</x:v>
-      </x:c>
-      <x:c r="B42" s="0" t="s">
-        <x:v>144</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
         <x:v>25</x:v>
@@ -5280,10 +5280,10 @@
     </x:row>
     <x:row r="43" spans="1:22">
       <x:c r="A43" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
         <x:v>145</x:v>
-      </x:c>
-      <x:c r="B43" s="0" t="s">
-        <x:v>146</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
         <x:v>24</x:v>
@@ -5348,10 +5348,10 @@
     </x:row>
     <x:row r="44" spans="1:22">
       <x:c r="A44" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
         <x:v>147</x:v>
-      </x:c>
-      <x:c r="B44" s="0" t="s">
-        <x:v>148</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>24</x:v>
@@ -5375,7 +5375,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K44" s="0" t="s">
         <x:v>25</x:v>
@@ -5387,7 +5387,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="O44" s="0" t="s">
         <x:v>25</x:v>
@@ -5411,16 +5411,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V44" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:22">
       <x:c r="A45" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="B45" s="0" t="s">
-        <x:v>152</x:v>
-      </x:c>
       <x:c r="C45" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -5479,15 +5479,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V45" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:22">
       <x:c r="A46" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
         <x:v>153</x:v>
-      </x:c>
-      <x:c r="B46" s="0" t="s">
-        <x:v>154</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
         <x:v>25</x:v>
@@ -5552,10 +5552,10 @@
     </x:row>
     <x:row r="47" spans="1:22">
       <x:c r="A47" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
         <x:v>155</x:v>
-      </x:c>
-      <x:c r="B47" s="0" t="s">
-        <x:v>156</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>25</x:v>
@@ -5620,10 +5620,10 @@
     </x:row>
     <x:row r="48" spans="1:22">
       <x:c r="A48" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
         <x:v>157</x:v>
-      </x:c>
-      <x:c r="B48" s="0" t="s">
-        <x:v>158</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
         <x:v>25</x:v>
@@ -5659,7 +5659,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N48" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O48" s="0" t="s">
         <x:v>25</x:v>
@@ -5683,15 +5683,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V48" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:22">
       <x:c r="A49" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
         <x:v>160</x:v>
-      </x:c>
-      <x:c r="B49" s="0" t="s">
-        <x:v>161</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>25</x:v>
@@ -5751,15 +5751,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V49" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:22">
       <x:c r="A50" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
         <x:v>162</x:v>
-      </x:c>
-      <x:c r="B50" s="0" t="s">
-        <x:v>163</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
         <x:v>25</x:v>
@@ -5824,10 +5824,10 @@
     </x:row>
     <x:row r="51" spans="1:22">
       <x:c r="A51" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
         <x:v>164</x:v>
-      </x:c>
-      <x:c r="B51" s="0" t="s">
-        <x:v>165</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
         <x:v>25</x:v>
@@ -5892,10 +5892,10 @@
     </x:row>
     <x:row r="52" spans="1:22">
       <x:c r="A52" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
         <x:v>166</x:v>
-      </x:c>
-      <x:c r="B52" s="0" t="s">
-        <x:v>167</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
         <x:v>25</x:v>
@@ -5960,10 +5960,10 @@
     </x:row>
     <x:row r="53" spans="1:22">
       <x:c r="A53" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
         <x:v>168</x:v>
-      </x:c>
-      <x:c r="B53" s="0" t="s">
-        <x:v>169</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
         <x:v>25</x:v>
@@ -6028,10 +6028,10 @@
     </x:row>
     <x:row r="54" spans="1:22">
       <x:c r="A54" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
         <x:v>170</x:v>
-      </x:c>
-      <x:c r="B54" s="0" t="s">
-        <x:v>171</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
         <x:v>25</x:v>
@@ -6096,10 +6096,10 @@
     </x:row>
     <x:row r="55" spans="1:22">
       <x:c r="A55" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
         <x:v>172</x:v>
-      </x:c>
-      <x:c r="B55" s="0" t="s">
-        <x:v>173</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
         <x:v>24</x:v>
@@ -6159,15 +6159,15 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="V55" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:22">
       <x:c r="A56" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
         <x:v>175</x:v>
-      </x:c>
-      <x:c r="B56" s="0" t="s">
-        <x:v>176</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>25</x:v>
@@ -6227,7 +6227,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V56" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:22">
@@ -6250,7 +6250,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H57" s="0" t="s">
         <x:v>25</x:v>
@@ -6271,7 +6271,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N57" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="O57" s="0" t="s">
         <x:v>24</x:v>
@@ -6407,7 +6407,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N59" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="O59" s="0" t="s">
         <x:v>25</x:v>
@@ -6499,7 +6499,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V60" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:22">
@@ -6771,7 +6771,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V64" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:22">
@@ -7057,7 +7057,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
         <x:v>25</x:v>
@@ -7066,7 +7066,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H69" s="0" t="s">
         <x:v>25</x:v>
@@ -7155,7 +7155,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N70" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O70" s="0" t="s">
         <x:v>25</x:v>
@@ -7270,7 +7270,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H72" s="0" t="s">
         <x:v>25</x:v>
@@ -7291,7 +7291,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N72" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="O72" s="0" t="s">
         <x:v>25</x:v>
@@ -7480,7 +7480,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J75" s="0" t="s">
         <x:v>222</x:v>
@@ -7492,13 +7492,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M75" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N75" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
       <x:c r="O75" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P75" s="0" t="s">
         <x:v>224</x:v>
@@ -7533,7 +7533,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
         <x:v>25</x:v>
@@ -7610,7 +7610,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G77" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H77" s="0" t="s">
         <x:v>25</x:v>
@@ -7637,7 +7637,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="P77" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="Q77" s="0" t="s">
         <x:v>24</x:v>
@@ -7805,7 +7805,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>25</x:v>
@@ -7832,7 +7832,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>181</x:v>
@@ -8039,7 +8039,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N83" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O83" s="0" t="s">
         <x:v>25</x:v>
@@ -8063,7 +8063,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V83" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -8104,7 +8104,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M84" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N84" s="0" t="s">
         <x:v>252</x:v>
@@ -8267,7 +8267,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V86" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:22">
@@ -8349,7 +8349,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>25</x:v>
@@ -8358,7 +8358,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G88" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H88" s="0" t="s">
         <x:v>25</x:v>
@@ -8367,7 +8367,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J88" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="K88" s="0" t="s">
         <x:v>25</x:v>
@@ -8403,15 +8403,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V88" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">
       <x:c r="A89" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>24</x:v>
@@ -8447,7 +8447,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N89" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="O89" s="0" t="s">
         <x:v>25</x:v>
@@ -8465,21 +8465,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T89" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="U89" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="V89" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:22">
       <x:c r="A90" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>61</x:v>
@@ -8544,10 +8544,10 @@
     </x:row>
     <x:row r="91" spans="1:22">
       <x:c r="A91" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>24</x:v>
@@ -8589,7 +8589,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P91" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q91" s="0" t="s">
         <x:v>25</x:v>
@@ -8612,10 +8612,10 @@
     </x:row>
     <x:row r="92" spans="1:22">
       <x:c r="A92" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>48</x:v>
@@ -8630,16 +8630,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G92" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H92" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I92" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J92" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="H92" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I92" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="J92" s="0" t="s">
-        <x:v>52</x:v>
       </x:c>
       <x:c r="K92" s="0" t="s">
         <x:v>24</x:v>
@@ -8672,18 +8672,18 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="U92" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="V92" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:22">
       <x:c r="A93" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>25</x:v>
@@ -8748,10 +8748,10 @@
     </x:row>
     <x:row r="94" spans="1:22">
       <x:c r="A94" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>32</x:v>
@@ -8811,15 +8811,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V94" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:22">
       <x:c r="A95" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
         <x:v>25</x:v>
@@ -8884,10 +8884,10 @@
     </x:row>
     <x:row r="96" spans="1:22">
       <x:c r="A96" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>25</x:v>
@@ -8952,10 +8952,10 @@
     </x:row>
     <x:row r="97" spans="1:22">
       <x:c r="A97" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>32</x:v>
@@ -8979,7 +8979,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J97" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K97" s="0" t="s">
         <x:v>25</x:v>
@@ -8997,7 +8997,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="P97" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="Q97" s="0" t="s">
         <x:v>25</x:v>
@@ -9015,15 +9015,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V97" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:22">
       <x:c r="A98" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>25</x:v>
@@ -9088,10 +9088,10 @@
     </x:row>
     <x:row r="99" spans="1:22">
       <x:c r="A99" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>25</x:v>
@@ -9127,7 +9127,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N99" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O99" s="0" t="s">
         <x:v>25</x:v>
@@ -9156,10 +9156,10 @@
     </x:row>
     <x:row r="100" spans="1:22">
       <x:c r="A100" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>25</x:v>
@@ -9224,10 +9224,10 @@
     </x:row>
     <x:row r="101" spans="1:22">
       <x:c r="A101" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>25</x:v>
@@ -9292,10 +9292,10 @@
     </x:row>
     <x:row r="102" spans="1:22">
       <x:c r="A102" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>25</x:v>
@@ -9331,7 +9331,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N102" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O102" s="0" t="s">
         <x:v>25</x:v>
@@ -9360,10 +9360,10 @@
     </x:row>
     <x:row r="103" spans="1:22">
       <x:c r="A103" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>25</x:v>
@@ -9428,10 +9428,10 @@
     </x:row>
     <x:row r="104" spans="1:22">
       <x:c r="A104" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>25</x:v>
@@ -9496,10 +9496,10 @@
     </x:row>
     <x:row r="105" spans="1:22">
       <x:c r="A105" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
         <x:v>98</x:v>
@@ -9535,7 +9535,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N105" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="O105" s="0" t="s">
         <x:v>35</x:v>
@@ -9553,21 +9553,21 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="T105" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="U105" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="V105" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:22">
       <x:c r="A106" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>25</x:v>
@@ -9627,15 +9627,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V106" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:22">
       <x:c r="A107" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>25</x:v>
@@ -9671,7 +9671,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N107" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O107" s="0" t="s">
         <x:v>25</x:v>
@@ -9695,15 +9695,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V107" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:22">
       <x:c r="A108" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>25</x:v>
@@ -9768,10 +9768,10 @@
     </x:row>
     <x:row r="109" spans="1:22">
       <x:c r="A109" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>25</x:v>
@@ -9836,10 +9836,10 @@
     </x:row>
     <x:row r="110" spans="1:22">
       <x:c r="A110" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>24</x:v>
@@ -9904,10 +9904,10 @@
     </x:row>
     <x:row r="111" spans="1:22">
       <x:c r="A111" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>25</x:v>
@@ -9972,10 +9972,10 @@
     </x:row>
     <x:row r="112" spans="1:22">
       <x:c r="A112" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>25</x:v>
@@ -10035,15 +10035,15 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="V112" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:22">
       <x:c r="A113" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>25</x:v>
@@ -10108,10 +10108,10 @@
     </x:row>
     <x:row r="114" spans="1:22">
       <x:c r="A114" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>25</x:v>
@@ -10176,10 +10176,10 @@
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10244,10 +10244,10 @@
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>25</x:v>
@@ -10312,10 +10312,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>25</x:v>
@@ -10330,7 +10330,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G117" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H117" s="0" t="s">
         <x:v>25</x:v>
@@ -10380,10 +10380,10 @@
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>25</x:v>
@@ -10419,7 +10419,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N118" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="O118" s="0" t="s">
         <x:v>25</x:v>
@@ -10437,21 +10437,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T118" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U118" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="V118" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10516,10 +10516,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>25</x:v>
@@ -10584,10 +10584,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10652,10 +10652,10 @@
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -10720,10 +10720,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>25</x:v>
@@ -10788,10 +10788,10 @@
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -10856,10 +10856,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>24</x:v>
@@ -10901,7 +10901,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P125" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="Q125" s="0" t="s">
         <x:v>25</x:v>
@@ -10924,10 +10924,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -10992,10 +10992,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11060,10 +11060,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11128,10 +11128,10 @@
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11191,15 +11191,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V129" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11264,10 +11264,10 @@
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11291,7 +11291,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J131" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K131" s="0" t="s">
         <x:v>25</x:v>
@@ -11327,15 +11327,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V131" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>25</x:v>
@@ -11400,10 +11400,10 @@
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11418,7 +11418,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G133" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H133" s="0" t="s">
         <x:v>25</x:v>
@@ -11468,10 +11468,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>32</x:v>
@@ -11486,7 +11486,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G134" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H134" s="0" t="s">
         <x:v>25</x:v>
@@ -11495,7 +11495,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J134" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="K134" s="0" t="s">
         <x:v>25</x:v>
@@ -11507,7 +11507,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N134" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="O134" s="0" t="s">
         <x:v>25</x:v>
@@ -11531,15 +11531,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V134" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11604,10 +11604,10 @@
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -11672,10 +11672,10 @@
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -11740,10 +11740,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -11808,10 +11808,10 @@
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -11876,10 +11876,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -11944,10 +11944,10 @@
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -11983,7 +11983,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N141" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O141" s="0" t="s">
         <x:v>24</x:v>
@@ -12012,10 +12012,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12080,10 +12080,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12143,7 +12143,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V143" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:22">
@@ -12261,7 +12261,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P145" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q145" s="0" t="s">
         <x:v>25</x:v>
@@ -12397,7 +12397,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P147" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="Q147" s="0" t="s">
         <x:v>25</x:v>
@@ -12415,7 +12415,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V147" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:22">
@@ -12551,7 +12551,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V149" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:22">
@@ -12580,7 +12580,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I150" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J150" s="0" t="s">
         <x:v>40</x:v>
@@ -12595,7 +12595,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N150" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="O150" s="0" t="s">
         <x:v>25</x:v>
@@ -12855,7 +12855,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J154" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K154" s="0" t="s">
         <x:v>25</x:v>
@@ -12914,7 +12914,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G155" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H155" s="0" t="s">
         <x:v>25</x:v>
@@ -12959,7 +12959,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V155" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:22">
@@ -13038,7 +13038,7 @@
         <x:v>414</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D157" s="0" t="s">
         <x:v>32</x:v>
@@ -13071,7 +13071,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N157" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="O157" s="0" t="s">
         <x:v>24</x:v>
@@ -13089,7 +13089,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T157" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="U157" s="0" t="s">
         <x:v>32</x:v>
@@ -13242,10 +13242,10 @@
         <x:v>421</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D160" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E160" s="0" t="s">
         <x:v>25</x:v>
@@ -13272,13 +13272,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M160" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N160" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
       <x:c r="O160" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P160" s="0" t="s">
         <x:v>253</x:v>
@@ -13290,7 +13290,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S160" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="T160" s="0" t="s">
         <x:v>40</x:v>
@@ -13322,7 +13322,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G161" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H161" s="0" t="s">
         <x:v>25</x:v>
@@ -13399,7 +13399,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="J162" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K162" s="0" t="s">
         <x:v>25</x:v>
@@ -13639,7 +13639,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V165" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:22">
@@ -13798,7 +13798,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G168" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H168" s="0" t="s">
         <x:v>25</x:v>
@@ -14274,7 +14274,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G175" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H175" s="0" t="s">
         <x:v>24</x:v>
@@ -14431,7 +14431,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N177" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O177" s="0" t="s">
         <x:v>25</x:v>
@@ -14721,7 +14721,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="T181" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="U181" s="0" t="s">
         <x:v>472</x:v>
@@ -14886,7 +14886,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G184" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H184" s="0" t="s">
         <x:v>25</x:v>
@@ -14975,7 +14975,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N185" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O185" s="0" t="s">
         <x:v>25</x:v>
@@ -15049,7 +15049,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P186" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="Q186" s="0" t="s">
         <x:v>25</x:v>
@@ -15203,7 +15203,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V188" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
@@ -15407,7 +15407,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V191" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
@@ -15489,7 +15489,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D193" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E193" s="0" t="s">
         <x:v>25</x:v>
@@ -16110,7 +16110,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G202" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H202" s="0" t="s">
         <x:v>25</x:v>
@@ -16155,7 +16155,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V202" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:22">
@@ -16199,7 +16199,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N203" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="O203" s="0" t="s">
         <x:v>25</x:v>
@@ -16427,7 +16427,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V206" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:22">
@@ -16509,7 +16509,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D208" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E208" s="0" t="s">
         <x:v>25</x:v>
@@ -16518,7 +16518,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G208" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H208" s="0" t="s">
         <x:v>25</x:v>
@@ -16527,7 +16527,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="J208" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="K208" s="0" t="s">
         <x:v>25</x:v>
@@ -16731,7 +16731,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J211" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K211" s="0" t="s">
         <x:v>25</x:v>
@@ -16761,7 +16761,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T211" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U211" s="0" t="s">
         <x:v>45</x:v>
@@ -16867,7 +16867,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J213" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K213" s="0" t="s">
         <x:v>25</x:v>
@@ -17015,7 +17015,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N215" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="O215" s="0" t="s">
         <x:v>25</x:v>
@@ -17243,7 +17243,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V218" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
@@ -17390,7 +17390,7 @@
         <x:v>557</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D221" s="0" t="s">
         <x:v>41</x:v>
@@ -17399,7 +17399,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F221" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G221" s="0" t="s">
         <x:v>111</x:v>
@@ -17423,10 +17423,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N221" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="O221" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P221" s="0" t="s">
         <x:v>558</x:v>
@@ -17515,7 +17515,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V222" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:22">
@@ -17831,7 +17831,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N227" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O227" s="0" t="s">
         <x:v>24</x:v>
@@ -17855,7 +17855,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V227" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:22">
@@ -17899,7 +17899,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N228" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="O228" s="0" t="s">
         <x:v>25</x:v>
@@ -18059,7 +18059,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V230" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:22">
@@ -18103,7 +18103,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N231" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O231" s="0" t="s">
         <x:v>25</x:v>
@@ -18127,7 +18127,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V231" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:22">
@@ -18467,7 +18467,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V236" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:22">
@@ -18783,7 +18783,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N241" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="O241" s="0" t="s">
         <x:v>45</x:v>
@@ -19147,7 +19147,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V246" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
@@ -19229,7 +19229,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D248" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E248" s="0" t="s">
         <x:v>25</x:v>
@@ -19256,7 +19256,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M248" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N248" s="0" t="s">
         <x:v>181</x:v>
@@ -19265,7 +19265,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="P248" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q248" s="0" t="s">
         <x:v>24</x:v>
@@ -19623,7 +19623,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V253" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:22">
@@ -19691,7 +19691,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V254" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:22">
@@ -19779,7 +19779,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F256" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G256" s="0" t="s">
         <x:v>223</x:v>
@@ -19791,7 +19791,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="J256" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K256" s="0" t="s">
         <x:v>32</x:v>
@@ -20323,7 +20323,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F264" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G264" s="0" t="s">
         <x:v>28</x:v>
@@ -20666,7 +20666,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G269" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H269" s="0" t="s">
         <x:v>25</x:v>
@@ -20802,7 +20802,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G271" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H271" s="0" t="s">
         <x:v>25</x:v>
@@ -20823,7 +20823,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N271" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O271" s="0" t="s">
         <x:v>25</x:v>
@@ -20891,7 +20891,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N272" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O272" s="0" t="s">
         <x:v>25</x:v>
@@ -20959,7 +20959,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N273" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O273" s="0" t="s">
         <x:v>25</x:v>
@@ -21113,7 +21113,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T275" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U275" s="0" t="s">
         <x:v>25</x:v>
@@ -21299,7 +21299,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N278" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="O278" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -517,6 +517,9 @@
     <x:t>Hastings Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
     <x:t>MN0190400</x:t>
   </x:si>
   <x:si>
@@ -544,9 +547,6 @@
     <x:t>West St Paul Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
     <x:t>MN0190800</x:t>
   </x:si>
   <x:si>
@@ -634,7 +634,7 @@
     <x:t>Albert Lea Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>63</x:t>
+    <x:t>64</x:t>
   </x:si>
   <x:si>
     <x:t>MN0250000</x:t>
@@ -1432,9 +1432,6 @@
     <x:t>102</x:t>
   </x:si>
   <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
     <x:t>456</x:t>
   </x:si>
   <x:si>
@@ -1510,27 +1507,27 @@
     <x:t>St Louis County Sheriff</x:t>
   </x:si>
   <x:si>
+    <x:t>MN0690200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Babbitt Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisholm Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Duluth Police Dept</x:t>
+  </x:si>
+  <x:si>
     <x:t>60</x:t>
   </x:si>
   <x:si>
-    <x:t>MN0690200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Babbitt Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisholm Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Duluth Police Dept</x:t>
-  </x:si>
-  <x:si>
     <x:t>141</x:t>
   </x:si>
   <x:si>
@@ -1816,7 +1813,7 @@
     <x:t>Washington County Sheriff</x:t>
   </x:si>
   <x:si>
-    <x:t>96</x:t>
+    <x:t>105</x:t>
   </x:si>
   <x:si>
     <x:t>MN0820100</x:t>
@@ -5901,7 +5898,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>25</x:v>
@@ -5952,18 +5949,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="U52" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="V52" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:22">
       <x:c r="A53" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
         <x:v>25</x:v>
@@ -6028,10 +6025,10 @@
     </x:row>
     <x:row r="54" spans="1:22">
       <x:c r="A54" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
         <x:v>25</x:v>
@@ -6096,10 +6093,10 @@
     </x:row>
     <x:row r="55" spans="1:22">
       <x:c r="A55" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
         <x:v>24</x:v>
@@ -6159,15 +6156,15 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="V55" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:22">
       <x:c r="A56" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>25</x:v>
@@ -6227,7 +6224,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V56" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:22">
@@ -7087,7 +7084,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N69" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O69" s="0" t="s">
         <x:v>25</x:v>
@@ -7530,7 +7527,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
         <x:v>54</x:v>
@@ -7587,7 +7584,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V76" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:22">
@@ -8997,7 +8994,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="P97" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="Q97" s="0" t="s">
         <x:v>25</x:v>
@@ -11341,7 +11338,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D132" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E132" s="0" t="s">
         <x:v>25</x:v>
@@ -11368,7 +11365,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M132" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="N132" s="0" t="s">
         <x:v>61</x:v>
@@ -11395,7 +11392,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V132" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:22">
@@ -12397,7 +12394,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P147" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="Q147" s="0" t="s">
         <x:v>25</x:v>
@@ -13639,7 +13636,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V165" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:22">
@@ -14724,18 +14721,18 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="U181" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="V181" s="0" t="s">
         <x:v>472</x:v>
-      </x:c>
-      <x:c r="V181" s="0" t="s">
-        <x:v>473</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c r="B182" s="0" t="s">
         <x:v>474</x:v>
-      </x:c>
-      <x:c r="B182" s="0" t="s">
-        <x:v>475</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -14800,10 +14797,10 @@
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
+        <x:v>475</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
         <x:v>476</x:v>
-      </x:c>
-      <x:c r="B183" s="0" t="s">
-        <x:v>477</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -14868,10 +14865,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
         <x:v>478</x:v>
-      </x:c>
-      <x:c r="B184" s="0" t="s">
-        <x:v>479</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -14936,10 +14933,10 @@
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
+        <x:v>479</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
         <x:v>480</x:v>
-      </x:c>
-      <x:c r="B185" s="0" t="s">
-        <x:v>481</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -15004,10 +15001,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
         <x:v>482</x:v>
-      </x:c>
-      <x:c r="B186" s="0" t="s">
-        <x:v>483</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>32</x:v>
@@ -15072,10 +15069,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
         <x:v>484</x:v>
-      </x:c>
-      <x:c r="B187" s="0" t="s">
-        <x:v>485</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>25</x:v>
@@ -15140,10 +15137,10 @@
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
         <x:v>486</x:v>
-      </x:c>
-      <x:c r="B188" s="0" t="s">
-        <x:v>487</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>25</x:v>
@@ -15208,10 +15205,10 @@
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
         <x:v>488</x:v>
-      </x:c>
-      <x:c r="B189" s="0" t="s">
-        <x:v>489</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>25</x:v>
@@ -15276,10 +15273,10 @@
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
         <x:v>490</x:v>
-      </x:c>
-      <x:c r="B190" s="0" t="s">
-        <x:v>491</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15344,10 +15341,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
+        <x:v>491</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
         <x:v>492</x:v>
-      </x:c>
-      <x:c r="B191" s="0" t="s">
-        <x:v>493</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>25</x:v>
@@ -15412,10 +15409,10 @@
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
+        <x:v>493</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="s">
         <x:v>494</x:v>
-      </x:c>
-      <x:c r="B192" s="0" t="s">
-        <x:v>495</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>25</x:v>
@@ -15480,10 +15477,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
         <x:v>496</x:v>
-      </x:c>
-      <x:c r="B193" s="0" t="s">
-        <x:v>497</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>25</x:v>
@@ -15495,7 +15492,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F193" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G193" s="0" t="s">
         <x:v>35</x:v>
@@ -15543,15 +15540,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V193" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>470</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>25</x:v>
@@ -15616,10 +15613,10 @@
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>25</x:v>
@@ -15684,10 +15681,10 @@
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -15723,7 +15720,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N196" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="O196" s="0" t="s">
         <x:v>25</x:v>
@@ -15747,15 +15744,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V196" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>504</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
+        <x:v>505</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
         <x:v>506</x:v>
-      </x:c>
-      <x:c r="B197" s="0" t="s">
-        <x:v>507</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>25</x:v>
@@ -15820,10 +15817,10 @@
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="s">
         <x:v>508</x:v>
-      </x:c>
-      <x:c r="B198" s="0" t="s">
-        <x:v>509</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -15888,10 +15885,10 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
+        <x:v>509</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
         <x:v>510</x:v>
-      </x:c>
-      <x:c r="B199" s="0" t="s">
-        <x:v>511</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>25</x:v>
@@ -15956,10 +15953,10 @@
     </x:row>
     <x:row r="200" spans="1:22">
       <x:c r="A200" s="0" t="s">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c r="B200" s="0" t="s">
         <x:v>512</x:v>
-      </x:c>
-      <x:c r="B200" s="0" t="s">
-        <x:v>513</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>25</x:v>
@@ -16024,10 +16021,10 @@
     </x:row>
     <x:row r="201" spans="1:22">
       <x:c r="A201" s="0" t="s">
+        <x:v>513</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="s">
         <x:v>514</x:v>
-      </x:c>
-      <x:c r="B201" s="0" t="s">
-        <x:v>515</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>25</x:v>
@@ -16092,10 +16089,10 @@
     </x:row>
     <x:row r="202" spans="1:22">
       <x:c r="A202" s="0" t="s">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c r="B202" s="0" t="s">
         <x:v>516</x:v>
-      </x:c>
-      <x:c r="B202" s="0" t="s">
-        <x:v>517</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>25</x:v>
@@ -16160,10 +16157,10 @@
     </x:row>
     <x:row r="203" spans="1:22">
       <x:c r="A203" s="0" t="s">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
         <x:v>518</x:v>
-      </x:c>
-      <x:c r="B203" s="0" t="s">
-        <x:v>519</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>25</x:v>
@@ -16228,10 +16225,10 @@
     </x:row>
     <x:row r="204" spans="1:22">
       <x:c r="A204" s="0" t="s">
+        <x:v>519</x:v>
+      </x:c>
+      <x:c r="B204" s="0" t="s">
         <x:v>520</x:v>
-      </x:c>
-      <x:c r="B204" s="0" t="s">
-        <x:v>521</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>25</x:v>
@@ -16296,10 +16293,10 @@
     </x:row>
     <x:row r="205" spans="1:22">
       <x:c r="A205" s="0" t="s">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c r="B205" s="0" t="s">
         <x:v>522</x:v>
-      </x:c>
-      <x:c r="B205" s="0" t="s">
-        <x:v>523</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>25</x:v>
@@ -16364,10 +16361,10 @@
     </x:row>
     <x:row r="206" spans="1:22">
       <x:c r="A206" s="0" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="B206" s="0" t="s">
         <x:v>524</x:v>
-      </x:c>
-      <x:c r="B206" s="0" t="s">
-        <x:v>525</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>25</x:v>
@@ -16432,10 +16429,10 @@
     </x:row>
     <x:row r="207" spans="1:22">
       <x:c r="A207" s="0" t="s">
+        <x:v>525</x:v>
+      </x:c>
+      <x:c r="B207" s="0" t="s">
         <x:v>526</x:v>
-      </x:c>
-      <x:c r="B207" s="0" t="s">
-        <x:v>527</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>25</x:v>
@@ -16500,16 +16497,16 @@
     </x:row>
     <x:row r="208" spans="1:22">
       <x:c r="A208" s="0" t="s">
+        <x:v>527</x:v>
+      </x:c>
+      <x:c r="B208" s="0" t="s">
         <x:v>528</x:v>
       </x:c>
-      <x:c r="B208" s="0" t="s">
-        <x:v>529</x:v>
-      </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="D208" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E208" s="0" t="s">
         <x:v>25</x:v>
@@ -16527,7 +16524,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="J208" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="K208" s="0" t="s">
         <x:v>25</x:v>
@@ -16563,15 +16560,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V208" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>529</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:22">
       <x:c r="A209" s="0" t="s">
+        <x:v>530</x:v>
+      </x:c>
+      <x:c r="B209" s="0" t="s">
         <x:v>531</x:v>
-      </x:c>
-      <x:c r="B209" s="0" t="s">
-        <x:v>532</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>32</x:v>
@@ -16636,10 +16633,10 @@
     </x:row>
     <x:row r="210" spans="1:22">
       <x:c r="A210" s="0" t="s">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="B210" s="0" t="s">
         <x:v>533</x:v>
-      </x:c>
-      <x:c r="B210" s="0" t="s">
-        <x:v>534</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>24</x:v>
@@ -16672,16 +16669,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M210" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N210" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="O210" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P210" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="Q210" s="0" t="s">
         <x:v>24</x:v>
@@ -16699,15 +16696,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V210" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:22">
       <x:c r="A211" s="0" t="s">
+        <x:v>534</x:v>
+      </x:c>
+      <x:c r="B211" s="0" t="s">
         <x:v>535</x:v>
-      </x:c>
-      <x:c r="B211" s="0" t="s">
-        <x:v>536</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>24</x:v>
@@ -16767,15 +16764,15 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="V211" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>536</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
       <x:c r="A212" s="0" t="s">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c r="B212" s="0" t="s">
         <x:v>538</x:v>
-      </x:c>
-      <x:c r="B212" s="0" t="s">
-        <x:v>539</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>25</x:v>
@@ -16840,10 +16837,10 @@
     </x:row>
     <x:row r="213" spans="1:22">
       <x:c r="A213" s="0" t="s">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c r="B213" s="0" t="s">
         <x:v>540</x:v>
-      </x:c>
-      <x:c r="B213" s="0" t="s">
-        <x:v>541</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>25</x:v>
@@ -16908,10 +16905,10 @@
     </x:row>
     <x:row r="214" spans="1:22">
       <x:c r="A214" s="0" t="s">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="B214" s="0" t="s">
         <x:v>542</x:v>
-      </x:c>
-      <x:c r="B214" s="0" t="s">
-        <x:v>543</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>25</x:v>
@@ -16976,10 +16973,10 @@
     </x:row>
     <x:row r="215" spans="1:22">
       <x:c r="A215" s="0" t="s">
+        <x:v>543</x:v>
+      </x:c>
+      <x:c r="B215" s="0" t="s">
         <x:v>544</x:v>
-      </x:c>
-      <x:c r="B215" s="0" t="s">
-        <x:v>545</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>25</x:v>
@@ -17044,10 +17041,10 @@
     </x:row>
     <x:row r="216" spans="1:22">
       <x:c r="A216" s="0" t="s">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c r="B216" s="0" t="s">
         <x:v>546</x:v>
-      </x:c>
-      <x:c r="B216" s="0" t="s">
-        <x:v>547</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>25</x:v>
@@ -17112,10 +17109,10 @@
     </x:row>
     <x:row r="217" spans="1:22">
       <x:c r="A217" s="0" t="s">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c r="B217" s="0" t="s">
         <x:v>548</x:v>
-      </x:c>
-      <x:c r="B217" s="0" t="s">
-        <x:v>549</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>25</x:v>
@@ -17180,10 +17177,10 @@
     </x:row>
     <x:row r="218" spans="1:22">
       <x:c r="A218" s="0" t="s">
+        <x:v>549</x:v>
+      </x:c>
+      <x:c r="B218" s="0" t="s">
         <x:v>550</x:v>
-      </x:c>
-      <x:c r="B218" s="0" t="s">
-        <x:v>551</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>25</x:v>
@@ -17248,10 +17245,10 @@
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c r="B219" s="0" t="s">
         <x:v>552</x:v>
-      </x:c>
-      <x:c r="B219" s="0" t="s">
-        <x:v>553</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17316,10 +17313,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="B220" s="0" t="s">
         <x:v>554</x:v>
-      </x:c>
-      <x:c r="B220" s="0" t="s">
-        <x:v>555</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17384,10 +17381,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="B221" s="0" t="s">
         <x:v>556</x:v>
-      </x:c>
-      <x:c r="B221" s="0" t="s">
-        <x:v>557</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>54</x:v>
@@ -17429,7 +17426,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P221" s="0" t="s">
-        <x:v>558</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="Q221" s="0" t="s">
         <x:v>24</x:v>
@@ -17447,15 +17444,15 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>558</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
+        <x:v>559</x:v>
+      </x:c>
+      <x:c r="B222" s="0" t="s">
         <x:v>560</x:v>
-      </x:c>
-      <x:c r="B222" s="0" t="s">
-        <x:v>561</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17520,10 +17517,10 @@
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
+        <x:v>561</x:v>
+      </x:c>
+      <x:c r="B223" s="0" t="s">
         <x:v>562</x:v>
-      </x:c>
-      <x:c r="B223" s="0" t="s">
-        <x:v>563</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>25</x:v>
@@ -17588,10 +17585,10 @@
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
+        <x:v>563</x:v>
+      </x:c>
+      <x:c r="B224" s="0" t="s">
         <x:v>564</x:v>
-      </x:c>
-      <x:c r="B224" s="0" t="s">
-        <x:v>565</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -17656,10 +17653,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
+        <x:v>565</x:v>
+      </x:c>
+      <x:c r="B225" s="0" t="s">
         <x:v>566</x:v>
-      </x:c>
-      <x:c r="B225" s="0" t="s">
-        <x:v>567</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -17724,10 +17721,10 @@
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="B226" s="0" t="s">
         <x:v>568</x:v>
-      </x:c>
-      <x:c r="B226" s="0" t="s">
-        <x:v>569</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -17792,10 +17789,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
+        <x:v>569</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
         <x:v>570</x:v>
-      </x:c>
-      <x:c r="B227" s="0" t="s">
-        <x:v>571</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -17860,10 +17857,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
+        <x:v>571</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
         <x:v>572</x:v>
-      </x:c>
-      <x:c r="B228" s="0" t="s">
-        <x:v>573</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>25</x:v>
@@ -17928,10 +17925,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
+        <x:v>573</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="s">
         <x:v>574</x:v>
-      </x:c>
-      <x:c r="B229" s="0" t="s">
-        <x:v>575</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -17996,10 +17993,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
+        <x:v>575</x:v>
+      </x:c>
+      <x:c r="B230" s="0" t="s">
         <x:v>576</x:v>
-      </x:c>
-      <x:c r="B230" s="0" t="s">
-        <x:v>577</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18064,10 +18061,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="s">
         <x:v>578</x:v>
-      </x:c>
-      <x:c r="B231" s="0" t="s">
-        <x:v>579</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18127,15 +18124,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V231" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="B232" s="0" t="s">
         <x:v>580</x:v>
-      </x:c>
-      <x:c r="B232" s="0" t="s">
-        <x:v>581</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18200,10 +18197,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
+        <x:v>581</x:v>
+      </x:c>
+      <x:c r="B233" s="0" t="s">
         <x:v>582</x:v>
-      </x:c>
-      <x:c r="B233" s="0" t="s">
-        <x:v>583</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18268,10 +18265,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
+        <x:v>583</x:v>
+      </x:c>
+      <x:c r="B234" s="0" t="s">
         <x:v>584</x:v>
-      </x:c>
-      <x:c r="B234" s="0" t="s">
-        <x:v>585</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18336,10 +18333,10 @@
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
+        <x:v>585</x:v>
+      </x:c>
+      <x:c r="B235" s="0" t="s">
         <x:v>586</x:v>
-      </x:c>
-      <x:c r="B235" s="0" t="s">
-        <x:v>587</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>25</x:v>
@@ -18404,10 +18401,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
+        <x:v>587</x:v>
+      </x:c>
+      <x:c r="B236" s="0" t="s">
         <x:v>588</x:v>
-      </x:c>
-      <x:c r="B236" s="0" t="s">
-        <x:v>589</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>25</x:v>
@@ -18472,10 +18469,10 @@
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
+        <x:v>589</x:v>
+      </x:c>
+      <x:c r="B237" s="0" t="s">
         <x:v>590</x:v>
-      </x:c>
-      <x:c r="B237" s="0" t="s">
-        <x:v>591</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>25</x:v>
@@ -18540,10 +18537,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
+        <x:v>591</x:v>
+      </x:c>
+      <x:c r="B238" s="0" t="s">
         <x:v>592</x:v>
-      </x:c>
-      <x:c r="B238" s="0" t="s">
-        <x:v>593</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>25</x:v>
@@ -18608,10 +18605,10 @@
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
+        <x:v>593</x:v>
+      </x:c>
+      <x:c r="B239" s="0" t="s">
         <x:v>594</x:v>
-      </x:c>
-      <x:c r="B239" s="0" t="s">
-        <x:v>595</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>25</x:v>
@@ -18676,10 +18673,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
+        <x:v>595</x:v>
+      </x:c>
+      <x:c r="B240" s="0" t="s">
         <x:v>596</x:v>
-      </x:c>
-      <x:c r="B240" s="0" t="s">
-        <x:v>597</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>25</x:v>
@@ -18744,13 +18741,13 @@
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="B241" s="0" t="s">
         <x:v>598</x:v>
       </x:c>
-      <x:c r="B241" s="0" t="s">
-        <x:v>599</x:v>
-      </x:c>
       <x:c r="C241" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D241" s="0" t="s">
         <x:v>55</x:v>
@@ -18771,7 +18768,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="J241" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K241" s="0" t="s">
         <x:v>24</x:v>
@@ -18783,13 +18780,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N241" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="O241" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="P241" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="Q241" s="0" t="s">
         <x:v>24</x:v>
@@ -18807,15 +18804,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>599</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="B242" s="0" t="s">
         <x:v>601</x:v>
-      </x:c>
-      <x:c r="B242" s="0" t="s">
-        <x:v>602</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>25</x:v>
@@ -18880,10 +18877,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
+        <x:v>602</x:v>
+      </x:c>
+      <x:c r="B243" s="0" t="s">
         <x:v>603</x:v>
-      </x:c>
-      <x:c r="B243" s="0" t="s">
-        <x:v>604</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>25</x:v>
@@ -18948,10 +18945,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="B244" s="0" t="s">
         <x:v>605</x:v>
-      </x:c>
-      <x:c r="B244" s="0" t="s">
-        <x:v>606</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>25</x:v>
@@ -19016,10 +19013,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
+        <x:v>606</x:v>
+      </x:c>
+      <x:c r="B245" s="0" t="s">
         <x:v>607</x:v>
-      </x:c>
-      <x:c r="B245" s="0" t="s">
-        <x:v>608</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>24</x:v>
@@ -19084,10 +19081,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
+        <x:v>608</x:v>
+      </x:c>
+      <x:c r="B246" s="0" t="s">
         <x:v>609</x:v>
-      </x:c>
-      <x:c r="B246" s="0" t="s">
-        <x:v>610</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>25</x:v>
@@ -19152,10 +19149,10 @@
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
+        <x:v>610</x:v>
+      </x:c>
+      <x:c r="B247" s="0" t="s">
         <x:v>611</x:v>
-      </x:c>
-      <x:c r="B247" s="0" t="s">
-        <x:v>612</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>24</x:v>
@@ -19220,10 +19217,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
+        <x:v>612</x:v>
+      </x:c>
+      <x:c r="B248" s="0" t="s">
         <x:v>613</x:v>
-      </x:c>
-      <x:c r="B248" s="0" t="s">
-        <x:v>614</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>28</x:v>
@@ -19288,10 +19285,10 @@
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
+        <x:v>614</x:v>
+      </x:c>
+      <x:c r="B249" s="0" t="s">
         <x:v>615</x:v>
-      </x:c>
-      <x:c r="B249" s="0" t="s">
-        <x:v>616</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>25</x:v>
@@ -19356,10 +19353,10 @@
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="B250" s="0" t="s">
         <x:v>617</x:v>
-      </x:c>
-      <x:c r="B250" s="0" t="s">
-        <x:v>618</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19424,10 +19421,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="B251" s="0" t="s">
         <x:v>619</x:v>
-      </x:c>
-      <x:c r="B251" s="0" t="s">
-        <x:v>620</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>25</x:v>
@@ -19492,10 +19489,10 @@
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
+        <x:v>620</x:v>
+      </x:c>
+      <x:c r="B252" s="0" t="s">
         <x:v>621</x:v>
-      </x:c>
-      <x:c r="B252" s="0" t="s">
-        <x:v>622</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>25</x:v>
@@ -19560,10 +19557,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
+        <x:v>622</x:v>
+      </x:c>
+      <x:c r="B253" s="0" t="s">
         <x:v>623</x:v>
-      </x:c>
-      <x:c r="B253" s="0" t="s">
-        <x:v>624</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>25</x:v>
@@ -19628,10 +19625,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="B254" s="0" t="s">
         <x:v>625</x:v>
-      </x:c>
-      <x:c r="B254" s="0" t="s">
-        <x:v>626</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>25</x:v>
@@ -19696,10 +19693,10 @@
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
+        <x:v>626</x:v>
+      </x:c>
+      <x:c r="B255" s="0" t="s">
         <x:v>627</x:v>
-      </x:c>
-      <x:c r="B255" s="0" t="s">
-        <x:v>628</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>25</x:v>
@@ -19759,15 +19756,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V255" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>628</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="B256" s="0" t="s">
         <x:v>630</x:v>
-      </x:c>
-      <x:c r="B256" s="0" t="s">
-        <x:v>631</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>24</x:v>
@@ -19827,15 +19824,15 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="V256" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>631</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
+        <x:v>632</x:v>
+      </x:c>
+      <x:c r="B257" s="0" t="s">
         <x:v>633</x:v>
-      </x:c>
-      <x:c r="B257" s="0" t="s">
-        <x:v>634</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>25</x:v>
@@ -19900,10 +19897,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
+        <x:v>634</x:v>
+      </x:c>
+      <x:c r="B258" s="0" t="s">
         <x:v>635</x:v>
-      </x:c>
-      <x:c r="B258" s="0" t="s">
-        <x:v>636</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>25</x:v>
@@ -19968,10 +19965,10 @@
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
+        <x:v>636</x:v>
+      </x:c>
+      <x:c r="B259" s="0" t="s">
         <x:v>637</x:v>
-      </x:c>
-      <x:c r="B259" s="0" t="s">
-        <x:v>638</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>25</x:v>
@@ -20036,10 +20033,10 @@
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
+        <x:v>638</x:v>
+      </x:c>
+      <x:c r="B260" s="0" t="s">
         <x:v>639</x:v>
-      </x:c>
-      <x:c r="B260" s="0" t="s">
-        <x:v>640</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>25</x:v>
@@ -20104,10 +20101,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
+        <x:v>640</x:v>
+      </x:c>
+      <x:c r="B261" s="0" t="s">
         <x:v>641</x:v>
-      </x:c>
-      <x:c r="B261" s="0" t="s">
-        <x:v>642</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>25</x:v>
@@ -20172,10 +20169,10 @@
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
+        <x:v>642</x:v>
+      </x:c>
+      <x:c r="B262" s="0" t="s">
         <x:v>643</x:v>
-      </x:c>
-      <x:c r="B262" s="0" t="s">
-        <x:v>644</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>24</x:v>
@@ -20240,10 +20237,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
+        <x:v>644</x:v>
+      </x:c>
+      <x:c r="B263" s="0" t="s">
         <x:v>645</x:v>
-      </x:c>
-      <x:c r="B263" s="0" t="s">
-        <x:v>646</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20308,10 +20305,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c r="B264" s="0" t="s">
         <x:v>647</x:v>
-      </x:c>
-      <x:c r="B264" s="0" t="s">
-        <x:v>648</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20371,15 +20368,15 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="V264" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>648</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
+        <x:v>649</x:v>
+      </x:c>
+      <x:c r="B265" s="0" t="s">
         <x:v>650</x:v>
-      </x:c>
-      <x:c r="B265" s="0" t="s">
-        <x:v>651</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20444,10 +20441,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
+        <x:v>651</x:v>
+      </x:c>
+      <x:c r="B266" s="0" t="s">
         <x:v>652</x:v>
-      </x:c>
-      <x:c r="B266" s="0" t="s">
-        <x:v>653</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>25</x:v>
@@ -20512,10 +20509,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="B267" s="0" t="s">
         <x:v>654</x:v>
-      </x:c>
-      <x:c r="B267" s="0" t="s">
-        <x:v>655</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20580,10 +20577,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
+        <x:v>655</x:v>
+      </x:c>
+      <x:c r="B268" s="0" t="s">
         <x:v>656</x:v>
-      </x:c>
-      <x:c r="B268" s="0" t="s">
-        <x:v>657</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>25</x:v>
@@ -20648,10 +20645,10 @@
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
+        <x:v>657</x:v>
+      </x:c>
+      <x:c r="B269" s="0" t="s">
         <x:v>658</x:v>
-      </x:c>
-      <x:c r="B269" s="0" t="s">
-        <x:v>659</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -20716,10 +20713,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
+        <x:v>659</x:v>
+      </x:c>
+      <x:c r="B270" s="0" t="s">
         <x:v>660</x:v>
-      </x:c>
-      <x:c r="B270" s="0" t="s">
-        <x:v>661</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -20784,10 +20781,10 @@
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
+        <x:v>661</x:v>
+      </x:c>
+      <x:c r="B271" s="0" t="s">
         <x:v>662</x:v>
-      </x:c>
-      <x:c r="B271" s="0" t="s">
-        <x:v>663</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -20852,10 +20849,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
+        <x:v>663</x:v>
+      </x:c>
+      <x:c r="B272" s="0" t="s">
         <x:v>664</x:v>
-      </x:c>
-      <x:c r="B272" s="0" t="s">
-        <x:v>665</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -20920,10 +20917,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
+        <x:v>665</x:v>
+      </x:c>
+      <x:c r="B273" s="0" t="s">
         <x:v>666</x:v>
-      </x:c>
-      <x:c r="B273" s="0" t="s">
-        <x:v>667</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -20983,15 +20980,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V273" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>667</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
+        <x:v>668</x:v>
+      </x:c>
+      <x:c r="B274" s="0" t="s">
         <x:v>669</x:v>
-      </x:c>
-      <x:c r="B274" s="0" t="s">
-        <x:v>670</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21056,10 +21053,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
+        <x:v>670</x:v>
+      </x:c>
+      <x:c r="B275" s="0" t="s">
         <x:v>671</x:v>
-      </x:c>
-      <x:c r="B275" s="0" t="s">
-        <x:v>672</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21124,10 +21121,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="B276" s="0" t="s">
         <x:v>673</x:v>
-      </x:c>
-      <x:c r="B276" s="0" t="s">
-        <x:v>674</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21192,10 +21189,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="B277" s="0" t="s">
         <x:v>675</x:v>
-      </x:c>
-      <x:c r="B277" s="0" t="s">
-        <x:v>676</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21260,10 +21257,10 @@
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
+        <x:v>676</x:v>
+      </x:c>
+      <x:c r="B278" s="0" t="s">
         <x:v>677</x:v>
-      </x:c>
-      <x:c r="B278" s="0" t="s">
-        <x:v>678</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -673,7 +673,7 @@
     <x:t>Hennepin County Sheriff</x:t>
   </x:si>
   <x:si>
-    <x:t>121</x:t>
+    <x:t>122</x:t>
   </x:si>
   <x:si>
     <x:t>MN0270100</x:t>
@@ -1108,6 +1108,9 @@
     <x:t>McLeod County Sheriff</x:t>
   </x:si>
   <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
     <x:t>MN0430100</x:t>
   </x:si>
   <x:si>
@@ -1282,9 +1285,6 @@
     <x:t>Rochester Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
     <x:t>323</x:t>
   </x:si>
   <x:si>
@@ -1387,7 +1387,7 @@
     <x:t>Maplewood Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>61</x:t>
+    <x:t>62</x:t>
   </x:si>
   <x:si>
     <x:t>MN0620500</x:t>
@@ -1432,7 +1432,10 @@
     <x:t>102</x:t>
   </x:si>
   <x:si>
-    <x:t>456</x:t>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>455</x:t>
   </x:si>
   <x:si>
     <x:t>MN0621000</x:t>
@@ -1618,6 +1621,9 @@
     <x:t>Prior Lake Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
     <x:t>MN0710000</x:t>
   </x:si>
   <x:si>
@@ -1898,9 +1904,6 @@
   </x:si>
   <x:si>
     <x:t>Winona Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
   </x:si>
   <x:si>
     <x:t>MN0860000</x:t>
@@ -7394,7 +7397,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
         <x:v>25</x:v>
@@ -11338,7 +11341,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D132" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E132" s="0" t="s">
         <x:v>25</x:v>
@@ -11347,7 +11350,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G132" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H132" s="0" t="s">
         <x:v>25</x:v>
@@ -11368,13 +11371,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N132" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O132" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P132" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q132" s="0" t="s">
         <x:v>25</x:v>
@@ -11392,15 +11395,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V132" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11465,10 +11468,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>32</x:v>
@@ -11533,10 +11536,10 @@
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11601,10 +11604,10 @@
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -11669,10 +11672,10 @@
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -11737,10 +11740,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -11805,10 +11808,10 @@
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -11873,10 +11876,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -11941,10 +11944,10 @@
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -12009,10 +12012,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12077,10 +12080,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12145,10 +12148,10 @@
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12213,10 +12216,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12281,10 +12284,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12349,10 +12352,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12417,10 +12420,10 @@
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12485,10 +12488,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>25</x:v>
@@ -12553,10 +12556,10 @@
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>32</x:v>
@@ -12616,15 +12619,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V150" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -12689,10 +12692,10 @@
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -12757,10 +12760,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -12825,10 +12828,10 @@
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>25</x:v>
@@ -12893,10 +12896,10 @@
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>24</x:v>
@@ -12961,10 +12964,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -13029,10 +13032,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>27</x:v>
@@ -13092,15 +13095,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V157" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>25</x:v>
@@ -13165,10 +13168,10 @@
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>32</x:v>
@@ -13233,10 +13236,10 @@
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>54</x:v>
@@ -13251,7 +13254,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G160" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="H160" s="0" t="s">
         <x:v>32</x:v>
@@ -13260,7 +13263,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J160" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="K160" s="0" t="s">
         <x:v>25</x:v>
@@ -14339,7 +14342,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G176" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H176" s="0" t="s">
         <x:v>25</x:v>
@@ -14721,18 +14724,18 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="U181" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="V181" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -14797,10 +14800,10 @@
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -14865,10 +14868,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -14933,10 +14936,10 @@
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -15001,10 +15004,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>32</x:v>
@@ -15069,10 +15072,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>25</x:v>
@@ -15137,10 +15140,10 @@
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>25</x:v>
@@ -15205,10 +15208,10 @@
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>25</x:v>
@@ -15273,10 +15276,10 @@
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15341,10 +15344,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>25</x:v>
@@ -15409,10 +15412,10 @@
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>25</x:v>
@@ -15477,10 +15480,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>25</x:v>
@@ -15545,10 +15548,10 @@
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>25</x:v>
@@ -15613,10 +15616,10 @@
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>25</x:v>
@@ -15681,10 +15684,10 @@
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -15720,7 +15723,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N196" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="O196" s="0" t="s">
         <x:v>25</x:v>
@@ -15744,15 +15747,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V196" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>25</x:v>
@@ -15817,10 +15820,10 @@
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -15885,10 +15888,10 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>25</x:v>
@@ -15953,10 +15956,10 @@
     </x:row>
     <x:row r="200" spans="1:22">
       <x:c r="A200" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>25</x:v>
@@ -16021,10 +16024,10 @@
     </x:row>
     <x:row r="201" spans="1:22">
       <x:c r="A201" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>25</x:v>
@@ -16089,10 +16092,10 @@
     </x:row>
     <x:row r="202" spans="1:22">
       <x:c r="A202" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>25</x:v>
@@ -16157,10 +16160,10 @@
     </x:row>
     <x:row r="203" spans="1:22">
       <x:c r="A203" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>25</x:v>
@@ -16225,10 +16228,10 @@
     </x:row>
     <x:row r="204" spans="1:22">
       <x:c r="A204" s="0" t="s">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>25</x:v>
@@ -16293,10 +16296,10 @@
     </x:row>
     <x:row r="205" spans="1:22">
       <x:c r="A205" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>25</x:v>
@@ -16361,10 +16364,10 @@
     </x:row>
     <x:row r="206" spans="1:22">
       <x:c r="A206" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>25</x:v>
@@ -16429,10 +16432,10 @@
     </x:row>
     <x:row r="207" spans="1:22">
       <x:c r="A207" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>25</x:v>
@@ -16497,10 +16500,10 @@
     </x:row>
     <x:row r="208" spans="1:22">
       <x:c r="A208" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>24</x:v>
@@ -16560,15 +16563,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V208" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:22">
       <x:c r="A209" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>32</x:v>
@@ -16633,10 +16636,10 @@
     </x:row>
     <x:row r="210" spans="1:22">
       <x:c r="A210" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>24</x:v>
@@ -16672,10 +16675,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N210" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="O210" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P210" s="0" t="s">
         <x:v>45</x:v>
@@ -16696,15 +16699,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V210" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:22">
       <x:c r="A211" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>24</x:v>
@@ -16764,15 +16767,15 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="V211" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>538</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
       <x:c r="A212" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>25</x:v>
@@ -16837,10 +16840,10 @@
     </x:row>
     <x:row r="213" spans="1:22">
       <x:c r="A213" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>25</x:v>
@@ -16905,10 +16908,10 @@
     </x:row>
     <x:row r="214" spans="1:22">
       <x:c r="A214" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>25</x:v>
@@ -16973,10 +16976,10 @@
     </x:row>
     <x:row r="215" spans="1:22">
       <x:c r="A215" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
-        <x:v>544</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>25</x:v>
@@ -17041,10 +17044,10 @@
     </x:row>
     <x:row r="216" spans="1:22">
       <x:c r="A216" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>25</x:v>
@@ -17109,10 +17112,10 @@
     </x:row>
     <x:row r="217" spans="1:22">
       <x:c r="A217" s="0" t="s">
-        <x:v>547</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>25</x:v>
@@ -17177,10 +17180,10 @@
     </x:row>
     <x:row r="218" spans="1:22">
       <x:c r="A218" s="0" t="s">
-        <x:v>549</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>25</x:v>
@@ -17222,7 +17225,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P218" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q218" s="0" t="s">
         <x:v>24</x:v>
@@ -17240,15 +17243,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V218" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
-        <x:v>551</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
-        <x:v>552</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17313,10 +17316,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
-        <x:v>553</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
-        <x:v>554</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17381,10 +17384,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
-        <x:v>555</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>54</x:v>
@@ -17426,7 +17429,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P221" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="Q221" s="0" t="s">
         <x:v>24</x:v>
@@ -17444,15 +17447,15 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>558</x:v>
+        <x:v>560</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
-        <x:v>560</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17517,10 +17520,10 @@
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
-        <x:v>561</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
-        <x:v>562</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>25</x:v>
@@ -17585,10 +17588,10 @@
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
-        <x:v>563</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
-        <x:v>564</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -17653,10 +17656,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
-        <x:v>566</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -17721,10 +17724,10 @@
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
-        <x:v>567</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
-        <x:v>568</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -17789,10 +17792,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
-        <x:v>569</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -17857,10 +17860,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
-        <x:v>572</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>25</x:v>
@@ -17925,10 +17928,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -17993,10 +17996,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
-        <x:v>575</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18061,10 +18064,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18129,10 +18132,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18197,10 +18200,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
-        <x:v>581</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18265,10 +18268,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18333,10 +18336,10 @@
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>25</x:v>
@@ -18401,10 +18404,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
-        <x:v>588</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>25</x:v>
@@ -18469,10 +18472,10 @@
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
-        <x:v>589</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>25</x:v>
@@ -18537,10 +18540,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
-        <x:v>591</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
-        <x:v>592</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>25</x:v>
@@ -18605,10 +18608,10 @@
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
-        <x:v>594</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>25</x:v>
@@ -18673,10 +18676,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
-        <x:v>595</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>25</x:v>
@@ -18741,10 +18744,10 @@
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
-        <x:v>598</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>45</x:v>
@@ -18804,15 +18807,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>601</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
-        <x:v>601</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>25</x:v>
@@ -18877,10 +18880,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
-        <x:v>603</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>25</x:v>
@@ -18945,10 +18948,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
-        <x:v>604</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>25</x:v>
@@ -19013,10 +19016,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>24</x:v>
@@ -19081,10 +19084,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
-        <x:v>608</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
-        <x:v>609</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>25</x:v>
@@ -19149,10 +19152,10 @@
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>24</x:v>
@@ -19217,10 +19220,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
-        <x:v>612</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
-        <x:v>613</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>28</x:v>
@@ -19285,10 +19288,10 @@
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
-        <x:v>614</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>25</x:v>
@@ -19353,10 +19356,10 @@
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
-        <x:v>617</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19421,10 +19424,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>25</x:v>
@@ -19489,10 +19492,10 @@
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
-        <x:v>620</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>25</x:v>
@@ -19557,10 +19560,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>25</x:v>
@@ -19625,10 +19628,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
-        <x:v>624</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>25</x:v>
@@ -19693,10 +19696,10 @@
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>25</x:v>
@@ -19756,15 +19759,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V255" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>24</x:v>
@@ -19824,15 +19827,15 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="V256" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>25</x:v>
@@ -19897,10 +19900,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>25</x:v>
@@ -19965,10 +19968,10 @@
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
-        <x:v>637</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>25</x:v>
@@ -20033,10 +20036,10 @@
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>25</x:v>
@@ -20101,10 +20104,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>25</x:v>
@@ -20169,10 +20172,10 @@
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
-        <x:v>643</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>24</x:v>
@@ -20232,15 +20235,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V262" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20305,10 +20308,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20368,15 +20371,15 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="V264" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20441,10 +20444,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>25</x:v>
@@ -20509,10 +20512,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20577,10 +20580,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>25</x:v>
@@ -20645,10 +20648,10 @@
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -20713,10 +20716,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -20781,10 +20784,10 @@
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -20849,10 +20852,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -20917,10 +20920,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -20980,15 +20983,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V273" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21053,10 +21056,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21121,10 +21124,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21189,10 +21192,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21257,10 +21260,10 @@
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
-        <x:v>677</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2024.xlsx
@@ -673,7 +673,7 @@
     <x:t>Hennepin County Sheriff</x:t>
   </x:si>
   <x:si>
-    <x:t>122</x:t>
+    <x:t>123</x:t>
   </x:si>
   <x:si>
     <x:t>MN0270100</x:t>
@@ -1015,10 +1015,7 @@
     <x:t>Willmar Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
+    <x:t>116</x:t>
   </x:si>
   <x:si>
     <x:t>MN0350000</x:t>
@@ -1108,183 +1105,183 @@
     <x:t>McLeod County Sheriff</x:t>
   </x:si>
   <x:si>
+    <x:t>MN0430100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glencoe Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hutchinson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winsted Lester Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0440000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fairmont Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburn Welcome Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Litchfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eden Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Milaca Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Princeton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isle Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Little Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0500100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Austin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0510000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0510200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Slayton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Mankato Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Peter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0530000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0530100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Worthington Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0540000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0550000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0550100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rochester Police Dept</x:t>
+  </x:si>
+  <x:si>
     <x:t>37</x:t>
   </x:si>
   <x:si>
-    <x:t>MN0430100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glencoe Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hutchinson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winsted Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0440000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fairmont Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburn Welcome Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Litchfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eden Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Milaca Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Princeton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isle Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Little Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0500000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0500100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Austin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0510000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0510200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Slayton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Mankato Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Peter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0530000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0530100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Worthington Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0540000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0550000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0550100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rochester Police Dept</x:t>
-  </x:si>
-  <x:si>
     <x:t>323</x:t>
   </x:si>
   <x:si>
@@ -1531,7 +1528,7 @@
     <x:t>60</x:t>
   </x:si>
   <x:si>
-    <x:t>141</x:t>
+    <x:t>143</x:t>
   </x:si>
   <x:si>
     <x:t>MN0690700</x:t>
@@ -1621,289 +1618,289 @@
     <x:t>Prior Lake Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>MN0710000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburne County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Big Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elk River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0720000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sibley County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0720200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gaylord Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0720600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winthrop Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stearns County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cold Spring / Richmond Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Melrose Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Cloud Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waite Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0731100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Joseph Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0731200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sartell Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0731600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Avon Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0740000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steele County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0740100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Owatonna Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0750000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stevens County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0760100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Appleton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0760200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0770000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Todd County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0770100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Long Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0770200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Staples Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0790100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake City Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0790300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wabasha Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0800000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wadena County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0800100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wadena Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0810000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waseca County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0810200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Richland Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0810300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waseca Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Washington County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bayport Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Forest Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Paul Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stillwater Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottage Grove Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oakdale Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0821100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Woodbury Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0821400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oak Park Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0830000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Watonwan County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0830200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St James Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0840000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wilkin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0840100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breckenridge Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0850000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winona County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0850200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winona Police Dept</x:t>
+  </x:si>
+  <x:si>
     <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburne County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Big Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elk River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0720000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sibley County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0720200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gaylord Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0720600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winthrop Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stearns County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cold Spring / Richmond Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Melrose Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Cloud Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waite Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0731100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Joseph Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0731200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sartell Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0731600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Avon Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0740000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Steele County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0740100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Owatonna Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0750000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stevens County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0760100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Appleton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0760200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0770000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Todd County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0770100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Long Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0770200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Staples Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0790100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake City Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0790300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wabasha Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0800000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wadena County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0800100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wadena Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0810000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waseca County Sheriff</x:t>
-  </x:si>